--- a/BUDGET/excel_reports/SAOB_NEW2.xlsx
+++ b/BUDGET/excel_reports/SAOB_NEW2.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="556">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -1021,6 +1021,618 @@
     <t>TOTAL 2019 PS</t>
   </si>
   <si>
+    <t>2019 MAINTENANCE AND OTHER OPERATING EXPENSES</t>
+  </si>
+  <si>
+    <t>SUPPORT TO OPERATION - MAINTENANCE AND OTHER OPERATING EXPENSES</t>
+  </si>
+  <si>
+    <t>TRAVEL EXPENSES-LOCAL</t>
+  </si>
+  <si>
+    <t>TELEPHONE- MOBILE</t>
+  </si>
+  <si>
+    <t>INTERNET SUBSCRIPTION EXPENSES</t>
+  </si>
+  <si>
+    <t>TAXES, DUTIES AND LICENSES</t>
+  </si>
+  <si>
+    <t>INSURANCE EXPENSES</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SUPPORT TO OPERATION - MAINTENANCE AND OTHER OPERATING EXPENSES - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>310100100003000</t>
+  </si>
+  <si>
+    <t>HEALTH SECTOR RESEARCH DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>SUBTOTAL HEALTH SECTOR RESEARCH DEVELOPMENT - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>310201100003000</t>
+  </si>
+  <si>
+    <t>LOCAL HEALTH SYSTEMS DEVELOPMENT AND ASSISTANCE</t>
+  </si>
+  <si>
+    <t>FINANCIAL ASSISTANCE TO LGU</t>
+  </si>
+  <si>
+    <t>SUBTOTAL LOCAL HEALTH SYSTEMS DEVELOPMENT AND ASSISTANCE - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>310202100001000</t>
+  </si>
+  <si>
+    <t>HRH DEPLOYMENT</t>
+  </si>
+  <si>
+    <t>OTHER PROFESSIONAL SERVICES</t>
+  </si>
+  <si>
+    <t>SUBTOTAL HRH DEPLOYMENT - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>310202100002000</t>
+  </si>
+  <si>
+    <t>HRH AND INSTITUTIONAL CAPACITY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>TRAINING EXPENSES</t>
+  </si>
+  <si>
+    <t>SUBTOTAL HRH AND INSTITUTIONAL CAPACITY MANAGEMENT - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>310203100001000</t>
+  </si>
+  <si>
+    <t>SUBTOTAL HEALTH PROMOTION - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>PUBLIC HEALTH MANAGEMENT - MAINTENANCE AND OTHER OPERATING EXPENSES</t>
+  </si>
+  <si>
+    <t>REPRESENTATION EXPENSES</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION AND DELIVERY EXPENSES</t>
+  </si>
+  <si>
+    <t>SUBTOTAL PUBLIC HEALTH MANAGEMENT - MAINTENANCE AND OTHER OPERATING EXPENSES - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>310400100001000</t>
+  </si>
+  <si>
+    <t>SUBTOTAL EPIDEMIOLOGY AND SURVEILLANCE - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>310500100001000</t>
+  </si>
+  <si>
+    <t>SUBTOTAL HEALTH EMERGENCY PREPAREDNESS AND RESPONSE - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - MAINTENANCE AND OTHER OPERATING EXPENSES</t>
+  </si>
+  <si>
+    <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - MAINTENANCE AND OTHER OPERATING EXPENSES - 2019 MOOE</t>
+  </si>
+  <si>
+    <t>TOTAL 2019 MOOE</t>
+  </si>
+  <si>
+    <t>SUB-ALLOTMENT-2019 MOOE</t>
+  </si>
+  <si>
+    <t>320101100001000</t>
+  </si>
+  <si>
+    <t>SAA# 2019-01-0016</t>
+  </si>
+  <si>
+    <t>NVBSP - support to the implementation of Activities Relative to the National Voluntary Blood Service Program</t>
+  </si>
+  <si>
+    <t>SUBSIDY TO REGIONAL OFFICES/STAFF BUREAUS</t>
+  </si>
+  <si>
+    <t>5021407000</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2019-01-0016</t>
+  </si>
+  <si>
+    <t>2018 MAINTENANCE AND OTHER OPERATING EXPENSES CONAP</t>
+  </si>
+  <si>
+    <t>SUPPORT TO OPERATIONS - REGIONAL OFFICE - PERSONNEL SERVICES</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SUPPORT TO OPERATIONS - REGIONAL OFFICE - PERSONNEL SERVICES - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>2018 HEALTH SECTOR RESEARCH DEVELOPMENT AND ASSISTANCE CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 HEALTH SECTOR RESEARCH DEVELOPMENT AND ASSISTANCE CONAP - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>2018 LOCAL HEALTH SYSTEMS DEVELOPMENT AND ASSISTANCE CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 LOCAL HEALTH SYSTEMS DEVELOPMENT AND ASSISTANCE CONAP - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>2018 HRH - DEPLOYMENT CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 HRH - DEPLOYMENT CONAP - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>2018 HEALTH PROMOTION CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 HEALTH PROMOTION CONAP - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>PUBLIC HEALTH MANAGEMENT - PERSONNEL SERVICES</t>
+  </si>
+  <si>
+    <t>SUBTOTAL PUBLIC HEALTH MANAGEMENT - PERSONNEL SERVICES - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>2018 PUBLIC HEALTH MANAGEMENT CONAP</t>
+  </si>
+  <si>
+    <t>OFFICE SUPPLIES EXPENSES</t>
+  </si>
+  <si>
+    <t>SEMI-EXPENDABLE - INFORMATION AND COMMUNICATION TECHNOLOGY EQUIPMENT</t>
+  </si>
+  <si>
+    <t>ELECTRICITY EXPENSES</t>
+  </si>
+  <si>
+    <t>POSTAGE AND COURIER SERVICES</t>
+  </si>
+  <si>
+    <t>TELEPHONE- LANDLINE</t>
+  </si>
+  <si>
+    <t>RM - BUILDINGS</t>
+  </si>
+  <si>
+    <t>RM - FURNITURE AND FIXTURES</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 PUBLIC HEALTH MANAGEMENT CONAP - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>2018 EPIDEMIOLOGY AND SURVEILLANCE CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 EPIDEMIOLOGY AND SURVEILLANCE CONAP - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>2018 HEALTH EMERGENCY PREPAREDNESS AND RESPONSE CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 HEALTH EMERGENCY PREPAREDNESS AND RESPONSE CONAP - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES  CONAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBTOTAL 2018 REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES  CONAP - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - PERSONNEL SERVICES</t>
+  </si>
+  <si>
+    <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - PERSONNEL SERVICES - 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>TOTAL 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>SUB-ALLOTMENT-2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>100000100001000</t>
+  </si>
+  <si>
+    <t>SAA# 2018-08-1309 CONAP</t>
+  </si>
+  <si>
+    <t>FINANCIAL ASSISTANCE TO NGAS</t>
+  </si>
+  <si>
+    <t>5021402000</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-08-1309 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-10-1651 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-10-1651 CONAP</t>
+  </si>
+  <si>
+    <t>200000000001000</t>
+  </si>
+  <si>
+    <t>SAA# 2018-02-0059 CONAP</t>
+  </si>
+  <si>
+    <t>5020201002</t>
+  </si>
+  <si>
+    <t>5029903000</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-02-0059 CONAP</t>
+  </si>
+  <si>
+    <t>310201100001000</t>
+  </si>
+  <si>
+    <t>SAA# 2018-02-0203 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA 2018-02-0203 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0519 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-03-0519 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-04-0657 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-04-0657 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0483 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-03-0483 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0309 CONAP</t>
+  </si>
+  <si>
+    <t>5020101000</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-03-0309 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0293 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-03-0293 CONAP</t>
+  </si>
+  <si>
+    <t>310201100004000</t>
+  </si>
+  <si>
+    <t>SAA# 2018-04-0699 CONAP</t>
+  </si>
+  <si>
+    <t>PHARMA - Implementation of Different Pharmaceutical Division Programs and Activities</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-04-0699 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-0845 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-0845 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-0828 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-0828 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-07-1207 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-07-1207 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-07-1251 CONAP</t>
+  </si>
+  <si>
+    <t>SUBSIDY- OTHERS</t>
+  </si>
+  <si>
+    <t>5021499000</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-07-1251 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-0890 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-0890 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-08-1347 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-08-1347 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-08-1357 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-08-1357 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-09-1542 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-09-1542 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-06-1162 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-06-1162 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-10-1599 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-10-1599 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-10-1605 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-10-1605 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-10-1632 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-10-1632 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-0869 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-0869 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-0880 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-0880 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-0987 CONAP</t>
+  </si>
+  <si>
+    <t>PHM - Support to Schistosomiasis Control and Elimination Program Implementation</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-0987 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-1019 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-1019 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-10-1662 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-10-1662 CONAP</t>
+  </si>
+  <si>
+    <t>310304100001000</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-1002 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-1002 CONAP</t>
+  </si>
+  <si>
+    <t>310305100002000</t>
+  </si>
+  <si>
+    <t>SAA# 2018-09-1572 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-09-1572 CONAP</t>
+  </si>
+  <si>
+    <t>310306100001000</t>
+  </si>
+  <si>
+    <t>SAA# 2018-10-1641 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-10-1641 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-11-1727 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-11-1727 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0537 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-03-0537 CONAP</t>
+  </si>
+  <si>
+    <t>320102100001000</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0528 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-03-0528 CONAP</t>
+  </si>
+  <si>
+    <t>340100100001000</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0455 CONAP</t>
+  </si>
+  <si>
+    <t>5021403000</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-03-0455 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-03-0648 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-03-0648 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-02-0090 CONAP</t>
+  </si>
+  <si>
+    <t>Assistance to Indigent - Medical Assistance to the patients recipient of Dengvaxia Vaccine</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-02-0090 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-06-1037 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-06-1037 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-06-1089 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-06-1089 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-0973 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-0973 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-09-1576 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-09-1576 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-08-1302 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-08-1302 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-08-1399 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-08-1399 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-08-1354 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-08-1354 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-12-1814 CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-12-1814 CONAP</t>
+  </si>
+  <si>
+    <t>2018 CAPITAL OUTLAY CONAP</t>
+  </si>
+  <si>
+    <t>310201100002000</t>
+  </si>
+  <si>
+    <t>2018 GAA CO - BHS</t>
+  </si>
+  <si>
+    <t>HOSPITALS AND HEALTH CENTERS</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 GAA CO - BHS - 2018 CO CONAP</t>
+  </si>
+  <si>
+    <t>2018 GAA CO RHU</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 GAA CO RHU - 2018 CO CONAP</t>
+  </si>
+  <si>
+    <t>2018 GAA CO EQUIPMENT CONAP</t>
+  </si>
+  <si>
+    <t>SUBTOTAL 2018 GAA CO EQUIPMENT CONAP - 2018 CO CONAP</t>
+  </si>
+  <si>
+    <t>TOTAL 2018 CO CONAP</t>
+  </si>
+  <si>
+    <t>SUB-ALLOTMENT-2018 CO CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-05-1013 CONAP</t>
+  </si>
+  <si>
+    <t>HISDev - Procurement of ICT Resources</t>
+  </si>
+  <si>
+    <t>INFORMATION AND COMMUNICATION TECHNOLOGY EQUIPMENT</t>
+  </si>
+  <si>
+    <t>5060405003</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-05-1013 CONAP</t>
+  </si>
+  <si>
+    <t>SAA# 2018-09-1504 CONAP</t>
+  </si>
+  <si>
+    <t>HFEP - Establishment of DOH Water Testing Laboratory</t>
+  </si>
+  <si>
+    <t>5060404003</t>
+  </si>
+  <si>
+    <t>5060405011</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA# 2018-09-1504 CONAP</t>
+  </si>
+  <si>
     <t>TEST ALLOTMENT</t>
   </si>
   <si>
@@ -1051,6 +1663,30 @@
     <t>19,586,474.98</t>
   </si>
   <si>
+    <t>253,202,250.00</t>
+  </si>
+  <si>
+    <t>3,967,373.86</t>
+  </si>
+  <si>
+    <t>249,234,876.14</t>
+  </si>
+  <si>
+    <t>77,934,764.40</t>
+  </si>
+  <si>
+    <t>1,070,884.40</t>
+  </si>
+  <si>
+    <t>76,863,880.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>69,695,078.64</t>
+  </si>
+  <si>
     <t>50,000.00</t>
   </si>
   <si>
@@ -1058,6 +1694,33 @@
   </si>
   <si>
     <t>103,000.00</t>
+  </si>
+  <si>
+    <t>TOTAL SAA 2019 MOOE</t>
+  </si>
+  <si>
+    <t>1,000,000.00</t>
+  </si>
+  <si>
+    <t>TOTAL SAA 2018 MOOE CONAP</t>
+  </si>
+  <si>
+    <t>25,059,224.69</t>
+  </si>
+  <si>
+    <t>5,478,265.37</t>
+  </si>
+  <si>
+    <t>19,580,959.32</t>
+  </si>
+  <si>
+    <t>TOTAL SAA 2018 CO CONAP</t>
+  </si>
+  <si>
+    <t>28,406,485.03</t>
+  </si>
+  <si>
+    <t>22,928,219.66</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1734,7 @@
     <numFmt numFmtId="166" formatCode="#0.00%"/>
     <numFmt numFmtId="167" formatCode="(#,##0.00)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,6 +1843,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1464,7 +2133,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -1915,10 +2584,10 @@
     <xf numFmtId="167" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
@@ -1929,6 +2598,9 @@
     </xf>
     <xf numFmtId="166" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2456,7 +3128,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TH65"/>
+  <dimension ref="A1:TH474"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="14" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
@@ -13188,64 +13860,68 @@
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="K55" s="178">
-        <v>5010101001</v>
-      </c>
-      <c r="M55" s="180"/>
+        <v>5020101000</v>
+      </c>
+      <c r="M55" s="180">
+        <v>4121750</v>
+      </c>
       <c r="N55" s="180"/>
-      <c r="P55" s="179"/>
+      <c r="P55" s="180">
+        <v>4121750</v>
+      </c>
       <c r="Q55" s="180"/>
-      <c r="R55" s="179"/>
-      <c r="S55" s="179"/>
+      <c r="R55" s="180">
+        <v>2135</v>
+      </c>
+      <c r="S55" s="180">
+        <v>4119615</v>
+      </c>
       <c r="T55" s="181">
-        <v/>
+        <v>0</v>
       </c>
       <c r="U55" s="180"/>
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K56" s="178">
-        <v>5010102000</v>
+        <v>5020502001</v>
       </c>
       <c r="M56" s="180"/>
-      <c r="N56" s="180">
-        <v>2000</v>
-      </c>
-      <c r="P56" s="180">
-        <v>2000</v>
-      </c>
+      <c r="N56" s="180"/>
+      <c r="P56" s="179"/>
       <c r="Q56" s="180"/>
       <c r="R56" s="180">
-        <v>50000</v>
+        <v>3500</v>
       </c>
       <c r="S56" s="191">
-        <v>48000</v>
+        <v>3500</v>
       </c>
       <c r="T56" s="181">
-        <v>0</v>
+        <v/>
       </c>
       <c r="U56" s="180"/>
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="K57" s="178">
-        <v>5010201001</v>
+        <v>5020503000</v>
       </c>
       <c r="M57" s="180"/>
       <c r="N57" s="180"/>
       <c r="P57" s="179"/>
       <c r="Q57" s="180"/>
       <c r="R57" s="180">
-        <v>50000</v>
+        <v>5677</v>
       </c>
       <c r="S57" s="191">
-        <v>50000</v>
+        <v>5677</v>
       </c>
       <c r="T57" s="181">
         <v/>
@@ -13254,49 +13930,43 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="K58" s="178">
-        <v>5010202000</v>
-      </c>
-      <c r="M58" s="180">
-        <v>50000</v>
-      </c>
-      <c r="N58" s="191">
-        <v>2000</v>
-      </c>
-      <c r="P58" s="180">
-        <v>48000</v>
-      </c>
-      <c r="Q58" s="180">
-        <v>3000</v>
-      </c>
+        <v>5021501001</v>
+      </c>
+      <c r="M58" s="180"/>
+      <c r="N58" s="180"/>
+      <c r="P58" s="179"/>
+      <c r="Q58" s="180"/>
       <c r="R58" s="180">
-        <v>3000</v>
-      </c>
-      <c r="S58" s="180">
-        <v>45000</v>
+        <v>431.56</v>
+      </c>
+      <c r="S58" s="191">
+        <v>431.56</v>
       </c>
       <c r="T58" s="181">
-        <v>0.0625</v>
-      </c>
-      <c r="U58" s="180">
-        <v>3000</v>
-      </c>
+        <v/>
+      </c>
+      <c r="U58" s="180"/>
     </row>
     <row r="59">
       <c r="C59" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K59" s="178">
-        <v>5010204001</v>
+        <v>5021503000</v>
       </c>
       <c r="M59" s="180"/>
       <c r="N59" s="180"/>
       <c r="P59" s="179"/>
       <c r="Q59" s="180"/>
-      <c r="R59" s="179"/>
-      <c r="S59" s="179"/>
+      <c r="R59" s="180">
+        <v>13134.119999999999</v>
+      </c>
+      <c r="S59" s="191">
+        <v>13134.119999999999</v>
+      </c>
       <c r="T59" s="181">
         <v/>
       </c>
@@ -13304,108 +13974,6589 @@
     </row>
     <row r="60">
       <c r="C60" s="187" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M60" s="189">
-        <v>50000</v>
-      </c>
-      <c r="P60" s="189">
-        <v>3000</v>
-      </c>
+        <v>4121750</v>
+      </c>
+      <c r="P60" s="189"/>
       <c r="Q60" s="188"/>
       <c r="R60" s="189">
+        <v>24877.68</v>
+      </c>
+      <c r="S60" s="189">
+        <v>4096872.32</v>
+      </c>
+      <c r="T60" s="190">
+        <v>0</v>
+      </c>
+      <c r="U60" s="189"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="187" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K63" s="178">
+        <v>5020101000</v>
+      </c>
+      <c r="M63" s="180">
+        <v>340250</v>
+      </c>
+      <c r="N63" s="180"/>
+      <c r="P63" s="180">
+        <v>340250</v>
+      </c>
+      <c r="Q63" s="180"/>
+      <c r="R63" s="179"/>
+      <c r="S63" s="180">
+        <v>340250</v>
+      </c>
+      <c r="T63" s="181">
+        <v>0</v>
+      </c>
+      <c r="U63" s="180"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="187" t="s">
+        <v>332</v>
+      </c>
+      <c r="M64" s="189">
+        <v>340250</v>
+      </c>
+      <c r="P64" s="189"/>
+      <c r="Q64" s="188"/>
+      <c r="R64" s="188"/>
+      <c r="S64" s="189">
+        <v>340250</v>
+      </c>
+      <c r="T64" s="190">
+        <v>0</v>
+      </c>
+      <c r="U64" s="189"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="187" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="K67" s="178">
+        <v>5021403000</v>
+      </c>
+      <c r="M67" s="180">
+        <v>4525000</v>
+      </c>
+      <c r="N67" s="180"/>
+      <c r="P67" s="180">
+        <v>4525000</v>
+      </c>
+      <c r="Q67" s="180"/>
+      <c r="R67" s="179"/>
+      <c r="S67" s="180">
+        <v>4525000</v>
+      </c>
+      <c r="T67" s="181">
+        <v>0</v>
+      </c>
+      <c r="U67" s="180"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="187" t="s">
+        <v>336</v>
+      </c>
+      <c r="M68" s="189">
+        <v>4525000</v>
+      </c>
+      <c r="P68" s="189"/>
+      <c r="Q68" s="188"/>
+      <c r="R68" s="188"/>
+      <c r="S68" s="189">
+        <v>4525000</v>
+      </c>
+      <c r="T68" s="190">
+        <v>0</v>
+      </c>
+      <c r="U68" s="189"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="187" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="K71" s="178">
+        <v>5021199000</v>
+      </c>
+      <c r="M71" s="180">
+        <v>192296000</v>
+      </c>
+      <c r="N71" s="180"/>
+      <c r="P71" s="180">
+        <v>192296000</v>
+      </c>
+      <c r="Q71" s="180"/>
+      <c r="R71" s="179"/>
+      <c r="S71" s="180">
+        <v>192296000</v>
+      </c>
+      <c r="T71" s="181">
+        <v>0</v>
+      </c>
+      <c r="U71" s="180"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="187" t="s">
+        <v>340</v>
+      </c>
+      <c r="M72" s="189">
+        <v>192296000</v>
+      </c>
+      <c r="P72" s="189"/>
+      <c r="Q72" s="188"/>
+      <c r="R72" s="188"/>
+      <c r="S72" s="189">
+        <v>192296000</v>
+      </c>
+      <c r="T72" s="190">
+        <v>0</v>
+      </c>
+      <c r="U72" s="189"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="187" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K75" s="178">
+        <v>5020101000</v>
+      </c>
+      <c r="M75" s="180"/>
+      <c r="N75" s="180"/>
+      <c r="P75" s="179"/>
+      <c r="Q75" s="180"/>
+      <c r="R75" s="180">
+        <v>12705.64</v>
+      </c>
+      <c r="S75" s="191">
+        <v>12705.64</v>
+      </c>
+      <c r="T75" s="181">
+        <v/>
+      </c>
+      <c r="U75" s="180"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K76" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M76" s="180">
+        <v>1144000</v>
+      </c>
+      <c r="N76" s="180"/>
+      <c r="P76" s="180">
+        <v>1144000</v>
+      </c>
+      <c r="Q76" s="180"/>
+      <c r="R76" s="180">
+        <v>75600</v>
+      </c>
+      <c r="S76" s="180">
+        <v>1068400</v>
+      </c>
+      <c r="T76" s="181">
+        <v>0</v>
+      </c>
+      <c r="U76" s="180"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="187" t="s">
+        <v>344</v>
+      </c>
+      <c r="M77" s="189">
+        <v>1144000</v>
+      </c>
+      <c r="P77" s="189"/>
+      <c r="Q77" s="188"/>
+      <c r="R77" s="189">
+        <v>88305.64</v>
+      </c>
+      <c r="S77" s="189">
+        <v>1055694.36</v>
+      </c>
+      <c r="T77" s="190">
+        <v>0</v>
+      </c>
+      <c r="U77" s="189"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="187" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K80" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M80" s="180">
+        <v>1906750</v>
+      </c>
+      <c r="N80" s="180"/>
+      <c r="P80" s="180">
+        <v>1906750</v>
+      </c>
+      <c r="Q80" s="180"/>
+      <c r="R80" s="179"/>
+      <c r="S80" s="180">
+        <v>1906750</v>
+      </c>
+      <c r="T80" s="181">
+        <v>0</v>
+      </c>
+      <c r="U80" s="180"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="187" t="s">
+        <v>346</v>
+      </c>
+      <c r="M81" s="189">
+        <v>1906750</v>
+      </c>
+      <c r="P81" s="189"/>
+      <c r="Q81" s="188"/>
+      <c r="R81" s="188"/>
+      <c r="S81" s="189">
+        <v>1906750</v>
+      </c>
+      <c r="T81" s="190">
+        <v>0</v>
+      </c>
+      <c r="U81" s="189"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="187" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K84" s="178">
+        <v>5020101000</v>
+      </c>
+      <c r="M84" s="180">
+        <v>45164500</v>
+      </c>
+      <c r="N84" s="180"/>
+      <c r="P84" s="180">
+        <v>45164500</v>
+      </c>
+      <c r="Q84" s="180"/>
+      <c r="R84" s="180">
+        <v>2160</v>
+      </c>
+      <c r="S84" s="180">
+        <v>45162340</v>
+      </c>
+      <c r="T84" s="181">
+        <v>0</v>
+      </c>
+      <c r="U84" s="180"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K85" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M85" s="180"/>
+      <c r="N85" s="180"/>
+      <c r="P85" s="179"/>
+      <c r="Q85" s="180"/>
+      <c r="R85" s="180">
+        <v>22500</v>
+      </c>
+      <c r="S85" s="191">
+        <v>22500</v>
+      </c>
+      <c r="T85" s="181">
+        <v/>
+      </c>
+      <c r="U85" s="180"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="K86" s="178">
+        <v>5020502001</v>
+      </c>
+      <c r="M86" s="180"/>
+      <c r="N86" s="180"/>
+      <c r="P86" s="179"/>
+      <c r="Q86" s="180"/>
+      <c r="R86" s="180">
+        <v>11097.24</v>
+      </c>
+      <c r="S86" s="191">
+        <v>11097.24</v>
+      </c>
+      <c r="T86" s="181">
+        <v/>
+      </c>
+      <c r="U86" s="180"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="K87" s="178">
+        <v>5020503000</v>
+      </c>
+      <c r="M87" s="180"/>
+      <c r="N87" s="180"/>
+      <c r="P87" s="179"/>
+      <c r="Q87" s="180"/>
+      <c r="R87" s="180">
+        <v>9753.3</v>
+      </c>
+      <c r="S87" s="191">
+        <v>9753.3</v>
+      </c>
+      <c r="T87" s="181">
+        <v/>
+      </c>
+      <c r="U87" s="180"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K88" s="178">
+        <v>5029903000</v>
+      </c>
+      <c r="M88" s="180"/>
+      <c r="N88" s="180"/>
+      <c r="P88" s="179"/>
+      <c r="Q88" s="180"/>
+      <c r="R88" s="179"/>
+      <c r="S88" s="179"/>
+      <c r="T88" s="181">
+        <v/>
+      </c>
+      <c r="U88" s="180"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="K89" s="178">
+        <v>5029904000</v>
+      </c>
+      <c r="M89" s="180"/>
+      <c r="N89" s="180"/>
+      <c r="P89" s="179"/>
+      <c r="Q89" s="180"/>
+      <c r="R89" s="180">
+        <v>3800000</v>
+      </c>
+      <c r="S89" s="191">
+        <v>3800000</v>
+      </c>
+      <c r="T89" s="181">
+        <v/>
+      </c>
+      <c r="U89" s="180"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="187" t="s">
+        <v>350</v>
+      </c>
+      <c r="M90" s="189">
+        <v>45164500</v>
+      </c>
+      <c r="P90" s="189"/>
+      <c r="Q90" s="188"/>
+      <c r="R90" s="189">
+        <v>3845510.54</v>
+      </c>
+      <c r="S90" s="189">
+        <v>41318989.46</v>
+      </c>
+      <c r="T90" s="190">
+        <v>0</v>
+      </c>
+      <c r="U90" s="189"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="187" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K93" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M93" s="180">
+        <v>299750</v>
+      </c>
+      <c r="N93" s="180"/>
+      <c r="P93" s="180">
+        <v>299750</v>
+      </c>
+      <c r="Q93" s="180"/>
+      <c r="R93" s="179"/>
+      <c r="S93" s="180">
+        <v>299750</v>
+      </c>
+      <c r="T93" s="181">
+        <v>0</v>
+      </c>
+      <c r="U93" s="180"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="187" t="s">
+        <v>352</v>
+      </c>
+      <c r="M94" s="189">
+        <v>299750</v>
+      </c>
+      <c r="P94" s="189"/>
+      <c r="Q94" s="188"/>
+      <c r="R94" s="188"/>
+      <c r="S94" s="189">
+        <v>299750</v>
+      </c>
+      <c r="T94" s="190">
+        <v>0</v>
+      </c>
+      <c r="U94" s="189"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="187" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K97" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M97" s="180">
+        <v>1906750</v>
+      </c>
+      <c r="N97" s="180"/>
+      <c r="P97" s="180">
+        <v>1906750</v>
+      </c>
+      <c r="Q97" s="180"/>
+      <c r="R97" s="179"/>
+      <c r="S97" s="180">
+        <v>1906750</v>
+      </c>
+      <c r="T97" s="181">
+        <v>0</v>
+      </c>
+      <c r="U97" s="180"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="M98" s="189">
+        <v>1906750</v>
+      </c>
+      <c r="P98" s="189"/>
+      <c r="Q98" s="188"/>
+      <c r="R98" s="188"/>
+      <c r="S98" s="189">
+        <v>1906750</v>
+      </c>
+      <c r="T98" s="190">
+        <v>0</v>
+      </c>
+      <c r="U98" s="189"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="187" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K101" s="178">
+        <v>5020101000</v>
+      </c>
+      <c r="M101" s="180">
+        <v>1497500</v>
+      </c>
+      <c r="N101" s="180"/>
+      <c r="P101" s="180">
+        <v>1497500</v>
+      </c>
+      <c r="Q101" s="180"/>
+      <c r="R101" s="180">
+        <v>5680</v>
+      </c>
+      <c r="S101" s="180">
+        <v>1491820</v>
+      </c>
+      <c r="T101" s="181">
+        <v>0</v>
+      </c>
+      <c r="U101" s="180"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="K102" s="178">
+        <v>5020502001</v>
+      </c>
+      <c r="M102" s="180"/>
+      <c r="N102" s="180"/>
+      <c r="P102" s="179"/>
+      <c r="Q102" s="180"/>
+      <c r="R102" s="180">
+        <v>3000</v>
+      </c>
+      <c r="S102" s="191">
+        <v>3000</v>
+      </c>
+      <c r="T102" s="181">
+        <v/>
+      </c>
+      <c r="U102" s="180"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="187" t="s">
+        <v>356</v>
+      </c>
+      <c r="M103" s="189">
+        <v>1497500</v>
+      </c>
+      <c r="P103" s="189"/>
+      <c r="Q103" s="188"/>
+      <c r="R103" s="189">
+        <v>8680</v>
+      </c>
+      <c r="S103" s="189">
+        <v>1488820</v>
+      </c>
+      <c r="T103" s="190">
+        <v>0</v>
+      </c>
+      <c r="U103" s="189"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="176" t="s">
+        <v>357</v>
+      </c>
+      <c r="M104" s="188">
+        <v>253202250</v>
+      </c>
+      <c r="P104" s="189">
+        <v>253202250</v>
+      </c>
+      <c r="Q104" s="189">
+        <v>0</v>
+      </c>
+      <c r="R104" s="189">
+        <v>3967373.86</v>
+      </c>
+      <c r="S104" s="189">
+        <v>249234876.14000002</v>
+      </c>
+      <c r="T104" s="190">
+        <v>0</v>
+      </c>
+      <c r="U104" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="176" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="192" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="193" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="K110" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="M110" s="180">
+        <v>1000000</v>
+      </c>
+      <c r="N110" s="180">
+        <v>0</v>
+      </c>
+      <c r="P110" s="180">
+        <v>1000000</v>
+      </c>
+      <c r="S110" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="184">
+        <v>1000000</v>
+      </c>
+      <c r="AF110" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="192" t="s">
+        <v>364</v>
+      </c>
+      <c r="M111" s="194">
+        <v>1000000</v>
+      </c>
+      <c r="P111" s="194">
+        <v>1000000</v>
+      </c>
+      <c r="S111" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="195">
+        <v>1000000</v>
+      </c>
+      <c r="AF111" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="176" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="187" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="K115" s="178">
+        <v>5010101001</v>
+      </c>
+      <c r="M115" s="180">
+        <v>12374500</v>
+      </c>
+      <c r="N115" s="180"/>
+      <c r="P115" s="180">
+        <v>12374500</v>
+      </c>
+      <c r="Q115" s="180"/>
+      <c r="R115" s="179"/>
+      <c r="S115" s="180">
+        <v>12374500</v>
+      </c>
+      <c r="T115" s="181">
+        <v>0</v>
+      </c>
+      <c r="U115" s="180"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="K116" s="178">
+        <v>5010201001</v>
+      </c>
+      <c r="M116" s="180">
+        <v>582000</v>
+      </c>
+      <c r="N116" s="180"/>
+      <c r="P116" s="180">
+        <v>582000</v>
+      </c>
+      <c r="Q116" s="180"/>
+      <c r="R116" s="179"/>
+      <c r="S116" s="180">
+        <v>582000</v>
+      </c>
+      <c r="T116" s="181">
+        <v>0</v>
+      </c>
+      <c r="U116" s="180"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K117" s="178">
+        <v>5010202000</v>
+      </c>
+      <c r="M117" s="180">
+        <v>67500</v>
+      </c>
+      <c r="N117" s="180"/>
+      <c r="P117" s="180">
+        <v>67500</v>
+      </c>
+      <c r="Q117" s="180"/>
+      <c r="R117" s="179"/>
+      <c r="S117" s="180">
+        <v>67500</v>
+      </c>
+      <c r="T117" s="181">
+        <v>0</v>
+      </c>
+      <c r="U117" s="180"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K118" s="178">
+        <v>5010203001</v>
+      </c>
+      <c r="M118" s="180">
+        <v>67500</v>
+      </c>
+      <c r="N118" s="180"/>
+      <c r="P118" s="180">
+        <v>67500</v>
+      </c>
+      <c r="Q118" s="180"/>
+      <c r="R118" s="179"/>
+      <c r="S118" s="180">
+        <v>67500</v>
+      </c>
+      <c r="T118" s="181">
+        <v>0</v>
+      </c>
+      <c r="U118" s="180"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="K119" s="178">
+        <v>5010205003</v>
+      </c>
+      <c r="M119" s="180">
+        <v>1279500</v>
+      </c>
+      <c r="N119" s="180"/>
+      <c r="P119" s="180">
+        <v>1279500</v>
+      </c>
+      <c r="Q119" s="180"/>
+      <c r="R119" s="179"/>
+      <c r="S119" s="180">
+        <v>1279500</v>
+      </c>
+      <c r="T119" s="181">
+        <v>0</v>
+      </c>
+      <c r="U119" s="180"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="K120" s="178">
+        <v>5010206004</v>
+      </c>
+      <c r="M120" s="180">
+        <v>86750</v>
+      </c>
+      <c r="N120" s="180"/>
+      <c r="P120" s="180">
+        <v>86750</v>
+      </c>
+      <c r="Q120" s="180"/>
+      <c r="R120" s="179"/>
+      <c r="S120" s="180">
+        <v>86750</v>
+      </c>
+      <c r="T120" s="181">
+        <v>0</v>
+      </c>
+      <c r="U120" s="180"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K121" s="178">
+        <v>5010211005</v>
+      </c>
+      <c r="M121" s="180">
+        <v>3849000</v>
+      </c>
+      <c r="N121" s="180"/>
+      <c r="P121" s="180">
+        <v>3849000</v>
+      </c>
+      <c r="Q121" s="180"/>
+      <c r="R121" s="179"/>
+      <c r="S121" s="180">
+        <v>3849000</v>
+      </c>
+      <c r="T121" s="181">
+        <v>0</v>
+      </c>
+      <c r="U121" s="180"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="K122" s="178">
+        <v>5010302001</v>
+      </c>
+      <c r="M122" s="180">
+        <v>29000</v>
+      </c>
+      <c r="N122" s="180"/>
+      <c r="P122" s="180">
+        <v>29000</v>
+      </c>
+      <c r="Q122" s="180"/>
+      <c r="R122" s="179"/>
+      <c r="S122" s="180">
+        <v>29000</v>
+      </c>
+      <c r="T122" s="181">
+        <v>0</v>
+      </c>
+      <c r="U122" s="180"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="K123" s="178">
+        <v>5010303001</v>
+      </c>
+      <c r="M123" s="180">
+        <v>93000</v>
+      </c>
+      <c r="N123" s="180"/>
+      <c r="P123" s="180">
+        <v>93000</v>
+      </c>
+      <c r="Q123" s="180"/>
+      <c r="R123" s="179"/>
+      <c r="S123" s="180">
+        <v>93000</v>
+      </c>
+      <c r="T123" s="181">
+        <v>0</v>
+      </c>
+      <c r="U123" s="180"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="K124" s="178">
+        <v>5010304001</v>
+      </c>
+      <c r="M124" s="180">
+        <v>29000</v>
+      </c>
+      <c r="N124" s="180"/>
+      <c r="P124" s="180">
+        <v>29000</v>
+      </c>
+      <c r="Q124" s="180"/>
+      <c r="R124" s="179"/>
+      <c r="S124" s="180">
+        <v>29000</v>
+      </c>
+      <c r="T124" s="181">
+        <v>0</v>
+      </c>
+      <c r="U124" s="180"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="187" t="s">
+        <v>367</v>
+      </c>
+      <c r="M125" s="189">
+        <v>18457750</v>
+      </c>
+      <c r="P125" s="189"/>
+      <c r="Q125" s="188"/>
+      <c r="R125" s="188"/>
+      <c r="S125" s="189">
+        <v>18457750</v>
+      </c>
+      <c r="T125" s="190">
+        <v>0</v>
+      </c>
+      <c r="U125" s="189"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="187" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K128" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M128" s="180">
+        <v>151468.3</v>
+      </c>
+      <c r="N128" s="180"/>
+      <c r="P128" s="180">
+        <v>151468.3</v>
+      </c>
+      <c r="Q128" s="180"/>
+      <c r="R128" s="179"/>
+      <c r="S128" s="180">
+        <v>151468.3</v>
+      </c>
+      <c r="T128" s="181">
+        <v>0</v>
+      </c>
+      <c r="U128" s="180"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="187" t="s">
+        <v>369</v>
+      </c>
+      <c r="M129" s="189">
+        <v>151468.3</v>
+      </c>
+      <c r="P129" s="189"/>
+      <c r="Q129" s="188"/>
+      <c r="R129" s="188"/>
+      <c r="S129" s="189">
+        <v>151468.3</v>
+      </c>
+      <c r="T129" s="190">
+        <v>0</v>
+      </c>
+      <c r="U129" s="189"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="187" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="K132" s="178">
+        <v>5021403000</v>
+      </c>
+      <c r="M132" s="180">
+        <v>1390325</v>
+      </c>
+      <c r="N132" s="180"/>
+      <c r="P132" s="180">
+        <v>1390325</v>
+      </c>
+      <c r="Q132" s="180"/>
+      <c r="R132" s="179"/>
+      <c r="S132" s="180">
+        <v>1390325</v>
+      </c>
+      <c r="T132" s="181">
+        <v>0</v>
+      </c>
+      <c r="U132" s="180"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="187" t="s">
+        <v>371</v>
+      </c>
+      <c r="M133" s="189">
+        <v>1390325</v>
+      </c>
+      <c r="P133" s="189"/>
+      <c r="Q133" s="188"/>
+      <c r="R133" s="188"/>
+      <c r="S133" s="189">
+        <v>1390325</v>
+      </c>
+      <c r="T133" s="190">
+        <v>0</v>
+      </c>
+      <c r="U133" s="189"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="187" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K136" s="178">
+        <v>5020101000</v>
+      </c>
+      <c r="M136" s="180"/>
+      <c r="N136" s="180"/>
+      <c r="P136" s="179"/>
+      <c r="Q136" s="180"/>
+      <c r="R136" s="180">
+        <v>60030</v>
+      </c>
+      <c r="S136" s="191">
+        <v>60030</v>
+      </c>
+      <c r="T136" s="181">
+        <v/>
+      </c>
+      <c r="U136" s="180"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="K137" s="178">
+        <v>5021199000</v>
+      </c>
+      <c r="M137" s="180">
+        <v>34875135.55</v>
+      </c>
+      <c r="N137" s="180"/>
+      <c r="P137" s="180">
+        <v>34875135.55</v>
+      </c>
+      <c r="Q137" s="180"/>
+      <c r="R137" s="179"/>
+      <c r="S137" s="180">
+        <v>34875135.55</v>
+      </c>
+      <c r="T137" s="181">
+        <v>0</v>
+      </c>
+      <c r="U137" s="180"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="187" t="s">
+        <v>373</v>
+      </c>
+      <c r="M138" s="189">
+        <v>34875135.55</v>
+      </c>
+      <c r="P138" s="189"/>
+      <c r="Q138" s="188"/>
+      <c r="R138" s="189">
+        <v>60030</v>
+      </c>
+      <c r="S138" s="189">
+        <v>34815105.55</v>
+      </c>
+      <c r="T138" s="190">
+        <v>0</v>
+      </c>
+      <c r="U138" s="189"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="187" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K141" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M141" s="180">
+        <v>1139109.15</v>
+      </c>
+      <c r="N141" s="180"/>
+      <c r="P141" s="180">
+        <v>1139109.15</v>
+      </c>
+      <c r="Q141" s="180"/>
+      <c r="R141" s="179"/>
+      <c r="S141" s="180">
+        <v>1139109.15</v>
+      </c>
+      <c r="T141" s="181">
+        <v>0</v>
+      </c>
+      <c r="U141" s="180"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="187" t="s">
+        <v>375</v>
+      </c>
+      <c r="M142" s="189">
+        <v>1139109.15</v>
+      </c>
+      <c r="P142" s="189"/>
+      <c r="Q142" s="188"/>
+      <c r="R142" s="188"/>
+      <c r="S142" s="189">
+        <v>1139109.15</v>
+      </c>
+      <c r="T142" s="190">
+        <v>0</v>
+      </c>
+      <c r="U142" s="189"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="187" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="K145" s="178">
+        <v>5010101001</v>
+      </c>
+      <c r="M145" s="180">
+        <v>6115500</v>
+      </c>
+      <c r="N145" s="180"/>
+      <c r="P145" s="180">
+        <v>6115500</v>
+      </c>
+      <c r="Q145" s="180"/>
+      <c r="R145" s="179"/>
+      <c r="S145" s="180">
+        <v>6115500</v>
+      </c>
+      <c r="T145" s="181">
+        <v>0</v>
+      </c>
+      <c r="U145" s="180"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="K146" s="178">
+        <v>5010201001</v>
+      </c>
+      <c r="M146" s="180">
+        <v>276000</v>
+      </c>
+      <c r="N146" s="180"/>
+      <c r="P146" s="180">
+        <v>276000</v>
+      </c>
+      <c r="Q146" s="180"/>
+      <c r="R146" s="179"/>
+      <c r="S146" s="180">
+        <v>276000</v>
+      </c>
+      <c r="T146" s="181">
+        <v>0</v>
+      </c>
+      <c r="U146" s="180"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K147" s="178">
+        <v>5010202000</v>
+      </c>
+      <c r="M147" s="180">
+        <v>15000</v>
+      </c>
+      <c r="N147" s="180"/>
+      <c r="P147" s="180">
+        <v>15000</v>
+      </c>
+      <c r="Q147" s="180"/>
+      <c r="R147" s="179"/>
+      <c r="S147" s="180">
+        <v>15000</v>
+      </c>
+      <c r="T147" s="181">
+        <v>0</v>
+      </c>
+      <c r="U147" s="180"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K148" s="178">
+        <v>5010203001</v>
+      </c>
+      <c r="M148" s="180">
+        <v>15000</v>
+      </c>
+      <c r="N148" s="180"/>
+      <c r="P148" s="180">
+        <v>15000</v>
+      </c>
+      <c r="Q148" s="180"/>
+      <c r="R148" s="179"/>
+      <c r="S148" s="180">
+        <v>15000</v>
+      </c>
+      <c r="T148" s="181">
+        <v>0</v>
+      </c>
+      <c r="U148" s="180"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="K149" s="178">
+        <v>5010302001</v>
+      </c>
+      <c r="M149" s="180">
+        <v>13750</v>
+      </c>
+      <c r="N149" s="180"/>
+      <c r="P149" s="180">
+        <v>13750</v>
+      </c>
+      <c r="Q149" s="180"/>
+      <c r="R149" s="179"/>
+      <c r="S149" s="180">
+        <v>13750</v>
+      </c>
+      <c r="T149" s="181">
+        <v>0</v>
+      </c>
+      <c r="U149" s="180"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="K150" s="178">
+        <v>5010303001</v>
+      </c>
+      <c r="M150" s="180">
+        <v>49750</v>
+      </c>
+      <c r="N150" s="180"/>
+      <c r="P150" s="180">
+        <v>49750</v>
+      </c>
+      <c r="Q150" s="180"/>
+      <c r="R150" s="179"/>
+      <c r="S150" s="180">
+        <v>49750</v>
+      </c>
+      <c r="T150" s="181">
+        <v>0</v>
+      </c>
+      <c r="U150" s="180"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="K151" s="178">
+        <v>5010304001</v>
+      </c>
+      <c r="M151" s="180">
+        <v>13750</v>
+      </c>
+      <c r="N151" s="180"/>
+      <c r="P151" s="180">
+        <v>13750</v>
+      </c>
+      <c r="Q151" s="180"/>
+      <c r="R151" s="179"/>
+      <c r="S151" s="180">
+        <v>13750</v>
+      </c>
+      <c r="T151" s="181">
+        <v>0</v>
+      </c>
+      <c r="U151" s="180"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="187" t="s">
+        <v>377</v>
+      </c>
+      <c r="M152" s="189">
+        <v>6498750</v>
+      </c>
+      <c r="P152" s="189"/>
+      <c r="Q152" s="188"/>
+      <c r="R152" s="188"/>
+      <c r="S152" s="189">
+        <v>6498750</v>
+      </c>
+      <c r="T152" s="190">
+        <v>0</v>
+      </c>
+      <c r="U152" s="189"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="187" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K155" s="178">
+        <v>5020101000</v>
+      </c>
+      <c r="M155" s="180">
+        <v>12216111.35</v>
+      </c>
+      <c r="N155" s="180"/>
+      <c r="P155" s="180">
+        <v>12216111.35</v>
+      </c>
+      <c r="Q155" s="180"/>
+      <c r="R155" s="180">
+        <v>38021</v>
+      </c>
+      <c r="S155" s="180">
+        <v>12178090.35</v>
+      </c>
+      <c r="T155" s="181">
+        <v>4.092955488654743E-05</v>
+      </c>
+      <c r="U155" s="180">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K156" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M156" s="180"/>
+      <c r="N156" s="180"/>
+      <c r="P156" s="179"/>
+      <c r="Q156" s="180"/>
+      <c r="R156" s="180">
+        <v>35190.79</v>
+      </c>
+      <c r="S156" s="191">
+        <v>35190.79</v>
+      </c>
+      <c r="T156" s="181">
+        <v/>
+      </c>
+      <c r="U156" s="180"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K157" s="178">
+        <v>5020301002</v>
+      </c>
+      <c r="M157" s="180"/>
+      <c r="N157" s="180"/>
+      <c r="P157" s="179"/>
+      <c r="Q157" s="180"/>
+      <c r="R157" s="180">
+        <v>126936.25</v>
+      </c>
+      <c r="S157" s="191">
+        <v>126936.25</v>
+      </c>
+      <c r="T157" s="181">
+        <v/>
+      </c>
+      <c r="U157" s="180"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="K158" s="178">
+        <v>5020321003</v>
+      </c>
+      <c r="M158" s="180"/>
+      <c r="N158" s="180"/>
+      <c r="P158" s="179"/>
+      <c r="Q158" s="180"/>
+      <c r="R158" s="180">
+        <v>18490</v>
+      </c>
+      <c r="S158" s="191">
+        <v>18490</v>
+      </c>
+      <c r="T158" s="181">
+        <v/>
+      </c>
+      <c r="U158" s="180"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="K159" s="178">
+        <v>5020402000</v>
+      </c>
+      <c r="M159" s="180"/>
+      <c r="N159" s="180"/>
+      <c r="P159" s="179"/>
+      <c r="Q159" s="180"/>
+      <c r="R159" s="180">
+        <v>263061.07</v>
+      </c>
+      <c r="S159" s="191">
+        <v>263061.07</v>
+      </c>
+      <c r="T159" s="181">
+        <v/>
+      </c>
+      <c r="U159" s="180"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="K160" s="178">
+        <v>5020501000</v>
+      </c>
+      <c r="M160" s="180"/>
+      <c r="N160" s="180"/>
+      <c r="P160" s="179"/>
+      <c r="Q160" s="180"/>
+      <c r="R160" s="180">
+        <v>27321.88</v>
+      </c>
+      <c r="S160" s="191">
+        <v>27321.88</v>
+      </c>
+      <c r="T160" s="181">
+        <v/>
+      </c>
+      <c r="U160" s="180"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K161" s="178">
+        <v>5020502002</v>
+      </c>
+      <c r="M161" s="180"/>
+      <c r="N161" s="180"/>
+      <c r="P161" s="179"/>
+      <c r="Q161" s="180"/>
+      <c r="R161" s="180">
+        <v>26114.05</v>
+      </c>
+      <c r="S161" s="191">
+        <v>26114.05</v>
+      </c>
+      <c r="T161" s="181">
+        <v/>
+      </c>
+      <c r="U161" s="180"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="K162" s="178">
+        <v>5020503000</v>
+      </c>
+      <c r="M162" s="180"/>
+      <c r="N162" s="180"/>
+      <c r="P162" s="179"/>
+      <c r="Q162" s="180"/>
+      <c r="R162" s="180">
+        <v>57680</v>
+      </c>
+      <c r="S162" s="191">
+        <v>57680</v>
+      </c>
+      <c r="T162" s="181">
+        <v/>
+      </c>
+      <c r="U162" s="180"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="K163" s="178">
+        <v>5021304001</v>
+      </c>
+      <c r="M163" s="180"/>
+      <c r="N163" s="180"/>
+      <c r="P163" s="179"/>
+      <c r="Q163" s="180"/>
+      <c r="R163" s="180">
+        <v>6749</v>
+      </c>
+      <c r="S163" s="191">
+        <v>6749</v>
+      </c>
+      <c r="T163" s="181">
+        <v/>
+      </c>
+      <c r="U163" s="180"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="K164" s="178">
+        <v>5021307000</v>
+      </c>
+      <c r="M164" s="180"/>
+      <c r="N164" s="180"/>
+      <c r="P164" s="179"/>
+      <c r="Q164" s="180"/>
+      <c r="R164" s="180">
+        <v>6373</v>
+      </c>
+      <c r="S164" s="191">
+        <v>6373</v>
+      </c>
+      <c r="T164" s="181">
+        <v/>
+      </c>
+      <c r="U164" s="180"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="K165" s="178">
+        <v>5029904000</v>
+      </c>
+      <c r="M165" s="180"/>
+      <c r="N165" s="180"/>
+      <c r="P165" s="179"/>
+      <c r="Q165" s="180"/>
+      <c r="R165" s="180">
+        <v>402085.46</v>
+      </c>
+      <c r="S165" s="191">
+        <v>402085.46</v>
+      </c>
+      <c r="T165" s="181">
+        <v/>
+      </c>
+      <c r="U165" s="180"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="187" t="s">
+        <v>386</v>
+      </c>
+      <c r="M166" s="189">
+        <v>12216111.35</v>
+      </c>
+      <c r="P166" s="189"/>
+      <c r="Q166" s="188"/>
+      <c r="R166" s="189">
+        <v>1008022.5</v>
+      </c>
+      <c r="S166" s="189">
+        <v>11208088.849999998</v>
+      </c>
+      <c r="T166" s="190">
+        <v>6.6908743079002273E-06</v>
+      </c>
+      <c r="U166" s="189">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="187" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="C169" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K169" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M169" s="180">
+        <v>79817</v>
+      </c>
+      <c r="N169" s="180"/>
+      <c r="P169" s="180">
+        <v>79817</v>
+      </c>
+      <c r="Q169" s="180"/>
+      <c r="R169" s="179"/>
+      <c r="S169" s="180">
+        <v>79817</v>
+      </c>
+      <c r="T169" s="181">
+        <v>0</v>
+      </c>
+      <c r="U169" s="180"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="187" t="s">
+        <v>388</v>
+      </c>
+      <c r="M170" s="189">
+        <v>79817</v>
+      </c>
+      <c r="P170" s="189"/>
+      <c r="Q170" s="188"/>
+      <c r="R170" s="188"/>
+      <c r="S170" s="189">
+        <v>79817</v>
+      </c>
+      <c r="T170" s="190">
+        <v>0</v>
+      </c>
+      <c r="U170" s="189"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="187" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="C173" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K173" s="178">
+        <v>5020201002</v>
+      </c>
+      <c r="M173" s="180">
+        <v>148388.71</v>
+      </c>
+      <c r="N173" s="180"/>
+      <c r="P173" s="180">
+        <v>148388.71</v>
+      </c>
+      <c r="Q173" s="180"/>
+      <c r="R173" s="179"/>
+      <c r="S173" s="180">
+        <v>148388.71</v>
+      </c>
+      <c r="T173" s="181">
+        <v>0</v>
+      </c>
+      <c r="U173" s="180"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="187" t="s">
+        <v>390</v>
+      </c>
+      <c r="M174" s="189">
+        <v>148388.71</v>
+      </c>
+      <c r="P174" s="189"/>
+      <c r="Q174" s="188"/>
+      <c r="R174" s="188"/>
+      <c r="S174" s="189">
+        <v>148388.71</v>
+      </c>
+      <c r="T174" s="190">
+        <v>0</v>
+      </c>
+      <c r="U174" s="189"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="187" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K177" s="178">
+        <v>5020101000</v>
+      </c>
+      <c r="M177" s="180">
+        <v>743409.34</v>
+      </c>
+      <c r="N177" s="180"/>
+      <c r="P177" s="180">
+        <v>743409.34</v>
+      </c>
+      <c r="Q177" s="180"/>
+      <c r="R177" s="180">
+        <v>1158</v>
+      </c>
+      <c r="S177" s="180">
+        <v>742251.34</v>
+      </c>
+      <c r="T177" s="181">
+        <v>0</v>
+      </c>
+      <c r="U177" s="180"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="K178" s="178">
+        <v>5020502001</v>
+      </c>
+      <c r="M178" s="180"/>
+      <c r="N178" s="180"/>
+      <c r="P178" s="179"/>
+      <c r="Q178" s="180"/>
+      <c r="R178" s="180">
+        <v>785.91</v>
+      </c>
+      <c r="S178" s="191">
+        <v>785.91</v>
+      </c>
+      <c r="T178" s="181">
+        <v/>
+      </c>
+      <c r="U178" s="180"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K179" s="178">
+        <v>5020502002</v>
+      </c>
+      <c r="M179" s="180"/>
+      <c r="N179" s="180"/>
+      <c r="P179" s="179"/>
+      <c r="Q179" s="180"/>
+      <c r="R179" s="180">
+        <v>887.99</v>
+      </c>
+      <c r="S179" s="191">
+        <v>887.99</v>
+      </c>
+      <c r="T179" s="181">
+        <v/>
+      </c>
+      <c r="U179" s="180"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="187" t="s">
+        <v>392</v>
+      </c>
+      <c r="M180" s="189">
+        <v>743409.34</v>
+      </c>
+      <c r="P180" s="189"/>
+      <c r="Q180" s="188"/>
+      <c r="R180" s="189">
+        <v>2831.8999999999996</v>
+      </c>
+      <c r="S180" s="189">
+        <v>740577.44</v>
+      </c>
+      <c r="T180" s="190">
+        <v>0</v>
+      </c>
+      <c r="U180" s="189"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="187" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="C183" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="K183" s="178">
+        <v>5010101001</v>
+      </c>
+      <c r="M183" s="180">
+        <v>2066750</v>
+      </c>
+      <c r="N183" s="180"/>
+      <c r="P183" s="180">
+        <v>2066750</v>
+      </c>
+      <c r="Q183" s="180"/>
+      <c r="R183" s="179"/>
+      <c r="S183" s="180">
+        <v>2066750</v>
+      </c>
+      <c r="T183" s="181">
+        <v>0</v>
+      </c>
+      <c r="U183" s="180"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="K184" s="178">
+        <v>5010201001</v>
+      </c>
+      <c r="M184" s="180">
+        <v>108000</v>
+      </c>
+      <c r="N184" s="180"/>
+      <c r="P184" s="180">
+        <v>108000</v>
+      </c>
+      <c r="Q184" s="180"/>
+      <c r="R184" s="179"/>
+      <c r="S184" s="180">
+        <v>108000</v>
+      </c>
+      <c r="T184" s="181">
+        <v>0</v>
+      </c>
+      <c r="U184" s="180"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K185" s="178">
+        <v>5010202000</v>
+      </c>
+      <c r="M185" s="180">
+        <v>15000</v>
+      </c>
+      <c r="N185" s="180"/>
+      <c r="P185" s="180">
+        <v>15000</v>
+      </c>
+      <c r="Q185" s="180"/>
+      <c r="R185" s="179"/>
+      <c r="S185" s="180">
+        <v>15000</v>
+      </c>
+      <c r="T185" s="181">
+        <v>0</v>
+      </c>
+      <c r="U185" s="180"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K186" s="178">
+        <v>5010203001</v>
+      </c>
+      <c r="M186" s="180">
+        <v>15000</v>
+      </c>
+      <c r="N186" s="180"/>
+      <c r="P186" s="180">
+        <v>15000</v>
+      </c>
+      <c r="Q186" s="180"/>
+      <c r="R186" s="179"/>
+      <c r="S186" s="180">
+        <v>15000</v>
+      </c>
+      <c r="T186" s="181">
+        <v>0</v>
+      </c>
+      <c r="U186" s="180"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="K187" s="178">
+        <v>5010302001</v>
+      </c>
+      <c r="M187" s="180">
+        <v>5500</v>
+      </c>
+      <c r="N187" s="180"/>
+      <c r="P187" s="180">
+        <v>5500</v>
+      </c>
+      <c r="Q187" s="180"/>
+      <c r="R187" s="179"/>
+      <c r="S187" s="180">
+        <v>5500</v>
+      </c>
+      <c r="T187" s="181">
+        <v>0</v>
+      </c>
+      <c r="U187" s="180"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="K188" s="178">
+        <v>5010303001</v>
+      </c>
+      <c r="M188" s="180">
+        <v>18750</v>
+      </c>
+      <c r="N188" s="180"/>
+      <c r="P188" s="180">
+        <v>18750</v>
+      </c>
+      <c r="Q188" s="180"/>
+      <c r="R188" s="179"/>
+      <c r="S188" s="180">
+        <v>18750</v>
+      </c>
+      <c r="T188" s="181">
+        <v>0</v>
+      </c>
+      <c r="U188" s="180"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="K189" s="178">
+        <v>5010304001</v>
+      </c>
+      <c r="M189" s="180">
+        <v>5500</v>
+      </c>
+      <c r="N189" s="180"/>
+      <c r="P189" s="180">
+        <v>5500</v>
+      </c>
+      <c r="Q189" s="180"/>
+      <c r="R189" s="179"/>
+      <c r="S189" s="180">
+        <v>5500</v>
+      </c>
+      <c r="T189" s="181">
+        <v>0</v>
+      </c>
+      <c r="U189" s="180"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="187" t="s">
+        <v>394</v>
+      </c>
+      <c r="M190" s="189">
+        <v>2234500</v>
+      </c>
+      <c r="P190" s="189"/>
+      <c r="Q190" s="188"/>
+      <c r="R190" s="188"/>
+      <c r="S190" s="189">
+        <v>2234500</v>
+      </c>
+      <c r="T190" s="190">
+        <v>0</v>
+      </c>
+      <c r="U190" s="189"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="176" t="s">
+        <v>395</v>
+      </c>
+      <c r="M191" s="188">
+        <v>77934764.399999991</v>
+      </c>
+      <c r="P191" s="189">
+        <v>77934764.399999991</v>
+      </c>
+      <c r="Q191" s="189">
+        <v>0</v>
+      </c>
+      <c r="R191" s="189">
+        <v>1070884.4</v>
+      </c>
+      <c r="S191" s="189">
+        <v>76863879.999999985</v>
+      </c>
+      <c r="T191" s="190">
+        <v>6.4156221405090959E-06</v>
+      </c>
+      <c r="U191" s="189">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="176" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="192" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="193" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="C197" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K197" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M197" s="180">
+        <v>19325</v>
+      </c>
+      <c r="N197" s="180">
+        <v>0</v>
+      </c>
+      <c r="P197" s="180">
+        <v>19325</v>
+      </c>
+      <c r="S197" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD197" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE197" s="184">
+        <v>19325</v>
+      </c>
+      <c r="AF197" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG197" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="192" t="s">
+        <v>401</v>
+      </c>
+      <c r="M198" s="194">
+        <v>19325</v>
+      </c>
+      <c r="P198" s="194">
+        <v>19325</v>
+      </c>
+      <c r="S198" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD198" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE198" s="195">
+        <v>19325</v>
+      </c>
+      <c r="AF198" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG198" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="192" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="193" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="C202" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K202" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M202" s="180">
+        <v>23698.8</v>
+      </c>
+      <c r="N202" s="180">
+        <v>0</v>
+      </c>
+      <c r="P202" s="180">
+        <v>23698.8</v>
+      </c>
+      <c r="S202" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD202" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE202" s="184">
+        <v>23698.8</v>
+      </c>
+      <c r="AF202" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG202" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="192" t="s">
+        <v>403</v>
+      </c>
+      <c r="M203" s="194">
+        <v>23698.8</v>
+      </c>
+      <c r="P203" s="194">
+        <v>23698.8</v>
+      </c>
+      <c r="S203" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD203" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE203" s="195">
+        <v>23698.8</v>
+      </c>
+      <c r="AF203" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG203" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="192" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="193" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K207" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="M207" s="180">
+        <v>0</v>
+      </c>
+      <c r="N207" s="180">
+        <v>0</v>
+      </c>
+      <c r="P207" s="180">
+        <v>0</v>
+      </c>
+      <c r="S207" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD207" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE207" s="184">
+        <v>0</v>
+      </c>
+      <c r="AF207" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG207" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="208">
+      <c r="C208" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K208" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M208" s="180">
+        <v>63185.75</v>
+      </c>
+      <c r="N208" s="180">
+        <v>0</v>
+      </c>
+      <c r="P208" s="180">
+        <v>63185.75</v>
+      </c>
+      <c r="S208" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="184">
+        <v>63185.75</v>
+      </c>
+      <c r="AF208" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG208" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="C209" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K209" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="M209" s="180">
+        <v>0</v>
+      </c>
+      <c r="N209" s="180">
+        <v>0</v>
+      </c>
+      <c r="P209" s="180">
+        <v>0</v>
+      </c>
+      <c r="S209" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE209" s="184">
+        <v>0</v>
+      </c>
+      <c r="AF209" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG209" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="192" t="s">
+        <v>408</v>
+      </c>
+      <c r="M210" s="194">
+        <v>63185.75</v>
+      </c>
+      <c r="P210" s="194">
+        <v>63185.75</v>
+      </c>
+      <c r="S210" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE210" s="195">
+        <v>63185.75</v>
+      </c>
+      <c r="AF210" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG210" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="192" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" s="193" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="C214" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K214" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M214" s="180">
+        <v>35801.22</v>
+      </c>
+      <c r="N214" s="180">
+        <v>0</v>
+      </c>
+      <c r="P214" s="180">
+        <v>35801.22</v>
+      </c>
+      <c r="S214" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD214" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE214" s="184">
+        <v>35801.22</v>
+      </c>
+      <c r="AF214" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG214" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="192" t="s">
+        <v>411</v>
+      </c>
+      <c r="M215" s="194">
+        <v>35801.22</v>
+      </c>
+      <c r="P215" s="194">
+        <v>35801.22</v>
+      </c>
+      <c r="S215" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD215" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE215" s="195">
+        <v>35801.22</v>
+      </c>
+      <c r="AF215" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG215" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="192" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" s="193" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="C219" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K219" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M219" s="180">
+        <v>169525</v>
+      </c>
+      <c r="N219" s="180">
+        <v>0</v>
+      </c>
+      <c r="P219" s="180">
+        <v>169525</v>
+      </c>
+      <c r="S219" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD219" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE219" s="184">
+        <v>169525</v>
+      </c>
+      <c r="AF219" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG219" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="192" t="s">
+        <v>413</v>
+      </c>
+      <c r="M220" s="194">
+        <v>169525</v>
+      </c>
+      <c r="P220" s="194">
+        <v>169525</v>
+      </c>
+      <c r="S220" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD220" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE220" s="195">
+        <v>169525</v>
+      </c>
+      <c r="AF220" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG220" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="192" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" s="193" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="C224" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K224" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M224" s="180">
+        <v>20326.63</v>
+      </c>
+      <c r="N224" s="180">
+        <v>0</v>
+      </c>
+      <c r="P224" s="180">
+        <v>20326.63</v>
+      </c>
+      <c r="S224" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD224" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE224" s="184">
+        <v>20326.63</v>
+      </c>
+      <c r="AF224" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG224" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="192" t="s">
+        <v>415</v>
+      </c>
+      <c r="M225" s="194">
+        <v>20326.63</v>
+      </c>
+      <c r="P225" s="194">
+        <v>20326.63</v>
+      </c>
+      <c r="S225" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="195">
+        <v>20326.63</v>
+      </c>
+      <c r="AF225" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG225" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="192" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" s="193" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="C229" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K229" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M229" s="180">
+        <v>1364</v>
+      </c>
+      <c r="N229" s="180">
+        <v>0</v>
+      </c>
+      <c r="P229" s="180">
+        <v>1364</v>
+      </c>
+      <c r="S229" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD229" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE229" s="184">
+        <v>1364</v>
+      </c>
+      <c r="AF229" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG229" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="192" t="s">
+        <v>417</v>
+      </c>
+      <c r="M230" s="194">
+        <v>1364</v>
+      </c>
+      <c r="P230" s="194">
+        <v>1364</v>
+      </c>
+      <c r="S230" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD230" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE230" s="195">
+        <v>1364</v>
+      </c>
+      <c r="AF230" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG230" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="192" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" s="193" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="C234" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K234" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M234" s="180">
+        <v>0</v>
+      </c>
+      <c r="N234" s="180">
+        <v>0</v>
+      </c>
+      <c r="P234" s="180">
+        <v>0</v>
+      </c>
+      <c r="S234" s="180">
+        <v>1795</v>
+      </c>
+      <c r="AD234" s="184">
+        <v>1795</v>
+      </c>
+      <c r="AE234" s="184">
+        <v>-1795</v>
+      </c>
+      <c r="AF234" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG234" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="235">
+      <c r="C235" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K235" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M235" s="180">
+        <v>1806</v>
+      </c>
+      <c r="N235" s="180">
+        <v>0</v>
+      </c>
+      <c r="P235" s="180">
+        <v>1806</v>
+      </c>
+      <c r="S235" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD235" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE235" s="184">
+        <v>1806</v>
+      </c>
+      <c r="AF235" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG235" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="192" t="s">
+        <v>420</v>
+      </c>
+      <c r="M236" s="194">
+        <v>1806</v>
+      </c>
+      <c r="P236" s="194">
+        <v>1806</v>
+      </c>
+      <c r="S236" s="194">
+        <v>1795</v>
+      </c>
+      <c r="AD236" s="195">
+        <v>1795</v>
+      </c>
+      <c r="AE236" s="195">
+        <v>11</v>
+      </c>
+      <c r="AF236" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG236" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="192" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" s="193" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="C240" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K240" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M240" s="180">
+        <v>143</v>
+      </c>
+      <c r="N240" s="180">
+        <v>0</v>
+      </c>
+      <c r="P240" s="180">
+        <v>143</v>
+      </c>
+      <c r="S240" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD240" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE240" s="184">
+        <v>143</v>
+      </c>
+      <c r="AF240" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG240" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="192" t="s">
+        <v>422</v>
+      </c>
+      <c r="M241" s="194">
+        <v>143</v>
+      </c>
+      <c r="P241" s="194">
+        <v>143</v>
+      </c>
+      <c r="S241" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD241" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE241" s="195">
+        <v>143</v>
+      </c>
+      <c r="AF241" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG241" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="192" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="193" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="C245" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K245" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M245" s="180">
+        <v>0</v>
+      </c>
+      <c r="N245" s="180">
+        <v>0</v>
+      </c>
+      <c r="P245" s="180">
+        <v>0</v>
+      </c>
+      <c r="S245" s="180">
+        <v>7534</v>
+      </c>
+      <c r="AD245" s="184">
+        <v>7534</v>
+      </c>
+      <c r="AE245" s="184">
+        <v>-7534</v>
+      </c>
+      <c r="AF245" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG245" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K246" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M246" s="180">
+        <v>308386.7</v>
+      </c>
+      <c r="N246" s="180">
+        <v>0</v>
+      </c>
+      <c r="P246" s="180">
+        <v>308386.7</v>
+      </c>
+      <c r="S246" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD246" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE246" s="184">
+        <v>308386.7</v>
+      </c>
+      <c r="AF246" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG246" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="192" t="s">
+        <v>426</v>
+      </c>
+      <c r="M247" s="194">
+        <v>308386.7</v>
+      </c>
+      <c r="P247" s="194">
+        <v>308386.7</v>
+      </c>
+      <c r="S247" s="194">
+        <v>7534</v>
+      </c>
+      <c r="AD247" s="195">
+        <v>7534</v>
+      </c>
+      <c r="AE247" s="195">
+        <v>300852.7</v>
+      </c>
+      <c r="AF247" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG247" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="192" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="193" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K251" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M251" s="180">
+        <v>356264.92</v>
+      </c>
+      <c r="N251" s="180">
+        <v>0</v>
+      </c>
+      <c r="P251" s="180">
+        <v>356264.92</v>
+      </c>
+      <c r="S251" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD251" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE251" s="184">
+        <v>356264.92</v>
+      </c>
+      <c r="AF251" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG251" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="192" t="s">
+        <v>428</v>
+      </c>
+      <c r="M252" s="194">
+        <v>356264.92</v>
+      </c>
+      <c r="P252" s="194">
+        <v>356264.92</v>
+      </c>
+      <c r="S252" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD252" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE252" s="195">
+        <v>356264.92</v>
+      </c>
+      <c r="AF252" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG252" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="192" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="193" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K256" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M256" s="180">
+        <v>5600</v>
+      </c>
+      <c r="N256" s="180">
+        <v>0</v>
+      </c>
+      <c r="P256" s="180">
+        <v>5600</v>
+      </c>
+      <c r="S256" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD256" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE256" s="184">
+        <v>5600</v>
+      </c>
+      <c r="AF256" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG256" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="192" t="s">
+        <v>430</v>
+      </c>
+      <c r="M257" s="194">
+        <v>5600</v>
+      </c>
+      <c r="P257" s="194">
+        <v>5600</v>
+      </c>
+      <c r="S257" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD257" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE257" s="195">
+        <v>5600</v>
+      </c>
+      <c r="AF257" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG257" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="192" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="193" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K261" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M261" s="180">
+        <v>11006.94</v>
+      </c>
+      <c r="N261" s="180">
+        <v>0</v>
+      </c>
+      <c r="P261" s="180">
+        <v>11006.94</v>
+      </c>
+      <c r="S261" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE261" s="184">
+        <v>11006.94</v>
+      </c>
+      <c r="AF261" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG261" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="192" t="s">
+        <v>432</v>
+      </c>
+      <c r="M262" s="194">
+        <v>11006.94</v>
+      </c>
+      <c r="P262" s="194">
+        <v>11006.94</v>
+      </c>
+      <c r="S262" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE262" s="195">
+        <v>11006.94</v>
+      </c>
+      <c r="AF262" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG262" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="192" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="193" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K266" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M266" s="180">
+        <v>1200250</v>
+      </c>
+      <c r="N266" s="180">
+        <v>0</v>
+      </c>
+      <c r="P266" s="180">
+        <v>1200250</v>
+      </c>
+      <c r="S266" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE266" s="184">
+        <v>1200250</v>
+      </c>
+      <c r="AF266" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG266" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="K267" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="M267" s="180">
+        <v>0</v>
+      </c>
+      <c r="N267" s="180">
+        <v>0</v>
+      </c>
+      <c r="P267" s="180">
+        <v>0</v>
+      </c>
+      <c r="S267" s="180">
+        <v>16660</v>
+      </c>
+      <c r="AD267" s="184">
+        <v>16660</v>
+      </c>
+      <c r="AE267" s="184">
+        <v>-16660</v>
+      </c>
+      <c r="AF267" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG267" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="192" t="s">
+        <v>436</v>
+      </c>
+      <c r="M268" s="194">
+        <v>1200250</v>
+      </c>
+      <c r="P268" s="194">
+        <v>1200250</v>
+      </c>
+      <c r="S268" s="194">
+        <v>16660</v>
+      </c>
+      <c r="AD268" s="195">
+        <v>16660</v>
+      </c>
+      <c r="AE268" s="195">
+        <v>1183590</v>
+      </c>
+      <c r="AF268" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG268" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="192" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="193" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K272" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M272" s="180">
+        <v>206247.98</v>
+      </c>
+      <c r="N272" s="180">
+        <v>0</v>
+      </c>
+      <c r="P272" s="180">
+        <v>206247.98</v>
+      </c>
+      <c r="S272" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD272" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE272" s="184">
+        <v>206247.98</v>
+      </c>
+      <c r="AF272" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG272" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="192" t="s">
+        <v>438</v>
+      </c>
+      <c r="M273" s="194">
+        <v>206247.98</v>
+      </c>
+      <c r="P273" s="194">
+        <v>206247.98</v>
+      </c>
+      <c r="S273" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE273" s="195">
+        <v>206247.98</v>
+      </c>
+      <c r="AF273" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG273" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="192" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="193" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K277" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M277" s="180">
+        <v>30185</v>
+      </c>
+      <c r="N277" s="180">
+        <v>0</v>
+      </c>
+      <c r="P277" s="180">
+        <v>30185</v>
+      </c>
+      <c r="S277" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD277" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE277" s="184">
+        <v>30185</v>
+      </c>
+      <c r="AF277" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG277" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="192" t="s">
+        <v>440</v>
+      </c>
+      <c r="M278" s="194">
+        <v>30185</v>
+      </c>
+      <c r="P278" s="194">
+        <v>30185</v>
+      </c>
+      <c r="S278" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE278" s="195">
+        <v>30185</v>
+      </c>
+      <c r="AF278" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG278" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="192" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="193" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K282" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M282" s="180">
+        <v>47606</v>
+      </c>
+      <c r="N282" s="180">
+        <v>0</v>
+      </c>
+      <c r="P282" s="180">
+        <v>47606</v>
+      </c>
+      <c r="S282" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD282" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE282" s="184">
+        <v>47606</v>
+      </c>
+      <c r="AF282" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG282" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="192" t="s">
+        <v>442</v>
+      </c>
+      <c r="M283" s="194">
+        <v>47606</v>
+      </c>
+      <c r="P283" s="194">
+        <v>47606</v>
+      </c>
+      <c r="S283" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD283" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE283" s="195">
+        <v>47606</v>
+      </c>
+      <c r="AF283" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG283" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="192" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="193" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K287" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M287" s="180">
+        <v>46500</v>
+      </c>
+      <c r="N287" s="180">
+        <v>0</v>
+      </c>
+      <c r="P287" s="180">
+        <v>46500</v>
+      </c>
+      <c r="S287" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD287" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE287" s="184">
+        <v>46500</v>
+      </c>
+      <c r="AF287" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG287" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="192" t="s">
+        <v>444</v>
+      </c>
+      <c r="M288" s="194">
+        <v>46500</v>
+      </c>
+      <c r="P288" s="194">
+        <v>46500</v>
+      </c>
+      <c r="S288" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD288" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE288" s="195">
+        <v>46500</v>
+      </c>
+      <c r="AF288" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG288" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="192" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" s="193" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K292" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M292" s="180">
+        <v>7057650</v>
+      </c>
+      <c r="N292" s="180">
+        <v>0</v>
+      </c>
+      <c r="P292" s="180">
+        <v>7057650</v>
+      </c>
+      <c r="S292" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD292" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE292" s="184">
+        <v>7057650</v>
+      </c>
+      <c r="AF292" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG292" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="192" t="s">
+        <v>446</v>
+      </c>
+      <c r="M293" s="194">
+        <v>7057650</v>
+      </c>
+      <c r="P293" s="194">
+        <v>7057650</v>
+      </c>
+      <c r="S293" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE293" s="195">
+        <v>7057650</v>
+      </c>
+      <c r="AF293" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG293" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="192" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" s="193" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="C297" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K297" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M297" s="180">
+        <v>66775</v>
+      </c>
+      <c r="N297" s="180">
+        <v>0</v>
+      </c>
+      <c r="P297" s="180">
+        <v>66775</v>
+      </c>
+      <c r="S297" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD297" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE297" s="184">
+        <v>66775</v>
+      </c>
+      <c r="AF297" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG297" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="192" t="s">
+        <v>448</v>
+      </c>
+      <c r="M298" s="194">
+        <v>66775</v>
+      </c>
+      <c r="P298" s="194">
+        <v>66775</v>
+      </c>
+      <c r="S298" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD298" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE298" s="195">
+        <v>66775</v>
+      </c>
+      <c r="AF298" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG298" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="192" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" s="193" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="C302" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K302" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M302" s="180">
+        <v>45000</v>
+      </c>
+      <c r="N302" s="180">
+        <v>0</v>
+      </c>
+      <c r="P302" s="180">
+        <v>45000</v>
+      </c>
+      <c r="S302" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD302" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE302" s="184">
+        <v>45000</v>
+      </c>
+      <c r="AF302" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG302" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="192" t="s">
+        <v>450</v>
+      </c>
+      <c r="M303" s="194">
+        <v>45000</v>
+      </c>
+      <c r="P303" s="194">
+        <v>45000</v>
+      </c>
+      <c r="S303" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD303" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE303" s="195">
+        <v>45000</v>
+      </c>
+      <c r="AF303" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG303" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="192" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" s="193" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="C307" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K307" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M307" s="180">
+        <v>0</v>
+      </c>
+      <c r="N307" s="180">
+        <v>0</v>
+      </c>
+      <c r="P307" s="180">
+        <v>0</v>
+      </c>
+      <c r="S307" s="180">
+        <v>9030</v>
+      </c>
+      <c r="AD307" s="184">
+        <v>9030</v>
+      </c>
+      <c r="AE307" s="184">
+        <v>-9030</v>
+      </c>
+      <c r="AF307" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG307" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="308">
+      <c r="C308" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K308" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M308" s="180">
+        <v>913771.28</v>
+      </c>
+      <c r="N308" s="180">
+        <v>0</v>
+      </c>
+      <c r="P308" s="180">
+        <v>913771.28</v>
+      </c>
+      <c r="S308" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD308" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE308" s="184">
+        <v>913771.28</v>
+      </c>
+      <c r="AF308" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG308" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="192" t="s">
+        <v>452</v>
+      </c>
+      <c r="M309" s="194">
+        <v>913771.28</v>
+      </c>
+      <c r="P309" s="194">
+        <v>913771.28</v>
+      </c>
+      <c r="S309" s="194">
+        <v>9030</v>
+      </c>
+      <c r="AD309" s="195">
+        <v>9030</v>
+      </c>
+      <c r="AE309" s="195">
+        <v>904741.28</v>
+      </c>
+      <c r="AF309" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG309" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="192" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" s="193" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="C313" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K313" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M313" s="180">
+        <v>343153.69</v>
+      </c>
+      <c r="N313" s="180">
+        <v>0</v>
+      </c>
+      <c r="P313" s="180">
+        <v>343153.69</v>
+      </c>
+      <c r="S313" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD313" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE313" s="184">
+        <v>343153.69</v>
+      </c>
+      <c r="AF313" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG313" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="192" t="s">
+        <v>454</v>
+      </c>
+      <c r="M314" s="194">
+        <v>343153.69</v>
+      </c>
+      <c r="P314" s="194">
+        <v>343153.69</v>
+      </c>
+      <c r="S314" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD314" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE314" s="195">
+        <v>343153.69</v>
+      </c>
+      <c r="AF314" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG314" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="192" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" s="193" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="C318" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K318" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M318" s="180">
+        <v>1100</v>
+      </c>
+      <c r="N318" s="180">
+        <v>0</v>
+      </c>
+      <c r="P318" s="180">
+        <v>1100</v>
+      </c>
+      <c r="S318" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD318" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE318" s="184">
+        <v>1100</v>
+      </c>
+      <c r="AF318" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG318" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="192" t="s">
+        <v>456</v>
+      </c>
+      <c r="M319" s="194">
+        <v>1100</v>
+      </c>
+      <c r="P319" s="194">
+        <v>1100</v>
+      </c>
+      <c r="S319" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD319" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE319" s="195">
+        <v>1100</v>
+      </c>
+      <c r="AF319" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG319" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="192" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" s="193" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="C323" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K323" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M323" s="180">
+        <v>152050</v>
+      </c>
+      <c r="N323" s="180">
+        <v>0</v>
+      </c>
+      <c r="P323" s="180">
+        <v>152050</v>
+      </c>
+      <c r="S323" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD323" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE323" s="184">
+        <v>152050</v>
+      </c>
+      <c r="AF323" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG323" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="192" t="s">
+        <v>459</v>
+      </c>
+      <c r="M324" s="194">
+        <v>152050</v>
+      </c>
+      <c r="P324" s="194">
+        <v>152050</v>
+      </c>
+      <c r="S324" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD324" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE324" s="195">
+        <v>152050</v>
+      </c>
+      <c r="AF324" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG324" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="192" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" s="193" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="C328" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K328" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M328" s="180">
+        <v>0</v>
+      </c>
+      <c r="N328" s="180">
+        <v>0</v>
+      </c>
+      <c r="P328" s="180">
+        <v>0</v>
+      </c>
+      <c r="S328" s="180">
+        <v>3010</v>
+      </c>
+      <c r="AD328" s="184">
+        <v>3010</v>
+      </c>
+      <c r="AE328" s="184">
+        <v>-3010</v>
+      </c>
+      <c r="AF328" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG328" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="329">
+      <c r="C329" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K329" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M329" s="180">
+        <v>9171.19</v>
+      </c>
+      <c r="N329" s="180">
+        <v>0</v>
+      </c>
+      <c r="P329" s="180">
+        <v>9171.19</v>
+      </c>
+      <c r="S329" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD329" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE329" s="184">
+        <v>9171.19</v>
+      </c>
+      <c r="AF329" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG329" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="192" t="s">
+        <v>461</v>
+      </c>
+      <c r="M330" s="194">
+        <v>9171.19</v>
+      </c>
+      <c r="P330" s="194">
+        <v>9171.19</v>
+      </c>
+      <c r="S330" s="194">
+        <v>3010</v>
+      </c>
+      <c r="AD330" s="195">
+        <v>3010</v>
+      </c>
+      <c r="AE330" s="195">
+        <v>6161.1900000000005</v>
+      </c>
+      <c r="AF330" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG330" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="192" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" s="193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="C334" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K334" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M334" s="180">
+        <v>48212.35</v>
+      </c>
+      <c r="N334" s="180">
+        <v>0</v>
+      </c>
+      <c r="P334" s="180">
+        <v>48212.35</v>
+      </c>
+      <c r="S334" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD334" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE334" s="184">
+        <v>48212.35</v>
+      </c>
+      <c r="AF334" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG334" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="192" t="s">
+        <v>463</v>
+      </c>
+      <c r="M335" s="194">
+        <v>48212.35</v>
+      </c>
+      <c r="P335" s="194">
+        <v>48212.35</v>
+      </c>
+      <c r="S335" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD335" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE335" s="195">
+        <v>48212.35</v>
+      </c>
+      <c r="AF335" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG335" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="192" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" s="193" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="C339" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K339" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M339" s="180">
+        <v>203220</v>
+      </c>
+      <c r="N339" s="180">
+        <v>0</v>
+      </c>
+      <c r="P339" s="180">
+        <v>203220</v>
+      </c>
+      <c r="S339" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD339" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE339" s="184">
+        <v>203220</v>
+      </c>
+      <c r="AF339" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG339" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="192" t="s">
+        <v>466</v>
+      </c>
+      <c r="M340" s="194">
+        <v>203220</v>
+      </c>
+      <c r="P340" s="194">
+        <v>203220</v>
+      </c>
+      <c r="S340" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD340" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE340" s="195">
+        <v>203220</v>
+      </c>
+      <c r="AF340" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG340" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="192" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" s="193" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="C344" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K344" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M344" s="180">
+        <v>144700</v>
+      </c>
+      <c r="N344" s="180">
+        <v>0</v>
+      </c>
+      <c r="P344" s="180">
+        <v>144700</v>
+      </c>
+      <c r="S344" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD344" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE344" s="184">
+        <v>144700</v>
+      </c>
+      <c r="AF344" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG344" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="192" t="s">
+        <v>469</v>
+      </c>
+      <c r="M345" s="194">
+        <v>144700</v>
+      </c>
+      <c r="P345" s="194">
+        <v>144700</v>
+      </c>
+      <c r="S345" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD345" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE345" s="195">
+        <v>144700</v>
+      </c>
+      <c r="AF345" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG345" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="192" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" s="193" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="C349" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K349" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M349" s="180">
+        <v>2819.48</v>
+      </c>
+      <c r="N349" s="180">
+        <v>0</v>
+      </c>
+      <c r="P349" s="180">
+        <v>2819.48</v>
+      </c>
+      <c r="S349" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD349" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE349" s="184">
+        <v>2819.48</v>
+      </c>
+      <c r="AF349" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG349" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="192" t="s">
+        <v>472</v>
+      </c>
+      <c r="M350" s="194">
+        <v>2819.48</v>
+      </c>
+      <c r="P350" s="194">
+        <v>2819.48</v>
+      </c>
+      <c r="S350" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD350" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE350" s="195">
+        <v>2819.48</v>
+      </c>
+      <c r="AF350" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG350" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="192" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" s="193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="C354" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="K354" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="M354" s="180">
+        <v>228</v>
+      </c>
+      <c r="N354" s="180">
+        <v>0</v>
+      </c>
+      <c r="P354" s="180">
+        <v>228</v>
+      </c>
+      <c r="S354" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD354" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE354" s="184">
+        <v>228</v>
+      </c>
+      <c r="AF354" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG354" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="192" t="s">
+        <v>474</v>
+      </c>
+      <c r="M355" s="194">
+        <v>228</v>
+      </c>
+      <c r="P355" s="194">
+        <v>228</v>
+      </c>
+      <c r="S355" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD355" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE355" s="195">
+        <v>228</v>
+      </c>
+      <c r="AF355" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG355" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="192" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" s="193" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="C359" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K359" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M359" s="180">
+        <v>0</v>
+      </c>
+      <c r="N359" s="180">
+        <v>0</v>
+      </c>
+      <c r="P359" s="180">
+        <v>0</v>
+      </c>
+      <c r="S359" s="180">
+        <v>18804</v>
+      </c>
+      <c r="AD359" s="184">
+        <v>18804</v>
+      </c>
+      <c r="AE359" s="184">
+        <v>-18804</v>
+      </c>
+      <c r="AF359" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG359" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="360">
+      <c r="C360" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K360" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M360" s="180">
+        <v>1174297.92</v>
+      </c>
+      <c r="N360" s="180">
+        <v>0</v>
+      </c>
+      <c r="P360" s="180">
+        <v>1174297.92</v>
+      </c>
+      <c r="S360" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD360" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE360" s="184">
+        <v>1174297.92</v>
+      </c>
+      <c r="AF360" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG360" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K361" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="M361" s="180">
+        <v>0</v>
+      </c>
+      <c r="N361" s="180">
+        <v>0</v>
+      </c>
+      <c r="P361" s="180">
+        <v>0</v>
+      </c>
+      <c r="S361" s="180">
+        <v>7800</v>
+      </c>
+      <c r="AD361" s="184">
+        <v>7800</v>
+      </c>
+      <c r="AE361" s="184">
+        <v>-7800</v>
+      </c>
+      <c r="AF361" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG361" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="192" t="s">
+        <v>476</v>
+      </c>
+      <c r="M362" s="194">
+        <v>1174297.92</v>
+      </c>
+      <c r="P362" s="194">
+        <v>1174297.92</v>
+      </c>
+      <c r="S362" s="194">
+        <v>26604</v>
+      </c>
+      <c r="AD362" s="195">
+        <v>26604</v>
+      </c>
+      <c r="AE362" s="195">
+        <v>1147693.92</v>
+      </c>
+      <c r="AF362" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG362" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="192" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" s="193" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="K366" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M366" s="180">
+        <v>0</v>
+      </c>
+      <c r="N366" s="180">
+        <v>0</v>
+      </c>
+      <c r="P366" s="180">
+        <v>0</v>
+      </c>
+      <c r="S366" s="180">
+        <v>4837</v>
+      </c>
+      <c r="AD366" s="184">
+        <v>4837</v>
+      </c>
+      <c r="AE366" s="184">
+        <v>-4837</v>
+      </c>
+      <c r="AF366" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG366" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K367" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M367" s="180">
+        <v>244386</v>
+      </c>
+      <c r="N367" s="180">
+        <v>0</v>
+      </c>
+      <c r="P367" s="180">
+        <v>244386</v>
+      </c>
+      <c r="S367" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD367" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE367" s="184">
+        <v>244386</v>
+      </c>
+      <c r="AF367" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG367" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="192" t="s">
+        <v>479</v>
+      </c>
+      <c r="M368" s="194">
+        <v>244386</v>
+      </c>
+      <c r="P368" s="194">
+        <v>244386</v>
+      </c>
+      <c r="S368" s="194">
+        <v>4837</v>
+      </c>
+      <c r="AD368" s="195">
+        <v>4837</v>
+      </c>
+      <c r="AE368" s="195">
+        <v>239549</v>
+      </c>
+      <c r="AF368" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG368" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="192" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="C372" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K372" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M372" s="180">
+        <v>2452487</v>
+      </c>
+      <c r="N372" s="180">
+        <v>0</v>
+      </c>
+      <c r="P372" s="180">
+        <v>2452487</v>
+      </c>
+      <c r="S372" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD372" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE372" s="184">
+        <v>2452487</v>
+      </c>
+      <c r="AF372" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG372" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="C373" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="K373" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="M373" s="180">
+        <v>0</v>
+      </c>
+      <c r="N373" s="180">
+        <v>0</v>
+      </c>
+      <c r="P373" s="180">
+        <v>0</v>
+      </c>
+      <c r="S373" s="180">
+        <v>2376000</v>
+      </c>
+      <c r="AD373" s="184">
+        <v>2376000</v>
+      </c>
+      <c r="AE373" s="184">
+        <v>-2376000</v>
+      </c>
+      <c r="AF373" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG373" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="192" t="s">
+        <v>483</v>
+      </c>
+      <c r="M374" s="194">
+        <v>2452487</v>
+      </c>
+      <c r="P374" s="194">
+        <v>2452487</v>
+      </c>
+      <c r="S374" s="194">
+        <v>2376000</v>
+      </c>
+      <c r="AD374" s="195">
+        <v>2376000</v>
+      </c>
+      <c r="AE374" s="195">
+        <v>76487</v>
+      </c>
+      <c r="AF374" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG374" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="192" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="C378" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K378" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M378" s="180">
+        <v>70200</v>
+      </c>
+      <c r="N378" s="180">
+        <v>0</v>
+      </c>
+      <c r="P378" s="180">
+        <v>70200</v>
+      </c>
+      <c r="S378" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD378" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE378" s="184">
+        <v>70200</v>
+      </c>
+      <c r="AF378" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG378" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="192" t="s">
+        <v>485</v>
+      </c>
+      <c r="M379" s="194">
+        <v>70200</v>
+      </c>
+      <c r="P379" s="194">
+        <v>70200</v>
+      </c>
+      <c r="S379" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD379" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE379" s="195">
+        <v>70200</v>
+      </c>
+      <c r="AF379" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG379" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="192" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" s="193" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="C383" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K383" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M383" s="180">
+        <v>908980.51</v>
+      </c>
+      <c r="N383" s="180">
+        <v>0</v>
+      </c>
+      <c r="P383" s="180">
+        <v>908980.51</v>
+      </c>
+      <c r="S383" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD383" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE383" s="184">
+        <v>908980.51</v>
+      </c>
+      <c r="AF383" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG383" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="C384" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="K384" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="M384" s="180">
+        <v>0</v>
+      </c>
+      <c r="N384" s="180">
+        <v>0</v>
+      </c>
+      <c r="P384" s="180">
+        <v>0</v>
+      </c>
+      <c r="S384" s="180">
+        <v>409295.37</v>
+      </c>
+      <c r="AD384" s="184">
+        <v>409295.37</v>
+      </c>
+      <c r="AE384" s="184">
+        <v>-409295.37</v>
+      </c>
+      <c r="AF384" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG384" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="192" t="s">
+        <v>488</v>
+      </c>
+      <c r="M385" s="194">
+        <v>908980.51</v>
+      </c>
+      <c r="P385" s="194">
+        <v>908980.51</v>
+      </c>
+      <c r="S385" s="194">
+        <v>409295.37</v>
+      </c>
+      <c r="AD385" s="195">
+        <v>409295.37</v>
+      </c>
+      <c r="AE385" s="195">
+        <v>499685.14</v>
+      </c>
+      <c r="AF385" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG385" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="192" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="C389" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K389" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M389" s="180">
+        <v>18000</v>
+      </c>
+      <c r="N389" s="180">
+        <v>0</v>
+      </c>
+      <c r="P389" s="180">
+        <v>18000</v>
+      </c>
+      <c r="S389" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD389" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE389" s="184">
+        <v>18000</v>
+      </c>
+      <c r="AF389" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG389" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="192" t="s">
+        <v>490</v>
+      </c>
+      <c r="M390" s="194">
+        <v>18000</v>
+      </c>
+      <c r="P390" s="194">
+        <v>18000</v>
+      </c>
+      <c r="S390" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD390" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE390" s="195">
+        <v>18000</v>
+      </c>
+      <c r="AF390" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG390" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="192" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="B393" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="C394" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K394" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M394" s="180">
+        <v>1000000</v>
+      </c>
+      <c r="N394" s="180">
+        <v>0</v>
+      </c>
+      <c r="P394" s="180">
+        <v>1000000</v>
+      </c>
+      <c r="S394" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD394" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE394" s="184">
+        <v>1000000</v>
+      </c>
+      <c r="AF394" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG394" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="192" t="s">
+        <v>492</v>
+      </c>
+      <c r="M395" s="194">
+        <v>1000000</v>
+      </c>
+      <c r="P395" s="194">
+        <v>1000000</v>
+      </c>
+      <c r="S395" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD395" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE395" s="195">
+        <v>1000000</v>
+      </c>
+      <c r="AF395" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG395" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="192" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="B398" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="C399" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K399" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M399" s="180">
+        <v>252500</v>
+      </c>
+      <c r="N399" s="180">
+        <v>0</v>
+      </c>
+      <c r="P399" s="180">
+        <v>252500</v>
+      </c>
+      <c r="S399" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD399" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE399" s="184">
+        <v>252500</v>
+      </c>
+      <c r="AF399" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG399" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="C400" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="K400" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="M400" s="180">
+        <v>0</v>
+      </c>
+      <c r="N400" s="180">
+        <v>0</v>
+      </c>
+      <c r="P400" s="180">
+        <v>0</v>
+      </c>
+      <c r="S400" s="180">
+        <v>148500</v>
+      </c>
+      <c r="AD400" s="184">
+        <v>148500</v>
+      </c>
+      <c r="AE400" s="184">
+        <v>-148500</v>
+      </c>
+      <c r="AF400" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG400" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="192" t="s">
+        <v>494</v>
+      </c>
+      <c r="M401" s="194">
+        <v>252500</v>
+      </c>
+      <c r="P401" s="194">
+        <v>252500</v>
+      </c>
+      <c r="S401" s="194">
+        <v>148500</v>
+      </c>
+      <c r="AD401" s="195">
+        <v>148500</v>
+      </c>
+      <c r="AE401" s="195">
+        <v>104000</v>
+      </c>
+      <c r="AF401" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG401" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="192" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="C405" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K405" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M405" s="180">
+        <v>150000</v>
+      </c>
+      <c r="N405" s="180">
+        <v>0</v>
+      </c>
+      <c r="P405" s="180">
+        <v>150000</v>
+      </c>
+      <c r="S405" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD405" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE405" s="184">
+        <v>150000</v>
+      </c>
+      <c r="AF405" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG405" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="192" t="s">
+        <v>496</v>
+      </c>
+      <c r="M406" s="194">
+        <v>150000</v>
+      </c>
+      <c r="P406" s="194">
+        <v>150000</v>
+      </c>
+      <c r="S406" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD406" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE406" s="195">
+        <v>150000</v>
+      </c>
+      <c r="AF406" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG406" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="192" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="B409" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="C410" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K410" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M410" s="180">
+        <v>2530000</v>
+      </c>
+      <c r="N410" s="180">
+        <v>0</v>
+      </c>
+      <c r="P410" s="180">
+        <v>2530000</v>
+      </c>
+      <c r="S410" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD410" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE410" s="184">
+        <v>2530000</v>
+      </c>
+      <c r="AF410" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG410" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="C411" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="K411" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="M411" s="180">
+        <v>0</v>
+      </c>
+      <c r="N411" s="180">
+        <v>0</v>
+      </c>
+      <c r="P411" s="180">
+        <v>0</v>
+      </c>
+      <c r="S411" s="180">
+        <v>2475000</v>
+      </c>
+      <c r="AD411" s="184">
+        <v>2475000</v>
+      </c>
+      <c r="AE411" s="184">
+        <v>-2475000</v>
+      </c>
+      <c r="AF411" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG411" s="185">
+        <v/>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="192" t="s">
+        <v>498</v>
+      </c>
+      <c r="M412" s="194">
+        <v>2530000</v>
+      </c>
+      <c r="P412" s="194">
+        <v>2530000</v>
+      </c>
+      <c r="S412" s="194">
+        <v>2475000</v>
+      </c>
+      <c r="AD412" s="195">
+        <v>2475000</v>
+      </c>
+      <c r="AE412" s="195">
+        <v>55000</v>
+      </c>
+      <c r="AF412" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG412" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="192" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="C416" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K416" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M416" s="180">
+        <v>3500000</v>
+      </c>
+      <c r="N416" s="180">
+        <v>0</v>
+      </c>
+      <c r="P416" s="180">
+        <v>3500000</v>
+      </c>
+      <c r="S416" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD416" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE416" s="184">
+        <v>3500000</v>
+      </c>
+      <c r="AF416" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG416" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="192" t="s">
+        <v>500</v>
+      </c>
+      <c r="M417" s="194">
+        <v>3500000</v>
+      </c>
+      <c r="P417" s="194">
+        <v>3500000</v>
+      </c>
+      <c r="S417" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD417" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE417" s="195">
+        <v>3500000</v>
+      </c>
+      <c r="AF417" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG417" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="192" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="C421" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K421" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M421" s="180">
+        <v>35400</v>
+      </c>
+      <c r="N421" s="180">
+        <v>0</v>
+      </c>
+      <c r="P421" s="180">
+        <v>35400</v>
+      </c>
+      <c r="S421" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD421" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE421" s="184">
+        <v>35400</v>
+      </c>
+      <c r="AF421" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG421" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="192" t="s">
+        <v>502</v>
+      </c>
+      <c r="M422" s="194">
+        <v>35400</v>
+      </c>
+      <c r="P422" s="194">
+        <v>35400</v>
+      </c>
+      <c r="S422" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD422" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE422" s="195">
+        <v>35400</v>
+      </c>
+      <c r="AF422" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG422" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="192" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="B425" s="193" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="C426" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K426" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M426" s="180">
+        <v>187899.33</v>
+      </c>
+      <c r="N426" s="180">
+        <v>0</v>
+      </c>
+      <c r="P426" s="180">
+        <v>187899.33</v>
+      </c>
+      <c r="S426" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD426" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE426" s="184">
+        <v>187899.33</v>
+      </c>
+      <c r="AF426" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG426" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="192" t="s">
+        <v>504</v>
+      </c>
+      <c r="M427" s="194">
+        <v>187899.33</v>
+      </c>
+      <c r="P427" s="194">
+        <v>187899.33</v>
+      </c>
+      <c r="S427" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD427" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE427" s="195">
+        <v>187899.33</v>
+      </c>
+      <c r="AF427" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG427" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="176" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="187" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="C431" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="K431" s="178">
+        <v>5060404003</v>
+      </c>
+      <c r="M431" s="180">
+        <v>39441996.76</v>
+      </c>
+      <c r="N431" s="180"/>
+      <c r="P431" s="180">
+        <v>39441996.76</v>
+      </c>
+      <c r="Q431" s="180"/>
+      <c r="R431" s="179"/>
+      <c r="S431" s="180">
+        <v>39441996.76</v>
+      </c>
+      <c r="T431" s="181">
+        <v>0</v>
+      </c>
+      <c r="U431" s="180"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="187" t="s">
+        <v>509</v>
+      </c>
+      <c r="M432" s="189">
+        <v>39441996.76</v>
+      </c>
+      <c r="P432" s="189"/>
+      <c r="Q432" s="188"/>
+      <c r="R432" s="188"/>
+      <c r="S432" s="189">
+        <v>39441996.76</v>
+      </c>
+      <c r="T432" s="190">
+        <v>0</v>
+      </c>
+      <c r="U432" s="189"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="187" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="C435" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="K435" s="178">
+        <v>5060404003</v>
+      </c>
+      <c r="M435" s="180">
+        <v>29753081.88</v>
+      </c>
+      <c r="N435" s="180"/>
+      <c r="P435" s="180">
+        <v>29753081.88</v>
+      </c>
+      <c r="Q435" s="180"/>
+      <c r="R435" s="179"/>
+      <c r="S435" s="180">
+        <v>29753081.88</v>
+      </c>
+      <c r="T435" s="181">
+        <v>0</v>
+      </c>
+      <c r="U435" s="180"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="187" t="s">
+        <v>511</v>
+      </c>
+      <c r="M436" s="189">
+        <v>29753081.88</v>
+      </c>
+      <c r="P436" s="189"/>
+      <c r="Q436" s="188"/>
+      <c r="R436" s="188"/>
+      <c r="S436" s="189">
+        <v>29753081.88</v>
+      </c>
+      <c r="T436" s="190">
+        <v>0</v>
+      </c>
+      <c r="U436" s="189"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="187" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="C439" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K439" s="178">
+        <v>5060405011</v>
+      </c>
+      <c r="M439" s="180">
+        <v>500000</v>
+      </c>
+      <c r="N439" s="180"/>
+      <c r="P439" s="180">
+        <v>500000</v>
+      </c>
+      <c r="Q439" s="180"/>
+      <c r="R439" s="179"/>
+      <c r="S439" s="180">
+        <v>500000</v>
+      </c>
+      <c r="T439" s="181">
+        <v>0</v>
+      </c>
+      <c r="U439" s="180"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="187" t="s">
+        <v>513</v>
+      </c>
+      <c r="M440" s="189">
+        <v>500000</v>
+      </c>
+      <c r="P440" s="189"/>
+      <c r="Q440" s="188"/>
+      <c r="R440" s="188"/>
+      <c r="S440" s="189">
+        <v>500000</v>
+      </c>
+      <c r="T440" s="190">
+        <v>0</v>
+      </c>
+      <c r="U440" s="189"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="176" t="s">
+        <v>514</v>
+      </c>
+      <c r="M441" s="188">
+        <v>69695078.64</v>
+      </c>
+      <c r="P441" s="189">
+        <v>69695078.64</v>
+      </c>
+      <c r="Q441" s="189">
+        <v>0</v>
+      </c>
+      <c r="R441" s="189">
+        <v>0</v>
+      </c>
+      <c r="S441" s="189">
+        <v>69695078.64</v>
+      </c>
+      <c r="T441" s="190">
+        <v>0</v>
+      </c>
+      <c r="U441" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="176" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="192" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="B446" s="193" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="C447" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="K447" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="M447" s="180">
+        <v>343737.85</v>
+      </c>
+      <c r="N447" s="180">
+        <v>0</v>
+      </c>
+      <c r="P447" s="180">
+        <v>343737.85</v>
+      </c>
+      <c r="S447" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD447" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE447" s="184">
+        <v>343737.85</v>
+      </c>
+      <c r="AF447" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG447" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="192" t="s">
+        <v>520</v>
+      </c>
+      <c r="M448" s="194">
+        <v>343737.85</v>
+      </c>
+      <c r="P448" s="194">
+        <v>343737.85</v>
+      </c>
+      <c r="S448" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD448" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE448" s="195">
+        <v>343737.85</v>
+      </c>
+      <c r="AF448" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG448" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="192" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="B451" s="193" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="C452" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="K452" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="M452" s="180">
+        <v>355538.49</v>
+      </c>
+      <c r="N452" s="180">
+        <v>0</v>
+      </c>
+      <c r="P452" s="180">
+        <v>355538.49</v>
+      </c>
+      <c r="S452" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD452" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE452" s="184">
+        <v>355538.49</v>
+      </c>
+      <c r="AF452" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG452" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="C453" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K453" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="M453" s="180">
+        <v>2647984</v>
+      </c>
+      <c r="N453" s="180">
+        <v>0</v>
+      </c>
+      <c r="P453" s="180">
+        <v>2647984</v>
+      </c>
+      <c r="S453" s="180">
+        <v>0</v>
+      </c>
+      <c r="AD453" s="184">
+        <v>0</v>
+      </c>
+      <c r="AE453" s="184">
+        <v>2647984</v>
+      </c>
+      <c r="AF453" s="184">
+        <v>0</v>
+      </c>
+      <c r="AG453" s="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="192" t="s">
+        <v>525</v>
+      </c>
+      <c r="M454" s="194">
+        <v>3003522.49</v>
+      </c>
+      <c r="P454" s="194">
+        <v>3003522.49</v>
+      </c>
+      <c r="S454" s="194">
+        <v>0</v>
+      </c>
+      <c r="AD454" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE454" s="195">
+        <v>3003522.49</v>
+      </c>
+      <c r="AF454" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG454" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="176" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="187" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="C458" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="K458" s="178">
+        <v>5010101001</v>
+      </c>
+      <c r="M458" s="180"/>
+      <c r="N458" s="180"/>
+      <c r="P458" s="179"/>
+      <c r="Q458" s="180"/>
+      <c r="R458" s="179"/>
+      <c r="S458" s="179"/>
+      <c r="T458" s="181">
+        <v/>
+      </c>
+      <c r="U458" s="180"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="K459" s="178">
+        <v>5010102000</v>
+      </c>
+      <c r="M459" s="180"/>
+      <c r="N459" s="180">
+        <v>2000</v>
+      </c>
+      <c r="P459" s="180">
+        <v>2000</v>
+      </c>
+      <c r="Q459" s="180"/>
+      <c r="R459" s="180">
+        <v>50000</v>
+      </c>
+      <c r="S459" s="191">
+        <v>48000</v>
+      </c>
+      <c r="T459" s="181">
+        <v>0</v>
+      </c>
+      <c r="U459" s="180"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="K460" s="178">
+        <v>5010201001</v>
+      </c>
+      <c r="M460" s="180"/>
+      <c r="N460" s="180"/>
+      <c r="P460" s="179"/>
+      <c r="Q460" s="180"/>
+      <c r="R460" s="180">
+        <v>50000</v>
+      </c>
+      <c r="S460" s="191">
+        <v>50000</v>
+      </c>
+      <c r="T460" s="181">
+        <v/>
+      </c>
+      <c r="U460" s="180"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K461" s="178">
+        <v>5010202000</v>
+      </c>
+      <c r="M461" s="180">
+        <v>50000</v>
+      </c>
+      <c r="N461" s="191">
+        <v>2000</v>
+      </c>
+      <c r="P461" s="180">
+        <v>48000</v>
+      </c>
+      <c r="Q461" s="180">
+        <v>3000</v>
+      </c>
+      <c r="R461" s="180">
+        <v>3000</v>
+      </c>
+      <c r="S461" s="180">
+        <v>45000</v>
+      </c>
+      <c r="T461" s="181">
+        <v>0.0625</v>
+      </c>
+      <c r="U461" s="180">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="C462" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="K462" s="178">
+        <v>5010204001</v>
+      </c>
+      <c r="M462" s="180"/>
+      <c r="N462" s="180"/>
+      <c r="P462" s="179"/>
+      <c r="Q462" s="180"/>
+      <c r="R462" s="179"/>
+      <c r="S462" s="179"/>
+      <c r="T462" s="181">
+        <v/>
+      </c>
+      <c r="U462" s="180"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="187" t="s">
+        <v>530</v>
+      </c>
+      <c r="M463" s="189">
+        <v>50000</v>
+      </c>
+      <c r="P463" s="189">
+        <v>3000</v>
+      </c>
+      <c r="Q463" s="188"/>
+      <c r="R463" s="189">
         <v>103000</v>
       </c>
-      <c r="S60" s="192">
+      <c r="S463" s="197">
         <v>53000</v>
       </c>
-      <c r="T60" s="190">
+      <c r="T463" s="190">
         <v>0.06</v>
       </c>
-      <c r="U60" s="189">
+      <c r="U463" s="189">
         <v>3000</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="176" t="s">
-        <v>327</v>
-      </c>
-      <c r="M61" s="188">
+    <row r="464">
+      <c r="A464" s="176" t="s">
+        <v>531</v>
+      </c>
+      <c r="M464" s="188">
         <v>50000</v>
       </c>
-      <c r="P61" s="189">
+      <c r="P464" s="189">
         <v>50000</v>
       </c>
-      <c r="Q61" s="189">
+      <c r="Q464" s="189">
         <v>3000</v>
       </c>
-      <c r="R61" s="189">
+      <c r="R464" s="189">
         <v>103000</v>
       </c>
-      <c r="S61" s="192">
+      <c r="S464" s="197">
         <v>53000</v>
       </c>
-      <c r="T61" s="190">
+      <c r="T464" s="190">
         <v>0.06</v>
       </c>
-      <c r="U61" s="189">
+      <c r="U464" s="189">
         <v>3000</v>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" s="193" t="s">
+    <row r="467">
+      <c r="B467" s="192" t="s">
         <v>321</v>
       </c>
-      <c r="M64" s="194" t="s">
-        <v>328</v>
-      </c>
-      <c r="P64" s="194" t="s">
-        <v>328</v>
-      </c>
-      <c r="S64" s="194" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD64" s="195" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE64" s="195" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF64" s="195" t="s">
-        <v>329</v>
-      </c>
-      <c r="AG64" s="196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="193" t="s">
-        <v>327</v>
-      </c>
-      <c r="M65" s="194" t="s">
-        <v>332</v>
-      </c>
-      <c r="P65" s="194" t="s">
-        <v>332</v>
-      </c>
-      <c r="S65" s="194" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD65" s="195" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE65" s="195" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF65" s="195" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG65" s="196">
+      <c r="M467" s="194" t="s">
+        <v>532</v>
+      </c>
+      <c r="P467" s="194" t="s">
+        <v>532</v>
+      </c>
+      <c r="S467" s="194" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD467" s="195" t="s">
+        <v>534</v>
+      </c>
+      <c r="AE467" s="195" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF467" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="AG467" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="B468" s="192" t="s">
+        <v>357</v>
+      </c>
+      <c r="M468" s="194" t="s">
+        <v>536</v>
+      </c>
+      <c r="P468" s="194" t="s">
+        <v>536</v>
+      </c>
+      <c r="S468" s="194" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD468" s="195" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE468" s="195" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF468" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="AG468" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" s="192" t="s">
+        <v>395</v>
+      </c>
+      <c r="M469" s="194" t="s">
+        <v>539</v>
+      </c>
+      <c r="P469" s="194" t="s">
+        <v>539</v>
+      </c>
+      <c r="S469" s="194" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD469" s="195" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE469" s="195" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF469" s="195" t="s">
+        <v>542</v>
+      </c>
+      <c r="AG469" s="196">
+        <v>6.4156221405090942E-06</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="B470" s="192" t="s">
+        <v>514</v>
+      </c>
+      <c r="M470" s="194" t="s">
+        <v>543</v>
+      </c>
+      <c r="P470" s="194" t="s">
+        <v>543</v>
+      </c>
+      <c r="S470" s="194" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD470" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE470" s="195" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF470" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="AG470" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="B471" s="192" t="s">
+        <v>531</v>
+      </c>
+      <c r="M471" s="194" t="s">
+        <v>544</v>
+      </c>
+      <c r="P471" s="194" t="s">
+        <v>544</v>
+      </c>
+      <c r="S471" s="194" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD471" s="195" t="s">
+        <v>546</v>
+      </c>
+      <c r="AE471" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF471" s="195" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG471" s="196">
         <v>0.06</v>
       </c>
     </row>
-    <row r="304"/>
-    <row r="346"/>
+    <row r="472">
+      <c r="B472" s="192" t="s">
+        <v>547</v>
+      </c>
+      <c r="M472" s="194" t="s">
+        <v>548</v>
+      </c>
+      <c r="P472" s="194" t="s">
+        <v>548</v>
+      </c>
+      <c r="S472" s="194" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD472" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE472" s="195" t="s">
+        <v>548</v>
+      </c>
+      <c r="AF472" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="AG472" s="195" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="B473" s="192" t="s">
+        <v>549</v>
+      </c>
+      <c r="M473" s="194" t="s">
+        <v>550</v>
+      </c>
+      <c r="P473" s="194" t="s">
+        <v>550</v>
+      </c>
+      <c r="S473" s="194" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD473" s="195" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE473" s="195" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF473" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="AG473" s="195" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="B474" s="192" t="s">
+        <v>553</v>
+      </c>
+      <c r="M474" s="194" t="s">
+        <v>554</v>
+      </c>
+      <c r="P474" s="194" t="s">
+        <v>554</v>
+      </c>
+      <c r="S474" s="194" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD474" s="195" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE474" s="195" t="s">
+        <v>555</v>
+      </c>
+      <c r="AF474" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="AG474" s="195" t="s">
+        <v>533</v>
+      </c>
+    </row>
     <row r="516"/>
     <row r="557"/>
     <row r="598"/>
@@ -13459,6 +20610,30 @@
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="C49:J49"/>
     <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C103:J103"/>
+    <mergeCell ref="C125:J125"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="C133:J133"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C152:J152"/>
+    <mergeCell ref="C166:J166"/>
+    <mergeCell ref="C170:J170"/>
+    <mergeCell ref="C174:J174"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="C190:J190"/>
+    <mergeCell ref="C432:J432"/>
+    <mergeCell ref="C436:J436"/>
+    <mergeCell ref="C440:J440"/>
+    <mergeCell ref="C463:J463"/>
   </mergeCells>
   <conditionalFormatting sqref="Y13:Z13">
     <cfRule type="uniqueValues" dxfId="5" priority="162"/>

--- a/BUDGET/excel_reports/SAOB_NEW2.xlsx
+++ b/BUDGET/excel_reports/SAOB_NEW2.xlsx
@@ -40,9 +40,9 @@
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
   <customWorkbookViews>
+    <customWorkbookView name="MGaviola - Personal View" guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" mergeInterval="0" personalView="1" xWindow="15" yWindow="37" windowWidth="1343" windowHeight="301" activeSheetId="1"/>
+    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
     <customWorkbookView name="CENSORED - Personal View" guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1407" windowHeight="878" activeSheetId="6"/>
-    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
-    <customWorkbookView name="MGaviola - Personal View" guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" mergeInterval="0" personalView="1" xWindow="15" yWindow="37" windowWidth="1343" windowHeight="301" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -910,9 +910,6 @@
     <t>OF</t>
   </si>
   <si>
-    <t>AS OF DECEMBER</t>
-  </si>
-  <si>
     <t>SHOULD</t>
   </si>
   <si>
@@ -1144,9 +1141,6 @@
     <t>SUBSIDY TO REGIONAL OFFICES/STAFF BUREAUS</t>
   </si>
   <si>
-    <t>5021407000</t>
-  </si>
-  <si>
     <t>SUBTOTAL SAA# 2019-01-0016</t>
   </si>
   <si>
@@ -1255,9 +1249,6 @@
     <t>FINANCIAL ASSISTANCE TO NGAS</t>
   </si>
   <si>
-    <t>5021402000</t>
-  </si>
-  <si>
     <t>SUBTOTAL SAA# 2018-08-1309 CONAP</t>
   </si>
   <si>
@@ -1271,12 +1262,6 @@
   </si>
   <si>
     <t>SAA# 2018-02-0059 CONAP</t>
-  </si>
-  <si>
-    <t>5020201002</t>
-  </si>
-  <si>
-    <t>5029903000</t>
   </si>
   <si>
     <t>SUBTOTAL SAA# 2018-02-0059 CONAP</t>
@@ -1310,9 +1295,6 @@
   </si>
   <si>
     <t>SAA# 2018-03-0309 CONAP</t>
-  </si>
-  <si>
-    <t>5020101000</t>
   </si>
   <si>
     <t>SUBTOTAL SAA# 2018-03-0309 CONAP</t>
@@ -1358,9 +1340,6 @@
   </si>
   <si>
     <t>SUBSIDY- OTHERS</t>
-  </si>
-  <si>
-    <t>5021499000</t>
   </si>
   <si>
     <t>SUBTOTAL SAA# 2018-07-1251 CONAP</t>
@@ -1501,9 +1480,6 @@
     <t>SAA# 2018-03-0455 CONAP</t>
   </si>
   <si>
-    <t>5021403000</t>
-  </si>
-  <si>
     <t>SUBTOTAL SAA# 2018-03-0455 CONAP</t>
   </si>
   <si>
@@ -1612,9 +1588,6 @@
     <t>INFORMATION AND COMMUNICATION TECHNOLOGY EQUIPMENT</t>
   </si>
   <si>
-    <t>5060405003</t>
-  </si>
-  <si>
     <t>SUBTOTAL SAA# 2018-05-1013 CONAP</t>
   </si>
   <si>
@@ -1622,12 +1595,6 @@
   </si>
   <si>
     <t>HFEP - Establishment of DOH Water Testing Laboratory</t>
-  </si>
-  <si>
-    <t>5060404003</t>
-  </si>
-  <si>
-    <t>5060405011</t>
   </si>
   <si>
     <t>SUBTOTAL SAA# 2018-09-1504 CONAP</t>
@@ -1649,6 +1616,18 @@
   </si>
   <si>
     <t>TOTAL TEST</t>
+  </si>
+  <si>
+    <t>SUB-ALLOTMENT-TEST</t>
+  </si>
+  <si>
+    <t>SAA TEST</t>
+  </si>
+  <si>
+    <t>Testing Sub Allotment</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAATEST</t>
   </si>
   <si>
     <t>27,191,000.00</t>
@@ -1722,6 +1701,27 @@
   <si>
     <t>22,928,219.66</t>
   </si>
+  <si>
+    <t>TOTAL SAA TEST</t>
+  </si>
+  <si>
+    <t>28,456,485.03</t>
+  </si>
+  <si>
+    <t>2,000.00</t>
+  </si>
+  <si>
+    <t>5,483,265.37</t>
+  </si>
+  <si>
+    <t>22,973,219.66</t>
+  </si>
+  <si>
+    <t>3.5141374591618E-05%</t>
+  </si>
+  <si>
+    <t>1,000.00</t>
+  </si>
 </sst>
 </file>
 
@@ -1734,7 +1734,7 @@
     <numFmt numFmtId="166" formatCode="#0.00%"/>
     <numFmt numFmtId="167" formatCode="(#,##0.00)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1837,12 +1837,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -2484,36 +2478,6 @@
     <xf numFmtId="43" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="7">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="7">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="7">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2537,6 +2501,36 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="7">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="7">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="7">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
@@ -2581,26 +2575,26 @@
     <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="167" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3128,13 +3122,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TH474"/>
+  <dimension ref="A1:TH482"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="14" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7680,10 +7674,10 @@
       <c r="S10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
-      <c r="Y10" s="158" t="s">
+      <c r="Y10" s="168" t="s">
         <v>263</v>
       </c>
-      <c r="Z10" s="158"/>
+      <c r="Z10" s="168"/>
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
@@ -7935,10 +7929,10 @@
       <c r="JO10" s="24"/>
       <c r="JP10" s="92"/>
       <c r="JQ10" s="92"/>
-      <c r="JR10" s="159" t="s">
+      <c r="JR10" s="169" t="s">
         <v>264</v>
       </c>
-      <c r="JS10" s="160"/>
+      <c r="JS10" s="170"/>
       <c r="JT10" s="24"/>
       <c r="JU10" s="24"/>
       <c r="JV10" s="24"/>
@@ -8190,18 +8184,18 @@
       <c r="TH10" s="24"/>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="30" customFormat="1">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="173" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="167"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
       <c r="K11" s="57" t="s">
         <v>266</v>
       </c>
@@ -8234,10 +8228,10 @@
       <c r="X11" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="Y11" s="174" t="s">
+      <c r="Y11" s="164" t="s">
         <v>272</v>
       </c>
-      <c r="Z11" s="163" t="s">
+      <c r="Z11" s="166" t="s">
         <v>273</v>
       </c>
       <c r="AA11" s="29" t="s">
@@ -8496,13 +8490,13 @@
       <c r="JN11" s="29"/>
       <c r="JO11" s="29"/>
       <c r="JP11" s="93"/>
-      <c r="JQ11" s="161" t="s">
+      <c r="JQ11" s="171" t="s">
         <v>274</v>
       </c>
-      <c r="JR11" s="174" t="s">
+      <c r="JR11" s="164" t="s">
         <v>275</v>
       </c>
-      <c r="JS11" s="163" t="s">
+      <c r="JS11" s="166" t="s">
         <v>276</v>
       </c>
       <c r="JT11" s="29" t="s">
@@ -8762,18 +8756,18 @@
       <c r="TH11" s="29"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="49" customFormat="1">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="161" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
       <c r="K12" s="58" t="s">
         <v>278</v>
       </c>
@@ -8805,19 +8799,19 @@
         <v>284</v>
       </c>
       <c r="U12" s="116" t="s">
+        <v>282</v>
+      </c>
+      <c r="V12" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="V12" s="82" t="s">
-        <v>286</v>
-      </c>
       <c r="W12" s="82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X12" s="81" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y12" s="175"/>
-      <c r="Z12" s="164"/>
+        <v>285</v>
+      </c>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="167"/>
       <c r="AA12" s="83">
         <v>5010101001</v>
       </c>
@@ -9566,9 +9560,9 @@
         <v>5060699000</v>
       </c>
       <c r="JP12" s="87"/>
-      <c r="JQ12" s="162"/>
-      <c r="JR12" s="175"/>
-      <c r="JS12" s="164"/>
+      <c r="JQ12" s="172"/>
+      <c r="JR12" s="165"/>
+      <c r="JS12" s="167"/>
       <c r="JT12" s="83">
         <v>5010101001</v>
       </c>
@@ -10318,16 +10312,16 @@
       </c>
     </row>
     <row r="13" s="30" customFormat="1">
-      <c r="A13" s="171"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="173"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
       <c r="K13" s="58"/>
       <c r="L13" s="31" t="s">
         <v>12</v>
@@ -10342,17 +10336,17 @@
         <v>267</v>
       </c>
       <c r="T13" s="116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U13" s="52"/>
       <c r="V13" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="W13" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="W13" s="31" t="s">
-        <v>289</v>
-      </c>
       <c r="X13" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y13" s="86" t="e">
         <f>+#REF!</f>
@@ -10893,53 +10887,53 @@
       <c r="TH13" s="38"/>
     </row>
     <row r="14" hidden="1" ht="13.5" customHeight="1" s="43" customFormat="1">
-      <c r="A14" s="168" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="170"/>
+      <c r="A14" s="158" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
       <c r="K14" s="59"/>
       <c r="L14" s="39"/>
       <c r="M14" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="N14" s="51" t="s">
+      <c r="O14" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="O14" s="40" t="s">
+      <c r="P14" s="51" t="s">
         <v>293</v>
-      </c>
-      <c r="P14" s="51" t="s">
-        <v>294</v>
       </c>
       <c r="Q14" s="51" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="S14" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="S14" s="41" t="s">
+      <c r="T14" s="117" t="s">
         <v>296</v>
       </c>
-      <c r="T14" s="117" t="s">
+      <c r="U14" s="117" t="s">
         <v>297</v>
-      </c>
-      <c r="U14" s="117" t="s">
-        <v>298</v>
       </c>
       <c r="V14" s="129"/>
       <c r="W14" s="157" t="s">
+        <v>298</v>
+      </c>
+      <c r="X14" s="156" t="s">
         <v>299</v>
-      </c>
-      <c r="X14" s="156" t="s">
-        <v>300</v>
       </c>
       <c r="Y14" s="84"/>
       <c r="Z14" s="85" t="e">
@@ -12947,7 +12941,7 @@
     </row>
     <row r="15">
       <c r="A15" s="176" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W15" s="120">
         <v>252207.68</v>
@@ -12955,7 +12949,7 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -12975,7 +12969,7 @@
     </row>
     <row r="17">
       <c r="A17" s="177" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -12995,7 +12989,7 @@
     </row>
     <row r="18">
       <c r="C18" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K18" s="178">
         <v>5010101001</v>
@@ -13003,7 +12997,6 @@
       <c r="M18" s="180">
         <v>12374500</v>
       </c>
-      <c r="N18" s="180"/>
       <c r="P18" s="180">
         <v>12374500</v>
       </c>
@@ -13021,7 +13014,7 @@
     </row>
     <row r="19">
       <c r="C19" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K19" s="178">
         <v>5010201001</v>
@@ -13029,7 +13022,6 @@
       <c r="M19" s="180">
         <v>582000</v>
       </c>
-      <c r="N19" s="180"/>
       <c r="P19" s="180">
         <v>582000</v>
       </c>
@@ -13049,7 +13041,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -13065,7 +13057,7 @@
       <c r="M20" s="184">
         <v>67500</v>
       </c>
-      <c r="N20" s="184"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="184">
         <v>67500</v>
@@ -13091,7 +13083,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -13107,7 +13099,7 @@
       <c r="M21" s="184">
         <v>67500</v>
       </c>
-      <c r="N21" s="184"/>
+      <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="184">
         <v>67500</v>
@@ -13133,7 +13125,7 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -13149,7 +13141,7 @@
       <c r="M22" s="184">
         <v>1279500</v>
       </c>
-      <c r="N22" s="184"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="184">
         <v>1279500</v>
@@ -13175,7 +13167,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -13191,7 +13183,7 @@
       <c r="M23" s="184">
         <v>86750</v>
       </c>
-      <c r="N23" s="184"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="184">
         <v>86750</v>
@@ -13217,7 +13209,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -13233,7 +13225,7 @@
       <c r="M24" s="184">
         <v>3849000</v>
       </c>
-      <c r="N24" s="184"/>
+      <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="184">
         <v>3849000</v>
@@ -13257,7 +13249,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -13271,7 +13263,7 @@
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
+      <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="183"/>
       <c r="Q25" s="184"/>
@@ -13295,7 +13287,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -13311,7 +13303,7 @@
       <c r="M26" s="184">
         <v>29000</v>
       </c>
-      <c r="N26" s="184"/>
+      <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="184">
         <v>29000</v>
@@ -13335,7 +13327,7 @@
     </row>
     <row r="27">
       <c r="C27" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K27" s="178">
         <v>5010303001</v>
@@ -13343,7 +13335,6 @@
       <c r="M27" s="180">
         <v>93000</v>
       </c>
-      <c r="N27" s="180"/>
       <c r="P27" s="180">
         <v>93000</v>
       </c>
@@ -13359,7 +13350,7 @@
     </row>
     <row r="28">
       <c r="C28" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K28" s="178">
         <v>5010304001</v>
@@ -13367,7 +13358,6 @@
       <c r="M28" s="180">
         <v>29000</v>
       </c>
-      <c r="N28" s="180"/>
       <c r="P28" s="180">
         <v>29000</v>
       </c>
@@ -13383,7 +13373,7 @@
     </row>
     <row r="29">
       <c r="C29" s="187" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M29" s="189">
         <v>18457750</v>
@@ -13403,17 +13393,17 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="187" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K32" s="178">
         <v>5010101001</v>
@@ -13421,7 +13411,6 @@
       <c r="M32" s="180">
         <v>6115500</v>
       </c>
-      <c r="N32" s="180"/>
       <c r="P32" s="180">
         <v>6115500</v>
       </c>
@@ -13439,7 +13428,7 @@
     </row>
     <row r="33">
       <c r="C33" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K33" s="178">
         <v>5010201001</v>
@@ -13447,7 +13436,6 @@
       <c r="M33" s="180">
         <v>276000</v>
       </c>
-      <c r="N33" s="180"/>
       <c r="P33" s="180">
         <v>276000</v>
       </c>
@@ -13465,7 +13453,7 @@
     </row>
     <row r="34">
       <c r="C34" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K34" s="178">
         <v>5010202000</v>
@@ -13473,7 +13461,6 @@
       <c r="M34" s="180">
         <v>15000</v>
       </c>
-      <c r="N34" s="180"/>
       <c r="P34" s="180">
         <v>15000</v>
       </c>
@@ -13491,7 +13478,7 @@
     </row>
     <row r="35">
       <c r="C35" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K35" s="178">
         <v>5010203001</v>
@@ -13499,7 +13486,6 @@
       <c r="M35" s="180">
         <v>15000</v>
       </c>
-      <c r="N35" s="180"/>
       <c r="P35" s="180">
         <v>15000</v>
       </c>
@@ -13517,7 +13503,7 @@
     </row>
     <row r="36">
       <c r="C36" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K36" s="178">
         <v>5010302001</v>
@@ -13525,7 +13511,6 @@
       <c r="M36" s="180">
         <v>13750</v>
       </c>
-      <c r="N36" s="180"/>
       <c r="P36" s="180">
         <v>13750</v>
       </c>
@@ -13543,7 +13528,7 @@
     </row>
     <row r="37">
       <c r="C37" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K37" s="178">
         <v>5010303001</v>
@@ -13551,7 +13536,6 @@
       <c r="M37" s="180">
         <v>49750</v>
       </c>
-      <c r="N37" s="180"/>
       <c r="P37" s="180">
         <v>49750</v>
       </c>
@@ -13567,7 +13551,7 @@
     </row>
     <row r="38">
       <c r="C38" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K38" s="178">
         <v>5010304001</v>
@@ -13575,7 +13559,6 @@
       <c r="M38" s="180">
         <v>13750</v>
       </c>
-      <c r="N38" s="180"/>
       <c r="P38" s="180">
         <v>13750</v>
       </c>
@@ -13591,7 +13574,7 @@
     </row>
     <row r="39">
       <c r="C39" s="187" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M39" s="189">
         <v>6498750</v>
@@ -13611,7 +13594,7 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
@@ -13621,7 +13604,7 @@
     </row>
     <row r="42">
       <c r="C42" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K42" s="178">
         <v>5010101001</v>
@@ -13629,7 +13612,6 @@
       <c r="M42" s="180">
         <v>2066750</v>
       </c>
-      <c r="N42" s="180"/>
       <c r="P42" s="180">
         <v>2066750</v>
       </c>
@@ -13647,7 +13629,7 @@
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K43" s="178">
         <v>5010201001</v>
@@ -13655,7 +13637,6 @@
       <c r="M43" s="180">
         <v>108000</v>
       </c>
-      <c r="N43" s="180"/>
       <c r="P43" s="180">
         <v>108000</v>
       </c>
@@ -13673,7 +13654,7 @@
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K44" s="178">
         <v>5010202000</v>
@@ -13681,7 +13662,6 @@
       <c r="M44" s="180">
         <v>15000</v>
       </c>
-      <c r="N44" s="180"/>
       <c r="P44" s="180">
         <v>15000</v>
       </c>
@@ -13699,7 +13679,7 @@
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K45" s="178">
         <v>5010203001</v>
@@ -13707,7 +13687,6 @@
       <c r="M45" s="180">
         <v>15000</v>
       </c>
-      <c r="N45" s="180"/>
       <c r="P45" s="180">
         <v>15000</v>
       </c>
@@ -13725,7 +13704,7 @@
     </row>
     <row r="46">
       <c r="C46" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K46" s="178">
         <v>5010302001</v>
@@ -13733,7 +13712,6 @@
       <c r="M46" s="180">
         <v>5500</v>
       </c>
-      <c r="N46" s="180"/>
       <c r="P46" s="180">
         <v>5500</v>
       </c>
@@ -13751,7 +13729,7 @@
     </row>
     <row r="47">
       <c r="C47" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K47" s="178">
         <v>5010303001</v>
@@ -13759,7 +13737,6 @@
       <c r="M47" s="180">
         <v>18750</v>
       </c>
-      <c r="N47" s="180"/>
       <c r="P47" s="180">
         <v>18750</v>
       </c>
@@ -13775,7 +13752,7 @@
     </row>
     <row r="48">
       <c r="C48" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K48" s="178">
         <v>5010304001</v>
@@ -13783,7 +13760,6 @@
       <c r="M48" s="180">
         <v>5500</v>
       </c>
-      <c r="N48" s="180"/>
       <c r="P48" s="180">
         <v>5500</v>
       </c>
@@ -13799,7 +13775,7 @@
     </row>
     <row r="49">
       <c r="C49" s="187" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M49" s="189">
         <v>2234500</v>
@@ -13818,8 +13794,8 @@
       <c r="U49" s="189"/>
     </row>
     <row r="50">
-      <c r="A50" s="176" t="s">
-        <v>321</v>
+      <c r="J50" s="191" t="s">
+        <v>320</v>
       </c>
       <c r="M50" s="188">
         <v>27191000</v>
@@ -13827,9 +13803,7 @@
       <c r="P50" s="189">
         <v>27191000</v>
       </c>
-      <c r="Q50" s="189">
-        <v>0</v>
-      </c>
+      <c r="Q50" s="188"/>
       <c r="R50" s="189">
         <v>7604525.02</v>
       </c>
@@ -13845,22 +13819,22 @@
     </row>
     <row r="52">
       <c r="A52" s="176" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="187" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K55" s="178">
         <v>5020101000</v>
@@ -13868,7 +13842,6 @@
       <c r="M55" s="180">
         <v>4121750</v>
       </c>
-      <c r="N55" s="180"/>
       <c r="P55" s="180">
         <v>4121750</v>
       </c>
@@ -13886,19 +13859,18 @@
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K56" s="178">
         <v>5020502001</v>
       </c>
       <c r="M56" s="180"/>
-      <c r="N56" s="180"/>
       <c r="P56" s="179"/>
       <c r="Q56" s="180"/>
       <c r="R56" s="180">
         <v>3500</v>
       </c>
-      <c r="S56" s="191">
+      <c r="S56" s="192">
         <v>3500</v>
       </c>
       <c r="T56" s="181">
@@ -13908,19 +13880,18 @@
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K57" s="178">
         <v>5020503000</v>
       </c>
       <c r="M57" s="180"/>
-      <c r="N57" s="180"/>
       <c r="P57" s="179"/>
       <c r="Q57" s="180"/>
       <c r="R57" s="180">
         <v>5677</v>
       </c>
-      <c r="S57" s="191">
+      <c r="S57" s="192">
         <v>5677</v>
       </c>
       <c r="T57" s="181">
@@ -13930,19 +13901,18 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K58" s="178">
         <v>5021501001</v>
       </c>
       <c r="M58" s="180"/>
-      <c r="N58" s="180"/>
       <c r="P58" s="179"/>
       <c r="Q58" s="180"/>
       <c r="R58" s="180">
         <v>431.56</v>
       </c>
-      <c r="S58" s="191">
+      <c r="S58" s="192">
         <v>431.56</v>
       </c>
       <c r="T58" s="181">
@@ -13952,19 +13922,18 @@
     </row>
     <row r="59">
       <c r="C59" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K59" s="178">
         <v>5021503000</v>
       </c>
       <c r="M59" s="180"/>
-      <c r="N59" s="180"/>
       <c r="P59" s="179"/>
       <c r="Q59" s="180"/>
       <c r="R59" s="180">
         <v>13134.119999999999</v>
       </c>
-      <c r="S59" s="191">
+      <c r="S59" s="192">
         <v>13134.119999999999</v>
       </c>
       <c r="T59" s="181">
@@ -13974,7 +13943,7 @@
     </row>
     <row r="60">
       <c r="C60" s="187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M60" s="189">
         <v>4121750</v>
@@ -13994,17 +13963,17 @@
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="187" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63">
       <c r="C63" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K63" s="178">
         <v>5020101000</v>
@@ -14012,7 +13981,6 @@
       <c r="M63" s="180">
         <v>340250</v>
       </c>
-      <c r="N63" s="180"/>
       <c r="P63" s="180">
         <v>340250</v>
       </c>
@@ -14028,7 +13996,7 @@
     </row>
     <row r="64">
       <c r="C64" s="187" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M64" s="189">
         <v>340250</v>
@@ -14046,17 +14014,17 @@
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="187" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67">
       <c r="C67" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K67" s="178">
         <v>5021403000</v>
@@ -14064,7 +14032,6 @@
       <c r="M67" s="180">
         <v>4525000</v>
       </c>
-      <c r="N67" s="180"/>
       <c r="P67" s="180">
         <v>4525000</v>
       </c>
@@ -14080,7 +14047,7 @@
     </row>
     <row r="68">
       <c r="C68" s="187" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M68" s="189">
         <v>4525000</v>
@@ -14098,17 +14065,17 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="187" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71">
       <c r="C71" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K71" s="178">
         <v>5021199000</v>
@@ -14116,7 +14083,6 @@
       <c r="M71" s="180">
         <v>192296000</v>
       </c>
-      <c r="N71" s="180"/>
       <c r="P71" s="180">
         <v>192296000</v>
       </c>
@@ -14132,7 +14098,7 @@
     </row>
     <row r="72">
       <c r="C72" s="187" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M72" s="189">
         <v>192296000</v>
@@ -14150,29 +14116,28 @@
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="187" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75">
       <c r="C75" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K75" s="178">
         <v>5020101000</v>
       </c>
       <c r="M75" s="180"/>
-      <c r="N75" s="180"/>
       <c r="P75" s="179"/>
       <c r="Q75" s="180"/>
       <c r="R75" s="180">
         <v>12705.64</v>
       </c>
-      <c r="S75" s="191">
+      <c r="S75" s="192">
         <v>12705.64</v>
       </c>
       <c r="T75" s="181">
@@ -14182,7 +14147,7 @@
     </row>
     <row r="76">
       <c r="C76" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K76" s="178">
         <v>5020201002</v>
@@ -14190,7 +14155,6 @@
       <c r="M76" s="180">
         <v>1144000</v>
       </c>
-      <c r="N76" s="180"/>
       <c r="P76" s="180">
         <v>1144000</v>
       </c>
@@ -14208,7 +14172,7 @@
     </row>
     <row r="77">
       <c r="C77" s="187" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M77" s="189">
         <v>1144000</v>
@@ -14228,7 +14192,7 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79">
@@ -14238,7 +14202,7 @@
     </row>
     <row r="80">
       <c r="C80" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K80" s="178">
         <v>5020201002</v>
@@ -14246,7 +14210,6 @@
       <c r="M80" s="180">
         <v>1906750</v>
       </c>
-      <c r="N80" s="180"/>
       <c r="P80" s="180">
         <v>1906750</v>
       </c>
@@ -14262,7 +14225,7 @@
     </row>
     <row r="81">
       <c r="C81" s="187" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M81" s="189">
         <v>1906750</v>
@@ -14280,17 +14243,17 @@
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="187" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84">
       <c r="C84" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K84" s="178">
         <v>5020101000</v>
@@ -14298,7 +14261,6 @@
       <c r="M84" s="180">
         <v>45164500</v>
       </c>
-      <c r="N84" s="180"/>
       <c r="P84" s="180">
         <v>45164500</v>
       </c>
@@ -14316,19 +14278,18 @@
     </row>
     <row r="85">
       <c r="C85" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K85" s="178">
         <v>5020201002</v>
       </c>
       <c r="M85" s="180"/>
-      <c r="N85" s="180"/>
       <c r="P85" s="179"/>
       <c r="Q85" s="180"/>
       <c r="R85" s="180">
         <v>22500</v>
       </c>
-      <c r="S85" s="191">
+      <c r="S85" s="192">
         <v>22500</v>
       </c>
       <c r="T85" s="181">
@@ -14338,19 +14299,18 @@
     </row>
     <row r="86">
       <c r="C86" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K86" s="178">
         <v>5020502001</v>
       </c>
       <c r="M86" s="180"/>
-      <c r="N86" s="180"/>
       <c r="P86" s="179"/>
       <c r="Q86" s="180"/>
       <c r="R86" s="180">
         <v>11097.24</v>
       </c>
-      <c r="S86" s="191">
+      <c r="S86" s="192">
         <v>11097.24</v>
       </c>
       <c r="T86" s="181">
@@ -14360,19 +14320,18 @@
     </row>
     <row r="87">
       <c r="C87" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K87" s="178">
         <v>5020503000</v>
       </c>
       <c r="M87" s="180"/>
-      <c r="N87" s="180"/>
       <c r="P87" s="179"/>
       <c r="Q87" s="180"/>
       <c r="R87" s="180">
         <v>9753.3</v>
       </c>
-      <c r="S87" s="191">
+      <c r="S87" s="192">
         <v>9753.3</v>
       </c>
       <c r="T87" s="181">
@@ -14382,13 +14341,12 @@
     </row>
     <row r="88">
       <c r="C88" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K88" s="178">
         <v>5029903000</v>
       </c>
       <c r="M88" s="180"/>
-      <c r="N88" s="180"/>
       <c r="P88" s="179"/>
       <c r="Q88" s="180"/>
       <c r="R88" s="179"/>
@@ -14400,19 +14358,18 @@
     </row>
     <row r="89">
       <c r="C89" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K89" s="178">
         <v>5029904000</v>
       </c>
       <c r="M89" s="180"/>
-      <c r="N89" s="180"/>
       <c r="P89" s="179"/>
       <c r="Q89" s="180"/>
       <c r="R89" s="180">
         <v>3800000</v>
       </c>
-      <c r="S89" s="191">
+      <c r="S89" s="192">
         <v>3800000</v>
       </c>
       <c r="T89" s="181">
@@ -14422,7 +14379,7 @@
     </row>
     <row r="90">
       <c r="C90" s="187" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M90" s="189">
         <v>45164500</v>
@@ -14442,7 +14399,7 @@
     </row>
     <row r="91">
       <c r="A91" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92">
@@ -14452,7 +14409,7 @@
     </row>
     <row r="93">
       <c r="C93" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K93" s="178">
         <v>5020201002</v>
@@ -14460,7 +14417,6 @@
       <c r="M93" s="180">
         <v>299750</v>
       </c>
-      <c r="N93" s="180"/>
       <c r="P93" s="180">
         <v>299750</v>
       </c>
@@ -14476,7 +14432,7 @@
     </row>
     <row r="94">
       <c r="C94" s="187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M94" s="189">
         <v>299750</v>
@@ -14494,7 +14450,7 @@
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96">
@@ -14504,7 +14460,7 @@
     </row>
     <row r="97">
       <c r="C97" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K97" s="178">
         <v>5020201002</v>
@@ -14512,7 +14468,6 @@
       <c r="M97" s="180">
         <v>1906750</v>
       </c>
-      <c r="N97" s="180"/>
       <c r="P97" s="180">
         <v>1906750</v>
       </c>
@@ -14528,7 +14483,7 @@
     </row>
     <row r="98">
       <c r="C98" s="187" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M98" s="189">
         <v>1906750</v>
@@ -14546,17 +14501,17 @@
     </row>
     <row r="99">
       <c r="A99" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="187" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101">
       <c r="C101" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K101" s="178">
         <v>5020101000</v>
@@ -14564,7 +14519,6 @@
       <c r="M101" s="180">
         <v>1497500</v>
       </c>
-      <c r="N101" s="180"/>
       <c r="P101" s="180">
         <v>1497500</v>
       </c>
@@ -14582,19 +14536,18 @@
     </row>
     <row r="102">
       <c r="C102" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K102" s="178">
         <v>5020502001</v>
       </c>
       <c r="M102" s="180"/>
-      <c r="N102" s="180"/>
       <c r="P102" s="179"/>
       <c r="Q102" s="180"/>
       <c r="R102" s="180">
         <v>3000</v>
       </c>
-      <c r="S102" s="191">
+      <c r="S102" s="192">
         <v>3000</v>
       </c>
       <c r="T102" s="181">
@@ -14604,7 +14557,7 @@
     </row>
     <row r="103">
       <c r="C103" s="187" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M103" s="189">
         <v>1497500</v>
@@ -14623,8 +14576,8 @@
       <c r="U103" s="189"/>
     </row>
     <row r="104">
-      <c r="A104" s="176" t="s">
-        <v>357</v>
+      <c r="J104" s="191" t="s">
+        <v>356</v>
       </c>
       <c r="M104" s="188">
         <v>253202250</v>
@@ -14632,9 +14585,7 @@
       <c r="P104" s="189">
         <v>253202250</v>
       </c>
-      <c r="Q104" s="189">
-        <v>0</v>
-      </c>
+      <c r="Q104" s="188"/>
       <c r="R104" s="189">
         <v>3967373.86</v>
       </c>
@@ -14650,100 +14601,92 @@
     </row>
     <row r="106">
       <c r="A106" s="176" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="187" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="192" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="193" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110">
       <c r="C110" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="K110" s="54" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="K110" s="54">
+        <v>5021407000</v>
       </c>
       <c r="M110" s="180">
         <v>1000000</v>
       </c>
-      <c r="N110" s="180">
-        <v>0</v>
-      </c>
+      <c r="N110" s="180"/>
       <c r="P110" s="180">
         <v>1000000</v>
       </c>
+      <c r="Q110" s="180"/>
+      <c r="R110" s="180"/>
       <c r="S110" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD110" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE110" s="184">
         <v>1000000</v>
       </c>
-      <c r="AF110" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG110" s="185">
-        <v>0</v>
-      </c>
+      <c r="T110" s="181">
+        <v>0</v>
+      </c>
+      <c r="U110" s="179"/>
     </row>
     <row r="111">
-      <c r="A111" s="192" t="s">
-        <v>364</v>
-      </c>
-      <c r="M111" s="194">
+      <c r="A111" s="176" t="s">
+        <v>362</v>
+      </c>
+      <c r="M111" s="189">
         <v>1000000</v>
       </c>
-      <c r="P111" s="194">
+      <c r="P111" s="189">
         <v>1000000</v>
       </c>
-      <c r="S111" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD111" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE111" s="195">
+      <c r="S111" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="194">
         <v>1000000</v>
       </c>
-      <c r="AF111" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG111" s="196">
+      <c r="AF111" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="176" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115">
       <c r="C115" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K115" s="178">
         <v>5010101001</v>
@@ -14751,7 +14694,6 @@
       <c r="M115" s="180">
         <v>12374500</v>
       </c>
-      <c r="N115" s="180"/>
       <c r="P115" s="180">
         <v>12374500</v>
       </c>
@@ -14767,7 +14709,7 @@
     </row>
     <row r="116">
       <c r="C116" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K116" s="178">
         <v>5010201001</v>
@@ -14775,7 +14717,6 @@
       <c r="M116" s="180">
         <v>582000</v>
       </c>
-      <c r="N116" s="180"/>
       <c r="P116" s="180">
         <v>582000</v>
       </c>
@@ -14791,7 +14732,7 @@
     </row>
     <row r="117">
       <c r="C117" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K117" s="178">
         <v>5010202000</v>
@@ -14799,7 +14740,6 @@
       <c r="M117" s="180">
         <v>67500</v>
       </c>
-      <c r="N117" s="180"/>
       <c r="P117" s="180">
         <v>67500</v>
       </c>
@@ -14815,7 +14755,7 @@
     </row>
     <row r="118">
       <c r="C118" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K118" s="178">
         <v>5010203001</v>
@@ -14823,7 +14763,6 @@
       <c r="M118" s="180">
         <v>67500</v>
       </c>
-      <c r="N118" s="180"/>
       <c r="P118" s="180">
         <v>67500</v>
       </c>
@@ -14839,7 +14778,7 @@
     </row>
     <row r="119">
       <c r="C119" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K119" s="178">
         <v>5010205003</v>
@@ -14847,7 +14786,6 @@
       <c r="M119" s="180">
         <v>1279500</v>
       </c>
-      <c r="N119" s="180"/>
       <c r="P119" s="180">
         <v>1279500</v>
       </c>
@@ -14863,7 +14801,7 @@
     </row>
     <row r="120">
       <c r="C120" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K120" s="178">
         <v>5010206004</v>
@@ -14871,7 +14809,6 @@
       <c r="M120" s="180">
         <v>86750</v>
       </c>
-      <c r="N120" s="180"/>
       <c r="P120" s="180">
         <v>86750</v>
       </c>
@@ -14887,7 +14824,7 @@
     </row>
     <row r="121">
       <c r="C121" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K121" s="178">
         <v>5010211005</v>
@@ -14895,7 +14832,6 @@
       <c r="M121" s="180">
         <v>3849000</v>
       </c>
-      <c r="N121" s="180"/>
       <c r="P121" s="180">
         <v>3849000</v>
       </c>
@@ -14911,7 +14847,7 @@
     </row>
     <row r="122">
       <c r="C122" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K122" s="178">
         <v>5010302001</v>
@@ -14919,7 +14855,6 @@
       <c r="M122" s="180">
         <v>29000</v>
       </c>
-      <c r="N122" s="180"/>
       <c r="P122" s="180">
         <v>29000</v>
       </c>
@@ -14935,7 +14870,7 @@
     </row>
     <row r="123">
       <c r="C123" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K123" s="178">
         <v>5010303001</v>
@@ -14943,7 +14878,6 @@
       <c r="M123" s="180">
         <v>93000</v>
       </c>
-      <c r="N123" s="180"/>
       <c r="P123" s="180">
         <v>93000</v>
       </c>
@@ -14959,7 +14893,7 @@
     </row>
     <row r="124">
       <c r="C124" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K124" s="178">
         <v>5010304001</v>
@@ -14967,7 +14901,6 @@
       <c r="M124" s="180">
         <v>29000</v>
       </c>
-      <c r="N124" s="180"/>
       <c r="P124" s="180">
         <v>29000</v>
       </c>
@@ -14983,7 +14916,7 @@
     </row>
     <row r="125">
       <c r="C125" s="187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M125" s="189">
         <v>18457750</v>
@@ -15001,17 +14934,17 @@
     </row>
     <row r="126">
       <c r="A126" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128">
       <c r="C128" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K128" s="178">
         <v>5020201002</v>
@@ -15019,7 +14952,6 @@
       <c r="M128" s="180">
         <v>151468.3</v>
       </c>
-      <c r="N128" s="180"/>
       <c r="P128" s="180">
         <v>151468.3</v>
       </c>
@@ -15035,7 +14967,7 @@
     </row>
     <row r="129">
       <c r="C129" s="187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M129" s="189">
         <v>151468.3</v>
@@ -15053,17 +14985,17 @@
     </row>
     <row r="130">
       <c r="A130" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132">
       <c r="C132" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K132" s="178">
         <v>5021403000</v>
@@ -15071,7 +15003,6 @@
       <c r="M132" s="180">
         <v>1390325</v>
       </c>
-      <c r="N132" s="180"/>
       <c r="P132" s="180">
         <v>1390325</v>
       </c>
@@ -15087,7 +15018,7 @@
     </row>
     <row r="133">
       <c r="C133" s="187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M133" s="189">
         <v>1390325</v>
@@ -15105,29 +15036,28 @@
     </row>
     <row r="134">
       <c r="A134" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136">
       <c r="C136" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K136" s="178">
         <v>5020101000</v>
       </c>
       <c r="M136" s="180"/>
-      <c r="N136" s="180"/>
       <c r="P136" s="179"/>
       <c r="Q136" s="180"/>
       <c r="R136" s="180">
         <v>60030</v>
       </c>
-      <c r="S136" s="191">
+      <c r="S136" s="192">
         <v>60030</v>
       </c>
       <c r="T136" s="181">
@@ -15137,7 +15067,7 @@
     </row>
     <row r="137">
       <c r="C137" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K137" s="178">
         <v>5021199000</v>
@@ -15145,7 +15075,6 @@
       <c r="M137" s="180">
         <v>34875135.55</v>
       </c>
-      <c r="N137" s="180"/>
       <c r="P137" s="180">
         <v>34875135.55</v>
       </c>
@@ -15161,7 +15090,7 @@
     </row>
     <row r="138">
       <c r="C138" s="187" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M138" s="189">
         <v>34875135.55</v>
@@ -15181,17 +15110,17 @@
     </row>
     <row r="139">
       <c r="A139" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="187" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141">
       <c r="C141" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K141" s="178">
         <v>5020201002</v>
@@ -15199,7 +15128,6 @@
       <c r="M141" s="180">
         <v>1139109.15</v>
       </c>
-      <c r="N141" s="180"/>
       <c r="P141" s="180">
         <v>1139109.15</v>
       </c>
@@ -15215,7 +15143,7 @@
     </row>
     <row r="142">
       <c r="C142" s="187" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M142" s="189">
         <v>1139109.15</v>
@@ -15233,17 +15161,17 @@
     </row>
     <row r="143">
       <c r="A143" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="187" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145">
       <c r="C145" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K145" s="178">
         <v>5010101001</v>
@@ -15251,7 +15179,6 @@
       <c r="M145" s="180">
         <v>6115500</v>
       </c>
-      <c r="N145" s="180"/>
       <c r="P145" s="180">
         <v>6115500</v>
       </c>
@@ -15267,7 +15194,7 @@
     </row>
     <row r="146">
       <c r="C146" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K146" s="178">
         <v>5010201001</v>
@@ -15275,7 +15202,6 @@
       <c r="M146" s="180">
         <v>276000</v>
       </c>
-      <c r="N146" s="180"/>
       <c r="P146" s="180">
         <v>276000</v>
       </c>
@@ -15291,7 +15217,7 @@
     </row>
     <row r="147">
       <c r="C147" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K147" s="178">
         <v>5010202000</v>
@@ -15299,7 +15225,6 @@
       <c r="M147" s="180">
         <v>15000</v>
       </c>
-      <c r="N147" s="180"/>
       <c r="P147" s="180">
         <v>15000</v>
       </c>
@@ -15315,7 +15240,7 @@
     </row>
     <row r="148">
       <c r="C148" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K148" s="178">
         <v>5010203001</v>
@@ -15323,7 +15248,6 @@
       <c r="M148" s="180">
         <v>15000</v>
       </c>
-      <c r="N148" s="180"/>
       <c r="P148" s="180">
         <v>15000</v>
       </c>
@@ -15339,7 +15263,7 @@
     </row>
     <row r="149">
       <c r="C149" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K149" s="178">
         <v>5010302001</v>
@@ -15347,7 +15271,6 @@
       <c r="M149" s="180">
         <v>13750</v>
       </c>
-      <c r="N149" s="180"/>
       <c r="P149" s="180">
         <v>13750</v>
       </c>
@@ -15363,7 +15286,7 @@
     </row>
     <row r="150">
       <c r="C150" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K150" s="178">
         <v>5010303001</v>
@@ -15371,7 +15294,6 @@
       <c r="M150" s="180">
         <v>49750</v>
       </c>
-      <c r="N150" s="180"/>
       <c r="P150" s="180">
         <v>49750</v>
       </c>
@@ -15387,7 +15309,7 @@
     </row>
     <row r="151">
       <c r="C151" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K151" s="178">
         <v>5010304001</v>
@@ -15395,7 +15317,6 @@
       <c r="M151" s="180">
         <v>13750</v>
       </c>
-      <c r="N151" s="180"/>
       <c r="P151" s="180">
         <v>13750</v>
       </c>
@@ -15411,7 +15332,7 @@
     </row>
     <row r="152">
       <c r="C152" s="187" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M152" s="189">
         <v>6498750</v>
@@ -15429,17 +15350,17 @@
     </row>
     <row r="153">
       <c r="A153" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="187" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155">
       <c r="C155" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K155" s="178">
         <v>5020101000</v>
@@ -15447,7 +15368,6 @@
       <c r="M155" s="180">
         <v>12216111.35</v>
       </c>
-      <c r="N155" s="180"/>
       <c r="P155" s="180">
         <v>12216111.35</v>
       </c>
@@ -15467,19 +15387,18 @@
     </row>
     <row r="156">
       <c r="C156" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K156" s="178">
         <v>5020201002</v>
       </c>
       <c r="M156" s="180"/>
-      <c r="N156" s="180"/>
       <c r="P156" s="179"/>
       <c r="Q156" s="180"/>
       <c r="R156" s="180">
         <v>35190.79</v>
       </c>
-      <c r="S156" s="191">
+      <c r="S156" s="192">
         <v>35190.79</v>
       </c>
       <c r="T156" s="181">
@@ -15489,19 +15408,18 @@
     </row>
     <row r="157">
       <c r="C157" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K157" s="178">
         <v>5020301002</v>
       </c>
       <c r="M157" s="180"/>
-      <c r="N157" s="180"/>
       <c r="P157" s="179"/>
       <c r="Q157" s="180"/>
       <c r="R157" s="180">
         <v>126936.25</v>
       </c>
-      <c r="S157" s="191">
+      <c r="S157" s="192">
         <v>126936.25</v>
       </c>
       <c r="T157" s="181">
@@ -15511,19 +15429,18 @@
     </row>
     <row r="158">
       <c r="C158" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K158" s="178">
         <v>5020321003</v>
       </c>
       <c r="M158" s="180"/>
-      <c r="N158" s="180"/>
       <c r="P158" s="179"/>
       <c r="Q158" s="180"/>
       <c r="R158" s="180">
         <v>18490</v>
       </c>
-      <c r="S158" s="191">
+      <c r="S158" s="192">
         <v>18490</v>
       </c>
       <c r="T158" s="181">
@@ -15533,19 +15450,18 @@
     </row>
     <row r="159">
       <c r="C159" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K159" s="178">
         <v>5020402000</v>
       </c>
       <c r="M159" s="180"/>
-      <c r="N159" s="180"/>
       <c r="P159" s="179"/>
       <c r="Q159" s="180"/>
       <c r="R159" s="180">
         <v>263061.07</v>
       </c>
-      <c r="S159" s="191">
+      <c r="S159" s="192">
         <v>263061.07</v>
       </c>
       <c r="T159" s="181">
@@ -15555,19 +15471,18 @@
     </row>
     <row r="160">
       <c r="C160" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K160" s="178">
         <v>5020501000</v>
       </c>
       <c r="M160" s="180"/>
-      <c r="N160" s="180"/>
       <c r="P160" s="179"/>
       <c r="Q160" s="180"/>
       <c r="R160" s="180">
         <v>27321.88</v>
       </c>
-      <c r="S160" s="191">
+      <c r="S160" s="192">
         <v>27321.88</v>
       </c>
       <c r="T160" s="181">
@@ -15577,19 +15492,18 @@
     </row>
     <row r="161">
       <c r="C161" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K161" s="178">
         <v>5020502002</v>
       </c>
       <c r="M161" s="180"/>
-      <c r="N161" s="180"/>
       <c r="P161" s="179"/>
       <c r="Q161" s="180"/>
       <c r="R161" s="180">
         <v>26114.05</v>
       </c>
-      <c r="S161" s="191">
+      <c r="S161" s="192">
         <v>26114.05</v>
       </c>
       <c r="T161" s="181">
@@ -15599,19 +15513,18 @@
     </row>
     <row r="162">
       <c r="C162" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K162" s="178">
         <v>5020503000</v>
       </c>
       <c r="M162" s="180"/>
-      <c r="N162" s="180"/>
       <c r="P162" s="179"/>
       <c r="Q162" s="180"/>
       <c r="R162" s="180">
         <v>57680</v>
       </c>
-      <c r="S162" s="191">
+      <c r="S162" s="192">
         <v>57680</v>
       </c>
       <c r="T162" s="181">
@@ -15621,19 +15534,18 @@
     </row>
     <row r="163">
       <c r="C163" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K163" s="178">
         <v>5021304001</v>
       </c>
       <c r="M163" s="180"/>
-      <c r="N163" s="180"/>
       <c r="P163" s="179"/>
       <c r="Q163" s="180"/>
       <c r="R163" s="180">
         <v>6749</v>
       </c>
-      <c r="S163" s="191">
+      <c r="S163" s="192">
         <v>6749</v>
       </c>
       <c r="T163" s="181">
@@ -15643,19 +15555,18 @@
     </row>
     <row r="164">
       <c r="C164" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K164" s="178">
         <v>5021307000</v>
       </c>
       <c r="M164" s="180"/>
-      <c r="N164" s="180"/>
       <c r="P164" s="179"/>
       <c r="Q164" s="180"/>
       <c r="R164" s="180">
         <v>6373</v>
       </c>
-      <c r="S164" s="191">
+      <c r="S164" s="192">
         <v>6373</v>
       </c>
       <c r="T164" s="181">
@@ -15665,19 +15576,18 @@
     </row>
     <row r="165">
       <c r="C165" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K165" s="178">
         <v>5029904000</v>
       </c>
       <c r="M165" s="180"/>
-      <c r="N165" s="180"/>
       <c r="P165" s="179"/>
       <c r="Q165" s="180"/>
       <c r="R165" s="180">
         <v>402085.46</v>
       </c>
-      <c r="S165" s="191">
+      <c r="S165" s="192">
         <v>402085.46</v>
       </c>
       <c r="T165" s="181">
@@ -15687,7 +15597,7 @@
     </row>
     <row r="166">
       <c r="C166" s="187" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M166" s="189">
         <v>12216111.35</v>
@@ -15709,17 +15619,17 @@
     </row>
     <row r="167">
       <c r="A167" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="187" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="169">
       <c r="C169" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K169" s="178">
         <v>5020201002</v>
@@ -15727,7 +15637,6 @@
       <c r="M169" s="180">
         <v>79817</v>
       </c>
-      <c r="N169" s="180"/>
       <c r="P169" s="180">
         <v>79817</v>
       </c>
@@ -15743,7 +15652,7 @@
     </row>
     <row r="170">
       <c r="C170" s="187" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M170" s="189">
         <v>79817</v>
@@ -15761,17 +15670,17 @@
     </row>
     <row r="171">
       <c r="A171" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="187" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="173">
       <c r="C173" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K173" s="178">
         <v>5020201002</v>
@@ -15779,7 +15688,6 @@
       <c r="M173" s="180">
         <v>148388.71</v>
       </c>
-      <c r="N173" s="180"/>
       <c r="P173" s="180">
         <v>148388.71</v>
       </c>
@@ -15795,7 +15703,7 @@
     </row>
     <row r="174">
       <c r="C174" s="187" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M174" s="189">
         <v>148388.71</v>
@@ -15813,17 +15721,17 @@
     </row>
     <row r="175">
       <c r="A175" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="187" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="177">
       <c r="C177" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K177" s="178">
         <v>5020101000</v>
@@ -15831,7 +15739,6 @@
       <c r="M177" s="180">
         <v>743409.34</v>
       </c>
-      <c r="N177" s="180"/>
       <c r="P177" s="180">
         <v>743409.34</v>
       </c>
@@ -15849,19 +15756,18 @@
     </row>
     <row r="178">
       <c r="C178" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K178" s="178">
         <v>5020502001</v>
       </c>
       <c r="M178" s="180"/>
-      <c r="N178" s="180"/>
       <c r="P178" s="179"/>
       <c r="Q178" s="180"/>
       <c r="R178" s="180">
         <v>785.91</v>
       </c>
-      <c r="S178" s="191">
+      <c r="S178" s="192">
         <v>785.91</v>
       </c>
       <c r="T178" s="181">
@@ -15871,19 +15777,18 @@
     </row>
     <row r="179">
       <c r="C179" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K179" s="178">
         <v>5020502002</v>
       </c>
       <c r="M179" s="180"/>
-      <c r="N179" s="180"/>
       <c r="P179" s="179"/>
       <c r="Q179" s="180"/>
       <c r="R179" s="180">
         <v>887.99</v>
       </c>
-      <c r="S179" s="191">
+      <c r="S179" s="192">
         <v>887.99</v>
       </c>
       <c r="T179" s="181">
@@ -15893,7 +15798,7 @@
     </row>
     <row r="180">
       <c r="C180" s="187" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M180" s="189">
         <v>743409.34</v>
@@ -15913,17 +15818,17 @@
     </row>
     <row r="181">
       <c r="A181" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="187" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="183">
       <c r="C183" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K183" s="178">
         <v>5010101001</v>
@@ -15931,7 +15836,6 @@
       <c r="M183" s="180">
         <v>2066750</v>
       </c>
-      <c r="N183" s="180"/>
       <c r="P183" s="180">
         <v>2066750</v>
       </c>
@@ -15947,7 +15851,7 @@
     </row>
     <row r="184">
       <c r="C184" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K184" s="178">
         <v>5010201001</v>
@@ -15955,7 +15859,6 @@
       <c r="M184" s="180">
         <v>108000</v>
       </c>
-      <c r="N184" s="180"/>
       <c r="P184" s="180">
         <v>108000</v>
       </c>
@@ -15971,7 +15874,7 @@
     </row>
     <row r="185">
       <c r="C185" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K185" s="178">
         <v>5010202000</v>
@@ -15979,7 +15882,6 @@
       <c r="M185" s="180">
         <v>15000</v>
       </c>
-      <c r="N185" s="180"/>
       <c r="P185" s="180">
         <v>15000</v>
       </c>
@@ -15995,7 +15897,7 @@
     </row>
     <row r="186">
       <c r="C186" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K186" s="178">
         <v>5010203001</v>
@@ -16003,7 +15905,6 @@
       <c r="M186" s="180">
         <v>15000</v>
       </c>
-      <c r="N186" s="180"/>
       <c r="P186" s="180">
         <v>15000</v>
       </c>
@@ -16019,7 +15920,7 @@
     </row>
     <row r="187">
       <c r="C187" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K187" s="178">
         <v>5010302001</v>
@@ -16027,7 +15928,6 @@
       <c r="M187" s="180">
         <v>5500</v>
       </c>
-      <c r="N187" s="180"/>
       <c r="P187" s="180">
         <v>5500</v>
       </c>
@@ -16043,7 +15943,7 @@
     </row>
     <row r="188">
       <c r="C188" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K188" s="178">
         <v>5010303001</v>
@@ -16051,7 +15951,6 @@
       <c r="M188" s="180">
         <v>18750</v>
       </c>
-      <c r="N188" s="180"/>
       <c r="P188" s="180">
         <v>18750</v>
       </c>
@@ -16067,7 +15966,7 @@
     </row>
     <row r="189">
       <c r="C189" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K189" s="178">
         <v>5010304001</v>
@@ -16075,7 +15974,6 @@
       <c r="M189" s="180">
         <v>5500</v>
       </c>
-      <c r="N189" s="180"/>
       <c r="P189" s="180">
         <v>5500</v>
       </c>
@@ -16091,7 +15989,7 @@
     </row>
     <row r="190">
       <c r="C190" s="187" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M190" s="189">
         <v>2234500</v>
@@ -16108,8 +16006,8 @@
       <c r="U190" s="189"/>
     </row>
     <row r="191">
-      <c r="A191" s="176" t="s">
-        <v>395</v>
+      <c r="J191" s="191" t="s">
+        <v>393</v>
       </c>
       <c r="M191" s="188">
         <v>77934764.399999991</v>
@@ -16117,9 +16015,7 @@
       <c r="P191" s="189">
         <v>77934764.399999991</v>
       </c>
-      <c r="Q191" s="189">
-        <v>0</v>
-      </c>
+      <c r="Q191" s="188"/>
       <c r="R191" s="189">
         <v>1070884.4</v>
       </c>
@@ -16135,17 +16031,17 @@
     </row>
     <row r="193">
       <c r="A193" s="176" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="192" t="s">
-        <v>398</v>
+      <c r="A195" s="187" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="196">
@@ -16155,70 +16051,62 @@
     </row>
     <row r="197">
       <c r="C197" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K197" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K197" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M197" s="180">
         <v>19325</v>
       </c>
-      <c r="N197" s="180">
-        <v>0</v>
-      </c>
+      <c r="N197" s="180"/>
       <c r="P197" s="180">
         <v>19325</v>
       </c>
+      <c r="Q197" s="180"/>
+      <c r="R197" s="180"/>
       <c r="S197" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD197" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE197" s="184">
         <v>19325</v>
       </c>
-      <c r="AF197" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG197" s="185">
-        <v>0</v>
-      </c>
+      <c r="T197" s="181">
+        <v>0</v>
+      </c>
+      <c r="U197" s="179"/>
     </row>
     <row r="198">
-      <c r="A198" s="192" t="s">
-        <v>401</v>
-      </c>
-      <c r="M198" s="194">
+      <c r="A198" s="176" t="s">
+        <v>398</v>
+      </c>
+      <c r="M198" s="189">
         <v>19325</v>
       </c>
-      <c r="P198" s="194">
+      <c r="P198" s="189">
         <v>19325</v>
       </c>
-      <c r="S198" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD198" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE198" s="195">
+      <c r="S198" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD198" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE198" s="194">
         <v>19325</v>
       </c>
-      <c r="AF198" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG198" s="196">
+      <c r="AF198" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG198" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="192" t="s">
-        <v>402</v>
+      <c r="A200" s="187" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="201">
@@ -16228,70 +16116,62 @@
     </row>
     <row r="202">
       <c r="C202" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K202" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K202" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M202" s="180">
         <v>23698.8</v>
       </c>
-      <c r="N202" s="180">
-        <v>0</v>
-      </c>
+      <c r="N202" s="180"/>
       <c r="P202" s="180">
         <v>23698.8</v>
       </c>
+      <c r="Q202" s="180"/>
+      <c r="R202" s="180"/>
       <c r="S202" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD202" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE202" s="184">
         <v>23698.8</v>
       </c>
-      <c r="AF202" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG202" s="185">
-        <v>0</v>
-      </c>
+      <c r="T202" s="181">
+        <v>0</v>
+      </c>
+      <c r="U202" s="179"/>
     </row>
     <row r="203">
-      <c r="A203" s="192" t="s">
-        <v>403</v>
-      </c>
-      <c r="M203" s="194">
+      <c r="A203" s="176" t="s">
+        <v>400</v>
+      </c>
+      <c r="M203" s="189">
         <v>23698.8</v>
       </c>
-      <c r="P203" s="194">
+      <c r="P203" s="189">
         <v>23698.8</v>
       </c>
-      <c r="S203" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD203" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE203" s="195">
+      <c r="S203" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD203" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE203" s="194">
         <v>23698.8</v>
       </c>
-      <c r="AF203" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG203" s="196">
+      <c r="AF203" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG203" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="192" t="s">
-        <v>405</v>
+      <c r="A205" s="187" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="206">
@@ -16301,134 +16181,98 @@
     </row>
     <row r="207">
       <c r="C207" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="K207" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="M207" s="180">
-        <v>0</v>
-      </c>
-      <c r="N207" s="180">
-        <v>0</v>
-      </c>
-      <c r="P207" s="180">
-        <v>0</v>
-      </c>
-      <c r="S207" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD207" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE207" s="184">
-        <v>0</v>
-      </c>
-      <c r="AF207" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG207" s="185">
+        <v>342</v>
+      </c>
+      <c r="K207" s="54">
+        <v>5020201002</v>
+      </c>
+      <c r="M207" s="180"/>
+      <c r="N207" s="180"/>
+      <c r="P207" s="180"/>
+      <c r="Q207" s="180"/>
+      <c r="R207" s="180"/>
+      <c r="S207" s="179"/>
+      <c r="T207" s="181">
         <v/>
       </c>
+      <c r="U207" s="179"/>
     </row>
     <row r="208">
       <c r="C208" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K208" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K208" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M208" s="180">
         <v>63185.75</v>
       </c>
-      <c r="N208" s="180">
-        <v>0</v>
-      </c>
+      <c r="N208" s="180"/>
       <c r="P208" s="180">
         <v>63185.75</v>
       </c>
+      <c r="Q208" s="180"/>
+      <c r="R208" s="180"/>
       <c r="S208" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD208" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE208" s="184">
         <v>63185.75</v>
       </c>
-      <c r="AF208" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG208" s="185">
-        <v>0</v>
-      </c>
+      <c r="T208" s="181">
+        <v>0</v>
+      </c>
+      <c r="U208" s="179"/>
     </row>
     <row r="209">
       <c r="C209" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="K209" s="54" t="s">
-        <v>407</v>
-      </c>
-      <c r="M209" s="180">
-        <v>0</v>
-      </c>
-      <c r="N209" s="180">
-        <v>0</v>
-      </c>
-      <c r="P209" s="180">
-        <v>0</v>
-      </c>
-      <c r="S209" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD209" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE209" s="184">
-        <v>0</v>
-      </c>
-      <c r="AF209" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG209" s="185">
+        <v>347</v>
+      </c>
+      <c r="K209" s="54">
+        <v>5029903000</v>
+      </c>
+      <c r="M209" s="180"/>
+      <c r="N209" s="180"/>
+      <c r="P209" s="180"/>
+      <c r="Q209" s="180"/>
+      <c r="R209" s="180"/>
+      <c r="S209" s="179"/>
+      <c r="T209" s="181">
         <v/>
       </c>
+      <c r="U209" s="179"/>
     </row>
     <row r="210">
-      <c r="A210" s="192" t="s">
-        <v>408</v>
-      </c>
-      <c r="M210" s="194">
+      <c r="A210" s="176" t="s">
+        <v>403</v>
+      </c>
+      <c r="M210" s="189">
         <v>63185.75</v>
       </c>
-      <c r="P210" s="194">
+      <c r="P210" s="189">
         <v>63185.75</v>
       </c>
-      <c r="S210" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD210" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE210" s="195">
+      <c r="S210" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE210" s="194">
         <v>63185.75</v>
       </c>
-      <c r="AF210" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG210" s="196">
+      <c r="AF210" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG210" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="13" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="192" t="s">
-        <v>410</v>
+      <c r="A212" s="187" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="213">
@@ -16438,70 +16282,62 @@
     </row>
     <row r="214">
       <c r="C214" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K214" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K214" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M214" s="180">
         <v>35801.22</v>
       </c>
-      <c r="N214" s="180">
-        <v>0</v>
-      </c>
+      <c r="N214" s="180"/>
       <c r="P214" s="180">
         <v>35801.22</v>
       </c>
+      <c r="Q214" s="180"/>
+      <c r="R214" s="180"/>
       <c r="S214" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD214" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE214" s="184">
         <v>35801.22</v>
       </c>
-      <c r="AF214" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG214" s="185">
-        <v>0</v>
-      </c>
+      <c r="T214" s="181">
+        <v>0</v>
+      </c>
+      <c r="U214" s="179"/>
     </row>
     <row r="215">
-      <c r="A215" s="192" t="s">
-        <v>411</v>
-      </c>
-      <c r="M215" s="194">
+      <c r="A215" s="176" t="s">
+        <v>406</v>
+      </c>
+      <c r="M215" s="189">
         <v>35801.22</v>
       </c>
-      <c r="P215" s="194">
+      <c r="P215" s="189">
         <v>35801.22</v>
       </c>
-      <c r="S215" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD215" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE215" s="195">
+      <c r="S215" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD215" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE215" s="194">
         <v>35801.22</v>
       </c>
-      <c r="AF215" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG215" s="196">
+      <c r="AF215" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG215" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="13" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="192" t="s">
-        <v>412</v>
+      <c r="A217" s="187" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="218">
@@ -16511,70 +16347,62 @@
     </row>
     <row r="219">
       <c r="C219" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K219" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K219" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M219" s="180">
         <v>169525</v>
       </c>
-      <c r="N219" s="180">
-        <v>0</v>
-      </c>
+      <c r="N219" s="180"/>
       <c r="P219" s="180">
         <v>169525</v>
       </c>
+      <c r="Q219" s="180"/>
+      <c r="R219" s="180"/>
       <c r="S219" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD219" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE219" s="184">
         <v>169525</v>
       </c>
-      <c r="AF219" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG219" s="185">
-        <v>0</v>
-      </c>
+      <c r="T219" s="181">
+        <v>0</v>
+      </c>
+      <c r="U219" s="179"/>
     </row>
     <row r="220">
-      <c r="A220" s="192" t="s">
-        <v>413</v>
-      </c>
-      <c r="M220" s="194">
+      <c r="A220" s="176" t="s">
+        <v>408</v>
+      </c>
+      <c r="M220" s="189">
         <v>169525</v>
       </c>
-      <c r="P220" s="194">
+      <c r="P220" s="189">
         <v>169525</v>
       </c>
-      <c r="S220" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD220" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE220" s="195">
+      <c r="S220" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD220" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE220" s="194">
         <v>169525</v>
       </c>
-      <c r="AF220" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG220" s="196">
+      <c r="AF220" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG220" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="187" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="192" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="223">
@@ -16584,70 +16412,62 @@
     </row>
     <row r="224">
       <c r="C224" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K224" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K224" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M224" s="180">
         <v>20326.63</v>
       </c>
-      <c r="N224" s="180">
-        <v>0</v>
-      </c>
+      <c r="N224" s="180"/>
       <c r="P224" s="180">
         <v>20326.63</v>
       </c>
+      <c r="Q224" s="180"/>
+      <c r="R224" s="180"/>
       <c r="S224" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD224" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE224" s="184">
         <v>20326.63</v>
       </c>
-      <c r="AF224" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG224" s="185">
-        <v>0</v>
-      </c>
+      <c r="T224" s="181">
+        <v>0</v>
+      </c>
+      <c r="U224" s="179"/>
     </row>
     <row r="225">
-      <c r="A225" s="192" t="s">
-        <v>415</v>
-      </c>
-      <c r="M225" s="194">
+      <c r="A225" s="176" t="s">
+        <v>410</v>
+      </c>
+      <c r="M225" s="189">
         <v>20326.63</v>
       </c>
-      <c r="P225" s="194">
+      <c r="P225" s="189">
         <v>20326.63</v>
       </c>
-      <c r="S225" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD225" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE225" s="195">
+      <c r="S225" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="194">
         <v>20326.63</v>
       </c>
-      <c r="AF225" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG225" s="196">
+      <c r="AF225" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG225" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="192" t="s">
-        <v>416</v>
+      <c r="A227" s="187" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="228">
@@ -16657,70 +16477,62 @@
     </row>
     <row r="229">
       <c r="C229" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K229" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K229" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M229" s="180">
         <v>1364</v>
       </c>
-      <c r="N229" s="180">
-        <v>0</v>
-      </c>
+      <c r="N229" s="180"/>
       <c r="P229" s="180">
         <v>1364</v>
       </c>
+      <c r="Q229" s="180"/>
+      <c r="R229" s="180"/>
       <c r="S229" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD229" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE229" s="184">
         <v>1364</v>
       </c>
-      <c r="AF229" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG229" s="185">
-        <v>0</v>
-      </c>
+      <c r="T229" s="181">
+        <v>0</v>
+      </c>
+      <c r="U229" s="179"/>
     </row>
     <row r="230">
-      <c r="A230" s="192" t="s">
-        <v>417</v>
-      </c>
-      <c r="M230" s="194">
+      <c r="A230" s="176" t="s">
+        <v>412</v>
+      </c>
+      <c r="M230" s="189">
         <v>1364</v>
       </c>
-      <c r="P230" s="194">
+      <c r="P230" s="189">
         <v>1364</v>
       </c>
-      <c r="S230" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD230" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE230" s="195">
+      <c r="S230" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD230" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE230" s="194">
         <v>1364</v>
       </c>
-      <c r="AF230" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG230" s="196">
+      <c r="AF230" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG230" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="192" t="s">
-        <v>418</v>
+      <c r="A232" s="187" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="233">
@@ -16730,102 +16542,84 @@
     </row>
     <row r="234">
       <c r="C234" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="K234" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="M234" s="180">
-        <v>0</v>
-      </c>
-      <c r="N234" s="180">
-        <v>0</v>
-      </c>
-      <c r="P234" s="180">
-        <v>0</v>
-      </c>
-      <c r="S234" s="180">
+        <v>323</v>
+      </c>
+      <c r="K234" s="54">
+        <v>5020101000</v>
+      </c>
+      <c r="M234" s="180"/>
+      <c r="N234" s="180"/>
+      <c r="P234" s="180"/>
+      <c r="Q234" s="180"/>
+      <c r="R234" s="180">
         <v>1795</v>
       </c>
-      <c r="AD234" s="184">
-        <v>1795</v>
-      </c>
-      <c r="AE234" s="184">
+      <c r="S234" s="192">
         <v>-1795</v>
       </c>
-      <c r="AF234" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG234" s="185">
+      <c r="T234" s="181">
         <v/>
       </c>
+      <c r="U234" s="179"/>
     </row>
     <row r="235">
       <c r="C235" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K235" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K235" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M235" s="180">
         <v>1806</v>
       </c>
-      <c r="N235" s="180">
-        <v>0</v>
-      </c>
+      <c r="N235" s="180"/>
       <c r="P235" s="180">
         <v>1806</v>
       </c>
+      <c r="Q235" s="180"/>
+      <c r="R235" s="180"/>
       <c r="S235" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD235" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE235" s="184">
         <v>1806</v>
       </c>
-      <c r="AF235" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG235" s="185">
-        <v>0</v>
-      </c>
+      <c r="T235" s="181">
+        <v>0</v>
+      </c>
+      <c r="U235" s="179"/>
     </row>
     <row r="236">
-      <c r="A236" s="192" t="s">
-        <v>420</v>
-      </c>
-      <c r="M236" s="194">
+      <c r="A236" s="176" t="s">
+        <v>414</v>
+      </c>
+      <c r="M236" s="189">
         <v>1806</v>
       </c>
-      <c r="P236" s="194">
+      <c r="P236" s="189">
         <v>1806</v>
       </c>
-      <c r="S236" s="194">
+      <c r="S236" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD236" s="194">
         <v>1795</v>
       </c>
-      <c r="AD236" s="195">
-        <v>1795</v>
-      </c>
-      <c r="AE236" s="195">
+      <c r="AE236" s="194">
         <v>11</v>
       </c>
-      <c r="AF236" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG236" s="196">
+      <c r="AF236" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG236" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="192" t="s">
-        <v>421</v>
+      <c r="A238" s="187" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="239">
@@ -16835,175 +16629,149 @@
     </row>
     <row r="240">
       <c r="C240" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K240" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K240" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M240" s="180">
         <v>143</v>
       </c>
-      <c r="N240" s="180">
-        <v>0</v>
-      </c>
+      <c r="N240" s="180"/>
       <c r="P240" s="180">
         <v>143</v>
       </c>
+      <c r="Q240" s="180"/>
+      <c r="R240" s="180"/>
       <c r="S240" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD240" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE240" s="184">
         <v>143</v>
       </c>
-      <c r="AF240" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG240" s="185">
-        <v>0</v>
-      </c>
+      <c r="T240" s="181">
+        <v>0</v>
+      </c>
+      <c r="U240" s="179"/>
     </row>
     <row r="241">
-      <c r="A241" s="192" t="s">
-        <v>422</v>
-      </c>
-      <c r="M241" s="194">
+      <c r="A241" s="176" t="s">
+        <v>416</v>
+      </c>
+      <c r="M241" s="189">
         <v>143</v>
       </c>
-      <c r="P241" s="194">
+      <c r="P241" s="189">
         <v>143</v>
       </c>
-      <c r="S241" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD241" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE241" s="195">
+      <c r="S241" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD241" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE241" s="194">
         <v>143</v>
       </c>
-      <c r="AF241" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG241" s="196">
+      <c r="AF241" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG241" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="13" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="192" t="s">
-        <v>424</v>
+      <c r="A243" s="187" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="244">
       <c r="B244" s="193" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="245">
       <c r="C245" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="K245" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="M245" s="180">
-        <v>0</v>
-      </c>
-      <c r="N245" s="180">
-        <v>0</v>
-      </c>
-      <c r="P245" s="180">
-        <v>0</v>
-      </c>
-      <c r="S245" s="180">
+        <v>323</v>
+      </c>
+      <c r="K245" s="54">
+        <v>5020101000</v>
+      </c>
+      <c r="M245" s="180"/>
+      <c r="N245" s="180"/>
+      <c r="P245" s="180"/>
+      <c r="Q245" s="180"/>
+      <c r="R245" s="180">
         <v>7534</v>
       </c>
-      <c r="AD245" s="184">
-        <v>7534</v>
-      </c>
-      <c r="AE245" s="184">
+      <c r="S245" s="192">
         <v>-7534</v>
       </c>
-      <c r="AF245" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG245" s="185">
+      <c r="T245" s="181">
         <v/>
       </c>
+      <c r="U245" s="179"/>
     </row>
     <row r="246">
       <c r="C246" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K246" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K246" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M246" s="180">
         <v>308386.7</v>
       </c>
-      <c r="N246" s="180">
-        <v>0</v>
-      </c>
+      <c r="N246" s="180"/>
       <c r="P246" s="180">
         <v>308386.7</v>
       </c>
+      <c r="Q246" s="180"/>
+      <c r="R246" s="180"/>
       <c r="S246" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD246" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE246" s="184">
         <v>308386.7</v>
       </c>
-      <c r="AF246" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG246" s="185">
-        <v>0</v>
-      </c>
+      <c r="T246" s="181">
+        <v>0</v>
+      </c>
+      <c r="U246" s="179"/>
     </row>
     <row r="247">
-      <c r="A247" s="192" t="s">
-        <v>426</v>
-      </c>
-      <c r="M247" s="194">
+      <c r="A247" s="176" t="s">
+        <v>420</v>
+      </c>
+      <c r="M247" s="189">
         <v>308386.7</v>
       </c>
-      <c r="P247" s="194">
+      <c r="P247" s="189">
         <v>308386.7</v>
       </c>
-      <c r="S247" s="194">
+      <c r="S247" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD247" s="194">
         <v>7534</v>
       </c>
-      <c r="AD247" s="195">
-        <v>7534</v>
-      </c>
-      <c r="AE247" s="195">
+      <c r="AE247" s="194">
         <v>300852.7</v>
       </c>
-      <c r="AF247" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG247" s="196">
+      <c r="AF247" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG247" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="192" t="s">
-        <v>427</v>
+      <c r="A249" s="187" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="250">
@@ -17013,70 +16781,62 @@
     </row>
     <row r="251">
       <c r="C251" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K251" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K251" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M251" s="180">
         <v>356264.92</v>
       </c>
-      <c r="N251" s="180">
-        <v>0</v>
-      </c>
+      <c r="N251" s="180"/>
       <c r="P251" s="180">
         <v>356264.92</v>
       </c>
+      <c r="Q251" s="180"/>
+      <c r="R251" s="180"/>
       <c r="S251" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD251" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE251" s="184">
         <v>356264.92</v>
       </c>
-      <c r="AF251" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG251" s="185">
-        <v>0</v>
-      </c>
+      <c r="T251" s="181">
+        <v>0</v>
+      </c>
+      <c r="U251" s="179"/>
     </row>
     <row r="252">
-      <c r="A252" s="192" t="s">
-        <v>428</v>
-      </c>
-      <c r="M252" s="194">
+      <c r="A252" s="176" t="s">
+        <v>422</v>
+      </c>
+      <c r="M252" s="189">
         <v>356264.92</v>
       </c>
-      <c r="P252" s="194">
+      <c r="P252" s="189">
         <v>356264.92</v>
       </c>
-      <c r="S252" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD252" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE252" s="195">
+      <c r="S252" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD252" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE252" s="194">
         <v>356264.92</v>
       </c>
-      <c r="AF252" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG252" s="196">
+      <c r="AF252" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG252" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="192" t="s">
-        <v>429</v>
+      <c r="A254" s="187" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="255">
@@ -17086,70 +16846,62 @@
     </row>
     <row r="256">
       <c r="C256" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K256" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K256" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M256" s="180">
         <v>5600</v>
       </c>
-      <c r="N256" s="180">
-        <v>0</v>
-      </c>
+      <c r="N256" s="180"/>
       <c r="P256" s="180">
         <v>5600</v>
       </c>
+      <c r="Q256" s="180"/>
+      <c r="R256" s="180"/>
       <c r="S256" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD256" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE256" s="184">
         <v>5600</v>
       </c>
-      <c r="AF256" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG256" s="185">
-        <v>0</v>
-      </c>
+      <c r="T256" s="181">
+        <v>0</v>
+      </c>
+      <c r="U256" s="179"/>
     </row>
     <row r="257">
-      <c r="A257" s="192" t="s">
-        <v>430</v>
-      </c>
-      <c r="M257" s="194">
+      <c r="A257" s="176" t="s">
+        <v>424</v>
+      </c>
+      <c r="M257" s="189">
         <v>5600</v>
       </c>
-      <c r="P257" s="194">
+      <c r="P257" s="189">
         <v>5600</v>
       </c>
-      <c r="S257" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD257" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE257" s="195">
+      <c r="S257" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD257" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE257" s="194">
         <v>5600</v>
       </c>
-      <c r="AF257" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG257" s="196">
+      <c r="AF257" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG257" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="192" t="s">
-        <v>431</v>
+      <c r="A259" s="187" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="260">
@@ -17159,70 +16911,62 @@
     </row>
     <row r="261">
       <c r="C261" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K261" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K261" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M261" s="180">
         <v>11006.94</v>
       </c>
-      <c r="N261" s="180">
-        <v>0</v>
-      </c>
+      <c r="N261" s="180"/>
       <c r="P261" s="180">
         <v>11006.94</v>
       </c>
+      <c r="Q261" s="180"/>
+      <c r="R261" s="180"/>
       <c r="S261" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD261" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE261" s="184">
         <v>11006.94</v>
       </c>
-      <c r="AF261" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG261" s="185">
-        <v>0</v>
-      </c>
+      <c r="T261" s="181">
+        <v>0</v>
+      </c>
+      <c r="U261" s="179"/>
     </row>
     <row r="262">
-      <c r="A262" s="192" t="s">
-        <v>432</v>
-      </c>
-      <c r="M262" s="194">
+      <c r="A262" s="176" t="s">
+        <v>426</v>
+      </c>
+      <c r="M262" s="189">
         <v>11006.94</v>
       </c>
-      <c r="P262" s="194">
+      <c r="P262" s="189">
         <v>11006.94</v>
       </c>
-      <c r="S262" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD262" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE262" s="195">
+      <c r="S262" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE262" s="194">
         <v>11006.94</v>
       </c>
-      <c r="AF262" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG262" s="196">
+      <c r="AF262" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG262" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="192" t="s">
-        <v>433</v>
+      <c r="A264" s="187" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="265">
@@ -17232,102 +16976,84 @@
     </row>
     <row r="266">
       <c r="C266" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K266" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K266" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M266" s="180">
         <v>1200250</v>
       </c>
-      <c r="N266" s="180">
-        <v>0</v>
-      </c>
+      <c r="N266" s="180"/>
       <c r="P266" s="180">
         <v>1200250</v>
       </c>
+      <c r="Q266" s="180"/>
+      <c r="R266" s="180"/>
       <c r="S266" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD266" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE266" s="184">
         <v>1200250</v>
       </c>
-      <c r="AF266" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG266" s="185">
-        <v>0</v>
-      </c>
+      <c r="T266" s="181">
+        <v>0</v>
+      </c>
+      <c r="U266" s="179"/>
     </row>
     <row r="267">
       <c r="C267" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="K267" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="M267" s="180">
-        <v>0</v>
-      </c>
-      <c r="N267" s="180">
-        <v>0</v>
-      </c>
-      <c r="P267" s="180">
-        <v>0</v>
-      </c>
-      <c r="S267" s="180">
+        <v>428</v>
+      </c>
+      <c r="K267" s="54">
+        <v>5021499000</v>
+      </c>
+      <c r="M267" s="180"/>
+      <c r="N267" s="180"/>
+      <c r="P267" s="180"/>
+      <c r="Q267" s="180"/>
+      <c r="R267" s="180">
         <v>16660</v>
       </c>
-      <c r="AD267" s="184">
+      <c r="S267" s="192">
+        <v>-16660</v>
+      </c>
+      <c r="T267" s="181">
+        <v/>
+      </c>
+      <c r="U267" s="179"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="176" t="s">
+        <v>429</v>
+      </c>
+      <c r="M268" s="189">
+        <v>1200250</v>
+      </c>
+      <c r="P268" s="189">
+        <v>1200250</v>
+      </c>
+      <c r="S268" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="194">
         <v>16660</v>
       </c>
-      <c r="AE267" s="184">
-        <v>-16660</v>
-      </c>
-      <c r="AF267" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG267" s="185">
-        <v/>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="192" t="s">
-        <v>436</v>
-      </c>
-      <c r="M268" s="194">
-        <v>1200250</v>
-      </c>
-      <c r="P268" s="194">
-        <v>1200250</v>
-      </c>
-      <c r="S268" s="194">
-        <v>16660</v>
-      </c>
-      <c r="AD268" s="195">
-        <v>16660</v>
-      </c>
-      <c r="AE268" s="195">
+      <c r="AE268" s="194">
         <v>1183590</v>
       </c>
-      <c r="AF268" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG268" s="196">
+      <c r="AF268" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG268" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="192" t="s">
-        <v>437</v>
+      <c r="A270" s="187" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="271">
@@ -17337,70 +17063,62 @@
     </row>
     <row r="272">
       <c r="C272" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K272" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K272" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M272" s="180">
         <v>206247.98</v>
       </c>
-      <c r="N272" s="180">
-        <v>0</v>
-      </c>
+      <c r="N272" s="180"/>
       <c r="P272" s="180">
         <v>206247.98</v>
       </c>
+      <c r="Q272" s="180"/>
+      <c r="R272" s="180"/>
       <c r="S272" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD272" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE272" s="184">
         <v>206247.98</v>
       </c>
-      <c r="AF272" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG272" s="185">
-        <v>0</v>
-      </c>
+      <c r="T272" s="181">
+        <v>0</v>
+      </c>
+      <c r="U272" s="179"/>
     </row>
     <row r="273">
-      <c r="A273" s="192" t="s">
-        <v>438</v>
-      </c>
-      <c r="M273" s="194">
+      <c r="A273" s="176" t="s">
+        <v>431</v>
+      </c>
+      <c r="M273" s="189">
         <v>206247.98</v>
       </c>
-      <c r="P273" s="194">
+      <c r="P273" s="189">
         <v>206247.98</v>
       </c>
-      <c r="S273" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD273" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE273" s="195">
+      <c r="S273" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE273" s="194">
         <v>206247.98</v>
       </c>
-      <c r="AF273" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG273" s="196">
+      <c r="AF273" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG273" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="192" t="s">
-        <v>439</v>
+      <c r="A275" s="187" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="276">
@@ -17410,70 +17128,62 @@
     </row>
     <row r="277">
       <c r="C277" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K277" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K277" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M277" s="180">
         <v>30185</v>
       </c>
-      <c r="N277" s="180">
-        <v>0</v>
-      </c>
+      <c r="N277" s="180"/>
       <c r="P277" s="180">
         <v>30185</v>
       </c>
+      <c r="Q277" s="180"/>
+      <c r="R277" s="180"/>
       <c r="S277" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD277" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE277" s="184">
         <v>30185</v>
       </c>
-      <c r="AF277" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG277" s="185">
-        <v>0</v>
-      </c>
+      <c r="T277" s="181">
+        <v>0</v>
+      </c>
+      <c r="U277" s="179"/>
     </row>
     <row r="278">
-      <c r="A278" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="M278" s="194">
+      <c r="A278" s="176" t="s">
+        <v>433</v>
+      </c>
+      <c r="M278" s="189">
         <v>30185</v>
       </c>
-      <c r="P278" s="194">
+      <c r="P278" s="189">
         <v>30185</v>
       </c>
-      <c r="S278" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD278" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE278" s="195">
+      <c r="S278" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE278" s="194">
         <v>30185</v>
       </c>
-      <c r="AF278" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG278" s="196">
+      <c r="AF278" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG278" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="192" t="s">
-        <v>441</v>
+      <c r="A280" s="187" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="281">
@@ -17483,70 +17193,62 @@
     </row>
     <row r="282">
       <c r="C282" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K282" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K282" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M282" s="180">
         <v>47606</v>
       </c>
-      <c r="N282" s="180">
-        <v>0</v>
-      </c>
+      <c r="N282" s="180"/>
       <c r="P282" s="180">
         <v>47606</v>
       </c>
+      <c r="Q282" s="180"/>
+      <c r="R282" s="180"/>
       <c r="S282" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD282" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE282" s="184">
         <v>47606</v>
       </c>
-      <c r="AF282" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG282" s="185">
-        <v>0</v>
-      </c>
+      <c r="T282" s="181">
+        <v>0</v>
+      </c>
+      <c r="U282" s="179"/>
     </row>
     <row r="283">
-      <c r="A283" s="192" t="s">
-        <v>442</v>
-      </c>
-      <c r="M283" s="194">
+      <c r="A283" s="176" t="s">
+        <v>435</v>
+      </c>
+      <c r="M283" s="189">
         <v>47606</v>
       </c>
-      <c r="P283" s="194">
+      <c r="P283" s="189">
         <v>47606</v>
       </c>
-      <c r="S283" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD283" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE283" s="195">
+      <c r="S283" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD283" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE283" s="194">
         <v>47606</v>
       </c>
-      <c r="AF283" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG283" s="196">
+      <c r="AF283" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG283" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="192" t="s">
-        <v>443</v>
+      <c r="A285" s="187" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="286">
@@ -17556,70 +17258,62 @@
     </row>
     <row r="287">
       <c r="C287" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K287" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K287" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M287" s="180">
         <v>46500</v>
       </c>
-      <c r="N287" s="180">
-        <v>0</v>
-      </c>
+      <c r="N287" s="180"/>
       <c r="P287" s="180">
         <v>46500</v>
       </c>
+      <c r="Q287" s="180"/>
+      <c r="R287" s="180"/>
       <c r="S287" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD287" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE287" s="184">
         <v>46500</v>
       </c>
-      <c r="AF287" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG287" s="185">
-        <v>0</v>
-      </c>
+      <c r="T287" s="181">
+        <v>0</v>
+      </c>
+      <c r="U287" s="179"/>
     </row>
     <row r="288">
-      <c r="A288" s="192" t="s">
-        <v>444</v>
-      </c>
-      <c r="M288" s="194">
+      <c r="A288" s="176" t="s">
+        <v>437</v>
+      </c>
+      <c r="M288" s="189">
         <v>46500</v>
       </c>
-      <c r="P288" s="194">
+      <c r="P288" s="189">
         <v>46500</v>
       </c>
-      <c r="S288" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD288" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE288" s="195">
+      <c r="S288" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD288" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE288" s="194">
         <v>46500</v>
       </c>
-      <c r="AF288" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG288" s="196">
+      <c r="AF288" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG288" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="192" t="s">
-        <v>445</v>
+      <c r="A290" s="187" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="291">
@@ -17629,70 +17323,62 @@
     </row>
     <row r="292">
       <c r="C292" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K292" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K292" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M292" s="180">
         <v>7057650</v>
       </c>
-      <c r="N292" s="180">
-        <v>0</v>
-      </c>
+      <c r="N292" s="180"/>
       <c r="P292" s="180">
         <v>7057650</v>
       </c>
+      <c r="Q292" s="180"/>
+      <c r="R292" s="180"/>
       <c r="S292" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD292" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE292" s="184">
         <v>7057650</v>
       </c>
-      <c r="AF292" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG292" s="185">
-        <v>0</v>
-      </c>
+      <c r="T292" s="181">
+        <v>0</v>
+      </c>
+      <c r="U292" s="179"/>
     </row>
     <row r="293">
-      <c r="A293" s="192" t="s">
-        <v>446</v>
-      </c>
-      <c r="M293" s="194">
+      <c r="A293" s="176" t="s">
+        <v>439</v>
+      </c>
+      <c r="M293" s="189">
         <v>7057650</v>
       </c>
-      <c r="P293" s="194">
+      <c r="P293" s="189">
         <v>7057650</v>
       </c>
-      <c r="S293" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD293" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE293" s="195">
+      <c r="S293" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE293" s="194">
         <v>7057650</v>
       </c>
-      <c r="AF293" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG293" s="196">
+      <c r="AF293" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG293" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="192" t="s">
-        <v>447</v>
+      <c r="A295" s="187" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="296">
@@ -17702,70 +17388,62 @@
     </row>
     <row r="297">
       <c r="C297" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K297" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K297" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M297" s="180">
         <v>66775</v>
       </c>
-      <c r="N297" s="180">
-        <v>0</v>
-      </c>
+      <c r="N297" s="180"/>
       <c r="P297" s="180">
         <v>66775</v>
       </c>
+      <c r="Q297" s="180"/>
+      <c r="R297" s="180"/>
       <c r="S297" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD297" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE297" s="184">
         <v>66775</v>
       </c>
-      <c r="AF297" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG297" s="185">
-        <v>0</v>
-      </c>
+      <c r="T297" s="181">
+        <v>0</v>
+      </c>
+      <c r="U297" s="179"/>
     </row>
     <row r="298">
-      <c r="A298" s="192" t="s">
-        <v>448</v>
-      </c>
-      <c r="M298" s="194">
+      <c r="A298" s="176" t="s">
+        <v>441</v>
+      </c>
+      <c r="M298" s="189">
         <v>66775</v>
       </c>
-      <c r="P298" s="194">
+      <c r="P298" s="189">
         <v>66775</v>
       </c>
-      <c r="S298" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD298" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE298" s="195">
+      <c r="S298" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD298" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE298" s="194">
         <v>66775</v>
       </c>
-      <c r="AF298" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG298" s="196">
+      <c r="AF298" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG298" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="192" t="s">
-        <v>449</v>
+      <c r="A300" s="187" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="301">
@@ -17775,70 +17453,62 @@
     </row>
     <row r="302">
       <c r="C302" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K302" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K302" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M302" s="180">
         <v>45000</v>
       </c>
-      <c r="N302" s="180">
-        <v>0</v>
-      </c>
+      <c r="N302" s="180"/>
       <c r="P302" s="180">
         <v>45000</v>
       </c>
+      <c r="Q302" s="180"/>
+      <c r="R302" s="180"/>
       <c r="S302" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD302" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE302" s="184">
         <v>45000</v>
       </c>
-      <c r="AF302" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG302" s="185">
-        <v>0</v>
-      </c>
+      <c r="T302" s="181">
+        <v>0</v>
+      </c>
+      <c r="U302" s="179"/>
     </row>
     <row r="303">
-      <c r="A303" s="192" t="s">
-        <v>450</v>
-      </c>
-      <c r="M303" s="194">
+      <c r="A303" s="176" t="s">
+        <v>443</v>
+      </c>
+      <c r="M303" s="189">
         <v>45000</v>
       </c>
-      <c r="P303" s="194">
+      <c r="P303" s="189">
         <v>45000</v>
       </c>
-      <c r="S303" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD303" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE303" s="195">
+      <c r="S303" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD303" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE303" s="194">
         <v>45000</v>
       </c>
-      <c r="AF303" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG303" s="196">
+      <c r="AF303" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG303" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="192" t="s">
-        <v>451</v>
+      <c r="A305" s="187" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="306">
@@ -17848,102 +17518,84 @@
     </row>
     <row r="307">
       <c r="C307" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="K307" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="M307" s="180">
-        <v>0</v>
-      </c>
-      <c r="N307" s="180">
-        <v>0</v>
-      </c>
-      <c r="P307" s="180">
-        <v>0</v>
-      </c>
-      <c r="S307" s="180">
+        <v>323</v>
+      </c>
+      <c r="K307" s="54">
+        <v>5020101000</v>
+      </c>
+      <c r="M307" s="180"/>
+      <c r="N307" s="180"/>
+      <c r="P307" s="180"/>
+      <c r="Q307" s="180"/>
+      <c r="R307" s="180">
         <v>9030</v>
       </c>
-      <c r="AD307" s="184">
-        <v>9030</v>
-      </c>
-      <c r="AE307" s="184">
+      <c r="S307" s="192">
         <v>-9030</v>
       </c>
-      <c r="AF307" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG307" s="185">
+      <c r="T307" s="181">
         <v/>
       </c>
+      <c r="U307" s="179"/>
     </row>
     <row r="308">
       <c r="C308" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K308" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K308" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M308" s="180">
         <v>913771.28</v>
       </c>
-      <c r="N308" s="180">
-        <v>0</v>
-      </c>
+      <c r="N308" s="180"/>
       <c r="P308" s="180">
         <v>913771.28</v>
       </c>
+      <c r="Q308" s="180"/>
+      <c r="R308" s="180"/>
       <c r="S308" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD308" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE308" s="184">
         <v>913771.28</v>
       </c>
-      <c r="AF308" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG308" s="185">
-        <v>0</v>
-      </c>
+      <c r="T308" s="181">
+        <v>0</v>
+      </c>
+      <c r="U308" s="179"/>
     </row>
     <row r="309">
-      <c r="A309" s="192" t="s">
-        <v>452</v>
-      </c>
-      <c r="M309" s="194">
+      <c r="A309" s="176" t="s">
+        <v>445</v>
+      </c>
+      <c r="M309" s="189">
         <v>913771.28</v>
       </c>
-      <c r="P309" s="194">
+      <c r="P309" s="189">
         <v>913771.28</v>
       </c>
-      <c r="S309" s="194">
+      <c r="S309" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD309" s="194">
         <v>9030</v>
       </c>
-      <c r="AD309" s="195">
-        <v>9030</v>
-      </c>
-      <c r="AE309" s="195">
+      <c r="AE309" s="194">
         <v>904741.28</v>
       </c>
-      <c r="AF309" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG309" s="196">
+      <c r="AF309" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG309" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="192" t="s">
-        <v>453</v>
+      <c r="A311" s="187" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="312">
@@ -17953,70 +17605,62 @@
     </row>
     <row r="313">
       <c r="C313" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K313" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K313" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M313" s="180">
         <v>343153.69</v>
       </c>
-      <c r="N313" s="180">
-        <v>0</v>
-      </c>
+      <c r="N313" s="180"/>
       <c r="P313" s="180">
         <v>343153.69</v>
       </c>
+      <c r="Q313" s="180"/>
+      <c r="R313" s="180"/>
       <c r="S313" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD313" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE313" s="184">
         <v>343153.69</v>
       </c>
-      <c r="AF313" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG313" s="185">
-        <v>0</v>
-      </c>
+      <c r="T313" s="181">
+        <v>0</v>
+      </c>
+      <c r="U313" s="179"/>
     </row>
     <row r="314">
-      <c r="A314" s="192" t="s">
-        <v>454</v>
-      </c>
-      <c r="M314" s="194">
+      <c r="A314" s="176" t="s">
+        <v>447</v>
+      </c>
+      <c r="M314" s="189">
         <v>343153.69</v>
       </c>
-      <c r="P314" s="194">
+      <c r="P314" s="189">
         <v>343153.69</v>
       </c>
-      <c r="S314" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD314" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE314" s="195">
+      <c r="S314" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD314" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE314" s="194">
         <v>343153.69</v>
       </c>
-      <c r="AF314" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG314" s="196">
+      <c r="AF314" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG314" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="192" t="s">
-        <v>455</v>
+      <c r="A316" s="187" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="317">
@@ -18026,143 +17670,127 @@
     </row>
     <row r="318">
       <c r="C318" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K318" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K318" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M318" s="180">
         <v>1100</v>
       </c>
-      <c r="N318" s="180">
-        <v>0</v>
-      </c>
+      <c r="N318" s="180"/>
       <c r="P318" s="180">
         <v>1100</v>
       </c>
+      <c r="Q318" s="180"/>
+      <c r="R318" s="180"/>
       <c r="S318" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD318" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE318" s="184">
         <v>1100</v>
       </c>
-      <c r="AF318" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG318" s="185">
-        <v>0</v>
-      </c>
+      <c r="T318" s="181">
+        <v>0</v>
+      </c>
+      <c r="U318" s="179"/>
     </row>
     <row r="319">
-      <c r="A319" s="192" t="s">
-        <v>456</v>
-      </c>
-      <c r="M319" s="194">
+      <c r="A319" s="176" t="s">
+        <v>449</v>
+      </c>
+      <c r="M319" s="189">
         <v>1100</v>
       </c>
-      <c r="P319" s="194">
+      <c r="P319" s="189">
         <v>1100</v>
       </c>
-      <c r="S319" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD319" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE319" s="195">
+      <c r="S319" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD319" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE319" s="194">
         <v>1100</v>
       </c>
-      <c r="AF319" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG319" s="196">
+      <c r="AF319" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG319" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="192" t="s">
-        <v>457</v>
+      <c r="A321" s="187" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" s="193" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="323">
       <c r="C323" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K323" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K323" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M323" s="180">
         <v>152050</v>
       </c>
-      <c r="N323" s="180">
-        <v>0</v>
-      </c>
+      <c r="N323" s="180"/>
       <c r="P323" s="180">
         <v>152050</v>
       </c>
+      <c r="Q323" s="180"/>
+      <c r="R323" s="180"/>
       <c r="S323" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD323" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE323" s="184">
         <v>152050</v>
       </c>
-      <c r="AF323" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG323" s="185">
-        <v>0</v>
-      </c>
+      <c r="T323" s="181">
+        <v>0</v>
+      </c>
+      <c r="U323" s="179"/>
     </row>
     <row r="324">
-      <c r="A324" s="192" t="s">
-        <v>459</v>
-      </c>
-      <c r="M324" s="194">
+      <c r="A324" s="176" t="s">
+        <v>452</v>
+      </c>
+      <c r="M324" s="189">
         <v>152050</v>
       </c>
-      <c r="P324" s="194">
+      <c r="P324" s="189">
         <v>152050</v>
       </c>
-      <c r="S324" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD324" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE324" s="195">
+      <c r="S324" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD324" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE324" s="194">
         <v>152050</v>
       </c>
-      <c r="AF324" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG324" s="196">
+      <c r="AF324" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG324" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="192" t="s">
-        <v>460</v>
+      <c r="A326" s="187" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="327">
@@ -18172,102 +17800,84 @@
     </row>
     <row r="328">
       <c r="C328" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="K328" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="M328" s="180">
-        <v>0</v>
-      </c>
-      <c r="N328" s="180">
-        <v>0</v>
-      </c>
-      <c r="P328" s="180">
-        <v>0</v>
-      </c>
-      <c r="S328" s="180">
+        <v>323</v>
+      </c>
+      <c r="K328" s="54">
+        <v>5020101000</v>
+      </c>
+      <c r="M328" s="180"/>
+      <c r="N328" s="180"/>
+      <c r="P328" s="180"/>
+      <c r="Q328" s="180"/>
+      <c r="R328" s="180">
         <v>3010</v>
       </c>
-      <c r="AD328" s="184">
-        <v>3010</v>
-      </c>
-      <c r="AE328" s="184">
+      <c r="S328" s="192">
         <v>-3010</v>
       </c>
-      <c r="AF328" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG328" s="185">
+      <c r="T328" s="181">
         <v/>
       </c>
+      <c r="U328" s="179"/>
     </row>
     <row r="329">
       <c r="C329" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K329" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K329" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M329" s="180">
         <v>9171.19</v>
       </c>
-      <c r="N329" s="180">
-        <v>0</v>
-      </c>
+      <c r="N329" s="180"/>
       <c r="P329" s="180">
         <v>9171.19</v>
       </c>
+      <c r="Q329" s="180"/>
+      <c r="R329" s="180"/>
       <c r="S329" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD329" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE329" s="184">
         <v>9171.19</v>
       </c>
-      <c r="AF329" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG329" s="185">
-        <v>0</v>
-      </c>
+      <c r="T329" s="181">
+        <v>0</v>
+      </c>
+      <c r="U329" s="179"/>
     </row>
     <row r="330">
-      <c r="A330" s="192" t="s">
-        <v>461</v>
-      </c>
-      <c r="M330" s="194">
+      <c r="A330" s="176" t="s">
+        <v>454</v>
+      </c>
+      <c r="M330" s="189">
         <v>9171.19</v>
       </c>
-      <c r="P330" s="194">
+      <c r="P330" s="189">
         <v>9171.19</v>
       </c>
-      <c r="S330" s="194">
+      <c r="S330" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD330" s="194">
         <v>3010</v>
       </c>
-      <c r="AD330" s="195">
-        <v>3010</v>
-      </c>
-      <c r="AE330" s="195">
+      <c r="AE330" s="194">
         <v>6161.1900000000005</v>
       </c>
-      <c r="AF330" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG330" s="196">
+      <c r="AF330" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG330" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="192" t="s">
-        <v>462</v>
+      <c r="A332" s="187" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="333">
@@ -18277,70 +17887,62 @@
     </row>
     <row r="334">
       <c r="C334" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K334" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K334" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M334" s="180">
         <v>48212.35</v>
       </c>
-      <c r="N334" s="180">
-        <v>0</v>
-      </c>
+      <c r="N334" s="180"/>
       <c r="P334" s="180">
         <v>48212.35</v>
       </c>
+      <c r="Q334" s="180"/>
+      <c r="R334" s="180"/>
       <c r="S334" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD334" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE334" s="184">
         <v>48212.35</v>
       </c>
-      <c r="AF334" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG334" s="185">
-        <v>0</v>
-      </c>
+      <c r="T334" s="181">
+        <v>0</v>
+      </c>
+      <c r="U334" s="179"/>
     </row>
     <row r="335">
-      <c r="A335" s="192" t="s">
-        <v>463</v>
-      </c>
-      <c r="M335" s="194">
+      <c r="A335" s="176" t="s">
+        <v>456</v>
+      </c>
+      <c r="M335" s="189">
         <v>48212.35</v>
       </c>
-      <c r="P335" s="194">
+      <c r="P335" s="189">
         <v>48212.35</v>
       </c>
-      <c r="S335" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD335" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE335" s="195">
+      <c r="S335" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD335" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE335" s="194">
         <v>48212.35</v>
       </c>
-      <c r="AF335" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG335" s="196">
+      <c r="AF335" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG335" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="13" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="192" t="s">
-        <v>465</v>
+      <c r="A337" s="187" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="338">
@@ -18350,70 +17952,62 @@
     </row>
     <row r="339">
       <c r="C339" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K339" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K339" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M339" s="180">
         <v>203220</v>
       </c>
-      <c r="N339" s="180">
-        <v>0</v>
-      </c>
+      <c r="N339" s="180"/>
       <c r="P339" s="180">
         <v>203220</v>
       </c>
+      <c r="Q339" s="180"/>
+      <c r="R339" s="180"/>
       <c r="S339" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD339" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE339" s="184">
         <v>203220</v>
       </c>
-      <c r="AF339" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG339" s="185">
-        <v>0</v>
-      </c>
+      <c r="T339" s="181">
+        <v>0</v>
+      </c>
+      <c r="U339" s="179"/>
     </row>
     <row r="340">
-      <c r="A340" s="192" t="s">
-        <v>466</v>
-      </c>
-      <c r="M340" s="194">
+      <c r="A340" s="176" t="s">
+        <v>459</v>
+      </c>
+      <c r="M340" s="189">
         <v>203220</v>
       </c>
-      <c r="P340" s="194">
+      <c r="P340" s="189">
         <v>203220</v>
       </c>
-      <c r="S340" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD340" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE340" s="195">
+      <c r="S340" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD340" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE340" s="194">
         <v>203220</v>
       </c>
-      <c r="AF340" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG340" s="196">
+      <c r="AF340" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG340" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="13" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="192" t="s">
-        <v>468</v>
+      <c r="A342" s="187" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="343">
@@ -18423,70 +18017,62 @@
     </row>
     <row r="344">
       <c r="C344" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K344" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K344" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M344" s="180">
         <v>144700</v>
       </c>
-      <c r="N344" s="180">
-        <v>0</v>
-      </c>
+      <c r="N344" s="180"/>
       <c r="P344" s="180">
         <v>144700</v>
       </c>
+      <c r="Q344" s="180"/>
+      <c r="R344" s="180"/>
       <c r="S344" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD344" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE344" s="184">
         <v>144700</v>
       </c>
-      <c r="AF344" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG344" s="185">
-        <v>0</v>
-      </c>
+      <c r="T344" s="181">
+        <v>0</v>
+      </c>
+      <c r="U344" s="179"/>
     </row>
     <row r="345">
-      <c r="A345" s="192" t="s">
-        <v>469</v>
-      </c>
-      <c r="M345" s="194">
+      <c r="A345" s="176" t="s">
+        <v>462</v>
+      </c>
+      <c r="M345" s="189">
         <v>144700</v>
       </c>
-      <c r="P345" s="194">
+      <c r="P345" s="189">
         <v>144700</v>
       </c>
-      <c r="S345" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD345" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE345" s="195">
+      <c r="S345" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD345" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE345" s="194">
         <v>144700</v>
       </c>
-      <c r="AF345" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG345" s="196">
+      <c r="AF345" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG345" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="13" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="192" t="s">
-        <v>471</v>
+      <c r="A347" s="187" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="348">
@@ -18496,70 +18082,62 @@
     </row>
     <row r="349">
       <c r="C349" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K349" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K349" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M349" s="180">
         <v>2819.48</v>
       </c>
-      <c r="N349" s="180">
-        <v>0</v>
-      </c>
+      <c r="N349" s="180"/>
       <c r="P349" s="180">
         <v>2819.48</v>
       </c>
+      <c r="Q349" s="180"/>
+      <c r="R349" s="180"/>
       <c r="S349" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD349" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE349" s="184">
         <v>2819.48</v>
       </c>
-      <c r="AF349" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG349" s="185">
-        <v>0</v>
-      </c>
+      <c r="T349" s="181">
+        <v>0</v>
+      </c>
+      <c r="U349" s="179"/>
     </row>
     <row r="350">
-      <c r="A350" s="192" t="s">
-        <v>472</v>
-      </c>
-      <c r="M350" s="194">
+      <c r="A350" s="176" t="s">
+        <v>465</v>
+      </c>
+      <c r="M350" s="189">
         <v>2819.48</v>
       </c>
-      <c r="P350" s="194">
+      <c r="P350" s="189">
         <v>2819.48</v>
       </c>
-      <c r="S350" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD350" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE350" s="195">
+      <c r="S350" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD350" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE350" s="194">
         <v>2819.48</v>
       </c>
-      <c r="AF350" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG350" s="196">
+      <c r="AF350" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG350" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="13" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="192" t="s">
-        <v>473</v>
+      <c r="A352" s="187" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="353">
@@ -18569,70 +18147,62 @@
     </row>
     <row r="354">
       <c r="C354" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="K354" s="54" t="s">
-        <v>406</v>
+        <v>342</v>
+      </c>
+      <c r="K354" s="54">
+        <v>5020201002</v>
       </c>
       <c r="M354" s="180">
         <v>228</v>
       </c>
-      <c r="N354" s="180">
-        <v>0</v>
-      </c>
+      <c r="N354" s="180"/>
       <c r="P354" s="180">
         <v>228</v>
       </c>
+      <c r="Q354" s="180"/>
+      <c r="R354" s="180"/>
       <c r="S354" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD354" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE354" s="184">
         <v>228</v>
       </c>
-      <c r="AF354" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG354" s="185">
-        <v>0</v>
-      </c>
+      <c r="T354" s="181">
+        <v>0</v>
+      </c>
+      <c r="U354" s="179"/>
     </row>
     <row r="355">
-      <c r="A355" s="192" t="s">
-        <v>474</v>
-      </c>
-      <c r="M355" s="194">
+      <c r="A355" s="176" t="s">
+        <v>467</v>
+      </c>
+      <c r="M355" s="189">
         <v>228</v>
       </c>
-      <c r="P355" s="194">
+      <c r="P355" s="189">
         <v>228</v>
       </c>
-      <c r="S355" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD355" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE355" s="195">
+      <c r="S355" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD355" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE355" s="194">
         <v>228</v>
       </c>
-      <c r="AF355" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG355" s="196">
+      <c r="AF355" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG355" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="192" t="s">
-        <v>475</v>
+      <c r="A357" s="187" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="358">
@@ -18642,134 +18212,106 @@
     </row>
     <row r="359">
       <c r="C359" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="K359" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="M359" s="180">
-        <v>0</v>
-      </c>
-      <c r="N359" s="180">
-        <v>0</v>
-      </c>
-      <c r="P359" s="180">
-        <v>0</v>
-      </c>
-      <c r="S359" s="180">
+        <v>323</v>
+      </c>
+      <c r="K359" s="54">
+        <v>5020101000</v>
+      </c>
+      <c r="M359" s="180"/>
+      <c r="N359" s="180"/>
+      <c r="P359" s="180"/>
+      <c r="Q359" s="180"/>
+      <c r="R359" s="180">
         <v>18804</v>
       </c>
-      <c r="AD359" s="184">
-        <v>18804</v>
-      </c>
-      <c r="AE359" s="184">
+      <c r="S359" s="192">
         <v>-18804</v>
       </c>
-      <c r="AF359" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG359" s="185">
+      <c r="T359" s="181">
         <v/>
       </c>
+      <c r="U359" s="179"/>
     </row>
     <row r="360">
       <c r="C360" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K360" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K360" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M360" s="180">
         <v>1174297.92</v>
       </c>
-      <c r="N360" s="180">
-        <v>0</v>
-      </c>
+      <c r="N360" s="180"/>
       <c r="P360" s="180">
         <v>1174297.92</v>
       </c>
+      <c r="Q360" s="180"/>
+      <c r="R360" s="180"/>
       <c r="S360" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD360" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE360" s="184">
         <v>1174297.92</v>
       </c>
-      <c r="AF360" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG360" s="185">
-        <v>0</v>
-      </c>
+      <c r="T360" s="181">
+        <v>0</v>
+      </c>
+      <c r="U360" s="179"/>
     </row>
     <row r="361">
       <c r="C361" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="K361" s="54" t="s">
-        <v>407</v>
-      </c>
-      <c r="M361" s="180">
-        <v>0</v>
-      </c>
-      <c r="N361" s="180">
-        <v>0</v>
-      </c>
-      <c r="P361" s="180">
-        <v>0</v>
-      </c>
-      <c r="S361" s="180">
+        <v>347</v>
+      </c>
+      <c r="K361" s="54">
+        <v>5029903000</v>
+      </c>
+      <c r="M361" s="180"/>
+      <c r="N361" s="180"/>
+      <c r="P361" s="180"/>
+      <c r="Q361" s="180"/>
+      <c r="R361" s="180">
         <v>7800</v>
       </c>
-      <c r="AD361" s="184">
-        <v>7800</v>
-      </c>
-      <c r="AE361" s="184">
+      <c r="S361" s="192">
         <v>-7800</v>
       </c>
-      <c r="AF361" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG361" s="185">
+      <c r="T361" s="181">
         <v/>
       </c>
+      <c r="U361" s="179"/>
     </row>
     <row r="362">
-      <c r="A362" s="192" t="s">
-        <v>476</v>
-      </c>
-      <c r="M362" s="194">
+      <c r="A362" s="176" t="s">
+        <v>469</v>
+      </c>
+      <c r="M362" s="189">
         <v>1174297.92</v>
       </c>
-      <c r="P362" s="194">
+      <c r="P362" s="189">
         <v>1174297.92</v>
       </c>
-      <c r="S362" s="194">
+      <c r="S362" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD362" s="194">
         <v>26604</v>
       </c>
-      <c r="AD362" s="195">
-        <v>26604</v>
-      </c>
-      <c r="AE362" s="195">
+      <c r="AE362" s="194">
         <v>1147693.92</v>
       </c>
-      <c r="AF362" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG362" s="196">
+      <c r="AF362" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG362" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="13" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="192" t="s">
-        <v>478</v>
+      <c r="A364" s="187" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="365">
@@ -18779,102 +18321,84 @@
     </row>
     <row r="366">
       <c r="C366" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="K366" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="M366" s="180">
-        <v>0</v>
-      </c>
-      <c r="N366" s="180">
-        <v>0</v>
-      </c>
-      <c r="P366" s="180">
-        <v>0</v>
-      </c>
-      <c r="S366" s="180">
+        <v>323</v>
+      </c>
+      <c r="K366" s="54">
+        <v>5020101000</v>
+      </c>
+      <c r="M366" s="180"/>
+      <c r="N366" s="180"/>
+      <c r="P366" s="180"/>
+      <c r="Q366" s="180"/>
+      <c r="R366" s="180">
         <v>4837</v>
       </c>
-      <c r="AD366" s="184">
-        <v>4837</v>
-      </c>
-      <c r="AE366" s="184">
+      <c r="S366" s="192">
         <v>-4837</v>
       </c>
-      <c r="AF366" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG366" s="185">
+      <c r="T366" s="181">
         <v/>
       </c>
+      <c r="U366" s="179"/>
     </row>
     <row r="367">
       <c r="C367" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K367" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K367" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M367" s="180">
         <v>244386</v>
       </c>
-      <c r="N367" s="180">
-        <v>0</v>
-      </c>
+      <c r="N367" s="180"/>
       <c r="P367" s="180">
         <v>244386</v>
       </c>
+      <c r="Q367" s="180"/>
+      <c r="R367" s="180"/>
       <c r="S367" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD367" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE367" s="184">
         <v>244386</v>
       </c>
-      <c r="AF367" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG367" s="185">
-        <v>0</v>
-      </c>
+      <c r="T367" s="181">
+        <v>0</v>
+      </c>
+      <c r="U367" s="179"/>
     </row>
     <row r="368">
-      <c r="A368" s="192" t="s">
-        <v>479</v>
-      </c>
-      <c r="M368" s="194">
+      <c r="A368" s="176" t="s">
+        <v>472</v>
+      </c>
+      <c r="M368" s="189">
         <v>244386</v>
       </c>
-      <c r="P368" s="194">
+      <c r="P368" s="189">
         <v>244386</v>
       </c>
-      <c r="S368" s="194">
+      <c r="S368" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD368" s="194">
         <v>4837</v>
       </c>
-      <c r="AD368" s="195">
-        <v>4837</v>
-      </c>
-      <c r="AE368" s="195">
+      <c r="AE368" s="194">
         <v>239549</v>
       </c>
-      <c r="AF368" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG368" s="196">
+      <c r="AF368" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG368" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="192" t="s">
-        <v>481</v>
+      <c r="A370" s="187" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="371">
@@ -18884,102 +18408,84 @@
     </row>
     <row r="372">
       <c r="C372" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K372" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K372" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M372" s="180">
         <v>2452487</v>
       </c>
-      <c r="N372" s="180">
-        <v>0</v>
-      </c>
+      <c r="N372" s="180"/>
       <c r="P372" s="180">
         <v>2452487</v>
       </c>
+      <c r="Q372" s="180"/>
+      <c r="R372" s="180"/>
       <c r="S372" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD372" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE372" s="184">
         <v>2452487</v>
       </c>
-      <c r="AF372" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG372" s="185">
-        <v>0</v>
-      </c>
+      <c r="T372" s="181">
+        <v>0</v>
+      </c>
+      <c r="U372" s="179"/>
     </row>
     <row r="373">
       <c r="C373" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K373" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="M373" s="180">
-        <v>0</v>
-      </c>
-      <c r="N373" s="180">
-        <v>0</v>
-      </c>
-      <c r="P373" s="180">
-        <v>0</v>
-      </c>
-      <c r="S373" s="180">
+        <v>334</v>
+      </c>
+      <c r="K373" s="54">
+        <v>5021403000</v>
+      </c>
+      <c r="M373" s="180"/>
+      <c r="N373" s="180"/>
+      <c r="P373" s="180"/>
+      <c r="Q373" s="180"/>
+      <c r="R373" s="180">
         <v>2376000</v>
       </c>
-      <c r="AD373" s="184">
+      <c r="S373" s="192">
+        <v>-2376000</v>
+      </c>
+      <c r="T373" s="181">
+        <v/>
+      </c>
+      <c r="U373" s="179"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="176" t="s">
+        <v>475</v>
+      </c>
+      <c r="M374" s="189">
+        <v>2452487</v>
+      </c>
+      <c r="P374" s="189">
+        <v>2452487</v>
+      </c>
+      <c r="S374" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD374" s="194">
         <v>2376000</v>
       </c>
-      <c r="AE373" s="184">
-        <v>-2376000</v>
-      </c>
-      <c r="AF373" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG373" s="185">
-        <v/>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="192" t="s">
-        <v>483</v>
-      </c>
-      <c r="M374" s="194">
-        <v>2452487</v>
-      </c>
-      <c r="P374" s="194">
-        <v>2452487</v>
-      </c>
-      <c r="S374" s="194">
-        <v>2376000</v>
-      </c>
-      <c r="AD374" s="195">
-        <v>2376000</v>
-      </c>
-      <c r="AE374" s="195">
+      <c r="AE374" s="194">
         <v>76487</v>
       </c>
-      <c r="AF374" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG374" s="196">
+      <c r="AF374" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG374" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="192" t="s">
-        <v>484</v>
+      <c r="A376" s="187" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="377">
@@ -18989,175 +18495,149 @@
     </row>
     <row r="378">
       <c r="C378" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K378" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K378" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M378" s="180">
         <v>70200</v>
       </c>
-      <c r="N378" s="180">
-        <v>0</v>
-      </c>
+      <c r="N378" s="180"/>
       <c r="P378" s="180">
         <v>70200</v>
       </c>
+      <c r="Q378" s="180"/>
+      <c r="R378" s="180"/>
       <c r="S378" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD378" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE378" s="184">
         <v>70200</v>
       </c>
-      <c r="AF378" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG378" s="185">
-        <v>0</v>
-      </c>
+      <c r="T378" s="181">
+        <v>0</v>
+      </c>
+      <c r="U378" s="179"/>
     </row>
     <row r="379">
-      <c r="A379" s="192" t="s">
-        <v>485</v>
-      </c>
-      <c r="M379" s="194">
+      <c r="A379" s="176" t="s">
+        <v>477</v>
+      </c>
+      <c r="M379" s="189">
         <v>70200</v>
       </c>
-      <c r="P379" s="194">
+      <c r="P379" s="189">
         <v>70200</v>
       </c>
-      <c r="S379" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD379" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE379" s="195">
+      <c r="S379" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD379" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE379" s="194">
         <v>70200</v>
       </c>
-      <c r="AF379" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG379" s="196">
+      <c r="AF379" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG379" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="192" t="s">
-        <v>486</v>
+      <c r="A381" s="187" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" s="193" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="383">
       <c r="C383" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K383" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K383" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M383" s="180">
         <v>908980.51</v>
       </c>
-      <c r="N383" s="180">
-        <v>0</v>
-      </c>
+      <c r="N383" s="180"/>
       <c r="P383" s="180">
         <v>908980.51</v>
       </c>
+      <c r="Q383" s="180"/>
+      <c r="R383" s="180"/>
       <c r="S383" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD383" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE383" s="184">
         <v>908980.51</v>
       </c>
-      <c r="AF383" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG383" s="185">
-        <v>0</v>
-      </c>
+      <c r="T383" s="181">
+        <v>0</v>
+      </c>
+      <c r="U383" s="179"/>
     </row>
     <row r="384">
       <c r="C384" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="K384" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="M384" s="180">
-        <v>0</v>
-      </c>
-      <c r="N384" s="180">
-        <v>0</v>
-      </c>
-      <c r="P384" s="180">
-        <v>0</v>
-      </c>
-      <c r="S384" s="180">
+        <v>428</v>
+      </c>
+      <c r="K384" s="54">
+        <v>5021499000</v>
+      </c>
+      <c r="M384" s="180"/>
+      <c r="N384" s="180"/>
+      <c r="P384" s="180"/>
+      <c r="Q384" s="180"/>
+      <c r="R384" s="180">
         <v>409295.37</v>
       </c>
-      <c r="AD384" s="184">
+      <c r="S384" s="192">
+        <v>-409295.37</v>
+      </c>
+      <c r="T384" s="181">
+        <v/>
+      </c>
+      <c r="U384" s="179"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="176" t="s">
+        <v>480</v>
+      </c>
+      <c r="M385" s="189">
+        <v>908980.51</v>
+      </c>
+      <c r="P385" s="189">
+        <v>908980.51</v>
+      </c>
+      <c r="S385" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD385" s="194">
         <v>409295.37</v>
       </c>
-      <c r="AE384" s="184">
-        <v>-409295.37</v>
-      </c>
-      <c r="AF384" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG384" s="185">
-        <v/>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="192" t="s">
-        <v>488</v>
-      </c>
-      <c r="M385" s="194">
-        <v>908980.51</v>
-      </c>
-      <c r="P385" s="194">
-        <v>908980.51</v>
-      </c>
-      <c r="S385" s="194">
-        <v>409295.37</v>
-      </c>
-      <c r="AD385" s="195">
-        <v>409295.37</v>
-      </c>
-      <c r="AE385" s="195">
+      <c r="AE385" s="194">
         <v>499685.14</v>
       </c>
-      <c r="AF385" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG385" s="196">
+      <c r="AF385" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG385" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="192" t="s">
-        <v>489</v>
+      <c r="A387" s="187" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="388">
@@ -19167,70 +18647,62 @@
     </row>
     <row r="389">
       <c r="C389" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K389" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K389" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M389" s="180">
         <v>18000</v>
       </c>
-      <c r="N389" s="180">
-        <v>0</v>
-      </c>
+      <c r="N389" s="180"/>
       <c r="P389" s="180">
         <v>18000</v>
       </c>
+      <c r="Q389" s="180"/>
+      <c r="R389" s="180"/>
       <c r="S389" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD389" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE389" s="184">
         <v>18000</v>
       </c>
-      <c r="AF389" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG389" s="185">
-        <v>0</v>
-      </c>
+      <c r="T389" s="181">
+        <v>0</v>
+      </c>
+      <c r="U389" s="179"/>
     </row>
     <row r="390">
-      <c r="A390" s="192" t="s">
-        <v>490</v>
-      </c>
-      <c r="M390" s="194">
+      <c r="A390" s="176" t="s">
+        <v>482</v>
+      </c>
+      <c r="M390" s="189">
         <v>18000</v>
       </c>
-      <c r="P390" s="194">
+      <c r="P390" s="189">
         <v>18000</v>
       </c>
-      <c r="S390" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD390" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE390" s="195">
+      <c r="S390" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD390" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE390" s="194">
         <v>18000</v>
       </c>
-      <c r="AF390" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG390" s="196">
+      <c r="AF390" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG390" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="192" t="s">
-        <v>491</v>
+      <c r="A392" s="187" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="393">
@@ -19240,70 +18712,62 @@
     </row>
     <row r="394">
       <c r="C394" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K394" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K394" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M394" s="180">
         <v>1000000</v>
       </c>
-      <c r="N394" s="180">
-        <v>0</v>
-      </c>
+      <c r="N394" s="180"/>
       <c r="P394" s="180">
         <v>1000000</v>
       </c>
+      <c r="Q394" s="180"/>
+      <c r="R394" s="180"/>
       <c r="S394" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD394" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE394" s="184">
         <v>1000000</v>
       </c>
-      <c r="AF394" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG394" s="185">
-        <v>0</v>
-      </c>
+      <c r="T394" s="181">
+        <v>0</v>
+      </c>
+      <c r="U394" s="179"/>
     </row>
     <row r="395">
-      <c r="A395" s="192" t="s">
-        <v>492</v>
-      </c>
-      <c r="M395" s="194">
+      <c r="A395" s="176" t="s">
+        <v>484</v>
+      </c>
+      <c r="M395" s="189">
         <v>1000000</v>
       </c>
-      <c r="P395" s="194">
+      <c r="P395" s="189">
         <v>1000000</v>
       </c>
-      <c r="S395" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD395" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE395" s="195">
+      <c r="S395" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD395" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE395" s="194">
         <v>1000000</v>
       </c>
-      <c r="AF395" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG395" s="196">
+      <c r="AF395" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG395" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="192" t="s">
-        <v>493</v>
+      <c r="A397" s="187" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="398">
@@ -19313,102 +18777,84 @@
     </row>
     <row r="399">
       <c r="C399" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K399" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K399" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M399" s="180">
         <v>252500</v>
       </c>
-      <c r="N399" s="180">
-        <v>0</v>
-      </c>
+      <c r="N399" s="180"/>
       <c r="P399" s="180">
         <v>252500</v>
       </c>
+      <c r="Q399" s="180"/>
+      <c r="R399" s="180"/>
       <c r="S399" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD399" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE399" s="184">
         <v>252500</v>
       </c>
-      <c r="AF399" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG399" s="185">
-        <v>0</v>
-      </c>
+      <c r="T399" s="181">
+        <v>0</v>
+      </c>
+      <c r="U399" s="179"/>
     </row>
     <row r="400">
       <c r="C400" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K400" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="M400" s="180">
-        <v>0</v>
-      </c>
-      <c r="N400" s="180">
-        <v>0</v>
-      </c>
-      <c r="P400" s="180">
-        <v>0</v>
-      </c>
-      <c r="S400" s="180">
+        <v>334</v>
+      </c>
+      <c r="K400" s="54">
+        <v>5021403000</v>
+      </c>
+      <c r="M400" s="180"/>
+      <c r="N400" s="180"/>
+      <c r="P400" s="180"/>
+      <c r="Q400" s="180"/>
+      <c r="R400" s="180">
         <v>148500</v>
       </c>
-      <c r="AD400" s="184">
+      <c r="S400" s="192">
+        <v>-148500</v>
+      </c>
+      <c r="T400" s="181">
+        <v/>
+      </c>
+      <c r="U400" s="179"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="176" t="s">
+        <v>486</v>
+      </c>
+      <c r="M401" s="189">
+        <v>252500</v>
+      </c>
+      <c r="P401" s="189">
+        <v>252500</v>
+      </c>
+      <c r="S401" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD401" s="194">
         <v>148500</v>
       </c>
-      <c r="AE400" s="184">
-        <v>-148500</v>
-      </c>
-      <c r="AF400" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG400" s="185">
-        <v/>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="192" t="s">
-        <v>494</v>
-      </c>
-      <c r="M401" s="194">
-        <v>252500</v>
-      </c>
-      <c r="P401" s="194">
-        <v>252500</v>
-      </c>
-      <c r="S401" s="194">
-        <v>148500</v>
-      </c>
-      <c r="AD401" s="195">
-        <v>148500</v>
-      </c>
-      <c r="AE401" s="195">
+      <c r="AE401" s="194">
         <v>104000</v>
       </c>
-      <c r="AF401" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG401" s="196">
+      <c r="AF401" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG401" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="192" t="s">
-        <v>495</v>
+      <c r="A403" s="187" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="404">
@@ -19418,70 +18864,62 @@
     </row>
     <row r="405">
       <c r="C405" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K405" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K405" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M405" s="180">
         <v>150000</v>
       </c>
-      <c r="N405" s="180">
-        <v>0</v>
-      </c>
+      <c r="N405" s="180"/>
       <c r="P405" s="180">
         <v>150000</v>
       </c>
+      <c r="Q405" s="180"/>
+      <c r="R405" s="180"/>
       <c r="S405" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD405" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE405" s="184">
         <v>150000</v>
       </c>
-      <c r="AF405" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG405" s="185">
-        <v>0</v>
-      </c>
+      <c r="T405" s="181">
+        <v>0</v>
+      </c>
+      <c r="U405" s="179"/>
     </row>
     <row r="406">
-      <c r="A406" s="192" t="s">
-        <v>496</v>
-      </c>
-      <c r="M406" s="194">
+      <c r="A406" s="176" t="s">
+        <v>488</v>
+      </c>
+      <c r="M406" s="189">
         <v>150000</v>
       </c>
-      <c r="P406" s="194">
+      <c r="P406" s="189">
         <v>150000</v>
       </c>
-      <c r="S406" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD406" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE406" s="195">
+      <c r="S406" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD406" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE406" s="194">
         <v>150000</v>
       </c>
-      <c r="AF406" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG406" s="196">
+      <c r="AF406" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG406" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="192" t="s">
-        <v>497</v>
+      <c r="A408" s="187" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="409">
@@ -19491,102 +18929,84 @@
     </row>
     <row r="410">
       <c r="C410" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K410" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K410" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M410" s="180">
         <v>2530000</v>
       </c>
-      <c r="N410" s="180">
-        <v>0</v>
-      </c>
+      <c r="N410" s="180"/>
       <c r="P410" s="180">
         <v>2530000</v>
       </c>
+      <c r="Q410" s="180"/>
+      <c r="R410" s="180"/>
       <c r="S410" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD410" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE410" s="184">
         <v>2530000</v>
       </c>
-      <c r="AF410" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG410" s="185">
-        <v>0</v>
-      </c>
+      <c r="T410" s="181">
+        <v>0</v>
+      </c>
+      <c r="U410" s="179"/>
     </row>
     <row r="411">
       <c r="C411" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="K411" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="M411" s="180">
-        <v>0</v>
-      </c>
-      <c r="N411" s="180">
-        <v>0</v>
-      </c>
-      <c r="P411" s="180">
-        <v>0</v>
-      </c>
-      <c r="S411" s="180">
+        <v>334</v>
+      </c>
+      <c r="K411" s="54">
+        <v>5021403000</v>
+      </c>
+      <c r="M411" s="180"/>
+      <c r="N411" s="180"/>
+      <c r="P411" s="180"/>
+      <c r="Q411" s="180"/>
+      <c r="R411" s="180">
         <v>2475000</v>
       </c>
-      <c r="AD411" s="184">
+      <c r="S411" s="192">
+        <v>-2475000</v>
+      </c>
+      <c r="T411" s="181">
+        <v/>
+      </c>
+      <c r="U411" s="179"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="176" t="s">
+        <v>490</v>
+      </c>
+      <c r="M412" s="189">
+        <v>2530000</v>
+      </c>
+      <c r="P412" s="189">
+        <v>2530000</v>
+      </c>
+      <c r="S412" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD412" s="194">
         <v>2475000</v>
       </c>
-      <c r="AE411" s="184">
-        <v>-2475000</v>
-      </c>
-      <c r="AF411" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG411" s="185">
-        <v/>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="192" t="s">
-        <v>498</v>
-      </c>
-      <c r="M412" s="194">
-        <v>2530000</v>
-      </c>
-      <c r="P412" s="194">
-        <v>2530000</v>
-      </c>
-      <c r="S412" s="194">
-        <v>2475000</v>
-      </c>
-      <c r="AD412" s="195">
-        <v>2475000</v>
-      </c>
-      <c r="AE412" s="195">
+      <c r="AE412" s="194">
         <v>55000</v>
       </c>
-      <c r="AF412" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG412" s="196">
+      <c r="AF412" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG412" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="192" t="s">
-        <v>499</v>
+      <c r="A414" s="187" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="415">
@@ -19596,70 +19016,62 @@
     </row>
     <row r="416">
       <c r="C416" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K416" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K416" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M416" s="180">
         <v>3500000</v>
       </c>
-      <c r="N416" s="180">
-        <v>0</v>
-      </c>
+      <c r="N416" s="180"/>
       <c r="P416" s="180">
         <v>3500000</v>
       </c>
+      <c r="Q416" s="180"/>
+      <c r="R416" s="180"/>
       <c r="S416" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD416" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE416" s="184">
         <v>3500000</v>
       </c>
-      <c r="AF416" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG416" s="185">
-        <v>0</v>
-      </c>
+      <c r="T416" s="181">
+        <v>0</v>
+      </c>
+      <c r="U416" s="179"/>
     </row>
     <row r="417">
-      <c r="A417" s="192" t="s">
-        <v>500</v>
-      </c>
-      <c r="M417" s="194">
+      <c r="A417" s="176" t="s">
+        <v>492</v>
+      </c>
+      <c r="M417" s="189">
         <v>3500000</v>
       </c>
-      <c r="P417" s="194">
+      <c r="P417" s="189">
         <v>3500000</v>
       </c>
-      <c r="S417" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD417" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE417" s="195">
+      <c r="S417" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD417" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE417" s="194">
         <v>3500000</v>
       </c>
-      <c r="AF417" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG417" s="196">
+      <c r="AF417" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG417" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="192" t="s">
-        <v>501</v>
+      <c r="A419" s="187" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="420">
@@ -19669,70 +19081,62 @@
     </row>
     <row r="421">
       <c r="C421" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K421" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K421" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M421" s="180">
         <v>35400</v>
       </c>
-      <c r="N421" s="180">
-        <v>0</v>
-      </c>
+      <c r="N421" s="180"/>
       <c r="P421" s="180">
         <v>35400</v>
       </c>
+      <c r="Q421" s="180"/>
+      <c r="R421" s="180"/>
       <c r="S421" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD421" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE421" s="184">
         <v>35400</v>
       </c>
-      <c r="AF421" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG421" s="185">
-        <v>0</v>
-      </c>
+      <c r="T421" s="181">
+        <v>0</v>
+      </c>
+      <c r="U421" s="179"/>
     </row>
     <row r="422">
-      <c r="A422" s="192" t="s">
-        <v>502</v>
-      </c>
-      <c r="M422" s="194">
+      <c r="A422" s="176" t="s">
+        <v>494</v>
+      </c>
+      <c r="M422" s="189">
         <v>35400</v>
       </c>
-      <c r="P422" s="194">
+      <c r="P422" s="189">
         <v>35400</v>
       </c>
-      <c r="S422" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD422" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE422" s="195">
+      <c r="S422" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD422" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE422" s="194">
         <v>35400</v>
       </c>
-      <c r="AF422" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG422" s="196">
+      <c r="AF422" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG422" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="192" t="s">
-        <v>503</v>
+      <c r="A424" s="187" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="425">
@@ -19742,80 +19146,72 @@
     </row>
     <row r="426">
       <c r="C426" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="K426" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="K426" s="54">
+        <v>5021402000</v>
       </c>
       <c r="M426" s="180">
         <v>187899.33</v>
       </c>
-      <c r="N426" s="180">
-        <v>0</v>
-      </c>
+      <c r="N426" s="180"/>
       <c r="P426" s="180">
         <v>187899.33</v>
       </c>
+      <c r="Q426" s="180"/>
+      <c r="R426" s="180"/>
       <c r="S426" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD426" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE426" s="184">
         <v>187899.33</v>
       </c>
-      <c r="AF426" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG426" s="185">
-        <v>0</v>
-      </c>
+      <c r="T426" s="181">
+        <v>0</v>
+      </c>
+      <c r="U426" s="179"/>
     </row>
     <row r="427">
-      <c r="A427" s="192" t="s">
-        <v>504</v>
-      </c>
-      <c r="M427" s="194">
+      <c r="A427" s="176" t="s">
+        <v>496</v>
+      </c>
+      <c r="M427" s="189">
         <v>187899.33</v>
       </c>
-      <c r="P427" s="194">
+      <c r="P427" s="189">
         <v>187899.33</v>
       </c>
-      <c r="S427" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD427" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE427" s="195">
+      <c r="S427" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD427" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE427" s="194">
         <v>187899.33</v>
       </c>
-      <c r="AF427" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG427" s="196">
+      <c r="AF427" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG427" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="176" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="13" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="187" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="431">
       <c r="C431" s="13" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="K431" s="178">
         <v>5060404003</v>
@@ -19823,7 +19219,6 @@
       <c r="M431" s="180">
         <v>39441996.76</v>
       </c>
-      <c r="N431" s="180"/>
       <c r="P431" s="180">
         <v>39441996.76</v>
       </c>
@@ -19839,7 +19234,7 @@
     </row>
     <row r="432">
       <c r="C432" s="187" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M432" s="189">
         <v>39441996.76</v>
@@ -19857,17 +19252,17 @@
     </row>
     <row r="433">
       <c r="A433" s="13" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="187" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="435">
       <c r="C435" s="13" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="K435" s="178">
         <v>5060404003</v>
@@ -19875,7 +19270,6 @@
       <c r="M435" s="180">
         <v>29753081.88</v>
       </c>
-      <c r="N435" s="180"/>
       <c r="P435" s="180">
         <v>29753081.88</v>
       </c>
@@ -19891,7 +19285,7 @@
     </row>
     <row r="436">
       <c r="C436" s="187" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="M436" s="189">
         <v>29753081.88</v>
@@ -19909,12 +19303,12 @@
     </row>
     <row r="437">
       <c r="A437" s="13" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="187" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="439">
@@ -19927,7 +19321,6 @@
       <c r="M439" s="180">
         <v>500000</v>
       </c>
-      <c r="N439" s="180"/>
       <c r="P439" s="180">
         <v>500000</v>
       </c>
@@ -19943,7 +19336,7 @@
     </row>
     <row r="440">
       <c r="C440" s="187" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="M440" s="189">
         <v>500000</v>
@@ -19960,8 +19353,8 @@
       <c r="U440" s="189"/>
     </row>
     <row r="441">
-      <c r="A441" s="176" t="s">
-        <v>514</v>
+      <c r="J441" s="191" t="s">
+        <v>506</v>
       </c>
       <c r="M441" s="188">
         <v>69695078.64</v>
@@ -19969,12 +19362,8 @@
       <c r="P441" s="189">
         <v>69695078.64</v>
       </c>
-      <c r="Q441" s="189">
-        <v>0</v>
-      </c>
-      <c r="R441" s="189">
-        <v>0</v>
-      </c>
+      <c r="Q441" s="188"/>
+      <c r="R441" s="188"/>
       <c r="S441" s="189">
         <v>69695078.64</v>
       </c>
@@ -19987,211 +19376,186 @@
     </row>
     <row r="443">
       <c r="A443" s="176" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="192" t="s">
-        <v>516</v>
+      <c r="A445" s="187" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="446">
       <c r="B446" s="193" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="447">
       <c r="C447" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="K447" s="54" t="s">
-        <v>519</v>
+        <v>510</v>
+      </c>
+      <c r="K447" s="54">
+        <v>5060405003</v>
       </c>
       <c r="M447" s="180">
         <v>343737.85</v>
       </c>
-      <c r="N447" s="180">
-        <v>0</v>
-      </c>
+      <c r="N447" s="180"/>
       <c r="P447" s="180">
         <v>343737.85</v>
       </c>
+      <c r="Q447" s="180"/>
+      <c r="R447" s="180"/>
       <c r="S447" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD447" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE447" s="184">
         <v>343737.85</v>
       </c>
-      <c r="AF447" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG447" s="185">
-        <v>0</v>
-      </c>
+      <c r="T447" s="181">
+        <v>0</v>
+      </c>
+      <c r="U447" s="179"/>
     </row>
     <row r="448">
-      <c r="A448" s="192" t="s">
-        <v>520</v>
-      </c>
-      <c r="M448" s="194">
+      <c r="A448" s="176" t="s">
+        <v>511</v>
+      </c>
+      <c r="M448" s="189">
         <v>343737.85</v>
       </c>
-      <c r="P448" s="194">
+      <c r="P448" s="189">
         <v>343737.85</v>
       </c>
-      <c r="S448" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD448" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE448" s="195">
+      <c r="S448" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD448" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE448" s="194">
         <v>343737.85</v>
       </c>
-      <c r="AF448" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG448" s="196">
+      <c r="AF448" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG448" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="13" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="192" t="s">
-        <v>521</v>
+      <c r="A450" s="187" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="451">
       <c r="B451" s="193" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="452">
       <c r="C452" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="K452" s="54" t="s">
-        <v>523</v>
+        <v>500</v>
+      </c>
+      <c r="K452" s="54">
+        <v>5060404003</v>
       </c>
       <c r="M452" s="180">
         <v>355538.49</v>
       </c>
-      <c r="N452" s="180">
-        <v>0</v>
-      </c>
+      <c r="N452" s="180"/>
       <c r="P452" s="180">
         <v>355538.49</v>
       </c>
+      <c r="Q452" s="180"/>
+      <c r="R452" s="180"/>
       <c r="S452" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD452" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE452" s="184">
         <v>355538.49</v>
       </c>
-      <c r="AF452" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG452" s="185">
-        <v>0</v>
-      </c>
+      <c r="T452" s="181">
+        <v>0</v>
+      </c>
+      <c r="U452" s="179"/>
     </row>
     <row r="453">
       <c r="C453" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="K453" s="54" t="s">
-        <v>524</v>
+      <c r="K453" s="54">
+        <v>5060405011</v>
       </c>
       <c r="M453" s="180">
         <v>2647984</v>
       </c>
-      <c r="N453" s="180">
-        <v>0</v>
-      </c>
+      <c r="N453" s="180"/>
       <c r="P453" s="180">
         <v>2647984</v>
       </c>
+      <c r="Q453" s="180"/>
+      <c r="R453" s="180"/>
       <c r="S453" s="180">
-        <v>0</v>
-      </c>
-      <c r="AD453" s="184">
-        <v>0</v>
-      </c>
-      <c r="AE453" s="184">
         <v>2647984</v>
       </c>
-      <c r="AF453" s="184">
-        <v>0</v>
-      </c>
-      <c r="AG453" s="185">
-        <v>0</v>
-      </c>
+      <c r="T453" s="181">
+        <v>0</v>
+      </c>
+      <c r="U453" s="179"/>
     </row>
     <row r="454">
-      <c r="A454" s="192" t="s">
-        <v>525</v>
-      </c>
-      <c r="M454" s="194">
+      <c r="A454" s="176" t="s">
+        <v>514</v>
+      </c>
+      <c r="M454" s="189">
         <v>3003522.49</v>
       </c>
-      <c r="P454" s="194">
+      <c r="P454" s="189">
         <v>3003522.49</v>
       </c>
-      <c r="S454" s="194">
-        <v>0</v>
-      </c>
-      <c r="AD454" s="195">
-        <v>0</v>
-      </c>
-      <c r="AE454" s="195">
+      <c r="S454" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD454" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE454" s="194">
         <v>3003522.49</v>
       </c>
-      <c r="AF454" s="195">
-        <v>0</v>
-      </c>
-      <c r="AG454" s="196">
+      <c r="AF454" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG454" s="195">
         <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="176" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="187" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="458">
       <c r="C458" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K458" s="178">
         <v>5010101001</v>
       </c>
       <c r="M458" s="180"/>
-      <c r="N458" s="180"/>
       <c r="P458" s="179"/>
       <c r="Q458" s="180"/>
       <c r="R458" s="179"/>
@@ -20203,7 +19567,7 @@
     </row>
     <row r="459">
       <c r="C459" s="13" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="K459" s="178">
         <v>5010102000</v>
@@ -20219,7 +19583,7 @@
       <c r="R459" s="180">
         <v>50000</v>
       </c>
-      <c r="S459" s="191">
+      <c r="S459" s="192">
         <v>48000</v>
       </c>
       <c r="T459" s="181">
@@ -20229,19 +19593,18 @@
     </row>
     <row r="460">
       <c r="C460" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K460" s="178">
         <v>5010201001</v>
       </c>
       <c r="M460" s="180"/>
-      <c r="N460" s="180"/>
       <c r="P460" s="179"/>
       <c r="Q460" s="180"/>
       <c r="R460" s="180">
         <v>50000</v>
       </c>
-      <c r="S460" s="191">
+      <c r="S460" s="192">
         <v>50000</v>
       </c>
       <c r="T460" s="181">
@@ -20251,7 +19614,7 @@
     </row>
     <row r="461">
       <c r="C461" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K461" s="178">
         <v>5010202000</v>
@@ -20259,7 +19622,7 @@
       <c r="M461" s="180">
         <v>50000</v>
       </c>
-      <c r="N461" s="191">
+      <c r="N461" s="192">
         <v>2000</v>
       </c>
       <c r="P461" s="180">
@@ -20283,13 +19646,12 @@
     </row>
     <row r="462">
       <c r="C462" s="13" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="K462" s="178">
         <v>5010204001</v>
       </c>
       <c r="M462" s="180"/>
-      <c r="N462" s="180"/>
       <c r="P462" s="179"/>
       <c r="Q462" s="180"/>
       <c r="R462" s="179"/>
@@ -20301,7 +19663,7 @@
     </row>
     <row r="463">
       <c r="C463" s="187" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="M463" s="189">
         <v>50000</v>
@@ -20313,7 +19675,7 @@
       <c r="R463" s="189">
         <v>103000</v>
       </c>
-      <c r="S463" s="197">
+      <c r="S463" s="196">
         <v>53000</v>
       </c>
       <c r="T463" s="190">
@@ -20324,8 +19686,8 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="176" t="s">
-        <v>531</v>
+      <c r="J464" s="191" t="s">
+        <v>520</v>
       </c>
       <c r="M464" s="188">
         <v>50000</v>
@@ -20339,7 +19701,7 @@
       <c r="R464" s="189">
         <v>103000</v>
       </c>
-      <c r="S464" s="197">
+      <c r="S464" s="196">
         <v>53000</v>
       </c>
       <c r="T464" s="190">
@@ -20349,212 +19711,340 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" s="176" t="s">
+        <v>521</v>
+      </c>
+    </row>
     <row r="467">
-      <c r="B467" s="192" t="s">
-        <v>321</v>
-      </c>
-      <c r="M467" s="194" t="s">
+      <c r="A467" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="187" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" s="193" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="C470" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="K470" s="54">
+        <v>5010101001</v>
+      </c>
+      <c r="M470" s="180">
+        <v>50000</v>
+      </c>
+      <c r="N470" s="192">
+        <v>1000</v>
+      </c>
+      <c r="P470" s="180">
+        <v>49000</v>
+      </c>
+      <c r="Q470" s="180">
+        <v>2000</v>
+      </c>
+      <c r="R470" s="180">
+        <v>5000</v>
+      </c>
+      <c r="S470" s="180">
+        <v>44000</v>
+      </c>
+      <c r="T470" s="181">
+        <v>0.020408163265306121</v>
+      </c>
+      <c r="U470" s="180">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="C471" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="K471" s="54">
+        <v>5010201001</v>
+      </c>
+      <c r="M471" s="180"/>
+      <c r="N471" s="180">
+        <v>1000</v>
+      </c>
+      <c r="P471" s="180">
+        <v>1000</v>
+      </c>
+      <c r="Q471" s="180"/>
+      <c r="R471" s="180"/>
+      <c r="S471" s="180">
+        <v>1000</v>
+      </c>
+      <c r="T471" s="181">
+        <v>0</v>
+      </c>
+      <c r="U471" s="179"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="176" t="s">
+        <v>524</v>
+      </c>
+      <c r="M472" s="189">
+        <v>50000</v>
+      </c>
+      <c r="P472" s="189">
+        <v>50000</v>
+      </c>
+      <c r="S472" s="189">
+        <v>2000</v>
+      </c>
+      <c r="AD472" s="194">
+        <v>5000</v>
+      </c>
+      <c r="AE472" s="194">
+        <v>45000</v>
+      </c>
+      <c r="AF472" s="194">
+        <v>1000</v>
+      </c>
+      <c r="AG472" s="195">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="B474" s="197" t="s">
+        <v>320</v>
+      </c>
+      <c r="M474" s="189" t="s">
+        <v>525</v>
+      </c>
+      <c r="P474" s="189" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q474" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R474" s="189" t="s">
+        <v>527</v>
+      </c>
+      <c r="S474" s="189" t="s">
+        <v>528</v>
+      </c>
+      <c r="T474" s="190">
+        <v>0</v>
+      </c>
+      <c r="U474" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="B475" s="197" t="s">
+        <v>356</v>
+      </c>
+      <c r="M475" s="189" t="s">
+        <v>529</v>
+      </c>
+      <c r="P475" s="189" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q475" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R475" s="189" t="s">
+        <v>530</v>
+      </c>
+      <c r="S475" s="189" t="s">
+        <v>531</v>
+      </c>
+      <c r="T475" s="190">
+        <v>0</v>
+      </c>
+      <c r="U475" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="B476" s="197" t="s">
+        <v>393</v>
+      </c>
+      <c r="M476" s="189" t="s">
         <v>532</v>
       </c>
-      <c r="P467" s="194" t="s">
+      <c r="P476" s="189" t="s">
         <v>532</v>
       </c>
-      <c r="S467" s="194" t="s">
+      <c r="Q476" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R476" s="189" t="s">
         <v>533</v>
       </c>
-      <c r="AD467" s="195" t="s">
+      <c r="S476" s="189" t="s">
         <v>534</v>
       </c>
-      <c r="AE467" s="195" t="s">
+      <c r="T476" s="190">
+        <v>6.4156221405090942E-06</v>
+      </c>
+      <c r="U476" s="189" t="s">
         <v>535</v>
       </c>
-      <c r="AF467" s="195" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG467" s="196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="B468" s="192" t="s">
-        <v>357</v>
-      </c>
-      <c r="M468" s="194" t="s">
+    </row>
+    <row r="477">
+      <c r="B477" s="197" t="s">
+        <v>506</v>
+      </c>
+      <c r="M477" s="189" t="s">
         <v>536</v>
       </c>
-      <c r="P468" s="194" t="s">
+      <c r="P477" s="189" t="s">
         <v>536</v>
       </c>
-      <c r="S468" s="194" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD468" s="195" t="s">
+      <c r="Q477" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R477" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="S477" s="189" t="s">
+        <v>536</v>
+      </c>
+      <c r="T477" s="190">
+        <v>0</v>
+      </c>
+      <c r="U477" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="B478" s="197" t="s">
+        <v>520</v>
+      </c>
+      <c r="M478" s="189" t="s">
         <v>537</v>
       </c>
-      <c r="AE468" s="195" t="s">
+      <c r="P478" s="189" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q478" s="189" t="s">
         <v>538</v>
       </c>
-      <c r="AF468" s="195" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG468" s="196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="B469" s="192" t="s">
-        <v>395</v>
-      </c>
-      <c r="M469" s="194" t="s">
+      <c r="R478" s="189" t="s">
         <v>539</v>
       </c>
-      <c r="P469" s="194" t="s">
-        <v>539</v>
-      </c>
-      <c r="S469" s="194" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD469" s="195" t="s">
+      <c r="S478" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="T478" s="190">
+        <v>0.06</v>
+      </c>
+      <c r="U478" s="189" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" s="197" t="s">
         <v>540</v>
       </c>
-      <c r="AE469" s="195" t="s">
+      <c r="M479" s="189" t="s">
         <v>541</v>
       </c>
-      <c r="AF469" s="195" t="s">
+      <c r="P479" s="189" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q479" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R479" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="S479" s="189" t="s">
+        <v>541</v>
+      </c>
+      <c r="T479" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="U479" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="B480" s="197" t="s">
         <v>542</v>
       </c>
-      <c r="AG469" s="196">
-        <v>6.4156221405090942E-06</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="B470" s="192" t="s">
-        <v>514</v>
-      </c>
-      <c r="M470" s="194" t="s">
+      <c r="M480" s="189" t="s">
         <v>543</v>
       </c>
-      <c r="P470" s="194" t="s">
+      <c r="P480" s="189" t="s">
         <v>543</v>
       </c>
-      <c r="S470" s="194" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD470" s="195" t="s">
-        <v>533</v>
-      </c>
-      <c r="AE470" s="195" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF470" s="195" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG470" s="196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="B471" s="192" t="s">
-        <v>531</v>
-      </c>
-      <c r="M471" s="194" t="s">
+      <c r="Q480" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R480" s="189" t="s">
         <v>544</v>
       </c>
-      <c r="P471" s="194" t="s">
+      <c r="S480" s="189" t="s">
+        <v>545</v>
+      </c>
+      <c r="T480" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="U480" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="B481" s="197" t="s">
+        <v>546</v>
+      </c>
+      <c r="M481" s="189" t="s">
+        <v>547</v>
+      </c>
+      <c r="P481" s="189" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q481" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R481" s="189" t="s">
         <v>544</v>
       </c>
-      <c r="S471" s="194" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD471" s="195" t="s">
-        <v>546</v>
-      </c>
-      <c r="AE471" s="195" t="s">
-        <v>533</v>
-      </c>
-      <c r="AF471" s="195" t="s">
-        <v>545</v>
-      </c>
-      <c r="AG471" s="196">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="B472" s="192" t="s">
-        <v>547</v>
-      </c>
-      <c r="M472" s="194" t="s">
+      <c r="S481" s="189" t="s">
         <v>548</v>
       </c>
-      <c r="P472" s="194" t="s">
-        <v>548</v>
-      </c>
-      <c r="S472" s="194" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD472" s="195" t="s">
-        <v>533</v>
-      </c>
-      <c r="AE472" s="195" t="s">
-        <v>548</v>
-      </c>
-      <c r="AF472" s="195" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG472" s="195" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="B473" s="192" t="s">
+      <c r="T481" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="U481" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="B482" s="197" t="s">
         <v>549</v>
       </c>
-      <c r="M473" s="194" t="s">
+      <c r="M482" s="189" t="s">
         <v>550</v>
       </c>
-      <c r="P473" s="194" t="s">
+      <c r="P482" s="189" t="s">
         <v>550</v>
       </c>
-      <c r="S473" s="194" t="s">
+      <c r="Q482" s="189" t="s">
         <v>551</v>
       </c>
-      <c r="AD473" s="195" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE473" s="195" t="s">
+      <c r="R482" s="189" t="s">
         <v>552</v>
       </c>
-      <c r="AF473" s="195" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG473" s="195" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="B474" s="192" t="s">
+      <c r="S482" s="189" t="s">
         <v>553</v>
       </c>
-      <c r="M474" s="194" t="s">
+      <c r="T482" s="189" t="s">
         <v>554</v>
       </c>
-      <c r="P474" s="194" t="s">
-        <v>554</v>
-      </c>
-      <c r="S474" s="194" t="s">
-        <v>551</v>
-      </c>
-      <c r="AD474" s="195" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE474" s="195" t="s">
+      <c r="U482" s="189" t="s">
         <v>555</v>
-      </c>
-      <c r="AF474" s="195" t="s">
-        <v>533</v>
-      </c>
-      <c r="AG474" s="195" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="516"/>
@@ -20582,15 +20072,11 @@
     <filterColumn colId="8" showButton="0"/>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" showPageBreaks="1" printArea="1" showAutoFilter="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A407">
-      <selection activeCell="B415" activeCellId="48" sqref="B702 B698 B693 B688 B683 B679 B675 B668 B662 B658 B654 B650 B645 B641 B637 B632 B627 B622 B617 B612 B608 B604 B600 B596 B588 B582 B575 B569 B564 B559 B555 B551 B547 B543 B539 B535 B531 B525 B518 B513 B508 B461 B454 B447 B440 B434 B429 B422 B415"/>
-      <rowBreaks/>
-      <pageMargins left="0.17" right="0" top="0.17" bottom="0.56000000000000005" header="0.3" footer="0.17"/>
+    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="80" orientation="landscape"/>
-      <headerFooter>
-        <oddFooter>&amp;LDOH RO7 SAOB - November 2017&amp;RPage &amp;P of &amp;N</oddFooter>
-      </headerFooter>
-      <autoFilter ref="A15:QN1381"/>
     </customSheetView>
     <customSheetView guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" scale="90" showPageBreaks="1" printArea="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
       <pane ySplit="4" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
@@ -20598,11 +20084,15 @@
       <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
-      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
-      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+    <customSheetView guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" showPageBreaks="1" printArea="1" showAutoFilter="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A407">
+      <selection activeCell="B415" activeCellId="48" sqref="B702 B698 B693 B688 B683 B679 B675 B668 B662 B658 B654 B650 B645 B641 B637 B632 B627 B622 B617 B612 B608 B604 B600 B596 B588 B582 B575 B569 B564 B559 B555 B551 B547 B543 B539 B535 B531 B525 B518 B513 B508 B461 B454 B447 B440 B434 B429 B422 B415"/>
+      <rowBreaks/>
+      <pageMargins left="0.17" right="0" top="0.17" bottom="0.56000000000000005" header="0.3" footer="0.17"/>
       <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId3"/>
+      <headerFooter>
+        <oddFooter>&amp;LDOH RO7 SAOB - November 2017&amp;RPage &amp;P of &amp;N</oddFooter>
+      </headerFooter>
+      <autoFilter ref="A15:QN1381"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells>

--- a/BUDGET/excel_reports/SAOB_NEW2.xlsx
+++ b/BUDGET/excel_reports/SAOB_NEW2.xlsx
@@ -819,7 +819,7 @@
     <t>STATEMENT OF ALLOTMENTS, OBLIGATIONS AND BALANCES</t>
   </si>
   <si>
-    <t>February 28, 2019</t>
+    <t>February 27, 2019</t>
   </si>
   <si>
     <t xml:space="preserve">          (In Pesos) </t>

--- a/BUDGET/excel_reports/SAOB_NEW2.xlsx
+++ b/BUDGET/excel_reports/SAOB_NEW2.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -1612,6 +1612,9 @@
     <t>CLOTHING/UNIFORM ALLOWANCE- CIVILIAN</t>
   </si>
   <si>
+    <t>QUARTERS ALLOWANCE- MAGNA CARTA BENEFITS FOR PUBLIC HEALTH WORKERS UNDER R.A. 7305</t>
+  </si>
+  <si>
     <t>SUBTOTAL TEST FUND SOURCE - TEST</t>
   </si>
   <si>
@@ -1670,15 +1673,6 @@
   </si>
   <si>
     <t>50,000.00</t>
-  </si>
-  <si>
-    <t>23,700.00</t>
-  </si>
-  <si>
-    <t>26,300.00</t>
-  </si>
-  <si>
-    <t>6,600.00</t>
   </si>
   <si>
     <t>TOTAL SAA 2019 MOOE</t>
@@ -1867,7 +1861,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2109,6 +2103,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2121,7 +2122,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -2527,6 +2528,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -3113,7 +3117,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TH484"/>
+  <dimension ref="A1:TH485"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="14" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
@@ -12931,7 +12935,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="177" t="s">
         <v>300</v>
       </c>
       <c r="W15" s="120">
@@ -12959,7 +12963,7 @@
       <c r="SD16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="177" t="s">
+      <c r="A17" s="178" t="s">
         <v>302</v>
       </c>
       <c r="B17" s="12"/>
@@ -12982,51 +12986,51 @@
       <c r="C18" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="K18" s="178">
+      <c r="K18" s="179">
         <v>5010101001</v>
       </c>
-      <c r="M18" s="180">
+      <c r="M18" s="181">
         <v>12374500</v>
       </c>
-      <c r="P18" s="180">
+      <c r="P18" s="181">
         <v>12374500</v>
       </c>
-      <c r="Q18" s="180"/>
-      <c r="R18" s="180">
+      <c r="Q18" s="181"/>
+      <c r="R18" s="181">
         <v>1425637</v>
       </c>
-      <c r="S18" s="180">
+      <c r="S18" s="181">
         <v>10948863</v>
       </c>
-      <c r="T18" s="181">
-        <v>0</v>
-      </c>
-      <c r="U18" s="180"/>
+      <c r="T18" s="182">
+        <v>0</v>
+      </c>
+      <c r="U18" s="181"/>
     </row>
     <row r="19">
       <c r="C19" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="K19" s="178">
+      <c r="K19" s="179">
         <v>5010201001</v>
       </c>
-      <c r="M19" s="180">
+      <c r="M19" s="181">
         <v>582000</v>
       </c>
-      <c r="P19" s="180">
+      <c r="P19" s="181">
         <v>582000</v>
       </c>
-      <c r="Q19" s="180"/>
-      <c r="R19" s="180">
+      <c r="Q19" s="181"/>
+      <c r="R19" s="181">
         <v>94000</v>
       </c>
-      <c r="S19" s="180">
+      <c r="S19" s="181">
         <v>488000</v>
       </c>
-      <c r="T19" s="181">
-        <v>0</v>
-      </c>
-      <c r="U19" s="180"/>
+      <c r="T19" s="182">
+        <v>0</v>
+      </c>
+      <c r="U19" s="181"/>
     </row>
     <row r="20">
       <c r="A20" s="12"/>
@@ -13041,29 +13045,29 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="182">
+      <c r="K20" s="183">
         <v>5010202000</v>
       </c>
       <c r="L20" s="17"/>
-      <c r="M20" s="184">
+      <c r="M20" s="185">
         <v>67500</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="184">
+      <c r="P20" s="185">
         <v>67500</v>
       </c>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="184">
+      <c r="Q20" s="185"/>
+      <c r="R20" s="185">
         <v>22500</v>
       </c>
-      <c r="S20" s="184">
+      <c r="S20" s="185">
         <v>45000</v>
       </c>
-      <c r="T20" s="185">
-        <v>0</v>
-      </c>
-      <c r="U20" s="184"/>
+      <c r="T20" s="186">
+        <v>0</v>
+      </c>
+      <c r="U20" s="185"/>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
       <c r="X20" s="12"/>
@@ -13083,29 +13087,29 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="182">
+      <c r="K21" s="183">
         <v>5010203001</v>
       </c>
       <c r="L21" s="17"/>
-      <c r="M21" s="184">
+      <c r="M21" s="185">
         <v>67500</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="184">
+      <c r="P21" s="185">
         <v>67500</v>
       </c>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="184">
+      <c r="Q21" s="185"/>
+      <c r="R21" s="185">
         <v>22500</v>
       </c>
-      <c r="S21" s="184">
+      <c r="S21" s="185">
         <v>45000</v>
       </c>
-      <c r="T21" s="185">
-        <v>0</v>
-      </c>
-      <c r="U21" s="184"/>
+      <c r="T21" s="186">
+        <v>0</v>
+      </c>
+      <c r="U21" s="185"/>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
       <c r="X21" s="12"/>
@@ -13125,29 +13129,29 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="182">
+      <c r="K22" s="183">
         <v>5010205003</v>
       </c>
       <c r="L22" s="17"/>
-      <c r="M22" s="184">
+      <c r="M22" s="185">
         <v>1279500</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="184">
+      <c r="P22" s="185">
         <v>1279500</v>
       </c>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="184">
+      <c r="Q22" s="185"/>
+      <c r="R22" s="185">
         <v>206525</v>
       </c>
-      <c r="S22" s="184">
+      <c r="S22" s="185">
         <v>1072975</v>
       </c>
-      <c r="T22" s="185">
-        <v>0</v>
-      </c>
-      <c r="U22" s="184"/>
+      <c r="T22" s="186">
+        <v>0</v>
+      </c>
+      <c r="U22" s="185"/>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
       <c r="X22" s="12"/>
@@ -13167,29 +13171,29 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="182">
+      <c r="K23" s="183">
         <v>5010206004</v>
       </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="184">
+      <c r="M23" s="185">
         <v>86750</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="184">
+      <c r="P23" s="185">
         <v>86750</v>
       </c>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="184">
+      <c r="Q23" s="185"/>
+      <c r="R23" s="185">
         <v>21940.91</v>
       </c>
-      <c r="S23" s="184">
+      <c r="S23" s="185">
         <v>64809.09</v>
       </c>
-      <c r="T23" s="185">
-        <v>0</v>
-      </c>
-      <c r="U23" s="184"/>
+      <c r="T23" s="186">
+        <v>0</v>
+      </c>
+      <c r="U23" s="185"/>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
       <c r="X23" s="12"/>
@@ -13209,27 +13213,27 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="182">
+      <c r="K24" s="183">
         <v>5010211005</v>
       </c>
       <c r="L24" s="17"/>
-      <c r="M24" s="184">
+      <c r="M24" s="185">
         <v>3849000</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
-      <c r="P24" s="184">
+      <c r="P24" s="185">
         <v>3849000</v>
       </c>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="184">
+      <c r="Q24" s="185"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="185">
         <v>3849000</v>
       </c>
-      <c r="T24" s="185">
-        <v>0</v>
-      </c>
-      <c r="U24" s="184"/>
+      <c r="T24" s="186">
+        <v>0</v>
+      </c>
+      <c r="U24" s="185"/>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
       <c r="X24" s="12"/>
@@ -13249,25 +13253,25 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="182">
+      <c r="K25" s="183">
         <v>5010212004</v>
       </c>
       <c r="L25" s="17"/>
-      <c r="M25" s="184"/>
+      <c r="M25" s="185"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="184">
+      <c r="P25" s="184"/>
+      <c r="Q25" s="185"/>
+      <c r="R25" s="185">
         <v>496203.11</v>
       </c>
-      <c r="S25" s="186">
+      <c r="S25" s="187">
         <v>496203.11</v>
       </c>
-      <c r="T25" s="185">
+      <c r="T25" s="186">
         <v/>
       </c>
-      <c r="U25" s="184"/>
+      <c r="U25" s="185"/>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
       <c r="X25" s="12"/>
@@ -13287,29 +13291,29 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="182">
+      <c r="K26" s="183">
         <v>5010302001</v>
       </c>
       <c r="L26" s="17"/>
-      <c r="M26" s="184">
+      <c r="M26" s="185">
         <v>29000</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
-      <c r="P26" s="184">
+      <c r="P26" s="185">
         <v>29000</v>
       </c>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="184">
+      <c r="Q26" s="185"/>
+      <c r="R26" s="185">
         <v>4700</v>
       </c>
-      <c r="S26" s="184">
+      <c r="S26" s="185">
         <v>24300</v>
       </c>
-      <c r="T26" s="185">
-        <v>0</v>
-      </c>
-      <c r="U26" s="184"/>
+      <c r="T26" s="186">
+        <v>0</v>
+      </c>
+      <c r="U26" s="185"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
       <c r="X26" s="12"/>
@@ -13320,67 +13324,67 @@
       <c r="C27" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="K27" s="178">
+      <c r="K27" s="179">
         <v>5010303001</v>
       </c>
-      <c r="M27" s="180">
+      <c r="M27" s="181">
         <v>93000</v>
       </c>
-      <c r="P27" s="180">
+      <c r="P27" s="181">
         <v>93000</v>
       </c>
-      <c r="Q27" s="180"/>
-      <c r="R27" s="179"/>
-      <c r="S27" s="180">
+      <c r="Q27" s="181"/>
+      <c r="R27" s="180"/>
+      <c r="S27" s="181">
         <v>93000</v>
       </c>
-      <c r="T27" s="181">
-        <v>0</v>
-      </c>
-      <c r="U27" s="180"/>
+      <c r="T27" s="182">
+        <v>0</v>
+      </c>
+      <c r="U27" s="181"/>
     </row>
     <row r="28">
       <c r="C28" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="K28" s="178">
+      <c r="K28" s="179">
         <v>5010304001</v>
       </c>
-      <c r="M28" s="180">
+      <c r="M28" s="181">
         <v>29000</v>
       </c>
-      <c r="P28" s="180">
+      <c r="P28" s="181">
         <v>29000</v>
       </c>
-      <c r="Q28" s="180"/>
-      <c r="R28" s="179"/>
-      <c r="S28" s="180">
+      <c r="Q28" s="181"/>
+      <c r="R28" s="180"/>
+      <c r="S28" s="181">
         <v>29000</v>
       </c>
-      <c r="T28" s="181">
-        <v>0</v>
-      </c>
-      <c r="U28" s="180"/>
+      <c r="T28" s="182">
+        <v>0</v>
+      </c>
+      <c r="U28" s="181"/>
     </row>
     <row r="29">
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="188" t="s">
         <v>314</v>
       </c>
-      <c r="M29" s="189">
+      <c r="M29" s="190">
         <v>18457750</v>
       </c>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="188"/>
-      <c r="R29" s="189">
+      <c r="P29" s="190"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="190">
         <v>2294006.02</v>
       </c>
-      <c r="S29" s="189">
+      <c r="S29" s="190">
         <v>16163743.98</v>
       </c>
-      <c r="T29" s="190">
-        <v>0</v>
-      </c>
-      <c r="U29" s="189"/>
+      <c r="T29" s="191">
+        <v>0</v>
+      </c>
+      <c r="U29" s="190"/>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
@@ -13388,7 +13392,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="187" t="s">
+      <c r="A31" s="188" t="s">
         <v>316</v>
       </c>
     </row>
@@ -13396,192 +13400,192 @@
       <c r="C32" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="K32" s="178">
+      <c r="K32" s="179">
         <v>5010101001</v>
       </c>
-      <c r="M32" s="180">
+      <c r="M32" s="181">
         <v>6115500</v>
       </c>
-      <c r="P32" s="180">
+      <c r="P32" s="181">
         <v>6115500</v>
       </c>
-      <c r="Q32" s="180"/>
-      <c r="R32" s="180">
+      <c r="Q32" s="181"/>
+      <c r="R32" s="181">
         <v>4433290</v>
       </c>
-      <c r="S32" s="180">
+      <c r="S32" s="181">
         <v>1682210</v>
       </c>
-      <c r="T32" s="181">
-        <v>0</v>
-      </c>
-      <c r="U32" s="180"/>
+      <c r="T32" s="182">
+        <v>0</v>
+      </c>
+      <c r="U32" s="181"/>
     </row>
     <row r="33">
       <c r="C33" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="K33" s="178">
+      <c r="K33" s="179">
         <v>5010201001</v>
       </c>
-      <c r="M33" s="180">
+      <c r="M33" s="181">
         <v>276000</v>
       </c>
-      <c r="P33" s="180">
+      <c r="P33" s="181">
         <v>276000</v>
       </c>
-      <c r="Q33" s="180"/>
-      <c r="R33" s="180">
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181">
         <v>176000</v>
       </c>
-      <c r="S33" s="180">
+      <c r="S33" s="181">
         <v>100000</v>
       </c>
-      <c r="T33" s="181">
-        <v>0</v>
-      </c>
-      <c r="U33" s="180"/>
+      <c r="T33" s="182">
+        <v>0</v>
+      </c>
+      <c r="U33" s="181"/>
     </row>
     <row r="34">
       <c r="C34" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="K34" s="178">
+      <c r="K34" s="179">
         <v>5010202000</v>
       </c>
-      <c r="M34" s="180">
+      <c r="M34" s="181">
         <v>15000</v>
       </c>
-      <c r="P34" s="180">
+      <c r="P34" s="181">
         <v>15000</v>
       </c>
-      <c r="Q34" s="180"/>
-      <c r="R34" s="180">
+      <c r="Q34" s="181"/>
+      <c r="R34" s="181">
         <v>5000</v>
       </c>
-      <c r="S34" s="180">
+      <c r="S34" s="181">
         <v>10000</v>
       </c>
-      <c r="T34" s="181">
-        <v>0</v>
-      </c>
-      <c r="U34" s="180"/>
+      <c r="T34" s="182">
+        <v>0</v>
+      </c>
+      <c r="U34" s="181"/>
     </row>
     <row r="35">
       <c r="C35" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="K35" s="178">
+      <c r="K35" s="179">
         <v>5010203001</v>
       </c>
-      <c r="M35" s="180">
+      <c r="M35" s="181">
         <v>15000</v>
       </c>
-      <c r="P35" s="180">
+      <c r="P35" s="181">
         <v>15000</v>
       </c>
-      <c r="Q35" s="180"/>
-      <c r="R35" s="180">
+      <c r="Q35" s="181"/>
+      <c r="R35" s="181">
         <v>5000</v>
       </c>
-      <c r="S35" s="180">
+      <c r="S35" s="181">
         <v>10000</v>
       </c>
-      <c r="T35" s="181">
-        <v>0</v>
-      </c>
-      <c r="U35" s="180"/>
+      <c r="T35" s="182">
+        <v>0</v>
+      </c>
+      <c r="U35" s="181"/>
     </row>
     <row r="36">
       <c r="C36" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="K36" s="178">
+      <c r="K36" s="179">
         <v>5010302001</v>
       </c>
-      <c r="M36" s="180">
+      <c r="M36" s="181">
         <v>13750</v>
       </c>
-      <c r="P36" s="180">
+      <c r="P36" s="181">
         <v>13750</v>
       </c>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180">
+      <c r="Q36" s="181"/>
+      <c r="R36" s="181">
         <v>8800</v>
       </c>
-      <c r="S36" s="180">
+      <c r="S36" s="181">
         <v>4950</v>
       </c>
-      <c r="T36" s="181">
-        <v>0</v>
-      </c>
-      <c r="U36" s="180"/>
+      <c r="T36" s="182">
+        <v>0</v>
+      </c>
+      <c r="U36" s="181"/>
     </row>
     <row r="37">
       <c r="C37" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="K37" s="178">
+      <c r="K37" s="179">
         <v>5010303001</v>
       </c>
-      <c r="M37" s="180">
+      <c r="M37" s="181">
         <v>49750</v>
       </c>
-      <c r="P37" s="180">
+      <c r="P37" s="181">
         <v>49750</v>
       </c>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="179"/>
-      <c r="S37" s="180">
+      <c r="Q37" s="181"/>
+      <c r="R37" s="180"/>
+      <c r="S37" s="181">
         <v>49750</v>
       </c>
-      <c r="T37" s="181">
-        <v>0</v>
-      </c>
-      <c r="U37" s="180"/>
+      <c r="T37" s="182">
+        <v>0</v>
+      </c>
+      <c r="U37" s="181"/>
     </row>
     <row r="38">
       <c r="C38" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="K38" s="178">
+      <c r="K38" s="179">
         <v>5010304001</v>
       </c>
-      <c r="M38" s="180">
+      <c r="M38" s="181">
         <v>13750</v>
       </c>
-      <c r="P38" s="180">
+      <c r="P38" s="181">
         <v>13750</v>
       </c>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="179"/>
-      <c r="S38" s="180">
+      <c r="Q38" s="181"/>
+      <c r="R38" s="180"/>
+      <c r="S38" s="181">
         <v>13750</v>
       </c>
-      <c r="T38" s="181">
-        <v>0</v>
-      </c>
-      <c r="U38" s="180"/>
+      <c r="T38" s="182">
+        <v>0</v>
+      </c>
+      <c r="U38" s="181"/>
     </row>
     <row r="39">
-      <c r="C39" s="187" t="s">
+      <c r="C39" s="188" t="s">
         <v>317</v>
       </c>
-      <c r="M39" s="189">
+      <c r="M39" s="190">
         <v>6498750</v>
       </c>
-      <c r="P39" s="189"/>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="189">
+      <c r="P39" s="190"/>
+      <c r="Q39" s="189"/>
+      <c r="R39" s="190">
         <v>4628090</v>
       </c>
-      <c r="S39" s="189">
+      <c r="S39" s="190">
         <v>1870660</v>
       </c>
-      <c r="T39" s="190">
-        <v>0</v>
-      </c>
-      <c r="U39" s="189"/>
+      <c r="T39" s="191">
+        <v>0</v>
+      </c>
+      <c r="U39" s="190"/>
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
@@ -13589,7 +13593,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="188" t="s">
         <v>71</v>
       </c>
     </row>
@@ -13597,219 +13601,219 @@
       <c r="C42" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="K42" s="178">
+      <c r="K42" s="179">
         <v>5010101001</v>
       </c>
-      <c r="M42" s="180">
+      <c r="M42" s="181">
         <v>2066750</v>
       </c>
-      <c r="P42" s="180">
+      <c r="P42" s="181">
         <v>2066750</v>
       </c>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="180">
+      <c r="Q42" s="181"/>
+      <c r="R42" s="181">
         <v>641729</v>
       </c>
-      <c r="S42" s="180">
+      <c r="S42" s="181">
         <v>1425021</v>
       </c>
-      <c r="T42" s="181">
-        <v>0</v>
-      </c>
-      <c r="U42" s="180"/>
+      <c r="T42" s="182">
+        <v>0</v>
+      </c>
+      <c r="U42" s="181"/>
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="K43" s="178">
+      <c r="K43" s="179">
         <v>5010201001</v>
       </c>
-      <c r="M43" s="180">
+      <c r="M43" s="181">
         <v>108000</v>
       </c>
-      <c r="P43" s="180">
+      <c r="P43" s="181">
         <v>108000</v>
       </c>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="180">
+      <c r="Q43" s="181"/>
+      <c r="R43" s="181">
         <v>34000</v>
       </c>
-      <c r="S43" s="180">
+      <c r="S43" s="181">
         <v>74000</v>
       </c>
-      <c r="T43" s="181">
-        <v>0</v>
-      </c>
-      <c r="U43" s="180"/>
+      <c r="T43" s="182">
+        <v>0</v>
+      </c>
+      <c r="U43" s="181"/>
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="K44" s="178">
+      <c r="K44" s="179">
         <v>5010202000</v>
       </c>
-      <c r="M44" s="180">
+      <c r="M44" s="181">
         <v>15000</v>
       </c>
-      <c r="P44" s="180">
+      <c r="P44" s="181">
         <v>15000</v>
       </c>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="180">
+      <c r="Q44" s="181"/>
+      <c r="R44" s="181">
         <v>2500</v>
       </c>
-      <c r="S44" s="180">
+      <c r="S44" s="181">
         <v>12500</v>
       </c>
-      <c r="T44" s="181">
-        <v>0</v>
-      </c>
-      <c r="U44" s="180"/>
+      <c r="T44" s="182">
+        <v>0</v>
+      </c>
+      <c r="U44" s="181"/>
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="K45" s="178">
+      <c r="K45" s="179">
         <v>5010203001</v>
       </c>
-      <c r="M45" s="180">
+      <c r="M45" s="181">
         <v>15000</v>
       </c>
-      <c r="P45" s="180">
+      <c r="P45" s="181">
         <v>15000</v>
       </c>
-      <c r="Q45" s="180"/>
-      <c r="R45" s="180">
+      <c r="Q45" s="181"/>
+      <c r="R45" s="181">
         <v>2500</v>
       </c>
-      <c r="S45" s="180">
+      <c r="S45" s="181">
         <v>12500</v>
       </c>
-      <c r="T45" s="181">
-        <v>0</v>
-      </c>
-      <c r="U45" s="180"/>
+      <c r="T45" s="182">
+        <v>0</v>
+      </c>
+      <c r="U45" s="181"/>
     </row>
     <row r="46">
       <c r="C46" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="K46" s="178">
+      <c r="K46" s="179">
         <v>5010302001</v>
       </c>
-      <c r="M46" s="180">
+      <c r="M46" s="181">
         <v>5500</v>
       </c>
-      <c r="P46" s="180">
+      <c r="P46" s="181">
         <v>5500</v>
       </c>
-      <c r="Q46" s="180"/>
-      <c r="R46" s="180">
+      <c r="Q46" s="181"/>
+      <c r="R46" s="181">
         <v>1700</v>
       </c>
-      <c r="S46" s="180">
+      <c r="S46" s="181">
         <v>3800</v>
       </c>
-      <c r="T46" s="181">
-        <v>0</v>
-      </c>
-      <c r="U46" s="180"/>
+      <c r="T46" s="182">
+        <v>0</v>
+      </c>
+      <c r="U46" s="181"/>
     </row>
     <row r="47">
       <c r="C47" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="K47" s="178">
+      <c r="K47" s="179">
         <v>5010303001</v>
       </c>
-      <c r="M47" s="180">
+      <c r="M47" s="181">
         <v>18750</v>
       </c>
-      <c r="P47" s="180">
+      <c r="P47" s="181">
         <v>18750</v>
       </c>
-      <c r="Q47" s="180"/>
-      <c r="R47" s="179"/>
-      <c r="S47" s="180">
+      <c r="Q47" s="181"/>
+      <c r="R47" s="180"/>
+      <c r="S47" s="181">
         <v>18750</v>
       </c>
-      <c r="T47" s="181">
-        <v>0</v>
-      </c>
-      <c r="U47" s="180"/>
+      <c r="T47" s="182">
+        <v>0</v>
+      </c>
+      <c r="U47" s="181"/>
     </row>
     <row r="48">
       <c r="C48" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="K48" s="178">
+      <c r="K48" s="179">
         <v>5010304001</v>
       </c>
-      <c r="M48" s="180">
+      <c r="M48" s="181">
         <v>5500</v>
       </c>
-      <c r="P48" s="180">
+      <c r="P48" s="181">
         <v>5500</v>
       </c>
-      <c r="Q48" s="180"/>
-      <c r="R48" s="179"/>
-      <c r="S48" s="180">
+      <c r="Q48" s="181"/>
+      <c r="R48" s="180"/>
+      <c r="S48" s="181">
         <v>5500</v>
       </c>
-      <c r="T48" s="181">
-        <v>0</v>
-      </c>
-      <c r="U48" s="180"/>
+      <c r="T48" s="182">
+        <v>0</v>
+      </c>
+      <c r="U48" s="181"/>
     </row>
     <row r="49">
-      <c r="C49" s="187" t="s">
+      <c r="C49" s="188" t="s">
         <v>319</v>
       </c>
-      <c r="M49" s="189">
+      <c r="M49" s="190">
         <v>2234500</v>
       </c>
-      <c r="P49" s="189"/>
-      <c r="Q49" s="188"/>
-      <c r="R49" s="189">
+      <c r="P49" s="190"/>
+      <c r="Q49" s="189"/>
+      <c r="R49" s="190">
         <v>682429</v>
       </c>
-      <c r="S49" s="189">
+      <c r="S49" s="190">
         <v>1552071</v>
       </c>
-      <c r="T49" s="190">
-        <v>0</v>
-      </c>
-      <c r="U49" s="189"/>
+      <c r="T49" s="191">
+        <v>0</v>
+      </c>
+      <c r="U49" s="190"/>
     </row>
     <row r="50">
-      <c r="J50" s="191" t="s">
+      <c r="J50" s="192" t="s">
         <v>320</v>
       </c>
-      <c r="M50" s="188">
+      <c r="M50" s="189">
         <v>27191000</v>
       </c>
-      <c r="P50" s="189">
+      <c r="P50" s="190">
         <v>27191000</v>
       </c>
-      <c r="Q50" s="188"/>
-      <c r="R50" s="189">
+      <c r="Q50" s="189"/>
+      <c r="R50" s="190">
         <v>7604525.02</v>
       </c>
-      <c r="S50" s="189">
+      <c r="S50" s="190">
         <v>19586474.98</v>
       </c>
-      <c r="T50" s="190">
-        <v>0</v>
-      </c>
-      <c r="U50" s="189">
+      <c r="T50" s="191">
+        <v>0</v>
+      </c>
+      <c r="U50" s="190">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="176" t="s">
+      <c r="A52" s="177" t="s">
         <v>321</v>
       </c>
     </row>
@@ -13819,7 +13823,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="187" t="s">
+      <c r="A54" s="188" t="s">
         <v>322</v>
       </c>
     </row>
@@ -13827,130 +13831,130 @@
       <c r="C55" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K55" s="178">
+      <c r="K55" s="179">
         <v>5020101000</v>
       </c>
-      <c r="M55" s="180">
+      <c r="M55" s="181">
         <v>4121750</v>
       </c>
-      <c r="P55" s="180">
+      <c r="P55" s="181">
         <v>4121750</v>
       </c>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180">
+      <c r="Q55" s="181"/>
+      <c r="R55" s="181">
         <v>2135</v>
       </c>
-      <c r="S55" s="180">
+      <c r="S55" s="181">
         <v>4119615</v>
       </c>
-      <c r="T55" s="181">
-        <v>0</v>
-      </c>
-      <c r="U55" s="180"/>
+      <c r="T55" s="182">
+        <v>0</v>
+      </c>
+      <c r="U55" s="181"/>
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="K56" s="178">
+      <c r="K56" s="179">
         <v>5020502001</v>
       </c>
-      <c r="M56" s="180"/>
-      <c r="P56" s="179"/>
-      <c r="Q56" s="180"/>
-      <c r="R56" s="180">
+      <c r="M56" s="181"/>
+      <c r="P56" s="180"/>
+      <c r="Q56" s="181"/>
+      <c r="R56" s="181">
         <v>3500</v>
       </c>
-      <c r="S56" s="192">
+      <c r="S56" s="193">
         <v>3500</v>
       </c>
-      <c r="T56" s="181">
+      <c r="T56" s="182">
         <v/>
       </c>
-      <c r="U56" s="180"/>
+      <c r="U56" s="181"/>
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="K57" s="178">
+      <c r="K57" s="179">
         <v>5020503000</v>
       </c>
-      <c r="M57" s="180"/>
-      <c r="P57" s="179"/>
-      <c r="Q57" s="180"/>
-      <c r="R57" s="180">
+      <c r="M57" s="181"/>
+      <c r="P57" s="180"/>
+      <c r="Q57" s="181"/>
+      <c r="R57" s="181">
         <v>5677</v>
       </c>
-      <c r="S57" s="192">
+      <c r="S57" s="193">
         <v>5677</v>
       </c>
-      <c r="T57" s="181">
+      <c r="T57" s="182">
         <v/>
       </c>
-      <c r="U57" s="180"/>
+      <c r="U57" s="181"/>
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="K58" s="178">
+      <c r="K58" s="179">
         <v>5021501001</v>
       </c>
-      <c r="M58" s="180"/>
-      <c r="P58" s="179"/>
-      <c r="Q58" s="180"/>
-      <c r="R58" s="180">
+      <c r="M58" s="181"/>
+      <c r="P58" s="180"/>
+      <c r="Q58" s="181"/>
+      <c r="R58" s="181">
         <v>431.56</v>
       </c>
-      <c r="S58" s="192">
+      <c r="S58" s="193">
         <v>431.56</v>
       </c>
-      <c r="T58" s="181">
+      <c r="T58" s="182">
         <v/>
       </c>
-      <c r="U58" s="180"/>
+      <c r="U58" s="181"/>
     </row>
     <row r="59">
       <c r="C59" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="K59" s="178">
+      <c r="K59" s="179">
         <v>5021503000</v>
       </c>
-      <c r="M59" s="180"/>
-      <c r="P59" s="179"/>
-      <c r="Q59" s="180"/>
-      <c r="R59" s="180">
+      <c r="M59" s="181"/>
+      <c r="P59" s="180"/>
+      <c r="Q59" s="181"/>
+      <c r="R59" s="181">
         <v>13134.119999999999</v>
       </c>
-      <c r="S59" s="192">
+      <c r="S59" s="193">
         <v>13134.119999999999</v>
       </c>
-      <c r="T59" s="181">
+      <c r="T59" s="182">
         <v/>
       </c>
-      <c r="U59" s="180"/>
+      <c r="U59" s="181"/>
     </row>
     <row r="60">
-      <c r="C60" s="187" t="s">
+      <c r="C60" s="188" t="s">
         <v>328</v>
       </c>
-      <c r="M60" s="189">
+      <c r="M60" s="190">
         <v>4121750</v>
       </c>
-      <c r="P60" s="189"/>
-      <c r="Q60" s="188"/>
-      <c r="R60" s="189">
+      <c r="P60" s="190"/>
+      <c r="Q60" s="189"/>
+      <c r="R60" s="190">
         <v>24877.68</v>
       </c>
-      <c r="S60" s="189">
+      <c r="S60" s="190">
         <v>4096872.32</v>
       </c>
-      <c r="T60" s="190">
-        <v>0</v>
-      </c>
-      <c r="U60" s="189"/>
+      <c r="T60" s="191">
+        <v>0</v>
+      </c>
+      <c r="U60" s="190"/>
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
@@ -13958,7 +13962,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="187" t="s">
+      <c r="A62" s="188" t="s">
         <v>330</v>
       </c>
     </row>
@@ -13966,42 +13970,42 @@
       <c r="C63" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K63" s="178">
+      <c r="K63" s="179">
         <v>5020101000</v>
       </c>
-      <c r="M63" s="180">
+      <c r="M63" s="181">
         <v>340250</v>
       </c>
-      <c r="P63" s="180">
+      <c r="P63" s="181">
         <v>340250</v>
       </c>
-      <c r="Q63" s="180"/>
-      <c r="R63" s="179"/>
-      <c r="S63" s="180">
+      <c r="Q63" s="181"/>
+      <c r="R63" s="180"/>
+      <c r="S63" s="181">
         <v>340250</v>
       </c>
-      <c r="T63" s="181">
-        <v>0</v>
-      </c>
-      <c r="U63" s="180"/>
+      <c r="T63" s="182">
+        <v>0</v>
+      </c>
+      <c r="U63" s="181"/>
     </row>
     <row r="64">
-      <c r="C64" s="187" t="s">
+      <c r="C64" s="188" t="s">
         <v>331</v>
       </c>
-      <c r="M64" s="189">
+      <c r="M64" s="190">
         <v>340250</v>
       </c>
-      <c r="P64" s="189"/>
-      <c r="Q64" s="188"/>
-      <c r="R64" s="188"/>
-      <c r="S64" s="189">
+      <c r="P64" s="190"/>
+      <c r="Q64" s="189"/>
+      <c r="R64" s="189"/>
+      <c r="S64" s="190">
         <v>340250</v>
       </c>
-      <c r="T64" s="190">
-        <v>0</v>
-      </c>
-      <c r="U64" s="189"/>
+      <c r="T64" s="191">
+        <v>0</v>
+      </c>
+      <c r="U64" s="190"/>
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
@@ -14009,7 +14013,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="187" t="s">
+      <c r="A66" s="188" t="s">
         <v>333</v>
       </c>
     </row>
@@ -14017,42 +14021,42 @@
       <c r="C67" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="K67" s="178">
+      <c r="K67" s="179">
         <v>5021403000</v>
       </c>
-      <c r="M67" s="180">
+      <c r="M67" s="181">
         <v>4525000</v>
       </c>
-      <c r="P67" s="180">
+      <c r="P67" s="181">
         <v>4525000</v>
       </c>
-      <c r="Q67" s="180"/>
-      <c r="R67" s="179"/>
-      <c r="S67" s="180">
+      <c r="Q67" s="181"/>
+      <c r="R67" s="180"/>
+      <c r="S67" s="181">
         <v>4525000</v>
       </c>
-      <c r="T67" s="181">
-        <v>0</v>
-      </c>
-      <c r="U67" s="180"/>
+      <c r="T67" s="182">
+        <v>0</v>
+      </c>
+      <c r="U67" s="181"/>
     </row>
     <row r="68">
-      <c r="C68" s="187" t="s">
+      <c r="C68" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="M68" s="189">
+      <c r="M68" s="190">
         <v>4525000</v>
       </c>
-      <c r="P68" s="189"/>
-      <c r="Q68" s="188"/>
-      <c r="R68" s="188"/>
-      <c r="S68" s="189">
+      <c r="P68" s="190"/>
+      <c r="Q68" s="189"/>
+      <c r="R68" s="189"/>
+      <c r="S68" s="190">
         <v>4525000</v>
       </c>
-      <c r="T68" s="190">
-        <v>0</v>
-      </c>
-      <c r="U68" s="189"/>
+      <c r="T68" s="191">
+        <v>0</v>
+      </c>
+      <c r="U68" s="190"/>
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
@@ -14060,7 +14064,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="187" t="s">
+      <c r="A70" s="188" t="s">
         <v>337</v>
       </c>
     </row>
@@ -14068,42 +14072,42 @@
       <c r="C71" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="K71" s="178">
+      <c r="K71" s="179">
         <v>5021199000</v>
       </c>
-      <c r="M71" s="180">
+      <c r="M71" s="181">
         <v>192296000</v>
       </c>
-      <c r="P71" s="180">
+      <c r="P71" s="181">
         <v>192296000</v>
       </c>
-      <c r="Q71" s="180"/>
-      <c r="R71" s="179"/>
-      <c r="S71" s="180">
+      <c r="Q71" s="181"/>
+      <c r="R71" s="180"/>
+      <c r="S71" s="181">
         <v>192296000</v>
       </c>
-      <c r="T71" s="181">
-        <v>0</v>
-      </c>
-      <c r="U71" s="180"/>
+      <c r="T71" s="182">
+        <v>0</v>
+      </c>
+      <c r="U71" s="181"/>
     </row>
     <row r="72">
-      <c r="C72" s="187" t="s">
+      <c r="C72" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="M72" s="189">
+      <c r="M72" s="190">
         <v>192296000</v>
       </c>
-      <c r="P72" s="189"/>
-      <c r="Q72" s="188"/>
-      <c r="R72" s="188"/>
-      <c r="S72" s="189">
+      <c r="P72" s="190"/>
+      <c r="Q72" s="189"/>
+      <c r="R72" s="189"/>
+      <c r="S72" s="190">
         <v>192296000</v>
       </c>
-      <c r="T72" s="190">
-        <v>0</v>
-      </c>
-      <c r="U72" s="189"/>
+      <c r="T72" s="191">
+        <v>0</v>
+      </c>
+      <c r="U72" s="190"/>
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
@@ -14111,7 +14115,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="187" t="s">
+      <c r="A74" s="188" t="s">
         <v>341</v>
       </c>
     </row>
@@ -14119,67 +14123,67 @@
       <c r="C75" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K75" s="178">
+      <c r="K75" s="179">
         <v>5020101000</v>
       </c>
-      <c r="M75" s="180"/>
-      <c r="P75" s="179"/>
-      <c r="Q75" s="180"/>
-      <c r="R75" s="180">
+      <c r="M75" s="181"/>
+      <c r="P75" s="180"/>
+      <c r="Q75" s="181"/>
+      <c r="R75" s="181">
         <v>12705.64</v>
       </c>
-      <c r="S75" s="192">
+      <c r="S75" s="193">
         <v>12705.64</v>
       </c>
-      <c r="T75" s="181">
+      <c r="T75" s="182">
         <v/>
       </c>
-      <c r="U75" s="180"/>
+      <c r="U75" s="181"/>
     </row>
     <row r="76">
       <c r="C76" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K76" s="178">
+      <c r="K76" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M76" s="180">
+      <c r="M76" s="181">
         <v>1144000</v>
       </c>
-      <c r="P76" s="180">
+      <c r="P76" s="181">
         <v>1144000</v>
       </c>
-      <c r="Q76" s="180"/>
-      <c r="R76" s="180">
+      <c r="Q76" s="181"/>
+      <c r="R76" s="181">
         <v>75600</v>
       </c>
-      <c r="S76" s="180">
+      <c r="S76" s="181">
         <v>1068400</v>
       </c>
-      <c r="T76" s="181">
-        <v>0</v>
-      </c>
-      <c r="U76" s="180"/>
+      <c r="T76" s="182">
+        <v>0</v>
+      </c>
+      <c r="U76" s="181"/>
     </row>
     <row r="77">
-      <c r="C77" s="187" t="s">
+      <c r="C77" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="M77" s="189">
+      <c r="M77" s="190">
         <v>1144000</v>
       </c>
-      <c r="P77" s="189"/>
-      <c r="Q77" s="188"/>
-      <c r="R77" s="189">
+      <c r="P77" s="190"/>
+      <c r="Q77" s="189"/>
+      <c r="R77" s="190">
         <v>88305.64</v>
       </c>
-      <c r="S77" s="189">
+      <c r="S77" s="190">
         <v>1055694.36</v>
       </c>
-      <c r="T77" s="190">
-        <v>0</v>
-      </c>
-      <c r="U77" s="189"/>
+      <c r="T77" s="191">
+        <v>0</v>
+      </c>
+      <c r="U77" s="190"/>
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
@@ -14187,7 +14191,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="187" t="s">
+      <c r="A79" s="188" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14195,42 +14199,42 @@
       <c r="C80" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K80" s="178">
+      <c r="K80" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M80" s="180">
+      <c r="M80" s="181">
         <v>1906750</v>
       </c>
-      <c r="P80" s="180">
+      <c r="P80" s="181">
         <v>1906750</v>
       </c>
-      <c r="Q80" s="180"/>
-      <c r="R80" s="179"/>
-      <c r="S80" s="180">
+      <c r="Q80" s="181"/>
+      <c r="R80" s="180"/>
+      <c r="S80" s="181">
         <v>1906750</v>
       </c>
-      <c r="T80" s="181">
-        <v>0</v>
-      </c>
-      <c r="U80" s="180"/>
+      <c r="T80" s="182">
+        <v>0</v>
+      </c>
+      <c r="U80" s="181"/>
     </row>
     <row r="81">
-      <c r="C81" s="187" t="s">
+      <c r="C81" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="M81" s="189">
+      <c r="M81" s="190">
         <v>1906750</v>
       </c>
-      <c r="P81" s="189"/>
-      <c r="Q81" s="188"/>
-      <c r="R81" s="188"/>
-      <c r="S81" s="189">
+      <c r="P81" s="190"/>
+      <c r="Q81" s="189"/>
+      <c r="R81" s="189"/>
+      <c r="S81" s="190">
         <v>1906750</v>
       </c>
-      <c r="T81" s="190">
-        <v>0</v>
-      </c>
-      <c r="U81" s="189"/>
+      <c r="T81" s="191">
+        <v>0</v>
+      </c>
+      <c r="U81" s="190"/>
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
@@ -14238,7 +14242,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="187" t="s">
+      <c r="A83" s="188" t="s">
         <v>346</v>
       </c>
     </row>
@@ -14246,89 +14250,89 @@
       <c r="C84" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K84" s="178">
+      <c r="K84" s="179">
         <v>5020101000</v>
       </c>
-      <c r="M84" s="180">
+      <c r="M84" s="181">
         <v>45164500</v>
       </c>
-      <c r="P84" s="180">
+      <c r="P84" s="181">
         <v>45164500</v>
       </c>
-      <c r="Q84" s="180"/>
-      <c r="R84" s="180">
+      <c r="Q84" s="181"/>
+      <c r="R84" s="181">
         <v>2160</v>
       </c>
-      <c r="S84" s="180">
+      <c r="S84" s="181">
         <v>45162340</v>
       </c>
-      <c r="T84" s="181">
-        <v>0</v>
-      </c>
-      <c r="U84" s="180"/>
+      <c r="T84" s="182">
+        <v>0</v>
+      </c>
+      <c r="U84" s="181"/>
     </row>
     <row r="85">
       <c r="C85" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K85" s="178">
+      <c r="K85" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M85" s="180"/>
-      <c r="P85" s="179"/>
-      <c r="Q85" s="180"/>
-      <c r="R85" s="180">
+      <c r="M85" s="181"/>
+      <c r="P85" s="180"/>
+      <c r="Q85" s="181"/>
+      <c r="R85" s="181">
         <v>22500</v>
       </c>
-      <c r="S85" s="192">
+      <c r="S85" s="193">
         <v>22500</v>
       </c>
-      <c r="T85" s="181">
+      <c r="T85" s="182">
         <v/>
       </c>
-      <c r="U85" s="180"/>
+      <c r="U85" s="181"/>
     </row>
     <row r="86">
       <c r="C86" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="K86" s="178">
+      <c r="K86" s="179">
         <v>5020502001</v>
       </c>
-      <c r="M86" s="180"/>
-      <c r="P86" s="179"/>
-      <c r="Q86" s="180"/>
-      <c r="R86" s="180">
+      <c r="M86" s="181"/>
+      <c r="P86" s="180"/>
+      <c r="Q86" s="181"/>
+      <c r="R86" s="181">
         <v>11097.24</v>
       </c>
-      <c r="S86" s="192">
+      <c r="S86" s="193">
         <v>11097.24</v>
       </c>
-      <c r="T86" s="181">
+      <c r="T86" s="182">
         <v/>
       </c>
-      <c r="U86" s="180"/>
+      <c r="U86" s="181"/>
     </row>
     <row r="87">
       <c r="C87" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="K87" s="178">
+      <c r="K87" s="179">
         <v>5020503000</v>
       </c>
-      <c r="M87" s="180"/>
-      <c r="P87" s="179"/>
-      <c r="Q87" s="180"/>
-      <c r="R87" s="180">
+      <c r="M87" s="181"/>
+      <c r="P87" s="180"/>
+      <c r="Q87" s="181"/>
+      <c r="R87" s="181">
         <v>9753.3</v>
       </c>
-      <c r="S87" s="192">
+      <c r="S87" s="193">
         <v>9753.3</v>
       </c>
-      <c r="T87" s="181" t="e">
+      <c r="T87" s="182" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U87" s="180">
+      <c r="U87" s="181">
         <v>5297.76</v>
       </c>
     </row>
@@ -14336,59 +14340,59 @@
       <c r="C88" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="K88" s="178">
+      <c r="K88" s="179">
         <v>5029903000</v>
       </c>
-      <c r="M88" s="180"/>
-      <c r="P88" s="179"/>
-      <c r="Q88" s="180"/>
-      <c r="R88" s="179"/>
-      <c r="S88" s="179"/>
-      <c r="T88" s="181">
+      <c r="M88" s="181"/>
+      <c r="P88" s="180"/>
+      <c r="Q88" s="181"/>
+      <c r="R88" s="180"/>
+      <c r="S88" s="180"/>
+      <c r="T88" s="182">
         <v/>
       </c>
-      <c r="U88" s="180"/>
+      <c r="U88" s="181"/>
     </row>
     <row r="89">
       <c r="C89" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="K89" s="178">
+      <c r="K89" s="179">
         <v>5029904000</v>
       </c>
-      <c r="M89" s="180"/>
-      <c r="P89" s="179"/>
-      <c r="Q89" s="180"/>
-      <c r="R89" s="180">
+      <c r="M89" s="181"/>
+      <c r="P89" s="180"/>
+      <c r="Q89" s="181"/>
+      <c r="R89" s="181">
         <v>3800000</v>
       </c>
-      <c r="S89" s="192">
+      <c r="S89" s="193">
         <v>3800000</v>
       </c>
-      <c r="T89" s="181">
+      <c r="T89" s="182">
         <v/>
       </c>
-      <c r="U89" s="180"/>
+      <c r="U89" s="181"/>
     </row>
     <row r="90">
-      <c r="C90" s="187" t="s">
+      <c r="C90" s="188" t="s">
         <v>349</v>
       </c>
-      <c r="M90" s="189">
+      <c r="M90" s="190">
         <v>45164500</v>
       </c>
-      <c r="P90" s="189"/>
-      <c r="Q90" s="188"/>
-      <c r="R90" s="189">
+      <c r="P90" s="190"/>
+      <c r="Q90" s="189"/>
+      <c r="R90" s="190">
         <v>3845510.54</v>
       </c>
-      <c r="S90" s="189">
+      <c r="S90" s="190">
         <v>41318989.46</v>
       </c>
-      <c r="T90" s="190">
+      <c r="T90" s="191">
         <v>2.1233655947486606E-05</v>
       </c>
-      <c r="U90" s="189">
+      <c r="U90" s="190">
         <v>5297.76</v>
       </c>
     </row>
@@ -14398,7 +14402,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="187" t="s">
+      <c r="A92" s="188" t="s">
         <v>83</v>
       </c>
     </row>
@@ -14406,42 +14410,42 @@
       <c r="C93" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K93" s="178">
+      <c r="K93" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M93" s="180">
+      <c r="M93" s="181">
         <v>299750</v>
       </c>
-      <c r="P93" s="180">
+      <c r="P93" s="181">
         <v>299750</v>
       </c>
-      <c r="Q93" s="180"/>
-      <c r="R93" s="179"/>
-      <c r="S93" s="180">
+      <c r="Q93" s="181"/>
+      <c r="R93" s="180"/>
+      <c r="S93" s="181">
         <v>299750</v>
       </c>
-      <c r="T93" s="181">
-        <v>0</v>
-      </c>
-      <c r="U93" s="180"/>
+      <c r="T93" s="182">
+        <v>0</v>
+      </c>
+      <c r="U93" s="181"/>
     </row>
     <row r="94">
-      <c r="C94" s="187" t="s">
+      <c r="C94" s="188" t="s">
         <v>351</v>
       </c>
-      <c r="M94" s="189">
+      <c r="M94" s="190">
         <v>299750</v>
       </c>
-      <c r="P94" s="189"/>
-      <c r="Q94" s="188"/>
-      <c r="R94" s="188"/>
-      <c r="S94" s="189">
+      <c r="P94" s="190"/>
+      <c r="Q94" s="189"/>
+      <c r="R94" s="189"/>
+      <c r="S94" s="190">
         <v>299750</v>
       </c>
-      <c r="T94" s="190">
-        <v>0</v>
-      </c>
-      <c r="U94" s="189"/>
+      <c r="T94" s="191">
+        <v>0</v>
+      </c>
+      <c r="U94" s="190"/>
     </row>
     <row r="95">
       <c r="A95" s="13" t="s">
@@ -14449,7 +14453,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="187" t="s">
+      <c r="A96" s="188" t="s">
         <v>84</v>
       </c>
     </row>
@@ -14457,42 +14461,42 @@
       <c r="C97" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K97" s="178">
+      <c r="K97" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M97" s="180">
+      <c r="M97" s="181">
         <v>1906750</v>
       </c>
-      <c r="P97" s="180">
+      <c r="P97" s="181">
         <v>1906750</v>
       </c>
-      <c r="Q97" s="180"/>
-      <c r="R97" s="179"/>
-      <c r="S97" s="180">
+      <c r="Q97" s="181"/>
+      <c r="R97" s="180"/>
+      <c r="S97" s="181">
         <v>1906750</v>
       </c>
-      <c r="T97" s="181">
-        <v>0</v>
-      </c>
-      <c r="U97" s="180"/>
+      <c r="T97" s="182">
+        <v>0</v>
+      </c>
+      <c r="U97" s="181"/>
     </row>
     <row r="98">
-      <c r="C98" s="187" t="s">
+      <c r="C98" s="188" t="s">
         <v>353</v>
       </c>
-      <c r="M98" s="189">
+      <c r="M98" s="190">
         <v>1906750</v>
       </c>
-      <c r="P98" s="189"/>
-      <c r="Q98" s="188"/>
-      <c r="R98" s="188"/>
-      <c r="S98" s="189">
+      <c r="P98" s="190"/>
+      <c r="Q98" s="189"/>
+      <c r="R98" s="189"/>
+      <c r="S98" s="190">
         <v>1906750</v>
       </c>
-      <c r="T98" s="190">
-        <v>0</v>
-      </c>
-      <c r="U98" s="189"/>
+      <c r="T98" s="191">
+        <v>0</v>
+      </c>
+      <c r="U98" s="190"/>
     </row>
     <row r="99">
       <c r="A99" s="13" t="s">
@@ -14500,7 +14504,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="187" t="s">
+      <c r="A100" s="188" t="s">
         <v>354</v>
       </c>
     </row>
@@ -14508,89 +14512,89 @@
       <c r="C101" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K101" s="178">
+      <c r="K101" s="179">
         <v>5020101000</v>
       </c>
-      <c r="M101" s="180">
+      <c r="M101" s="181">
         <v>1497500</v>
       </c>
-      <c r="P101" s="180">
+      <c r="P101" s="181">
         <v>1497500</v>
       </c>
-      <c r="Q101" s="180"/>
-      <c r="R101" s="180">
+      <c r="Q101" s="181"/>
+      <c r="R101" s="181">
         <v>5680</v>
       </c>
-      <c r="S101" s="180">
+      <c r="S101" s="181">
         <v>1491820</v>
       </c>
-      <c r="T101" s="181">
-        <v>0</v>
-      </c>
-      <c r="U101" s="180"/>
+      <c r="T101" s="182">
+        <v>0</v>
+      </c>
+      <c r="U101" s="181"/>
     </row>
     <row r="102">
       <c r="C102" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="K102" s="178">
+      <c r="K102" s="179">
         <v>5020502001</v>
       </c>
-      <c r="M102" s="180"/>
-      <c r="P102" s="179"/>
-      <c r="Q102" s="180"/>
-      <c r="R102" s="180">
+      <c r="M102" s="181"/>
+      <c r="P102" s="180"/>
+      <c r="Q102" s="181"/>
+      <c r="R102" s="181">
         <v>3000</v>
       </c>
-      <c r="S102" s="192">
+      <c r="S102" s="193">
         <v>3000</v>
       </c>
-      <c r="T102" s="181">
+      <c r="T102" s="182">
         <v/>
       </c>
-      <c r="U102" s="180"/>
+      <c r="U102" s="181"/>
     </row>
     <row r="103">
-      <c r="C103" s="187" t="s">
+      <c r="C103" s="188" t="s">
         <v>355</v>
       </c>
-      <c r="M103" s="189">
+      <c r="M103" s="190">
         <v>1497500</v>
       </c>
-      <c r="P103" s="189"/>
-      <c r="Q103" s="188"/>
-      <c r="R103" s="189">
+      <c r="P103" s="190"/>
+      <c r="Q103" s="189"/>
+      <c r="R103" s="190">
         <v>8680</v>
       </c>
-      <c r="S103" s="189">
+      <c r="S103" s="190">
         <v>1488820</v>
       </c>
-      <c r="T103" s="190">
-        <v>0</v>
-      </c>
-      <c r="U103" s="189"/>
+      <c r="T103" s="191">
+        <v>0</v>
+      </c>
+      <c r="U103" s="190"/>
     </row>
     <row r="104">
-      <c r="J104" s="191" t="s">
+      <c r="J104" s="192" t="s">
         <v>356</v>
       </c>
-      <c r="M104" s="188">
+      <c r="M104" s="189">
         <v>253202250</v>
       </c>
-      <c r="P104" s="189">
+      <c r="P104" s="190">
         <v>253202250</v>
       </c>
-      <c r="Q104" s="188"/>
-      <c r="R104" s="189">
+      <c r="Q104" s="189"/>
+      <c r="R104" s="190">
         <v>3967373.86</v>
       </c>
-      <c r="S104" s="189">
+      <c r="S104" s="190">
         <v>249234876.14000002</v>
       </c>
-      <c r="T104" s="190">
+      <c r="T104" s="191">
         <v>2.092303682135526E-05</v>
       </c>
-      <c r="U104" s="189">
+      <c r="U104" s="190">
         <v>5297.76</v>
       </c>
     </row>
@@ -14605,12 +14609,12 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="187" t="s">
+      <c r="A108" s="188" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="109">
-      <c r="B109" s="193" t="s">
+      <c r="B109" s="194" t="s">
         <v>360</v>
       </c>
     </row>
@@ -14621,51 +14625,51 @@
       <c r="K110" s="54">
         <v>5021407000</v>
       </c>
-      <c r="M110" s="180">
+      <c r="M110" s="181">
         <v>1000000</v>
       </c>
-      <c r="N110" s="180"/>
-      <c r="P110" s="180">
+      <c r="N110" s="181"/>
+      <c r="P110" s="181">
         <v>1000000</v>
       </c>
-      <c r="Q110" s="180"/>
-      <c r="R110" s="180"/>
-      <c r="S110" s="180">
+      <c r="Q110" s="181"/>
+      <c r="R110" s="181"/>
+      <c r="S110" s="181">
         <v>1000000</v>
       </c>
-      <c r="T110" s="181">
-        <v>0</v>
-      </c>
-      <c r="U110" s="179"/>
+      <c r="T110" s="182">
+        <v>0</v>
+      </c>
+      <c r="U110" s="180"/>
     </row>
     <row r="111">
       <c r="A111" s="176" t="s">
         <v>362</v>
       </c>
-      <c r="M111" s="189">
+      <c r="M111" s="190">
         <v>1000000</v>
       </c>
-      <c r="P111" s="189">
+      <c r="P111" s="190">
         <v>1000000</v>
       </c>
-      <c r="S111" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD111" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE111" s="194">
+      <c r="S111" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="195">
         <v>1000000</v>
       </c>
-      <c r="AF111" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG111" s="195">
+      <c r="AF111" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="196">
         <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="176" t="s">
+      <c r="A112" s="177" t="s">
         <v>363</v>
       </c>
     </row>
@@ -14675,7 +14679,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="187" t="s">
+      <c r="A114" s="188" t="s">
         <v>364</v>
       </c>
     </row>
@@ -14683,249 +14687,249 @@
       <c r="C115" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="K115" s="178">
+      <c r="K115" s="179">
         <v>5010101001</v>
       </c>
-      <c r="M115" s="180">
+      <c r="M115" s="181">
         <v>12374500</v>
       </c>
-      <c r="P115" s="180">
+      <c r="P115" s="181">
         <v>12374500</v>
       </c>
-      <c r="Q115" s="180"/>
-      <c r="R115" s="179"/>
-      <c r="S115" s="180">
+      <c r="Q115" s="181"/>
+      <c r="R115" s="180"/>
+      <c r="S115" s="181">
         <v>12374500</v>
       </c>
-      <c r="T115" s="181">
-        <v>0</v>
-      </c>
-      <c r="U115" s="180"/>
+      <c r="T115" s="182">
+        <v>0</v>
+      </c>
+      <c r="U115" s="181"/>
     </row>
     <row r="116">
       <c r="C116" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="K116" s="178">
+      <c r="K116" s="179">
         <v>5010201001</v>
       </c>
-      <c r="M116" s="180">
+      <c r="M116" s="181">
         <v>582000</v>
       </c>
-      <c r="P116" s="180">
+      <c r="P116" s="181">
         <v>582000</v>
       </c>
-      <c r="Q116" s="180"/>
-      <c r="R116" s="179"/>
-      <c r="S116" s="180">
+      <c r="Q116" s="181"/>
+      <c r="R116" s="180"/>
+      <c r="S116" s="181">
         <v>582000</v>
       </c>
-      <c r="T116" s="181">
-        <v>0</v>
-      </c>
-      <c r="U116" s="180"/>
+      <c r="T116" s="182">
+        <v>0</v>
+      </c>
+      <c r="U116" s="181"/>
     </row>
     <row r="117">
       <c r="C117" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="K117" s="178">
+      <c r="K117" s="179">
         <v>5010202000</v>
       </c>
-      <c r="M117" s="180">
+      <c r="M117" s="181">
         <v>67500</v>
       </c>
-      <c r="P117" s="180">
+      <c r="P117" s="181">
         <v>67500</v>
       </c>
-      <c r="Q117" s="180"/>
-      <c r="R117" s="179"/>
-      <c r="S117" s="180">
+      <c r="Q117" s="181"/>
+      <c r="R117" s="180"/>
+      <c r="S117" s="181">
         <v>67500</v>
       </c>
-      <c r="T117" s="181">
-        <v>0</v>
-      </c>
-      <c r="U117" s="180"/>
+      <c r="T117" s="182">
+        <v>0</v>
+      </c>
+      <c r="U117" s="181"/>
     </row>
     <row r="118">
       <c r="C118" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="K118" s="178">
+      <c r="K118" s="179">
         <v>5010203001</v>
       </c>
-      <c r="M118" s="180">
+      <c r="M118" s="181">
         <v>67500</v>
       </c>
-      <c r="P118" s="180">
+      <c r="P118" s="181">
         <v>67500</v>
       </c>
-      <c r="Q118" s="180"/>
-      <c r="R118" s="179"/>
-      <c r="S118" s="180">
+      <c r="Q118" s="181"/>
+      <c r="R118" s="180"/>
+      <c r="S118" s="181">
         <v>67500</v>
       </c>
-      <c r="T118" s="181">
-        <v>0</v>
-      </c>
-      <c r="U118" s="180"/>
+      <c r="T118" s="182">
+        <v>0</v>
+      </c>
+      <c r="U118" s="181"/>
     </row>
     <row r="119">
       <c r="C119" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="K119" s="178">
+      <c r="K119" s="179">
         <v>5010205003</v>
       </c>
-      <c r="M119" s="180">
+      <c r="M119" s="181">
         <v>1279500</v>
       </c>
-      <c r="P119" s="180">
+      <c r="P119" s="181">
         <v>1279500</v>
       </c>
-      <c r="Q119" s="180"/>
-      <c r="R119" s="179"/>
-      <c r="S119" s="180">
+      <c r="Q119" s="181"/>
+      <c r="R119" s="180"/>
+      <c r="S119" s="181">
         <v>1279500</v>
       </c>
-      <c r="T119" s="181">
-        <v>0</v>
-      </c>
-      <c r="U119" s="180"/>
+      <c r="T119" s="182">
+        <v>0</v>
+      </c>
+      <c r="U119" s="181"/>
     </row>
     <row r="120">
       <c r="C120" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="K120" s="178">
+      <c r="K120" s="179">
         <v>5010206004</v>
       </c>
-      <c r="M120" s="180">
+      <c r="M120" s="181">
         <v>86750</v>
       </c>
-      <c r="P120" s="180">
+      <c r="P120" s="181">
         <v>86750</v>
       </c>
-      <c r="Q120" s="180"/>
-      <c r="R120" s="179"/>
-      <c r="S120" s="180">
+      <c r="Q120" s="181"/>
+      <c r="R120" s="180"/>
+      <c r="S120" s="181">
         <v>86750</v>
       </c>
-      <c r="T120" s="181">
-        <v>0</v>
-      </c>
-      <c r="U120" s="180"/>
+      <c r="T120" s="182">
+        <v>0</v>
+      </c>
+      <c r="U120" s="181"/>
     </row>
     <row r="121">
       <c r="C121" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="K121" s="178">
+      <c r="K121" s="179">
         <v>5010211005</v>
       </c>
-      <c r="M121" s="180">
+      <c r="M121" s="181">
         <v>3849000</v>
       </c>
-      <c r="P121" s="180">
+      <c r="P121" s="181">
         <v>3849000</v>
       </c>
-      <c r="Q121" s="180"/>
-      <c r="R121" s="179"/>
-      <c r="S121" s="180">
+      <c r="Q121" s="181"/>
+      <c r="R121" s="180"/>
+      <c r="S121" s="181">
         <v>3849000</v>
       </c>
-      <c r="T121" s="181">
-        <v>0</v>
-      </c>
-      <c r="U121" s="180"/>
+      <c r="T121" s="182">
+        <v>0</v>
+      </c>
+      <c r="U121" s="181"/>
     </row>
     <row r="122">
       <c r="C122" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="K122" s="178">
+      <c r="K122" s="179">
         <v>5010302001</v>
       </c>
-      <c r="M122" s="180">
+      <c r="M122" s="181">
         <v>29000</v>
       </c>
-      <c r="P122" s="180">
+      <c r="P122" s="181">
         <v>29000</v>
       </c>
-      <c r="Q122" s="180"/>
-      <c r="R122" s="179"/>
-      <c r="S122" s="180">
+      <c r="Q122" s="181"/>
+      <c r="R122" s="180"/>
+      <c r="S122" s="181">
         <v>29000</v>
       </c>
-      <c r="T122" s="181">
-        <v>0</v>
-      </c>
-      <c r="U122" s="180"/>
+      <c r="T122" s="182">
+        <v>0</v>
+      </c>
+      <c r="U122" s="181"/>
     </row>
     <row r="123">
       <c r="C123" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="K123" s="178">
+      <c r="K123" s="179">
         <v>5010303001</v>
       </c>
-      <c r="M123" s="180">
+      <c r="M123" s="181">
         <v>93000</v>
       </c>
-      <c r="P123" s="180">
+      <c r="P123" s="181">
         <v>93000</v>
       </c>
-      <c r="Q123" s="180"/>
-      <c r="R123" s="179"/>
-      <c r="S123" s="180">
+      <c r="Q123" s="181"/>
+      <c r="R123" s="180"/>
+      <c r="S123" s="181">
         <v>93000</v>
       </c>
-      <c r="T123" s="181">
-        <v>0</v>
-      </c>
-      <c r="U123" s="180"/>
+      <c r="T123" s="182">
+        <v>0</v>
+      </c>
+      <c r="U123" s="181"/>
     </row>
     <row r="124">
       <c r="C124" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="K124" s="178">
+      <c r="K124" s="179">
         <v>5010304001</v>
       </c>
-      <c r="M124" s="180">
+      <c r="M124" s="181">
         <v>29000</v>
       </c>
-      <c r="P124" s="180">
+      <c r="P124" s="181">
         <v>29000</v>
       </c>
-      <c r="Q124" s="180"/>
-      <c r="R124" s="179"/>
-      <c r="S124" s="180">
+      <c r="Q124" s="181"/>
+      <c r="R124" s="180"/>
+      <c r="S124" s="181">
         <v>29000</v>
       </c>
-      <c r="T124" s="181">
-        <v>0</v>
-      </c>
-      <c r="U124" s="180"/>
+      <c r="T124" s="182">
+        <v>0</v>
+      </c>
+      <c r="U124" s="181"/>
     </row>
     <row r="125">
-      <c r="C125" s="187" t="s">
+      <c r="C125" s="188" t="s">
         <v>365</v>
       </c>
-      <c r="M125" s="189">
+      <c r="M125" s="190">
         <v>18457750</v>
       </c>
-      <c r="P125" s="189"/>
-      <c r="Q125" s="188"/>
-      <c r="R125" s="188"/>
-      <c r="S125" s="189">
+      <c r="P125" s="190"/>
+      <c r="Q125" s="189"/>
+      <c r="R125" s="189"/>
+      <c r="S125" s="190">
         <v>18457750</v>
       </c>
-      <c r="T125" s="190">
-        <v>0</v>
-      </c>
-      <c r="U125" s="189"/>
+      <c r="T125" s="191">
+        <v>0</v>
+      </c>
+      <c r="U125" s="190"/>
     </row>
     <row r="126">
       <c r="A126" s="13" t="s">
@@ -14933,7 +14937,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="187" t="s">
+      <c r="A127" s="188" t="s">
         <v>366</v>
       </c>
     </row>
@@ -14941,42 +14945,42 @@
       <c r="C128" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K128" s="178">
+      <c r="K128" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M128" s="180">
+      <c r="M128" s="181">
         <v>151468.3</v>
       </c>
-      <c r="P128" s="180">
+      <c r="P128" s="181">
         <v>151468.3</v>
       </c>
-      <c r="Q128" s="180"/>
-      <c r="R128" s="179"/>
-      <c r="S128" s="180">
+      <c r="Q128" s="181"/>
+      <c r="R128" s="180"/>
+      <c r="S128" s="181">
         <v>151468.3</v>
       </c>
-      <c r="T128" s="181">
-        <v>0</v>
-      </c>
-      <c r="U128" s="180"/>
+      <c r="T128" s="182">
+        <v>0</v>
+      </c>
+      <c r="U128" s="181"/>
     </row>
     <row r="129">
-      <c r="C129" s="187" t="s">
+      <c r="C129" s="188" t="s">
         <v>367</v>
       </c>
-      <c r="M129" s="189">
+      <c r="M129" s="190">
         <v>151468.3</v>
       </c>
-      <c r="P129" s="189"/>
-      <c r="Q129" s="188"/>
-      <c r="R129" s="188"/>
-      <c r="S129" s="189">
+      <c r="P129" s="190"/>
+      <c r="Q129" s="189"/>
+      <c r="R129" s="189"/>
+      <c r="S129" s="190">
         <v>151468.3</v>
       </c>
-      <c r="T129" s="190">
-        <v>0</v>
-      </c>
-      <c r="U129" s="189"/>
+      <c r="T129" s="191">
+        <v>0</v>
+      </c>
+      <c r="U129" s="190"/>
     </row>
     <row r="130">
       <c r="A130" s="13" t="s">
@@ -14984,7 +14988,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="187" t="s">
+      <c r="A131" s="188" t="s">
         <v>368</v>
       </c>
     </row>
@@ -14992,42 +14996,42 @@
       <c r="C132" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="K132" s="178">
+      <c r="K132" s="179">
         <v>5021403000</v>
       </c>
-      <c r="M132" s="180">
+      <c r="M132" s="181">
         <v>1390325</v>
       </c>
-      <c r="P132" s="180">
+      <c r="P132" s="181">
         <v>1390325</v>
       </c>
-      <c r="Q132" s="180"/>
-      <c r="R132" s="179"/>
-      <c r="S132" s="180">
+      <c r="Q132" s="181"/>
+      <c r="R132" s="180"/>
+      <c r="S132" s="181">
         <v>1390325</v>
       </c>
-      <c r="T132" s="181">
-        <v>0</v>
-      </c>
-      <c r="U132" s="180"/>
+      <c r="T132" s="182">
+        <v>0</v>
+      </c>
+      <c r="U132" s="181"/>
     </row>
     <row r="133">
-      <c r="C133" s="187" t="s">
+      <c r="C133" s="188" t="s">
         <v>369</v>
       </c>
-      <c r="M133" s="189">
+      <c r="M133" s="190">
         <v>1390325</v>
       </c>
-      <c r="P133" s="189"/>
-      <c r="Q133" s="188"/>
-      <c r="R133" s="188"/>
-      <c r="S133" s="189">
+      <c r="P133" s="190"/>
+      <c r="Q133" s="189"/>
+      <c r="R133" s="189"/>
+      <c r="S133" s="190">
         <v>1390325</v>
       </c>
-      <c r="T133" s="190">
-        <v>0</v>
-      </c>
-      <c r="U133" s="189"/>
+      <c r="T133" s="191">
+        <v>0</v>
+      </c>
+      <c r="U133" s="190"/>
     </row>
     <row r="134">
       <c r="A134" s="13" t="s">
@@ -15035,7 +15039,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="187" t="s">
+      <c r="A135" s="188" t="s">
         <v>370</v>
       </c>
     </row>
@@ -15043,65 +15047,65 @@
       <c r="C136" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K136" s="178">
+      <c r="K136" s="179">
         <v>5020101000</v>
       </c>
-      <c r="M136" s="180"/>
-      <c r="P136" s="179"/>
-      <c r="Q136" s="180"/>
-      <c r="R136" s="180">
+      <c r="M136" s="181"/>
+      <c r="P136" s="180"/>
+      <c r="Q136" s="181"/>
+      <c r="R136" s="181">
         <v>60030</v>
       </c>
-      <c r="S136" s="192">
+      <c r="S136" s="193">
         <v>60030</v>
       </c>
-      <c r="T136" s="181">
+      <c r="T136" s="182">
         <v/>
       </c>
-      <c r="U136" s="180"/>
+      <c r="U136" s="181"/>
     </row>
     <row r="137">
       <c r="C137" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="K137" s="178">
+      <c r="K137" s="179">
         <v>5021199000</v>
       </c>
-      <c r="M137" s="180">
+      <c r="M137" s="181">
         <v>34875135.55</v>
       </c>
-      <c r="P137" s="180">
+      <c r="P137" s="181">
         <v>34875135.55</v>
       </c>
-      <c r="Q137" s="180"/>
-      <c r="R137" s="179"/>
-      <c r="S137" s="180">
+      <c r="Q137" s="181"/>
+      <c r="R137" s="180"/>
+      <c r="S137" s="181">
         <v>34875135.55</v>
       </c>
-      <c r="T137" s="181">
-        <v>0</v>
-      </c>
-      <c r="U137" s="180"/>
+      <c r="T137" s="182">
+        <v>0</v>
+      </c>
+      <c r="U137" s="181"/>
     </row>
     <row r="138">
-      <c r="C138" s="187" t="s">
+      <c r="C138" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="M138" s="189">
+      <c r="M138" s="190">
         <v>34875135.55</v>
       </c>
-      <c r="P138" s="189"/>
-      <c r="Q138" s="188"/>
-      <c r="R138" s="189">
+      <c r="P138" s="190"/>
+      <c r="Q138" s="189"/>
+      <c r="R138" s="190">
         <v>60030</v>
       </c>
-      <c r="S138" s="189">
+      <c r="S138" s="190">
         <v>34815105.55</v>
       </c>
-      <c r="T138" s="190">
-        <v>0</v>
-      </c>
-      <c r="U138" s="189"/>
+      <c r="T138" s="191">
+        <v>0</v>
+      </c>
+      <c r="U138" s="190"/>
     </row>
     <row r="139">
       <c r="A139" s="13" t="s">
@@ -15109,7 +15113,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="187" t="s">
+      <c r="A140" s="188" t="s">
         <v>372</v>
       </c>
     </row>
@@ -15117,42 +15121,42 @@
       <c r="C141" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K141" s="178">
+      <c r="K141" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M141" s="180">
+      <c r="M141" s="181">
         <v>1139109.15</v>
       </c>
-      <c r="P141" s="180">
+      <c r="P141" s="181">
         <v>1139109.15</v>
       </c>
-      <c r="Q141" s="180"/>
-      <c r="R141" s="179"/>
-      <c r="S141" s="180">
+      <c r="Q141" s="181"/>
+      <c r="R141" s="180"/>
+      <c r="S141" s="181">
         <v>1139109.15</v>
       </c>
-      <c r="T141" s="181">
-        <v>0</v>
-      </c>
-      <c r="U141" s="180"/>
+      <c r="T141" s="182">
+        <v>0</v>
+      </c>
+      <c r="U141" s="181"/>
     </row>
     <row r="142">
-      <c r="C142" s="187" t="s">
+      <c r="C142" s="188" t="s">
         <v>373</v>
       </c>
-      <c r="M142" s="189">
+      <c r="M142" s="190">
         <v>1139109.15</v>
       </c>
-      <c r="P142" s="189"/>
-      <c r="Q142" s="188"/>
-      <c r="R142" s="188"/>
-      <c r="S142" s="189">
+      <c r="P142" s="190"/>
+      <c r="Q142" s="189"/>
+      <c r="R142" s="189"/>
+      <c r="S142" s="190">
         <v>1139109.15</v>
       </c>
-      <c r="T142" s="190">
-        <v>0</v>
-      </c>
-      <c r="U142" s="189"/>
+      <c r="T142" s="191">
+        <v>0</v>
+      </c>
+      <c r="U142" s="190"/>
     </row>
     <row r="143">
       <c r="A143" s="13" t="s">
@@ -15160,7 +15164,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="187" t="s">
+      <c r="A144" s="188" t="s">
         <v>374</v>
       </c>
     </row>
@@ -15168,180 +15172,180 @@
       <c r="C145" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="K145" s="178">
+      <c r="K145" s="179">
         <v>5010101001</v>
       </c>
-      <c r="M145" s="180">
+      <c r="M145" s="181">
         <v>6115500</v>
       </c>
-      <c r="P145" s="180">
+      <c r="P145" s="181">
         <v>6115500</v>
       </c>
-      <c r="Q145" s="180"/>
-      <c r="R145" s="179"/>
-      <c r="S145" s="180">
+      <c r="Q145" s="181"/>
+      <c r="R145" s="180"/>
+      <c r="S145" s="181">
         <v>6115500</v>
       </c>
-      <c r="T145" s="181">
-        <v>0</v>
-      </c>
-      <c r="U145" s="180"/>
+      <c r="T145" s="182">
+        <v>0</v>
+      </c>
+      <c r="U145" s="181"/>
     </row>
     <row r="146">
       <c r="C146" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="K146" s="178">
+      <c r="K146" s="179">
         <v>5010201001</v>
       </c>
-      <c r="M146" s="180">
+      <c r="M146" s="181">
         <v>276000</v>
       </c>
-      <c r="P146" s="180">
+      <c r="P146" s="181">
         <v>276000</v>
       </c>
-      <c r="Q146" s="180"/>
-      <c r="R146" s="179"/>
-      <c r="S146" s="180">
+      <c r="Q146" s="181"/>
+      <c r="R146" s="180"/>
+      <c r="S146" s="181">
         <v>276000</v>
       </c>
-      <c r="T146" s="181">
-        <v>0</v>
-      </c>
-      <c r="U146" s="180"/>
+      <c r="T146" s="182">
+        <v>0</v>
+      </c>
+      <c r="U146" s="181"/>
     </row>
     <row r="147">
       <c r="C147" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="K147" s="178">
+      <c r="K147" s="179">
         <v>5010202000</v>
       </c>
-      <c r="M147" s="180">
+      <c r="M147" s="181">
         <v>15000</v>
       </c>
-      <c r="P147" s="180">
+      <c r="P147" s="181">
         <v>15000</v>
       </c>
-      <c r="Q147" s="180"/>
-      <c r="R147" s="179"/>
-      <c r="S147" s="180">
+      <c r="Q147" s="181"/>
+      <c r="R147" s="180"/>
+      <c r="S147" s="181">
         <v>15000</v>
       </c>
-      <c r="T147" s="181">
-        <v>0</v>
-      </c>
-      <c r="U147" s="180"/>
+      <c r="T147" s="182">
+        <v>0</v>
+      </c>
+      <c r="U147" s="181"/>
     </row>
     <row r="148">
       <c r="C148" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="K148" s="178">
+      <c r="K148" s="179">
         <v>5010203001</v>
       </c>
-      <c r="M148" s="180">
+      <c r="M148" s="181">
         <v>15000</v>
       </c>
-      <c r="P148" s="180">
+      <c r="P148" s="181">
         <v>15000</v>
       </c>
-      <c r="Q148" s="180"/>
-      <c r="R148" s="179"/>
-      <c r="S148" s="180">
+      <c r="Q148" s="181"/>
+      <c r="R148" s="180"/>
+      <c r="S148" s="181">
         <v>15000</v>
       </c>
-      <c r="T148" s="181">
-        <v>0</v>
-      </c>
-      <c r="U148" s="180"/>
+      <c r="T148" s="182">
+        <v>0</v>
+      </c>
+      <c r="U148" s="181"/>
     </row>
     <row r="149">
       <c r="C149" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="K149" s="178">
+      <c r="K149" s="179">
         <v>5010302001</v>
       </c>
-      <c r="M149" s="180">
+      <c r="M149" s="181">
         <v>13750</v>
       </c>
-      <c r="P149" s="180">
+      <c r="P149" s="181">
         <v>13750</v>
       </c>
-      <c r="Q149" s="180"/>
-      <c r="R149" s="179"/>
-      <c r="S149" s="180">
+      <c r="Q149" s="181"/>
+      <c r="R149" s="180"/>
+      <c r="S149" s="181">
         <v>13750</v>
       </c>
-      <c r="T149" s="181">
-        <v>0</v>
-      </c>
-      <c r="U149" s="180"/>
+      <c r="T149" s="182">
+        <v>0</v>
+      </c>
+      <c r="U149" s="181"/>
     </row>
     <row r="150">
       <c r="C150" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="K150" s="178">
+      <c r="K150" s="179">
         <v>5010303001</v>
       </c>
-      <c r="M150" s="180">
+      <c r="M150" s="181">
         <v>49750</v>
       </c>
-      <c r="P150" s="180">
+      <c r="P150" s="181">
         <v>49750</v>
       </c>
-      <c r="Q150" s="180"/>
-      <c r="R150" s="179"/>
-      <c r="S150" s="180">
+      <c r="Q150" s="181"/>
+      <c r="R150" s="180"/>
+      <c r="S150" s="181">
         <v>49750</v>
       </c>
-      <c r="T150" s="181">
-        <v>0</v>
-      </c>
-      <c r="U150" s="180"/>
+      <c r="T150" s="182">
+        <v>0</v>
+      </c>
+      <c r="U150" s="181"/>
     </row>
     <row r="151">
       <c r="C151" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="K151" s="178">
+      <c r="K151" s="179">
         <v>5010304001</v>
       </c>
-      <c r="M151" s="180">
+      <c r="M151" s="181">
         <v>13750</v>
       </c>
-      <c r="P151" s="180">
+      <c r="P151" s="181">
         <v>13750</v>
       </c>
-      <c r="Q151" s="180"/>
-      <c r="R151" s="179"/>
-      <c r="S151" s="180">
+      <c r="Q151" s="181"/>
+      <c r="R151" s="180"/>
+      <c r="S151" s="181">
         <v>13750</v>
       </c>
-      <c r="T151" s="181">
-        <v>0</v>
-      </c>
-      <c r="U151" s="180"/>
+      <c r="T151" s="182">
+        <v>0</v>
+      </c>
+      <c r="U151" s="181"/>
     </row>
     <row r="152">
-      <c r="C152" s="187" t="s">
+      <c r="C152" s="188" t="s">
         <v>375</v>
       </c>
-      <c r="M152" s="189">
+      <c r="M152" s="190">
         <v>6498750</v>
       </c>
-      <c r="P152" s="189"/>
-      <c r="Q152" s="188"/>
-      <c r="R152" s="188"/>
-      <c r="S152" s="189">
+      <c r="P152" s="190"/>
+      <c r="Q152" s="189"/>
+      <c r="R152" s="189"/>
+      <c r="S152" s="190">
         <v>6498750</v>
       </c>
-      <c r="T152" s="190">
-        <v>0</v>
-      </c>
-      <c r="U152" s="189"/>
+      <c r="T152" s="191">
+        <v>0</v>
+      </c>
+      <c r="U152" s="190"/>
     </row>
     <row r="153">
       <c r="A153" s="13" t="s">
@@ -15349,7 +15353,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="187" t="s">
+      <c r="A154" s="188" t="s">
         <v>376</v>
       </c>
     </row>
@@ -15357,26 +15361,26 @@
       <c r="C155" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K155" s="178">
+      <c r="K155" s="179">
         <v>5020101000</v>
       </c>
-      <c r="M155" s="180">
+      <c r="M155" s="181">
         <v>12216111.35</v>
       </c>
-      <c r="P155" s="180">
+      <c r="P155" s="181">
         <v>12216111.35</v>
       </c>
-      <c r="Q155" s="180"/>
-      <c r="R155" s="180">
+      <c r="Q155" s="181"/>
+      <c r="R155" s="181">
         <v>38021</v>
       </c>
-      <c r="S155" s="180">
+      <c r="S155" s="181">
         <v>12178090.35</v>
       </c>
-      <c r="T155" s="181">
+      <c r="T155" s="182">
         <v>4.092955488654743E-05</v>
       </c>
-      <c r="U155" s="180">
+      <c r="U155" s="181">
         <v>500</v>
       </c>
     </row>
@@ -15384,127 +15388,127 @@
       <c r="C156" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K156" s="178">
+      <c r="K156" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M156" s="180"/>
-      <c r="P156" s="179"/>
-      <c r="Q156" s="180"/>
-      <c r="R156" s="180">
+      <c r="M156" s="181"/>
+      <c r="P156" s="180"/>
+      <c r="Q156" s="181"/>
+      <c r="R156" s="181">
         <v>35190.79</v>
       </c>
-      <c r="S156" s="192">
+      <c r="S156" s="193">
         <v>35190.79</v>
       </c>
-      <c r="T156" s="181">
+      <c r="T156" s="182">
         <v/>
       </c>
-      <c r="U156" s="180"/>
+      <c r="U156" s="181"/>
     </row>
     <row r="157">
       <c r="C157" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="K157" s="178">
+      <c r="K157" s="179">
         <v>5020301002</v>
       </c>
-      <c r="M157" s="180"/>
-      <c r="P157" s="179"/>
-      <c r="Q157" s="180"/>
-      <c r="R157" s="180">
+      <c r="M157" s="181"/>
+      <c r="P157" s="180"/>
+      <c r="Q157" s="181"/>
+      <c r="R157" s="181">
         <v>126936.25</v>
       </c>
-      <c r="S157" s="192">
+      <c r="S157" s="193">
         <v>126936.25</v>
       </c>
-      <c r="T157" s="181">
+      <c r="T157" s="182">
         <v/>
       </c>
-      <c r="U157" s="180"/>
+      <c r="U157" s="181"/>
     </row>
     <row r="158">
       <c r="C158" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="K158" s="178">
+      <c r="K158" s="179">
         <v>5020321003</v>
       </c>
-      <c r="M158" s="180"/>
-      <c r="P158" s="179"/>
-      <c r="Q158" s="180"/>
-      <c r="R158" s="180">
+      <c r="M158" s="181"/>
+      <c r="P158" s="180"/>
+      <c r="Q158" s="181"/>
+      <c r="R158" s="181">
         <v>18490</v>
       </c>
-      <c r="S158" s="192">
+      <c r="S158" s="193">
         <v>18490</v>
       </c>
-      <c r="T158" s="181">
+      <c r="T158" s="182">
         <v/>
       </c>
-      <c r="U158" s="180"/>
+      <c r="U158" s="181"/>
     </row>
     <row r="159">
       <c r="C159" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="K159" s="178">
+      <c r="K159" s="179">
         <v>5020402000</v>
       </c>
-      <c r="M159" s="180"/>
-      <c r="P159" s="179"/>
-      <c r="Q159" s="180"/>
-      <c r="R159" s="180">
+      <c r="M159" s="181"/>
+      <c r="P159" s="180"/>
+      <c r="Q159" s="181"/>
+      <c r="R159" s="181">
         <v>263061.07</v>
       </c>
-      <c r="S159" s="192">
+      <c r="S159" s="193">
         <v>263061.07</v>
       </c>
-      <c r="T159" s="181">
+      <c r="T159" s="182">
         <v/>
       </c>
-      <c r="U159" s="180"/>
+      <c r="U159" s="181"/>
     </row>
     <row r="160">
       <c r="C160" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="K160" s="178">
+      <c r="K160" s="179">
         <v>5020501000</v>
       </c>
-      <c r="M160" s="180"/>
-      <c r="P160" s="179"/>
-      <c r="Q160" s="180"/>
-      <c r="R160" s="180">
+      <c r="M160" s="181"/>
+      <c r="P160" s="180"/>
+      <c r="Q160" s="181"/>
+      <c r="R160" s="181">
         <v>27321.88</v>
       </c>
-      <c r="S160" s="192">
+      <c r="S160" s="193">
         <v>27321.88</v>
       </c>
-      <c r="T160" s="181">
+      <c r="T160" s="182">
         <v/>
       </c>
-      <c r="U160" s="180"/>
+      <c r="U160" s="181"/>
     </row>
     <row r="161">
       <c r="C161" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="K161" s="178">
+      <c r="K161" s="179">
         <v>5020502002</v>
       </c>
-      <c r="M161" s="180"/>
-      <c r="P161" s="179"/>
-      <c r="Q161" s="180"/>
-      <c r="R161" s="180">
+      <c r="M161" s="181"/>
+      <c r="P161" s="180"/>
+      <c r="Q161" s="181"/>
+      <c r="R161" s="181">
         <v>26114.05</v>
       </c>
-      <c r="S161" s="192">
+      <c r="S161" s="193">
         <v>26114.05</v>
       </c>
-      <c r="T161" s="181" t="e">
+      <c r="T161" s="182" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U161" s="180">
+      <c r="U161" s="181">
         <v>1400</v>
       </c>
     </row>
@@ -15512,105 +15516,105 @@
       <c r="C162" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="K162" s="178">
+      <c r="K162" s="179">
         <v>5020503000</v>
       </c>
-      <c r="M162" s="180"/>
-      <c r="P162" s="179"/>
-      <c r="Q162" s="180"/>
-      <c r="R162" s="180">
+      <c r="M162" s="181"/>
+      <c r="P162" s="180"/>
+      <c r="Q162" s="181"/>
+      <c r="R162" s="181">
         <v>57680</v>
       </c>
-      <c r="S162" s="192">
+      <c r="S162" s="193">
         <v>57680</v>
       </c>
-      <c r="T162" s="181">
+      <c r="T162" s="182">
         <v/>
       </c>
-      <c r="U162" s="180"/>
+      <c r="U162" s="181"/>
     </row>
     <row r="163">
       <c r="C163" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="K163" s="178">
+      <c r="K163" s="179">
         <v>5021304001</v>
       </c>
-      <c r="M163" s="180"/>
-      <c r="P163" s="179"/>
-      <c r="Q163" s="180"/>
-      <c r="R163" s="180">
+      <c r="M163" s="181"/>
+      <c r="P163" s="180"/>
+      <c r="Q163" s="181"/>
+      <c r="R163" s="181">
         <v>6749</v>
       </c>
-      <c r="S163" s="192">
+      <c r="S163" s="193">
         <v>6749</v>
       </c>
-      <c r="T163" s="181">
+      <c r="T163" s="182">
         <v/>
       </c>
-      <c r="U163" s="180"/>
+      <c r="U163" s="181"/>
     </row>
     <row r="164">
       <c r="C164" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="K164" s="178">
+      <c r="K164" s="179">
         <v>5021307000</v>
       </c>
-      <c r="M164" s="180"/>
-      <c r="P164" s="179"/>
-      <c r="Q164" s="180"/>
-      <c r="R164" s="180">
+      <c r="M164" s="181"/>
+      <c r="P164" s="180"/>
+      <c r="Q164" s="181"/>
+      <c r="R164" s="181">
         <v>6373</v>
       </c>
-      <c r="S164" s="192">
+      <c r="S164" s="193">
         <v>6373</v>
       </c>
-      <c r="T164" s="181">
+      <c r="T164" s="182">
         <v/>
       </c>
-      <c r="U164" s="180"/>
+      <c r="U164" s="181"/>
     </row>
     <row r="165">
       <c r="C165" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="K165" s="178">
+      <c r="K165" s="179">
         <v>5029904000</v>
       </c>
-      <c r="M165" s="180"/>
-      <c r="P165" s="179"/>
-      <c r="Q165" s="180"/>
-      <c r="R165" s="180">
+      <c r="M165" s="181"/>
+      <c r="P165" s="180"/>
+      <c r="Q165" s="181"/>
+      <c r="R165" s="181">
         <v>402085.46</v>
       </c>
-      <c r="S165" s="192">
+      <c r="S165" s="193">
         <v>402085.46</v>
       </c>
-      <c r="T165" s="181">
+      <c r="T165" s="182">
         <v/>
       </c>
-      <c r="U165" s="180"/>
+      <c r="U165" s="181"/>
     </row>
     <row r="166">
-      <c r="C166" s="187" t="s">
+      <c r="C166" s="188" t="s">
         <v>384</v>
       </c>
-      <c r="M166" s="189">
+      <c r="M166" s="190">
         <v>12216111.35</v>
       </c>
-      <c r="P166" s="189"/>
-      <c r="Q166" s="188"/>
-      <c r="R166" s="189">
+      <c r="P166" s="190"/>
+      <c r="Q166" s="189"/>
+      <c r="R166" s="190">
         <v>1008022.5</v>
       </c>
-      <c r="S166" s="189">
+      <c r="S166" s="190">
         <v>11208088.849999998</v>
       </c>
-      <c r="T166" s="190">
+      <c r="T166" s="191">
         <v>2.5425322370020863E-05</v>
       </c>
-      <c r="U166" s="189">
+      <c r="U166" s="190">
         <v>1900</v>
       </c>
     </row>
@@ -15620,7 +15624,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="187" t="s">
+      <c r="A168" s="188" t="s">
         <v>385</v>
       </c>
     </row>
@@ -15628,42 +15632,42 @@
       <c r="C169" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K169" s="178">
+      <c r="K169" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M169" s="180">
+      <c r="M169" s="181">
         <v>79817</v>
       </c>
-      <c r="P169" s="180">
+      <c r="P169" s="181">
         <v>79817</v>
       </c>
-      <c r="Q169" s="180"/>
-      <c r="R169" s="179"/>
-      <c r="S169" s="180">
+      <c r="Q169" s="181"/>
+      <c r="R169" s="180"/>
+      <c r="S169" s="181">
         <v>79817</v>
       </c>
-      <c r="T169" s="181">
-        <v>0</v>
-      </c>
-      <c r="U169" s="180"/>
+      <c r="T169" s="182">
+        <v>0</v>
+      </c>
+      <c r="U169" s="181"/>
     </row>
     <row r="170">
-      <c r="C170" s="187" t="s">
+      <c r="C170" s="188" t="s">
         <v>386</v>
       </c>
-      <c r="M170" s="189">
+      <c r="M170" s="190">
         <v>79817</v>
       </c>
-      <c r="P170" s="189"/>
-      <c r="Q170" s="188"/>
-      <c r="R170" s="188"/>
-      <c r="S170" s="189">
+      <c r="P170" s="190"/>
+      <c r="Q170" s="189"/>
+      <c r="R170" s="189"/>
+      <c r="S170" s="190">
         <v>79817</v>
       </c>
-      <c r="T170" s="190">
-        <v>0</v>
-      </c>
-      <c r="U170" s="189"/>
+      <c r="T170" s="191">
+        <v>0</v>
+      </c>
+      <c r="U170" s="190"/>
     </row>
     <row r="171">
       <c r="A171" s="13" t="s">
@@ -15671,7 +15675,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="187" t="s">
+      <c r="A172" s="188" t="s">
         <v>387</v>
       </c>
     </row>
@@ -15679,42 +15683,42 @@
       <c r="C173" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K173" s="178">
+      <c r="K173" s="179">
         <v>5020201002</v>
       </c>
-      <c r="M173" s="180">
+      <c r="M173" s="181">
         <v>148388.71</v>
       </c>
-      <c r="P173" s="180">
+      <c r="P173" s="181">
         <v>148388.71</v>
       </c>
-      <c r="Q173" s="180"/>
-      <c r="R173" s="179"/>
-      <c r="S173" s="180">
+      <c r="Q173" s="181"/>
+      <c r="R173" s="180"/>
+      <c r="S173" s="181">
         <v>148388.71</v>
       </c>
-      <c r="T173" s="181">
-        <v>0</v>
-      </c>
-      <c r="U173" s="180"/>
+      <c r="T173" s="182">
+        <v>0</v>
+      </c>
+      <c r="U173" s="181"/>
     </row>
     <row r="174">
-      <c r="C174" s="187" t="s">
+      <c r="C174" s="188" t="s">
         <v>388</v>
       </c>
-      <c r="M174" s="189">
+      <c r="M174" s="190">
         <v>148388.71</v>
       </c>
-      <c r="P174" s="189"/>
-      <c r="Q174" s="188"/>
-      <c r="R174" s="188"/>
-      <c r="S174" s="189">
+      <c r="P174" s="190"/>
+      <c r="Q174" s="189"/>
+      <c r="R174" s="189"/>
+      <c r="S174" s="190">
         <v>148388.71</v>
       </c>
-      <c r="T174" s="190">
-        <v>0</v>
-      </c>
-      <c r="U174" s="189"/>
+      <c r="T174" s="191">
+        <v>0</v>
+      </c>
+      <c r="U174" s="190"/>
     </row>
     <row r="175">
       <c r="A175" s="13" t="s">
@@ -15722,7 +15726,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="187" t="s">
+      <c r="A176" s="188" t="s">
         <v>389</v>
       </c>
     </row>
@@ -15730,88 +15734,88 @@
       <c r="C177" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K177" s="178">
+      <c r="K177" s="179">
         <v>5020101000</v>
       </c>
-      <c r="M177" s="180">
+      <c r="M177" s="181">
         <v>743409.34</v>
       </c>
-      <c r="P177" s="180">
+      <c r="P177" s="181">
         <v>743409.34</v>
       </c>
-      <c r="Q177" s="180"/>
-      <c r="R177" s="180">
+      <c r="Q177" s="181"/>
+      <c r="R177" s="181">
         <v>1158</v>
       </c>
-      <c r="S177" s="180">
+      <c r="S177" s="181">
         <v>742251.34</v>
       </c>
-      <c r="T177" s="181">
-        <v>0</v>
-      </c>
-      <c r="U177" s="180"/>
+      <c r="T177" s="182">
+        <v>0</v>
+      </c>
+      <c r="U177" s="181"/>
     </row>
     <row r="178">
       <c r="C178" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="K178" s="178">
+      <c r="K178" s="179">
         <v>5020502001</v>
       </c>
-      <c r="M178" s="180"/>
-      <c r="P178" s="179"/>
-      <c r="Q178" s="180"/>
-      <c r="R178" s="180">
+      <c r="M178" s="181"/>
+      <c r="P178" s="180"/>
+      <c r="Q178" s="181"/>
+      <c r="R178" s="181">
         <v>785.91</v>
       </c>
-      <c r="S178" s="192">
+      <c r="S178" s="193">
         <v>785.91</v>
       </c>
-      <c r="T178" s="181">
+      <c r="T178" s="182">
         <v/>
       </c>
-      <c r="U178" s="180"/>
+      <c r="U178" s="181"/>
     </row>
     <row r="179">
       <c r="C179" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="K179" s="178">
+      <c r="K179" s="179">
         <v>5020502002</v>
       </c>
-      <c r="M179" s="180"/>
-      <c r="P179" s="179"/>
-      <c r="Q179" s="180"/>
-      <c r="R179" s="180">
+      <c r="M179" s="181"/>
+      <c r="P179" s="180"/>
+      <c r="Q179" s="181"/>
+      <c r="R179" s="181">
         <v>887.99</v>
       </c>
-      <c r="S179" s="192">
+      <c r="S179" s="193">
         <v>887.99</v>
       </c>
-      <c r="T179" s="181">
+      <c r="T179" s="182">
         <v/>
       </c>
-      <c r="U179" s="180"/>
+      <c r="U179" s="181"/>
     </row>
     <row r="180">
-      <c r="C180" s="187" t="s">
+      <c r="C180" s="188" t="s">
         <v>390</v>
       </c>
-      <c r="M180" s="189">
+      <c r="M180" s="190">
         <v>743409.34</v>
       </c>
-      <c r="P180" s="189"/>
-      <c r="Q180" s="188"/>
-      <c r="R180" s="189">
+      <c r="P180" s="190"/>
+      <c r="Q180" s="189"/>
+      <c r="R180" s="190">
         <v>2831.8999999999996</v>
       </c>
-      <c r="S180" s="189">
+      <c r="S180" s="190">
         <v>740577.44</v>
       </c>
-      <c r="T180" s="190">
-        <v>0</v>
-      </c>
-      <c r="U180" s="189"/>
+      <c r="T180" s="191">
+        <v>0</v>
+      </c>
+      <c r="U180" s="190"/>
     </row>
     <row r="181">
       <c r="A181" s="13" t="s">
@@ -15819,7 +15823,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="187" t="s">
+      <c r="A182" s="188" t="s">
         <v>391</v>
       </c>
     </row>
@@ -15827,202 +15831,202 @@
       <c r="C183" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="K183" s="178">
+      <c r="K183" s="179">
         <v>5010101001</v>
       </c>
-      <c r="M183" s="180">
+      <c r="M183" s="181">
         <v>2066750</v>
       </c>
-      <c r="P183" s="180">
+      <c r="P183" s="181">
         <v>2066750</v>
       </c>
-      <c r="Q183" s="180"/>
-      <c r="R183" s="179"/>
-      <c r="S183" s="180">
+      <c r="Q183" s="181"/>
+      <c r="R183" s="180"/>
+      <c r="S183" s="181">
         <v>2066750</v>
       </c>
-      <c r="T183" s="181">
-        <v>0</v>
-      </c>
-      <c r="U183" s="180"/>
+      <c r="T183" s="182">
+        <v>0</v>
+      </c>
+      <c r="U183" s="181"/>
     </row>
     <row r="184">
       <c r="C184" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="K184" s="178">
+      <c r="K184" s="179">
         <v>5010201001</v>
       </c>
-      <c r="M184" s="180">
+      <c r="M184" s="181">
         <v>108000</v>
       </c>
-      <c r="P184" s="180">
+      <c r="P184" s="181">
         <v>108000</v>
       </c>
-      <c r="Q184" s="180"/>
-      <c r="R184" s="179"/>
-      <c r="S184" s="180">
+      <c r="Q184" s="181"/>
+      <c r="R184" s="180"/>
+      <c r="S184" s="181">
         <v>108000</v>
       </c>
-      <c r="T184" s="181">
-        <v>0</v>
-      </c>
-      <c r="U184" s="180"/>
+      <c r="T184" s="182">
+        <v>0</v>
+      </c>
+      <c r="U184" s="181"/>
     </row>
     <row r="185">
       <c r="C185" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="K185" s="178">
+      <c r="K185" s="179">
         <v>5010202000</v>
       </c>
-      <c r="M185" s="180">
+      <c r="M185" s="181">
         <v>15000</v>
       </c>
-      <c r="P185" s="180">
+      <c r="P185" s="181">
         <v>15000</v>
       </c>
-      <c r="Q185" s="180"/>
-      <c r="R185" s="179"/>
-      <c r="S185" s="180">
+      <c r="Q185" s="181"/>
+      <c r="R185" s="180"/>
+      <c r="S185" s="181">
         <v>15000</v>
       </c>
-      <c r="T185" s="181">
-        <v>0</v>
-      </c>
-      <c r="U185" s="180"/>
+      <c r="T185" s="182">
+        <v>0</v>
+      </c>
+      <c r="U185" s="181"/>
     </row>
     <row r="186">
       <c r="C186" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="K186" s="178">
+      <c r="K186" s="179">
         <v>5010203001</v>
       </c>
-      <c r="M186" s="180">
+      <c r="M186" s="181">
         <v>15000</v>
       </c>
-      <c r="P186" s="180">
+      <c r="P186" s="181">
         <v>15000</v>
       </c>
-      <c r="Q186" s="180"/>
-      <c r="R186" s="179"/>
-      <c r="S186" s="180">
+      <c r="Q186" s="181"/>
+      <c r="R186" s="180"/>
+      <c r="S186" s="181">
         <v>15000</v>
       </c>
-      <c r="T186" s="181">
-        <v>0</v>
-      </c>
-      <c r="U186" s="180"/>
+      <c r="T186" s="182">
+        <v>0</v>
+      </c>
+      <c r="U186" s="181"/>
     </row>
     <row r="187">
       <c r="C187" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="K187" s="178">
+      <c r="K187" s="179">
         <v>5010302001</v>
       </c>
-      <c r="M187" s="180">
+      <c r="M187" s="181">
         <v>5500</v>
       </c>
-      <c r="P187" s="180">
+      <c r="P187" s="181">
         <v>5500</v>
       </c>
-      <c r="Q187" s="180"/>
-      <c r="R187" s="179"/>
-      <c r="S187" s="180">
+      <c r="Q187" s="181"/>
+      <c r="R187" s="180"/>
+      <c r="S187" s="181">
         <v>5500</v>
       </c>
-      <c r="T187" s="181">
-        <v>0</v>
-      </c>
-      <c r="U187" s="180"/>
+      <c r="T187" s="182">
+        <v>0</v>
+      </c>
+      <c r="U187" s="181"/>
     </row>
     <row r="188">
       <c r="C188" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="K188" s="178">
+      <c r="K188" s="179">
         <v>5010303001</v>
       </c>
-      <c r="M188" s="180">
+      <c r="M188" s="181">
         <v>18750</v>
       </c>
-      <c r="P188" s="180">
+      <c r="P188" s="181">
         <v>18750</v>
       </c>
-      <c r="Q188" s="180"/>
-      <c r="R188" s="179"/>
-      <c r="S188" s="180">
+      <c r="Q188" s="181"/>
+      <c r="R188" s="180"/>
+      <c r="S188" s="181">
         <v>18750</v>
       </c>
-      <c r="T188" s="181">
-        <v>0</v>
-      </c>
-      <c r="U188" s="180"/>
+      <c r="T188" s="182">
+        <v>0</v>
+      </c>
+      <c r="U188" s="181"/>
     </row>
     <row r="189">
       <c r="C189" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="K189" s="178">
+      <c r="K189" s="179">
         <v>5010304001</v>
       </c>
-      <c r="M189" s="180">
+      <c r="M189" s="181">
         <v>5500</v>
       </c>
-      <c r="P189" s="180">
+      <c r="P189" s="181">
         <v>5500</v>
       </c>
-      <c r="Q189" s="180"/>
-      <c r="R189" s="179"/>
-      <c r="S189" s="180">
+      <c r="Q189" s="181"/>
+      <c r="R189" s="180"/>
+      <c r="S189" s="181">
         <v>5500</v>
       </c>
-      <c r="T189" s="181">
-        <v>0</v>
-      </c>
-      <c r="U189" s="180"/>
+      <c r="T189" s="182">
+        <v>0</v>
+      </c>
+      <c r="U189" s="181"/>
     </row>
     <row r="190">
-      <c r="C190" s="187" t="s">
+      <c r="C190" s="188" t="s">
         <v>392</v>
       </c>
-      <c r="M190" s="189">
+      <c r="M190" s="190">
         <v>2234500</v>
       </c>
-      <c r="P190" s="189"/>
-      <c r="Q190" s="188"/>
-      <c r="R190" s="188"/>
-      <c r="S190" s="189">
+      <c r="P190" s="190"/>
+      <c r="Q190" s="189"/>
+      <c r="R190" s="189"/>
+      <c r="S190" s="190">
         <v>2234500</v>
       </c>
-      <c r="T190" s="190">
-        <v>0</v>
-      </c>
-      <c r="U190" s="189"/>
+      <c r="T190" s="191">
+        <v>0</v>
+      </c>
+      <c r="U190" s="190"/>
     </row>
     <row r="191">
-      <c r="J191" s="191" t="s">
+      <c r="J191" s="192" t="s">
         <v>393</v>
       </c>
-      <c r="M191" s="188">
+      <c r="M191" s="189">
         <v>77934764.399999991</v>
       </c>
-      <c r="P191" s="189">
+      <c r="P191" s="190">
         <v>77934764.399999991</v>
       </c>
-      <c r="Q191" s="188"/>
-      <c r="R191" s="189">
+      <c r="Q191" s="189"/>
+      <c r="R191" s="190">
         <v>1070884.4</v>
       </c>
-      <c r="S191" s="189">
+      <c r="S191" s="190">
         <v>76863879.999999985</v>
       </c>
-      <c r="T191" s="190">
+      <c r="T191" s="191">
         <v>2.4379364133934565E-05</v>
       </c>
-      <c r="U191" s="189">
+      <c r="U191" s="190">
         <v>1900</v>
       </c>
     </row>
@@ -16037,12 +16041,12 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="187" t="s">
+      <c r="A195" s="188" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="196">
-      <c r="B196" s="193" t="s">
+      <c r="B196" s="194" t="s">
         <v>159</v>
       </c>
     </row>
@@ -16053,46 +16057,46 @@
       <c r="K197" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M197" s="180">
+      <c r="M197" s="181">
         <v>19325</v>
       </c>
-      <c r="N197" s="180"/>
-      <c r="P197" s="180">
+      <c r="N197" s="181"/>
+      <c r="P197" s="181">
         <v>19325</v>
       </c>
-      <c r="Q197" s="180"/>
-      <c r="R197" s="180"/>
-      <c r="S197" s="180">
+      <c r="Q197" s="181"/>
+      <c r="R197" s="181"/>
+      <c r="S197" s="181">
         <v>19325</v>
       </c>
-      <c r="T197" s="181">
-        <v>0</v>
-      </c>
-      <c r="U197" s="179"/>
+      <c r="T197" s="182">
+        <v>0</v>
+      </c>
+      <c r="U197" s="180"/>
     </row>
     <row r="198">
       <c r="A198" s="176" t="s">
         <v>398</v>
       </c>
-      <c r="M198" s="189">
+      <c r="M198" s="190">
         <v>19325</v>
       </c>
-      <c r="P198" s="189">
+      <c r="P198" s="190">
         <v>19325</v>
       </c>
-      <c r="S198" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD198" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE198" s="194">
+      <c r="S198" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD198" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE198" s="195">
         <v>19325</v>
       </c>
-      <c r="AF198" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG198" s="195">
+      <c r="AF198" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG198" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16102,12 +16106,12 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="187" t="s">
+      <c r="A200" s="188" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="201">
-      <c r="B201" s="193" t="s">
+      <c r="B201" s="194" t="s">
         <v>186</v>
       </c>
     </row>
@@ -16118,46 +16122,46 @@
       <c r="K202" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M202" s="180">
+      <c r="M202" s="181">
         <v>23698.8</v>
       </c>
-      <c r="N202" s="180"/>
-      <c r="P202" s="180">
+      <c r="N202" s="181"/>
+      <c r="P202" s="181">
         <v>23698.8</v>
       </c>
-      <c r="Q202" s="180"/>
-      <c r="R202" s="180"/>
-      <c r="S202" s="180">
+      <c r="Q202" s="181"/>
+      <c r="R202" s="181"/>
+      <c r="S202" s="181">
         <v>23698.8</v>
       </c>
-      <c r="T202" s="181">
-        <v>0</v>
-      </c>
-      <c r="U202" s="179"/>
+      <c r="T202" s="182">
+        <v>0</v>
+      </c>
+      <c r="U202" s="180"/>
     </row>
     <row r="203">
       <c r="A203" s="176" t="s">
         <v>400</v>
       </c>
-      <c r="M203" s="189">
+      <c r="M203" s="190">
         <v>23698.8</v>
       </c>
-      <c r="P203" s="189">
+      <c r="P203" s="190">
         <v>23698.8</v>
       </c>
-      <c r="S203" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD203" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE203" s="194">
+      <c r="S203" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD203" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE203" s="195">
         <v>23698.8</v>
       </c>
-      <c r="AF203" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG203" s="195">
+      <c r="AF203" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG203" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16167,12 +16171,12 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="187" t="s">
+      <c r="A205" s="188" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="206">
-      <c r="B206" s="193" t="s">
+      <c r="B206" s="194" t="s">
         <v>91</v>
       </c>
     </row>
@@ -16183,16 +16187,16 @@
       <c r="K207" s="54">
         <v>5020201002</v>
       </c>
-      <c r="M207" s="180"/>
-      <c r="N207" s="180"/>
-      <c r="P207" s="180"/>
-      <c r="Q207" s="180"/>
-      <c r="R207" s="180"/>
-      <c r="S207" s="179"/>
-      <c r="T207" s="181">
+      <c r="M207" s="181"/>
+      <c r="N207" s="181"/>
+      <c r="P207" s="181"/>
+      <c r="Q207" s="181"/>
+      <c r="R207" s="181"/>
+      <c r="S207" s="180"/>
+      <c r="T207" s="182">
         <v/>
       </c>
-      <c r="U207" s="179"/>
+      <c r="U207" s="180"/>
     </row>
     <row r="208">
       <c r="C208" s="13" t="s">
@@ -16201,22 +16205,22 @@
       <c r="K208" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M208" s="180">
+      <c r="M208" s="181">
         <v>63185.75</v>
       </c>
-      <c r="N208" s="180"/>
-      <c r="P208" s="180">
+      <c r="N208" s="181"/>
+      <c r="P208" s="181">
         <v>63185.75</v>
       </c>
-      <c r="Q208" s="180"/>
-      <c r="R208" s="180"/>
-      <c r="S208" s="180">
+      <c r="Q208" s="181"/>
+      <c r="R208" s="181"/>
+      <c r="S208" s="181">
         <v>63185.75</v>
       </c>
-      <c r="T208" s="181">
-        <v>0</v>
-      </c>
-      <c r="U208" s="179"/>
+      <c r="T208" s="182">
+        <v>0</v>
+      </c>
+      <c r="U208" s="180"/>
     </row>
     <row r="209">
       <c r="C209" s="13" t="s">
@@ -16225,40 +16229,40 @@
       <c r="K209" s="54">
         <v>5029903000</v>
       </c>
-      <c r="M209" s="180"/>
-      <c r="N209" s="180"/>
-      <c r="P209" s="180"/>
-      <c r="Q209" s="180"/>
-      <c r="R209" s="180"/>
-      <c r="S209" s="179"/>
-      <c r="T209" s="181">
+      <c r="M209" s="181"/>
+      <c r="N209" s="181"/>
+      <c r="P209" s="181"/>
+      <c r="Q209" s="181"/>
+      <c r="R209" s="181"/>
+      <c r="S209" s="180"/>
+      <c r="T209" s="182">
         <v/>
       </c>
-      <c r="U209" s="179"/>
+      <c r="U209" s="180"/>
     </row>
     <row r="210">
       <c r="A210" s="176" t="s">
         <v>403</v>
       </c>
-      <c r="M210" s="189">
+      <c r="M210" s="190">
         <v>63185.75</v>
       </c>
-      <c r="P210" s="189">
+      <c r="P210" s="190">
         <v>63185.75</v>
       </c>
-      <c r="S210" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD210" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE210" s="194">
+      <c r="S210" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE210" s="195">
         <v>63185.75</v>
       </c>
-      <c r="AF210" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG210" s="195">
+      <c r="AF210" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG210" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16268,12 +16272,12 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="187" t="s">
+      <c r="A212" s="188" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="213">
-      <c r="B213" s="193" t="s">
+      <c r="B213" s="194" t="s">
         <v>95</v>
       </c>
     </row>
@@ -16284,46 +16288,46 @@
       <c r="K214" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M214" s="180">
+      <c r="M214" s="181">
         <v>35801.22</v>
       </c>
-      <c r="N214" s="180"/>
-      <c r="P214" s="180">
+      <c r="N214" s="181"/>
+      <c r="P214" s="181">
         <v>35801.22</v>
       </c>
-      <c r="Q214" s="180"/>
-      <c r="R214" s="180"/>
-      <c r="S214" s="180">
+      <c r="Q214" s="181"/>
+      <c r="R214" s="181"/>
+      <c r="S214" s="181">
         <v>35801.22</v>
       </c>
-      <c r="T214" s="181">
-        <v>0</v>
-      </c>
-      <c r="U214" s="179"/>
+      <c r="T214" s="182">
+        <v>0</v>
+      </c>
+      <c r="U214" s="180"/>
     </row>
     <row r="215">
       <c r="A215" s="176" t="s">
         <v>406</v>
       </c>
-      <c r="M215" s="189">
+      <c r="M215" s="190">
         <v>35801.22</v>
       </c>
-      <c r="P215" s="189">
+      <c r="P215" s="190">
         <v>35801.22</v>
       </c>
-      <c r="S215" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD215" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE215" s="194">
+      <c r="S215" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD215" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE215" s="195">
         <v>35801.22</v>
       </c>
-      <c r="AF215" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG215" s="195">
+      <c r="AF215" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG215" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16333,12 +16337,12 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="187" t="s">
+      <c r="A217" s="188" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="218">
-      <c r="B218" s="193" t="s">
+      <c r="B218" s="194" t="s">
         <v>103</v>
       </c>
     </row>
@@ -16349,46 +16353,46 @@
       <c r="K219" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M219" s="180">
+      <c r="M219" s="181">
         <v>169525</v>
       </c>
-      <c r="N219" s="180"/>
-      <c r="P219" s="180">
+      <c r="N219" s="181"/>
+      <c r="P219" s="181">
         <v>169525</v>
       </c>
-      <c r="Q219" s="180"/>
-      <c r="R219" s="180"/>
-      <c r="S219" s="180">
+      <c r="Q219" s="181"/>
+      <c r="R219" s="181"/>
+      <c r="S219" s="181">
         <v>169525</v>
       </c>
-      <c r="T219" s="181">
-        <v>0</v>
-      </c>
-      <c r="U219" s="179"/>
+      <c r="T219" s="182">
+        <v>0</v>
+      </c>
+      <c r="U219" s="180"/>
     </row>
     <row r="220">
       <c r="A220" s="176" t="s">
         <v>408</v>
       </c>
-      <c r="M220" s="189">
+      <c r="M220" s="190">
         <v>169525</v>
       </c>
-      <c r="P220" s="189">
+      <c r="P220" s="190">
         <v>169525</v>
       </c>
-      <c r="S220" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD220" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE220" s="194">
+      <c r="S220" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD220" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE220" s="195">
         <v>169525</v>
       </c>
-      <c r="AF220" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG220" s="195">
+      <c r="AF220" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG220" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16398,12 +16402,12 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="187" t="s">
+      <c r="A222" s="188" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="223">
-      <c r="B223" s="193" t="s">
+      <c r="B223" s="194" t="s">
         <v>125</v>
       </c>
     </row>
@@ -16414,46 +16418,46 @@
       <c r="K224" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M224" s="180">
+      <c r="M224" s="181">
         <v>20326.63</v>
       </c>
-      <c r="N224" s="180"/>
-      <c r="P224" s="180">
+      <c r="N224" s="181"/>
+      <c r="P224" s="181">
         <v>20326.63</v>
       </c>
-      <c r="Q224" s="180"/>
-      <c r="R224" s="180"/>
-      <c r="S224" s="180">
+      <c r="Q224" s="181"/>
+      <c r="R224" s="181"/>
+      <c r="S224" s="181">
         <v>20326.63</v>
       </c>
-      <c r="T224" s="181">
-        <v>0</v>
-      </c>
-      <c r="U224" s="179"/>
+      <c r="T224" s="182">
+        <v>0</v>
+      </c>
+      <c r="U224" s="180"/>
     </row>
     <row r="225">
       <c r="A225" s="176" t="s">
         <v>410</v>
       </c>
-      <c r="M225" s="189">
+      <c r="M225" s="190">
         <v>20326.63</v>
       </c>
-      <c r="P225" s="189">
+      <c r="P225" s="190">
         <v>20326.63</v>
       </c>
-      <c r="S225" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD225" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE225" s="194">
+      <c r="S225" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="195">
         <v>20326.63</v>
       </c>
-      <c r="AF225" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG225" s="195">
+      <c r="AF225" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG225" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16463,12 +16467,12 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="187" t="s">
+      <c r="A227" s="188" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="228">
-      <c r="B228" s="193" t="s">
+      <c r="B228" s="194" t="s">
         <v>112</v>
       </c>
     </row>
@@ -16479,46 +16483,46 @@
       <c r="K229" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M229" s="180">
+      <c r="M229" s="181">
         <v>1364</v>
       </c>
-      <c r="N229" s="180"/>
-      <c r="P229" s="180">
+      <c r="N229" s="181"/>
+      <c r="P229" s="181">
         <v>1364</v>
       </c>
-      <c r="Q229" s="180"/>
-      <c r="R229" s="180"/>
-      <c r="S229" s="180">
+      <c r="Q229" s="181"/>
+      <c r="R229" s="181"/>
+      <c r="S229" s="181">
         <v>1364</v>
       </c>
-      <c r="T229" s="181">
-        <v>0</v>
-      </c>
-      <c r="U229" s="179"/>
+      <c r="T229" s="182">
+        <v>0</v>
+      </c>
+      <c r="U229" s="180"/>
     </row>
     <row r="230">
       <c r="A230" s="176" t="s">
         <v>412</v>
       </c>
-      <c r="M230" s="189">
+      <c r="M230" s="190">
         <v>1364</v>
       </c>
-      <c r="P230" s="189">
+      <c r="P230" s="190">
         <v>1364</v>
       </c>
-      <c r="S230" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD230" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE230" s="194">
+      <c r="S230" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD230" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE230" s="195">
         <v>1364</v>
       </c>
-      <c r="AF230" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG230" s="195">
+      <c r="AF230" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG230" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16528,12 +16532,12 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="187" t="s">
+      <c r="A232" s="188" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="233">
-      <c r="B233" s="193" t="s">
+      <c r="B233" s="194" t="s">
         <v>114</v>
       </c>
     </row>
@@ -16544,20 +16548,20 @@
       <c r="K234" s="54">
         <v>5020101000</v>
       </c>
-      <c r="M234" s="180"/>
-      <c r="N234" s="180"/>
-      <c r="P234" s="180"/>
-      <c r="Q234" s="180"/>
-      <c r="R234" s="180">
+      <c r="M234" s="181"/>
+      <c r="N234" s="181"/>
+      <c r="P234" s="181"/>
+      <c r="Q234" s="181"/>
+      <c r="R234" s="181">
         <v>1795</v>
       </c>
-      <c r="S234" s="192">
+      <c r="S234" s="193">
         <v>-1795</v>
       </c>
-      <c r="T234" s="181">
+      <c r="T234" s="182">
         <v/>
       </c>
-      <c r="U234" s="179"/>
+      <c r="U234" s="180"/>
     </row>
     <row r="235">
       <c r="C235" s="13" t="s">
@@ -16566,46 +16570,46 @@
       <c r="K235" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M235" s="180">
+      <c r="M235" s="181">
         <v>1806</v>
       </c>
-      <c r="N235" s="180"/>
-      <c r="P235" s="180">
+      <c r="N235" s="181"/>
+      <c r="P235" s="181">
         <v>1806</v>
       </c>
-      <c r="Q235" s="180"/>
-      <c r="R235" s="180"/>
-      <c r="S235" s="180">
+      <c r="Q235" s="181"/>
+      <c r="R235" s="181"/>
+      <c r="S235" s="181">
         <v>1806</v>
       </c>
-      <c r="T235" s="181">
-        <v>0</v>
-      </c>
-      <c r="U235" s="179"/>
+      <c r="T235" s="182">
+        <v>0</v>
+      </c>
+      <c r="U235" s="180"/>
     </row>
     <row r="236">
       <c r="A236" s="176" t="s">
         <v>414</v>
       </c>
-      <c r="M236" s="189">
+      <c r="M236" s="190">
         <v>1806</v>
       </c>
-      <c r="P236" s="189">
+      <c r="P236" s="190">
         <v>1806</v>
       </c>
-      <c r="S236" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD236" s="194">
+      <c r="S236" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD236" s="195">
         <v>1795</v>
       </c>
-      <c r="AE236" s="194">
+      <c r="AE236" s="195">
         <v>11</v>
       </c>
-      <c r="AF236" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG236" s="195">
+      <c r="AF236" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG236" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16615,12 +16619,12 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="187" t="s">
+      <c r="A238" s="188" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="239">
-      <c r="B239" s="193" t="s">
+      <c r="B239" s="194" t="s">
         <v>116</v>
       </c>
     </row>
@@ -16631,46 +16635,46 @@
       <c r="K240" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M240" s="180">
+      <c r="M240" s="181">
         <v>143</v>
       </c>
-      <c r="N240" s="180"/>
-      <c r="P240" s="180">
+      <c r="N240" s="181"/>
+      <c r="P240" s="181">
         <v>143</v>
       </c>
-      <c r="Q240" s="180"/>
-      <c r="R240" s="180"/>
-      <c r="S240" s="180">
+      <c r="Q240" s="181"/>
+      <c r="R240" s="181"/>
+      <c r="S240" s="181">
         <v>143</v>
       </c>
-      <c r="T240" s="181">
-        <v>0</v>
-      </c>
-      <c r="U240" s="179"/>
+      <c r="T240" s="182">
+        <v>0</v>
+      </c>
+      <c r="U240" s="180"/>
     </row>
     <row r="241">
       <c r="A241" s="176" t="s">
         <v>416</v>
       </c>
-      <c r="M241" s="189">
+      <c r="M241" s="190">
         <v>143</v>
       </c>
-      <c r="P241" s="189">
+      <c r="P241" s="190">
         <v>143</v>
       </c>
-      <c r="S241" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD241" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE241" s="194">
+      <c r="S241" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD241" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE241" s="195">
         <v>143</v>
       </c>
-      <c r="AF241" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG241" s="195">
+      <c r="AF241" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG241" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16680,12 +16684,12 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="187" t="s">
+      <c r="A243" s="188" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="244">
-      <c r="B244" s="193" t="s">
+      <c r="B244" s="194" t="s">
         <v>419</v>
       </c>
     </row>
@@ -16696,20 +16700,20 @@
       <c r="K245" s="54">
         <v>5020101000</v>
       </c>
-      <c r="M245" s="180"/>
-      <c r="N245" s="180"/>
-      <c r="P245" s="180"/>
-      <c r="Q245" s="180"/>
-      <c r="R245" s="180">
+      <c r="M245" s="181"/>
+      <c r="N245" s="181"/>
+      <c r="P245" s="181"/>
+      <c r="Q245" s="181"/>
+      <c r="R245" s="181">
         <v>7534</v>
       </c>
-      <c r="S245" s="192">
+      <c r="S245" s="193">
         <v>-7534</v>
       </c>
-      <c r="T245" s="181">
+      <c r="T245" s="182">
         <v/>
       </c>
-      <c r="U245" s="179"/>
+      <c r="U245" s="180"/>
     </row>
     <row r="246">
       <c r="C246" s="13" t="s">
@@ -16718,46 +16722,46 @@
       <c r="K246" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M246" s="180">
+      <c r="M246" s="181">
         <v>308386.7</v>
       </c>
-      <c r="N246" s="180"/>
-      <c r="P246" s="180">
+      <c r="N246" s="181"/>
+      <c r="P246" s="181">
         <v>308386.7</v>
       </c>
-      <c r="Q246" s="180"/>
-      <c r="R246" s="180"/>
-      <c r="S246" s="180">
+      <c r="Q246" s="181"/>
+      <c r="R246" s="181"/>
+      <c r="S246" s="181">
         <v>308386.7</v>
       </c>
-      <c r="T246" s="181">
-        <v>0</v>
-      </c>
-      <c r="U246" s="179"/>
+      <c r="T246" s="182">
+        <v>0</v>
+      </c>
+      <c r="U246" s="180"/>
     </row>
     <row r="247">
       <c r="A247" s="176" t="s">
         <v>420</v>
       </c>
-      <c r="M247" s="189">
+      <c r="M247" s="190">
         <v>308386.7</v>
       </c>
-      <c r="P247" s="189">
+      <c r="P247" s="190">
         <v>308386.7</v>
       </c>
-      <c r="S247" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD247" s="194">
+      <c r="S247" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD247" s="195">
         <v>7534</v>
       </c>
-      <c r="AE247" s="194">
+      <c r="AE247" s="195">
         <v>300852.7</v>
       </c>
-      <c r="AF247" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG247" s="195">
+      <c r="AF247" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG247" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16767,12 +16771,12 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="187" t="s">
+      <c r="A249" s="188" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="250">
-      <c r="B250" s="193" t="s">
+      <c r="B250" s="194" t="s">
         <v>132</v>
       </c>
     </row>
@@ -16783,46 +16787,46 @@
       <c r="K251" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M251" s="180">
+      <c r="M251" s="181">
         <v>356264.92</v>
       </c>
-      <c r="N251" s="180"/>
-      <c r="P251" s="180">
+      <c r="N251" s="181"/>
+      <c r="P251" s="181">
         <v>356264.92</v>
       </c>
-      <c r="Q251" s="180"/>
-      <c r="R251" s="180"/>
-      <c r="S251" s="180">
+      <c r="Q251" s="181"/>
+      <c r="R251" s="181"/>
+      <c r="S251" s="181">
         <v>356264.92</v>
       </c>
-      <c r="T251" s="181">
-        <v>0</v>
-      </c>
-      <c r="U251" s="179"/>
+      <c r="T251" s="182">
+        <v>0</v>
+      </c>
+      <c r="U251" s="180"/>
     </row>
     <row r="252">
       <c r="A252" s="176" t="s">
         <v>422</v>
       </c>
-      <c r="M252" s="189">
+      <c r="M252" s="190">
         <v>356264.92</v>
       </c>
-      <c r="P252" s="189">
+      <c r="P252" s="190">
         <v>356264.92</v>
       </c>
-      <c r="S252" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD252" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE252" s="194">
+      <c r="S252" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD252" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE252" s="195">
         <v>356264.92</v>
       </c>
-      <c r="AF252" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG252" s="195">
+      <c r="AF252" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG252" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16832,12 +16836,12 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="187" t="s">
+      <c r="A254" s="188" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="255">
-      <c r="B255" s="193" t="s">
+      <c r="B255" s="194" t="s">
         <v>134</v>
       </c>
     </row>
@@ -16848,46 +16852,46 @@
       <c r="K256" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M256" s="180">
+      <c r="M256" s="181">
         <v>5600</v>
       </c>
-      <c r="N256" s="180"/>
-      <c r="P256" s="180">
+      <c r="N256" s="181"/>
+      <c r="P256" s="181">
         <v>5600</v>
       </c>
-      <c r="Q256" s="180"/>
-      <c r="R256" s="180"/>
-      <c r="S256" s="180">
+      <c r="Q256" s="181"/>
+      <c r="R256" s="181"/>
+      <c r="S256" s="181">
         <v>5600</v>
       </c>
-      <c r="T256" s="181">
-        <v>0</v>
-      </c>
-      <c r="U256" s="179"/>
+      <c r="T256" s="182">
+        <v>0</v>
+      </c>
+      <c r="U256" s="180"/>
     </row>
     <row r="257">
       <c r="A257" s="176" t="s">
         <v>424</v>
       </c>
-      <c r="M257" s="189">
+      <c r="M257" s="190">
         <v>5600</v>
       </c>
-      <c r="P257" s="189">
+      <c r="P257" s="190">
         <v>5600</v>
       </c>
-      <c r="S257" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD257" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE257" s="194">
+      <c r="S257" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD257" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE257" s="195">
         <v>5600</v>
       </c>
-      <c r="AF257" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG257" s="195">
+      <c r="AF257" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG257" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16897,12 +16901,12 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="187" t="s">
+      <c r="A259" s="188" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="260">
-      <c r="B260" s="193" t="s">
+      <c r="B260" s="194" t="s">
         <v>154</v>
       </c>
     </row>
@@ -16913,46 +16917,46 @@
       <c r="K261" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M261" s="180">
+      <c r="M261" s="181">
         <v>11006.94</v>
       </c>
-      <c r="N261" s="180"/>
-      <c r="P261" s="180">
+      <c r="N261" s="181"/>
+      <c r="P261" s="181">
         <v>11006.94</v>
       </c>
-      <c r="Q261" s="180"/>
-      <c r="R261" s="180"/>
-      <c r="S261" s="180">
+      <c r="Q261" s="181"/>
+      <c r="R261" s="181"/>
+      <c r="S261" s="181">
         <v>11006.94</v>
       </c>
-      <c r="T261" s="181">
-        <v>0</v>
-      </c>
-      <c r="U261" s="179"/>
+      <c r="T261" s="182">
+        <v>0</v>
+      </c>
+      <c r="U261" s="180"/>
     </row>
     <row r="262">
       <c r="A262" s="176" t="s">
         <v>426</v>
       </c>
-      <c r="M262" s="189">
+      <c r="M262" s="190">
         <v>11006.94</v>
       </c>
-      <c r="P262" s="189">
+      <c r="P262" s="190">
         <v>11006.94</v>
       </c>
-      <c r="S262" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD262" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE262" s="194">
+      <c r="S262" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE262" s="195">
         <v>11006.94</v>
       </c>
-      <c r="AF262" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG262" s="195">
+      <c r="AF262" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG262" s="196">
         <v>0</v>
       </c>
     </row>
@@ -16962,12 +16966,12 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="187" t="s">
+      <c r="A264" s="188" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="265">
-      <c r="B265" s="193" t="s">
+      <c r="B265" s="194" t="s">
         <v>156</v>
       </c>
     </row>
@@ -16978,22 +16982,22 @@
       <c r="K266" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M266" s="180">
+      <c r="M266" s="181">
         <v>1200250</v>
       </c>
-      <c r="N266" s="180"/>
-      <c r="P266" s="180">
+      <c r="N266" s="181"/>
+      <c r="P266" s="181">
         <v>1200250</v>
       </c>
-      <c r="Q266" s="180"/>
-      <c r="R266" s="180"/>
-      <c r="S266" s="180">
+      <c r="Q266" s="181"/>
+      <c r="R266" s="181"/>
+      <c r="S266" s="181">
         <v>1200250</v>
       </c>
-      <c r="T266" s="181">
-        <v>0</v>
-      </c>
-      <c r="U266" s="179"/>
+      <c r="T266" s="182">
+        <v>0</v>
+      </c>
+      <c r="U266" s="180"/>
     </row>
     <row r="267">
       <c r="C267" s="13" t="s">
@@ -17002,44 +17006,44 @@
       <c r="K267" s="54">
         <v>5021499000</v>
       </c>
-      <c r="M267" s="180"/>
-      <c r="N267" s="180"/>
-      <c r="P267" s="180"/>
-      <c r="Q267" s="180"/>
-      <c r="R267" s="180">
+      <c r="M267" s="181"/>
+      <c r="N267" s="181"/>
+      <c r="P267" s="181"/>
+      <c r="Q267" s="181"/>
+      <c r="R267" s="181">
         <v>16660</v>
       </c>
-      <c r="S267" s="192">
+      <c r="S267" s="193">
         <v>-16660</v>
       </c>
-      <c r="T267" s="181">
+      <c r="T267" s="182">
         <v/>
       </c>
-      <c r="U267" s="179"/>
+      <c r="U267" s="180"/>
     </row>
     <row r="268">
       <c r="A268" s="176" t="s">
         <v>429</v>
       </c>
-      <c r="M268" s="189">
+      <c r="M268" s="190">
         <v>1200250</v>
       </c>
-      <c r="P268" s="189">
+      <c r="P268" s="190">
         <v>1200250</v>
       </c>
-      <c r="S268" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD268" s="194">
+      <c r="S268" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="195">
         <v>16660</v>
       </c>
-      <c r="AE268" s="194">
+      <c r="AE268" s="195">
         <v>1183590</v>
       </c>
-      <c r="AF268" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG268" s="195">
+      <c r="AF268" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG268" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17049,12 +17053,12 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="187" t="s">
+      <c r="A270" s="188" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="271">
-      <c r="B271" s="193" t="s">
+      <c r="B271" s="194" t="s">
         <v>142</v>
       </c>
     </row>
@@ -17065,46 +17069,46 @@
       <c r="K272" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M272" s="180">
+      <c r="M272" s="181">
         <v>206247.98</v>
       </c>
-      <c r="N272" s="180"/>
-      <c r="P272" s="180">
+      <c r="N272" s="181"/>
+      <c r="P272" s="181">
         <v>206247.98</v>
       </c>
-      <c r="Q272" s="180"/>
-      <c r="R272" s="180"/>
-      <c r="S272" s="180">
+      <c r="Q272" s="181"/>
+      <c r="R272" s="181"/>
+      <c r="S272" s="181">
         <v>206247.98</v>
       </c>
-      <c r="T272" s="181">
-        <v>0</v>
-      </c>
-      <c r="U272" s="179"/>
+      <c r="T272" s="182">
+        <v>0</v>
+      </c>
+      <c r="U272" s="180"/>
     </row>
     <row r="273">
       <c r="A273" s="176" t="s">
         <v>431</v>
       </c>
-      <c r="M273" s="189">
+      <c r="M273" s="190">
         <v>206247.98</v>
       </c>
-      <c r="P273" s="189">
+      <c r="P273" s="190">
         <v>206247.98</v>
       </c>
-      <c r="S273" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD273" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE273" s="194">
+      <c r="S273" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE273" s="195">
         <v>206247.98</v>
       </c>
-      <c r="AF273" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG273" s="195">
+      <c r="AF273" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG273" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17114,12 +17118,12 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="187" t="s">
+      <c r="A275" s="188" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="276">
-      <c r="B276" s="193" t="s">
+      <c r="B276" s="194" t="s">
         <v>161</v>
       </c>
     </row>
@@ -17130,46 +17134,46 @@
       <c r="K277" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M277" s="180">
+      <c r="M277" s="181">
         <v>30185</v>
       </c>
-      <c r="N277" s="180"/>
-      <c r="P277" s="180">
+      <c r="N277" s="181"/>
+      <c r="P277" s="181">
         <v>30185</v>
       </c>
-      <c r="Q277" s="180"/>
-      <c r="R277" s="180"/>
-      <c r="S277" s="180">
+      <c r="Q277" s="181"/>
+      <c r="R277" s="181"/>
+      <c r="S277" s="181">
         <v>30185</v>
       </c>
-      <c r="T277" s="181">
-        <v>0</v>
-      </c>
-      <c r="U277" s="179"/>
+      <c r="T277" s="182">
+        <v>0</v>
+      </c>
+      <c r="U277" s="180"/>
     </row>
     <row r="278">
       <c r="A278" s="176" t="s">
         <v>433</v>
       </c>
-      <c r="M278" s="189">
+      <c r="M278" s="190">
         <v>30185</v>
       </c>
-      <c r="P278" s="189">
+      <c r="P278" s="190">
         <v>30185</v>
       </c>
-      <c r="S278" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD278" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE278" s="194">
+      <c r="S278" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE278" s="195">
         <v>30185</v>
       </c>
-      <c r="AF278" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG278" s="195">
+      <c r="AF278" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG278" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17179,12 +17183,12 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="187" t="s">
+      <c r="A280" s="188" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="281">
-      <c r="B281" s="193" t="s">
+      <c r="B281" s="194" t="s">
         <v>164</v>
       </c>
     </row>
@@ -17195,46 +17199,46 @@
       <c r="K282" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M282" s="180">
+      <c r="M282" s="181">
         <v>47606</v>
       </c>
-      <c r="N282" s="180"/>
-      <c r="P282" s="180">
+      <c r="N282" s="181"/>
+      <c r="P282" s="181">
         <v>47606</v>
       </c>
-      <c r="Q282" s="180"/>
-      <c r="R282" s="180"/>
-      <c r="S282" s="180">
+      <c r="Q282" s="181"/>
+      <c r="R282" s="181"/>
+      <c r="S282" s="181">
         <v>47606</v>
       </c>
-      <c r="T282" s="181">
-        <v>0</v>
-      </c>
-      <c r="U282" s="179"/>
+      <c r="T282" s="182">
+        <v>0</v>
+      </c>
+      <c r="U282" s="180"/>
     </row>
     <row r="283">
       <c r="A283" s="176" t="s">
         <v>435</v>
       </c>
-      <c r="M283" s="189">
+      <c r="M283" s="190">
         <v>47606</v>
       </c>
-      <c r="P283" s="189">
+      <c r="P283" s="190">
         <v>47606</v>
       </c>
-      <c r="S283" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD283" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE283" s="194">
+      <c r="S283" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD283" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE283" s="195">
         <v>47606</v>
       </c>
-      <c r="AF283" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG283" s="195">
+      <c r="AF283" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG283" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17244,12 +17248,12 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="187" t="s">
+      <c r="A285" s="188" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="286">
-      <c r="B286" s="193" t="s">
+      <c r="B286" s="194" t="s">
         <v>169</v>
       </c>
     </row>
@@ -17260,46 +17264,46 @@
       <c r="K287" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M287" s="180">
+      <c r="M287" s="181">
         <v>46500</v>
       </c>
-      <c r="N287" s="180"/>
-      <c r="P287" s="180">
+      <c r="N287" s="181"/>
+      <c r="P287" s="181">
         <v>46500</v>
       </c>
-      <c r="Q287" s="180"/>
-      <c r="R287" s="180"/>
-      <c r="S287" s="180">
+      <c r="Q287" s="181"/>
+      <c r="R287" s="181"/>
+      <c r="S287" s="181">
         <v>46500</v>
       </c>
-      <c r="T287" s="181">
-        <v>0</v>
-      </c>
-      <c r="U287" s="179"/>
+      <c r="T287" s="182">
+        <v>0</v>
+      </c>
+      <c r="U287" s="180"/>
     </row>
     <row r="288">
       <c r="A288" s="176" t="s">
         <v>437</v>
       </c>
-      <c r="M288" s="189">
+      <c r="M288" s="190">
         <v>46500</v>
       </c>
-      <c r="P288" s="189">
+      <c r="P288" s="190">
         <v>46500</v>
       </c>
-      <c r="S288" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD288" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE288" s="194">
+      <c r="S288" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD288" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE288" s="195">
         <v>46500</v>
       </c>
-      <c r="AF288" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG288" s="195">
+      <c r="AF288" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG288" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17309,12 +17313,12 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="187" t="s">
+      <c r="A290" s="188" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="291">
-      <c r="B291" s="193" t="s">
+      <c r="B291" s="194" t="s">
         <v>152</v>
       </c>
     </row>
@@ -17325,46 +17329,46 @@
       <c r="K292" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M292" s="180">
+      <c r="M292" s="181">
         <v>7057650</v>
       </c>
-      <c r="N292" s="180"/>
-      <c r="P292" s="180">
+      <c r="N292" s="181"/>
+      <c r="P292" s="181">
         <v>7057650</v>
       </c>
-      <c r="Q292" s="180"/>
-      <c r="R292" s="180"/>
-      <c r="S292" s="180">
+      <c r="Q292" s="181"/>
+      <c r="R292" s="181"/>
+      <c r="S292" s="181">
         <v>7057650</v>
       </c>
-      <c r="T292" s="181">
-        <v>0</v>
-      </c>
-      <c r="U292" s="179"/>
+      <c r="T292" s="182">
+        <v>0</v>
+      </c>
+      <c r="U292" s="180"/>
     </row>
     <row r="293">
       <c r="A293" s="176" t="s">
         <v>439</v>
       </c>
-      <c r="M293" s="189">
+      <c r="M293" s="190">
         <v>7057650</v>
       </c>
-      <c r="P293" s="189">
+      <c r="P293" s="190">
         <v>7057650</v>
       </c>
-      <c r="S293" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD293" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE293" s="194">
+      <c r="S293" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE293" s="195">
         <v>7057650</v>
       </c>
-      <c r="AF293" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG293" s="195">
+      <c r="AF293" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG293" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17374,12 +17378,12 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="187" t="s">
+      <c r="A295" s="188" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="296">
-      <c r="B296" s="193" t="s">
+      <c r="B296" s="194" t="s">
         <v>178</v>
       </c>
     </row>
@@ -17390,46 +17394,46 @@
       <c r="K297" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M297" s="180">
+      <c r="M297" s="181">
         <v>66775</v>
       </c>
-      <c r="N297" s="180"/>
-      <c r="P297" s="180">
+      <c r="N297" s="181"/>
+      <c r="P297" s="181">
         <v>66775</v>
       </c>
-      <c r="Q297" s="180"/>
-      <c r="R297" s="180"/>
-      <c r="S297" s="180">
+      <c r="Q297" s="181"/>
+      <c r="R297" s="181"/>
+      <c r="S297" s="181">
         <v>66775</v>
       </c>
-      <c r="T297" s="181">
-        <v>0</v>
-      </c>
-      <c r="U297" s="179"/>
+      <c r="T297" s="182">
+        <v>0</v>
+      </c>
+      <c r="U297" s="180"/>
     </row>
     <row r="298">
       <c r="A298" s="176" t="s">
         <v>441</v>
       </c>
-      <c r="M298" s="189">
+      <c r="M298" s="190">
         <v>66775</v>
       </c>
-      <c r="P298" s="189">
+      <c r="P298" s="190">
         <v>66775</v>
       </c>
-      <c r="S298" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD298" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE298" s="194">
+      <c r="S298" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD298" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE298" s="195">
         <v>66775</v>
       </c>
-      <c r="AF298" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG298" s="195">
+      <c r="AF298" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG298" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17439,12 +17443,12 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="187" t="s">
+      <c r="A300" s="188" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="301">
-      <c r="B301" s="193" t="s">
+      <c r="B301" s="194" t="s">
         <v>180</v>
       </c>
     </row>
@@ -17455,46 +17459,46 @@
       <c r="K302" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M302" s="180">
+      <c r="M302" s="181">
         <v>45000</v>
       </c>
-      <c r="N302" s="180"/>
-      <c r="P302" s="180">
+      <c r="N302" s="181"/>
+      <c r="P302" s="181">
         <v>45000</v>
       </c>
-      <c r="Q302" s="180"/>
-      <c r="R302" s="180"/>
-      <c r="S302" s="180">
+      <c r="Q302" s="181"/>
+      <c r="R302" s="181"/>
+      <c r="S302" s="181">
         <v>45000</v>
       </c>
-      <c r="T302" s="181">
-        <v>0</v>
-      </c>
-      <c r="U302" s="179"/>
+      <c r="T302" s="182">
+        <v>0</v>
+      </c>
+      <c r="U302" s="180"/>
     </row>
     <row r="303">
       <c r="A303" s="176" t="s">
         <v>443</v>
       </c>
-      <c r="M303" s="189">
+      <c r="M303" s="190">
         <v>45000</v>
       </c>
-      <c r="P303" s="189">
+      <c r="P303" s="190">
         <v>45000</v>
       </c>
-      <c r="S303" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD303" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE303" s="194">
+      <c r="S303" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD303" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE303" s="195">
         <v>45000</v>
       </c>
-      <c r="AF303" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG303" s="195">
+      <c r="AF303" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG303" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17504,12 +17508,12 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="187" t="s">
+      <c r="A305" s="188" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="306">
-      <c r="B306" s="193" t="s">
+      <c r="B306" s="194" t="s">
         <v>182</v>
       </c>
     </row>
@@ -17520,20 +17524,20 @@
       <c r="K307" s="54">
         <v>5020101000</v>
       </c>
-      <c r="M307" s="180"/>
-      <c r="N307" s="180"/>
-      <c r="P307" s="180"/>
-      <c r="Q307" s="180"/>
-      <c r="R307" s="180">
+      <c r="M307" s="181"/>
+      <c r="N307" s="181"/>
+      <c r="P307" s="181"/>
+      <c r="Q307" s="181"/>
+      <c r="R307" s="181">
         <v>9030</v>
       </c>
-      <c r="S307" s="192">
+      <c r="S307" s="193">
         <v>-9030</v>
       </c>
-      <c r="T307" s="181">
+      <c r="T307" s="182">
         <v/>
       </c>
-      <c r="U307" s="179"/>
+      <c r="U307" s="180"/>
     </row>
     <row r="308">
       <c r="C308" s="13" t="s">
@@ -17542,46 +17546,46 @@
       <c r="K308" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M308" s="180">
+      <c r="M308" s="181">
         <v>913771.28</v>
       </c>
-      <c r="N308" s="180"/>
-      <c r="P308" s="180">
+      <c r="N308" s="181"/>
+      <c r="P308" s="181">
         <v>913771.28</v>
       </c>
-      <c r="Q308" s="180"/>
-      <c r="R308" s="180"/>
-      <c r="S308" s="180">
+      <c r="Q308" s="181"/>
+      <c r="R308" s="181"/>
+      <c r="S308" s="181">
         <v>913771.28</v>
       </c>
-      <c r="T308" s="181">
-        <v>0</v>
-      </c>
-      <c r="U308" s="179"/>
+      <c r="T308" s="182">
+        <v>0</v>
+      </c>
+      <c r="U308" s="180"/>
     </row>
     <row r="309">
       <c r="A309" s="176" t="s">
         <v>445</v>
       </c>
-      <c r="M309" s="189">
+      <c r="M309" s="190">
         <v>913771.28</v>
       </c>
-      <c r="P309" s="189">
+      <c r="P309" s="190">
         <v>913771.28</v>
       </c>
-      <c r="S309" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD309" s="194">
+      <c r="S309" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD309" s="195">
         <v>9030</v>
       </c>
-      <c r="AE309" s="194">
+      <c r="AE309" s="195">
         <v>904741.28</v>
       </c>
-      <c r="AF309" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG309" s="195">
+      <c r="AF309" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG309" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17591,12 +17595,12 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="187" t="s">
+      <c r="A311" s="188" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="312">
-      <c r="B312" s="193" t="s">
+      <c r="B312" s="194" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17607,46 +17611,46 @@
       <c r="K313" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M313" s="180">
+      <c r="M313" s="181">
         <v>343153.69</v>
       </c>
-      <c r="N313" s="180"/>
-      <c r="P313" s="180">
+      <c r="N313" s="181"/>
+      <c r="P313" s="181">
         <v>343153.69</v>
       </c>
-      <c r="Q313" s="180"/>
-      <c r="R313" s="180"/>
-      <c r="S313" s="180">
+      <c r="Q313" s="181"/>
+      <c r="R313" s="181"/>
+      <c r="S313" s="181">
         <v>343153.69</v>
       </c>
-      <c r="T313" s="181">
-        <v>0</v>
-      </c>
-      <c r="U313" s="179"/>
+      <c r="T313" s="182">
+        <v>0</v>
+      </c>
+      <c r="U313" s="180"/>
     </row>
     <row r="314">
       <c r="A314" s="176" t="s">
         <v>447</v>
       </c>
-      <c r="M314" s="189">
+      <c r="M314" s="190">
         <v>343153.69</v>
       </c>
-      <c r="P314" s="189">
+      <c r="P314" s="190">
         <v>343153.69</v>
       </c>
-      <c r="S314" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD314" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE314" s="194">
+      <c r="S314" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD314" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE314" s="195">
         <v>343153.69</v>
       </c>
-      <c r="AF314" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG314" s="195">
+      <c r="AF314" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG314" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17656,12 +17660,12 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="187" t="s">
+      <c r="A316" s="188" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="317">
-      <c r="B317" s="193" t="s">
+      <c r="B317" s="194" t="s">
         <v>138</v>
       </c>
     </row>
@@ -17672,46 +17676,46 @@
       <c r="K318" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M318" s="180">
+      <c r="M318" s="181">
         <v>1100</v>
       </c>
-      <c r="N318" s="180"/>
-      <c r="P318" s="180">
+      <c r="N318" s="181"/>
+      <c r="P318" s="181">
         <v>1100</v>
       </c>
-      <c r="Q318" s="180"/>
-      <c r="R318" s="180"/>
-      <c r="S318" s="180">
+      <c r="Q318" s="181"/>
+      <c r="R318" s="181"/>
+      <c r="S318" s="181">
         <v>1100</v>
       </c>
-      <c r="T318" s="181">
-        <v>0</v>
-      </c>
-      <c r="U318" s="179"/>
+      <c r="T318" s="182">
+        <v>0</v>
+      </c>
+      <c r="U318" s="180"/>
     </row>
     <row r="319">
       <c r="A319" s="176" t="s">
         <v>449</v>
       </c>
-      <c r="M319" s="189">
+      <c r="M319" s="190">
         <v>1100</v>
       </c>
-      <c r="P319" s="189">
+      <c r="P319" s="190">
         <v>1100</v>
       </c>
-      <c r="S319" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD319" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE319" s="194">
+      <c r="S319" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD319" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE319" s="195">
         <v>1100</v>
       </c>
-      <c r="AF319" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG319" s="195">
+      <c r="AF319" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG319" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17721,12 +17725,12 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="187" t="s">
+      <c r="A321" s="188" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="322">
-      <c r="B322" s="193" t="s">
+      <c r="B322" s="194" t="s">
         <v>451</v>
       </c>
     </row>
@@ -17737,46 +17741,46 @@
       <c r="K323" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M323" s="180">
+      <c r="M323" s="181">
         <v>152050</v>
       </c>
-      <c r="N323" s="180"/>
-      <c r="P323" s="180">
+      <c r="N323" s="181"/>
+      <c r="P323" s="181">
         <v>152050</v>
       </c>
-      <c r="Q323" s="180"/>
-      <c r="R323" s="180"/>
-      <c r="S323" s="180">
+      <c r="Q323" s="181"/>
+      <c r="R323" s="181"/>
+      <c r="S323" s="181">
         <v>152050</v>
       </c>
-      <c r="T323" s="181">
-        <v>0</v>
-      </c>
-      <c r="U323" s="179"/>
+      <c r="T323" s="182">
+        <v>0</v>
+      </c>
+      <c r="U323" s="180"/>
     </row>
     <row r="324">
       <c r="A324" s="176" t="s">
         <v>452</v>
       </c>
-      <c r="M324" s="189">
+      <c r="M324" s="190">
         <v>152050</v>
       </c>
-      <c r="P324" s="189">
+      <c r="P324" s="190">
         <v>152050</v>
       </c>
-      <c r="S324" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD324" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE324" s="194">
+      <c r="S324" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD324" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE324" s="195">
         <v>152050</v>
       </c>
-      <c r="AF324" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG324" s="195">
+      <c r="AF324" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG324" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17786,12 +17790,12 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="187" t="s">
+      <c r="A326" s="188" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="327">
-      <c r="B327" s="193" t="s">
+      <c r="B327" s="194" t="s">
         <v>148</v>
       </c>
     </row>
@@ -17802,20 +17806,20 @@
       <c r="K328" s="54">
         <v>5020101000</v>
       </c>
-      <c r="M328" s="180"/>
-      <c r="N328" s="180"/>
-      <c r="P328" s="180"/>
-      <c r="Q328" s="180"/>
-      <c r="R328" s="180">
+      <c r="M328" s="181"/>
+      <c r="N328" s="181"/>
+      <c r="P328" s="181"/>
+      <c r="Q328" s="181"/>
+      <c r="R328" s="181">
         <v>3010</v>
       </c>
-      <c r="S328" s="192">
+      <c r="S328" s="193">
         <v>-3010</v>
       </c>
-      <c r="T328" s="181">
+      <c r="T328" s="182">
         <v/>
       </c>
-      <c r="U328" s="179"/>
+      <c r="U328" s="180"/>
     </row>
     <row r="329">
       <c r="C329" s="13" t="s">
@@ -17824,46 +17828,46 @@
       <c r="K329" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M329" s="180">
+      <c r="M329" s="181">
         <v>9171.19</v>
       </c>
-      <c r="N329" s="180"/>
-      <c r="P329" s="180">
+      <c r="N329" s="181"/>
+      <c r="P329" s="181">
         <v>9171.19</v>
       </c>
-      <c r="Q329" s="180"/>
-      <c r="R329" s="180"/>
-      <c r="S329" s="180">
+      <c r="Q329" s="181"/>
+      <c r="R329" s="181"/>
+      <c r="S329" s="181">
         <v>9171.19</v>
       </c>
-      <c r="T329" s="181">
-        <v>0</v>
-      </c>
-      <c r="U329" s="179"/>
+      <c r="T329" s="182">
+        <v>0</v>
+      </c>
+      <c r="U329" s="180"/>
     </row>
     <row r="330">
       <c r="A330" s="176" t="s">
         <v>454</v>
       </c>
-      <c r="M330" s="189">
+      <c r="M330" s="190">
         <v>9171.19</v>
       </c>
-      <c r="P330" s="189">
+      <c r="P330" s="190">
         <v>9171.19</v>
       </c>
-      <c r="S330" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD330" s="194">
+      <c r="S330" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD330" s="195">
         <v>3010</v>
       </c>
-      <c r="AE330" s="194">
+      <c r="AE330" s="195">
         <v>6161.1900000000005</v>
       </c>
-      <c r="AF330" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG330" s="195">
+      <c r="AF330" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG330" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17873,12 +17877,12 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="187" t="s">
+      <c r="A332" s="188" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="333">
-      <c r="B333" s="193" t="s">
+      <c r="B333" s="194" t="s">
         <v>188</v>
       </c>
     </row>
@@ -17889,46 +17893,46 @@
       <c r="K334" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M334" s="180">
+      <c r="M334" s="181">
         <v>48212.35</v>
       </c>
-      <c r="N334" s="180"/>
-      <c r="P334" s="180">
+      <c r="N334" s="181"/>
+      <c r="P334" s="181">
         <v>48212.35</v>
       </c>
-      <c r="Q334" s="180"/>
-      <c r="R334" s="180"/>
-      <c r="S334" s="180">
+      <c r="Q334" s="181"/>
+      <c r="R334" s="181"/>
+      <c r="S334" s="181">
         <v>48212.35</v>
       </c>
-      <c r="T334" s="181">
-        <v>0</v>
-      </c>
-      <c r="U334" s="179"/>
+      <c r="T334" s="182">
+        <v>0</v>
+      </c>
+      <c r="U334" s="180"/>
     </row>
     <row r="335">
       <c r="A335" s="176" t="s">
         <v>456</v>
       </c>
-      <c r="M335" s="189">
+      <c r="M335" s="190">
         <v>48212.35</v>
       </c>
-      <c r="P335" s="189">
+      <c r="P335" s="190">
         <v>48212.35</v>
       </c>
-      <c r="S335" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD335" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE335" s="194">
+      <c r="S335" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD335" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE335" s="195">
         <v>48212.35</v>
       </c>
-      <c r="AF335" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG335" s="195">
+      <c r="AF335" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG335" s="196">
         <v>0</v>
       </c>
     </row>
@@ -17938,12 +17942,12 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="187" t="s">
+      <c r="A337" s="188" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="338">
-      <c r="B338" s="193" t="s">
+      <c r="B338" s="194" t="s">
         <v>144</v>
       </c>
     </row>
@@ -17954,46 +17958,46 @@
       <c r="K339" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M339" s="180">
+      <c r="M339" s="181">
         <v>203220</v>
       </c>
-      <c r="N339" s="180"/>
-      <c r="P339" s="180">
+      <c r="N339" s="181"/>
+      <c r="P339" s="181">
         <v>203220</v>
       </c>
-      <c r="Q339" s="180"/>
-      <c r="R339" s="180"/>
-      <c r="S339" s="180">
+      <c r="Q339" s="181"/>
+      <c r="R339" s="181"/>
+      <c r="S339" s="181">
         <v>203220</v>
       </c>
-      <c r="T339" s="181">
-        <v>0</v>
-      </c>
-      <c r="U339" s="179"/>
+      <c r="T339" s="182">
+        <v>0</v>
+      </c>
+      <c r="U339" s="180"/>
     </row>
     <row r="340">
       <c r="A340" s="176" t="s">
         <v>459</v>
       </c>
-      <c r="M340" s="189">
+      <c r="M340" s="190">
         <v>203220</v>
       </c>
-      <c r="P340" s="189">
+      <c r="P340" s="190">
         <v>203220</v>
       </c>
-      <c r="S340" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD340" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE340" s="194">
+      <c r="S340" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD340" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE340" s="195">
         <v>203220</v>
       </c>
-      <c r="AF340" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG340" s="195">
+      <c r="AF340" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG340" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18003,12 +18007,12 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="187" t="s">
+      <c r="A342" s="188" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="343">
-      <c r="B343" s="193" t="s">
+      <c r="B343" s="194" t="s">
         <v>176</v>
       </c>
     </row>
@@ -18019,46 +18023,46 @@
       <c r="K344" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M344" s="180">
+      <c r="M344" s="181">
         <v>144700</v>
       </c>
-      <c r="N344" s="180"/>
-      <c r="P344" s="180">
+      <c r="N344" s="181"/>
+      <c r="P344" s="181">
         <v>144700</v>
       </c>
-      <c r="Q344" s="180"/>
-      <c r="R344" s="180"/>
-      <c r="S344" s="180">
+      <c r="Q344" s="181"/>
+      <c r="R344" s="181"/>
+      <c r="S344" s="181">
         <v>144700</v>
       </c>
-      <c r="T344" s="181">
-        <v>0</v>
-      </c>
-      <c r="U344" s="179"/>
+      <c r="T344" s="182">
+        <v>0</v>
+      </c>
+      <c r="U344" s="180"/>
     </row>
     <row r="345">
       <c r="A345" s="176" t="s">
         <v>462</v>
       </c>
-      <c r="M345" s="189">
+      <c r="M345" s="190">
         <v>144700</v>
       </c>
-      <c r="P345" s="189">
+      <c r="P345" s="190">
         <v>144700</v>
       </c>
-      <c r="S345" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD345" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE345" s="194">
+      <c r="S345" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD345" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE345" s="195">
         <v>144700</v>
       </c>
-      <c r="AF345" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG345" s="195">
+      <c r="AF345" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG345" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18068,12 +18072,12 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="187" t="s">
+      <c r="A347" s="188" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="348">
-      <c r="B348" s="193" t="s">
+      <c r="B348" s="194" t="s">
         <v>184</v>
       </c>
     </row>
@@ -18084,46 +18088,46 @@
       <c r="K349" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M349" s="180">
+      <c r="M349" s="181">
         <v>2819.48</v>
       </c>
-      <c r="N349" s="180"/>
-      <c r="P349" s="180">
+      <c r="N349" s="181"/>
+      <c r="P349" s="181">
         <v>2819.48</v>
       </c>
-      <c r="Q349" s="180"/>
-      <c r="R349" s="180"/>
-      <c r="S349" s="180">
+      <c r="Q349" s="181"/>
+      <c r="R349" s="181"/>
+      <c r="S349" s="181">
         <v>2819.48</v>
       </c>
-      <c r="T349" s="181">
-        <v>0</v>
-      </c>
-      <c r="U349" s="179"/>
+      <c r="T349" s="182">
+        <v>0</v>
+      </c>
+      <c r="U349" s="180"/>
     </row>
     <row r="350">
       <c r="A350" s="176" t="s">
         <v>465</v>
       </c>
-      <c r="M350" s="189">
+      <c r="M350" s="190">
         <v>2819.48</v>
       </c>
-      <c r="P350" s="189">
+      <c r="P350" s="190">
         <v>2819.48</v>
       </c>
-      <c r="S350" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD350" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE350" s="194">
+      <c r="S350" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD350" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE350" s="195">
         <v>2819.48</v>
       </c>
-      <c r="AF350" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG350" s="195">
+      <c r="AF350" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG350" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18133,12 +18137,12 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="187" t="s">
+      <c r="A352" s="188" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="353">
-      <c r="B353" s="193" t="s">
+      <c r="B353" s="194" t="s">
         <v>192</v>
       </c>
     </row>
@@ -18149,46 +18153,46 @@
       <c r="K354" s="54">
         <v>5020201002</v>
       </c>
-      <c r="M354" s="180">
+      <c r="M354" s="181">
         <v>228</v>
       </c>
-      <c r="N354" s="180"/>
-      <c r="P354" s="180">
+      <c r="N354" s="181"/>
+      <c r="P354" s="181">
         <v>228</v>
       </c>
-      <c r="Q354" s="180"/>
-      <c r="R354" s="180"/>
-      <c r="S354" s="180">
+      <c r="Q354" s="181"/>
+      <c r="R354" s="181"/>
+      <c r="S354" s="181">
         <v>228</v>
       </c>
-      <c r="T354" s="181">
-        <v>0</v>
-      </c>
-      <c r="U354" s="179"/>
+      <c r="T354" s="182">
+        <v>0</v>
+      </c>
+      <c r="U354" s="180"/>
     </row>
     <row r="355">
       <c r="A355" s="176" t="s">
         <v>467</v>
       </c>
-      <c r="M355" s="189">
+      <c r="M355" s="190">
         <v>228</v>
       </c>
-      <c r="P355" s="189">
+      <c r="P355" s="190">
         <v>228</v>
       </c>
-      <c r="S355" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD355" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE355" s="194">
+      <c r="S355" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD355" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE355" s="195">
         <v>228</v>
       </c>
-      <c r="AF355" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG355" s="195">
+      <c r="AF355" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG355" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18198,12 +18202,12 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="187" t="s">
+      <c r="A357" s="188" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="358">
-      <c r="B358" s="193" t="s">
+      <c r="B358" s="194" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18214,20 +18218,20 @@
       <c r="K359" s="54">
         <v>5020101000</v>
       </c>
-      <c r="M359" s="180"/>
-      <c r="N359" s="180"/>
-      <c r="P359" s="180"/>
-      <c r="Q359" s="180"/>
-      <c r="R359" s="180">
+      <c r="M359" s="181"/>
+      <c r="N359" s="181"/>
+      <c r="P359" s="181"/>
+      <c r="Q359" s="181"/>
+      <c r="R359" s="181">
         <v>18804</v>
       </c>
-      <c r="S359" s="192">
+      <c r="S359" s="193">
         <v>-18804</v>
       </c>
-      <c r="T359" s="181">
+      <c r="T359" s="182">
         <v/>
       </c>
-      <c r="U359" s="179"/>
+      <c r="U359" s="180"/>
     </row>
     <row r="360">
       <c r="C360" s="13" t="s">
@@ -18236,22 +18240,22 @@
       <c r="K360" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M360" s="180">
+      <c r="M360" s="181">
         <v>1174297.92</v>
       </c>
-      <c r="N360" s="180"/>
-      <c r="P360" s="180">
+      <c r="N360" s="181"/>
+      <c r="P360" s="181">
         <v>1174297.92</v>
       </c>
-      <c r="Q360" s="180"/>
-      <c r="R360" s="180"/>
-      <c r="S360" s="180">
+      <c r="Q360" s="181"/>
+      <c r="R360" s="181"/>
+      <c r="S360" s="181">
         <v>1174297.92</v>
       </c>
-      <c r="T360" s="181">
-        <v>0</v>
-      </c>
-      <c r="U360" s="179"/>
+      <c r="T360" s="182">
+        <v>0</v>
+      </c>
+      <c r="U360" s="180"/>
     </row>
     <row r="361">
       <c r="C361" s="13" t="s">
@@ -18260,44 +18264,44 @@
       <c r="K361" s="54">
         <v>5029903000</v>
       </c>
-      <c r="M361" s="180"/>
-      <c r="N361" s="180"/>
-      <c r="P361" s="180"/>
-      <c r="Q361" s="180"/>
-      <c r="R361" s="180">
+      <c r="M361" s="181"/>
+      <c r="N361" s="181"/>
+      <c r="P361" s="181"/>
+      <c r="Q361" s="181"/>
+      <c r="R361" s="181">
         <v>7800</v>
       </c>
-      <c r="S361" s="192">
+      <c r="S361" s="193">
         <v>-7800</v>
       </c>
-      <c r="T361" s="181">
+      <c r="T361" s="182">
         <v/>
       </c>
-      <c r="U361" s="179"/>
+      <c r="U361" s="180"/>
     </row>
     <row r="362">
       <c r="A362" s="176" t="s">
         <v>469</v>
       </c>
-      <c r="M362" s="189">
+      <c r="M362" s="190">
         <v>1174297.92</v>
       </c>
-      <c r="P362" s="189">
+      <c r="P362" s="190">
         <v>1174297.92</v>
       </c>
-      <c r="S362" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD362" s="194">
+      <c r="S362" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD362" s="195">
         <v>26604</v>
       </c>
-      <c r="AE362" s="194">
+      <c r="AE362" s="195">
         <v>1147693.92</v>
       </c>
-      <c r="AF362" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG362" s="195">
+      <c r="AF362" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG362" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18307,12 +18311,12 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="187" t="s">
+      <c r="A364" s="188" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="365">
-      <c r="B365" s="193" t="s">
+      <c r="B365" s="194" t="s">
         <v>122</v>
       </c>
     </row>
@@ -18323,20 +18327,20 @@
       <c r="K366" s="54">
         <v>5020101000</v>
       </c>
-      <c r="M366" s="180"/>
-      <c r="N366" s="180"/>
-      <c r="P366" s="180"/>
-      <c r="Q366" s="180"/>
-      <c r="R366" s="180">
+      <c r="M366" s="181"/>
+      <c r="N366" s="181"/>
+      <c r="P366" s="181"/>
+      <c r="Q366" s="181"/>
+      <c r="R366" s="181">
         <v>4837</v>
       </c>
-      <c r="S366" s="192">
+      <c r="S366" s="193">
         <v>-4837</v>
       </c>
-      <c r="T366" s="181">
+      <c r="T366" s="182">
         <v/>
       </c>
-      <c r="U366" s="179"/>
+      <c r="U366" s="180"/>
     </row>
     <row r="367">
       <c r="C367" s="13" t="s">
@@ -18345,46 +18349,46 @@
       <c r="K367" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M367" s="180">
+      <c r="M367" s="181">
         <v>244386</v>
       </c>
-      <c r="N367" s="180"/>
-      <c r="P367" s="180">
+      <c r="N367" s="181"/>
+      <c r="P367" s="181">
         <v>244386</v>
       </c>
-      <c r="Q367" s="180"/>
-      <c r="R367" s="180"/>
-      <c r="S367" s="180">
+      <c r="Q367" s="181"/>
+      <c r="R367" s="181"/>
+      <c r="S367" s="181">
         <v>244386</v>
       </c>
-      <c r="T367" s="181">
-        <v>0</v>
-      </c>
-      <c r="U367" s="179"/>
+      <c r="T367" s="182">
+        <v>0</v>
+      </c>
+      <c r="U367" s="180"/>
     </row>
     <row r="368">
       <c r="A368" s="176" t="s">
         <v>472</v>
       </c>
-      <c r="M368" s="189">
+      <c r="M368" s="190">
         <v>244386</v>
       </c>
-      <c r="P368" s="189">
+      <c r="P368" s="190">
         <v>244386</v>
       </c>
-      <c r="S368" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD368" s="194">
+      <c r="S368" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD368" s="195">
         <v>4837</v>
       </c>
-      <c r="AE368" s="194">
+      <c r="AE368" s="195">
         <v>239549</v>
       </c>
-      <c r="AF368" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG368" s="195">
+      <c r="AF368" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG368" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18394,12 +18398,12 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="187" t="s">
+      <c r="A370" s="188" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="371">
-      <c r="B371" s="193" t="s">
+      <c r="B371" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -18410,22 +18414,22 @@
       <c r="K372" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M372" s="180">
+      <c r="M372" s="181">
         <v>2452487</v>
       </c>
-      <c r="N372" s="180"/>
-      <c r="P372" s="180">
+      <c r="N372" s="181"/>
+      <c r="P372" s="181">
         <v>2452487</v>
       </c>
-      <c r="Q372" s="180"/>
-      <c r="R372" s="180"/>
-      <c r="S372" s="180">
+      <c r="Q372" s="181"/>
+      <c r="R372" s="181"/>
+      <c r="S372" s="181">
         <v>2452487</v>
       </c>
-      <c r="T372" s="181">
-        <v>0</v>
-      </c>
-      <c r="U372" s="179"/>
+      <c r="T372" s="182">
+        <v>0</v>
+      </c>
+      <c r="U372" s="180"/>
     </row>
     <row r="373">
       <c r="C373" s="13" t="s">
@@ -18434,44 +18438,44 @@
       <c r="K373" s="54">
         <v>5021403000</v>
       </c>
-      <c r="M373" s="180"/>
-      <c r="N373" s="180"/>
-      <c r="P373" s="180"/>
-      <c r="Q373" s="180"/>
-      <c r="R373" s="180">
+      <c r="M373" s="181"/>
+      <c r="N373" s="181"/>
+      <c r="P373" s="181"/>
+      <c r="Q373" s="181"/>
+      <c r="R373" s="181">
         <v>2376000</v>
       </c>
-      <c r="S373" s="192">
+      <c r="S373" s="193">
         <v>-2376000</v>
       </c>
-      <c r="T373" s="181">
+      <c r="T373" s="182">
         <v/>
       </c>
-      <c r="U373" s="179"/>
+      <c r="U373" s="180"/>
     </row>
     <row r="374">
       <c r="A374" s="176" t="s">
         <v>475</v>
       </c>
-      <c r="M374" s="189">
+      <c r="M374" s="190">
         <v>2452487</v>
       </c>
-      <c r="P374" s="189">
+      <c r="P374" s="190">
         <v>2452487</v>
       </c>
-      <c r="S374" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD374" s="194">
+      <c r="S374" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD374" s="195">
         <v>2376000</v>
       </c>
-      <c r="AE374" s="194">
+      <c r="AE374" s="195">
         <v>76487</v>
       </c>
-      <c r="AF374" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG374" s="195">
+      <c r="AF374" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG374" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18481,12 +18485,12 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="187" t="s">
+      <c r="A376" s="188" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="377">
-      <c r="B377" s="193" t="s">
+      <c r="B377" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -18497,46 +18501,46 @@
       <c r="K378" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M378" s="180">
+      <c r="M378" s="181">
         <v>70200</v>
       </c>
-      <c r="N378" s="180"/>
-      <c r="P378" s="180">
+      <c r="N378" s="181"/>
+      <c r="P378" s="181">
         <v>70200</v>
       </c>
-      <c r="Q378" s="180"/>
-      <c r="R378" s="180"/>
-      <c r="S378" s="180">
+      <c r="Q378" s="181"/>
+      <c r="R378" s="181"/>
+      <c r="S378" s="181">
         <v>70200</v>
       </c>
-      <c r="T378" s="181">
-        <v>0</v>
-      </c>
-      <c r="U378" s="179"/>
+      <c r="T378" s="182">
+        <v>0</v>
+      </c>
+      <c r="U378" s="180"/>
     </row>
     <row r="379">
       <c r="A379" s="176" t="s">
         <v>477</v>
       </c>
-      <c r="M379" s="189">
+      <c r="M379" s="190">
         <v>70200</v>
       </c>
-      <c r="P379" s="189">
+      <c r="P379" s="190">
         <v>70200</v>
       </c>
-      <c r="S379" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD379" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE379" s="194">
+      <c r="S379" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD379" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE379" s="195">
         <v>70200</v>
       </c>
-      <c r="AF379" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG379" s="195">
+      <c r="AF379" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG379" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18546,12 +18550,12 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="187" t="s">
+      <c r="A381" s="188" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="382">
-      <c r="B382" s="193" t="s">
+      <c r="B382" s="194" t="s">
         <v>479</v>
       </c>
     </row>
@@ -18562,22 +18566,22 @@
       <c r="K383" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M383" s="180">
+      <c r="M383" s="181">
         <v>908980.51</v>
       </c>
-      <c r="N383" s="180"/>
-      <c r="P383" s="180">
+      <c r="N383" s="181"/>
+      <c r="P383" s="181">
         <v>908980.51</v>
       </c>
-      <c r="Q383" s="180"/>
-      <c r="R383" s="180"/>
-      <c r="S383" s="180">
+      <c r="Q383" s="181"/>
+      <c r="R383" s="181"/>
+      <c r="S383" s="181">
         <v>908980.51</v>
       </c>
-      <c r="T383" s="181">
-        <v>0</v>
-      </c>
-      <c r="U383" s="179"/>
+      <c r="T383" s="182">
+        <v>0</v>
+      </c>
+      <c r="U383" s="180"/>
     </row>
     <row r="384">
       <c r="C384" s="13" t="s">
@@ -18586,44 +18590,44 @@
       <c r="K384" s="54">
         <v>5021499000</v>
       </c>
-      <c r="M384" s="180"/>
-      <c r="N384" s="180"/>
-      <c r="P384" s="180"/>
-      <c r="Q384" s="180"/>
-      <c r="R384" s="180">
+      <c r="M384" s="181"/>
+      <c r="N384" s="181"/>
+      <c r="P384" s="181"/>
+      <c r="Q384" s="181"/>
+      <c r="R384" s="181">
         <v>409295.37</v>
       </c>
-      <c r="S384" s="192">
+      <c r="S384" s="193">
         <v>-409295.37</v>
       </c>
-      <c r="T384" s="181">
+      <c r="T384" s="182">
         <v/>
       </c>
-      <c r="U384" s="179"/>
+      <c r="U384" s="180"/>
     </row>
     <row r="385">
       <c r="A385" s="176" t="s">
         <v>480</v>
       </c>
-      <c r="M385" s="189">
+      <c r="M385" s="190">
         <v>908980.51</v>
       </c>
-      <c r="P385" s="189">
+      <c r="P385" s="190">
         <v>908980.51</v>
       </c>
-      <c r="S385" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD385" s="194">
+      <c r="S385" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD385" s="195">
         <v>409295.37</v>
       </c>
-      <c r="AE385" s="194">
+      <c r="AE385" s="195">
         <v>499685.14</v>
       </c>
-      <c r="AF385" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG385" s="195">
+      <c r="AF385" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG385" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18633,12 +18637,12 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="187" t="s">
+      <c r="A387" s="188" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="388">
-      <c r="B388" s="193" t="s">
+      <c r="B388" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -18649,46 +18653,46 @@
       <c r="K389" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M389" s="180">
+      <c r="M389" s="181">
         <v>18000</v>
       </c>
-      <c r="N389" s="180"/>
-      <c r="P389" s="180">
+      <c r="N389" s="181"/>
+      <c r="P389" s="181">
         <v>18000</v>
       </c>
-      <c r="Q389" s="180"/>
-      <c r="R389" s="180"/>
-      <c r="S389" s="180">
+      <c r="Q389" s="181"/>
+      <c r="R389" s="181"/>
+      <c r="S389" s="181">
         <v>18000</v>
       </c>
-      <c r="T389" s="181">
-        <v>0</v>
-      </c>
-      <c r="U389" s="179"/>
+      <c r="T389" s="182">
+        <v>0</v>
+      </c>
+      <c r="U389" s="180"/>
     </row>
     <row r="390">
       <c r="A390" s="176" t="s">
         <v>482</v>
       </c>
-      <c r="M390" s="189">
+      <c r="M390" s="190">
         <v>18000</v>
       </c>
-      <c r="P390" s="189">
+      <c r="P390" s="190">
         <v>18000</v>
       </c>
-      <c r="S390" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD390" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE390" s="194">
+      <c r="S390" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD390" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE390" s="195">
         <v>18000</v>
       </c>
-      <c r="AF390" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG390" s="195">
+      <c r="AF390" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG390" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18698,12 +18702,12 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="187" t="s">
+      <c r="A392" s="188" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="393">
-      <c r="B393" s="193" t="s">
+      <c r="B393" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -18714,46 +18718,46 @@
       <c r="K394" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M394" s="180">
+      <c r="M394" s="181">
         <v>1000000</v>
       </c>
-      <c r="N394" s="180"/>
-      <c r="P394" s="180">
+      <c r="N394" s="181"/>
+      <c r="P394" s="181">
         <v>1000000</v>
       </c>
-      <c r="Q394" s="180"/>
-      <c r="R394" s="180"/>
-      <c r="S394" s="180">
+      <c r="Q394" s="181"/>
+      <c r="R394" s="181"/>
+      <c r="S394" s="181">
         <v>1000000</v>
       </c>
-      <c r="T394" s="181">
-        <v>0</v>
-      </c>
-      <c r="U394" s="179"/>
+      <c r="T394" s="182">
+        <v>0</v>
+      </c>
+      <c r="U394" s="180"/>
     </row>
     <row r="395">
       <c r="A395" s="176" t="s">
         <v>484</v>
       </c>
-      <c r="M395" s="189">
+      <c r="M395" s="190">
         <v>1000000</v>
       </c>
-      <c r="P395" s="189">
+      <c r="P395" s="190">
         <v>1000000</v>
       </c>
-      <c r="S395" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD395" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE395" s="194">
+      <c r="S395" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD395" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE395" s="195">
         <v>1000000</v>
       </c>
-      <c r="AF395" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG395" s="195">
+      <c r="AF395" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG395" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18763,12 +18767,12 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="187" t="s">
+      <c r="A397" s="188" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="398">
-      <c r="B398" s="193" t="s">
+      <c r="B398" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -18779,22 +18783,22 @@
       <c r="K399" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M399" s="180">
+      <c r="M399" s="181">
         <v>252500</v>
       </c>
-      <c r="N399" s="180"/>
-      <c r="P399" s="180">
+      <c r="N399" s="181"/>
+      <c r="P399" s="181">
         <v>252500</v>
       </c>
-      <c r="Q399" s="180"/>
-      <c r="R399" s="180"/>
-      <c r="S399" s="180">
+      <c r="Q399" s="181"/>
+      <c r="R399" s="181"/>
+      <c r="S399" s="181">
         <v>252500</v>
       </c>
-      <c r="T399" s="181">
-        <v>0</v>
-      </c>
-      <c r="U399" s="179"/>
+      <c r="T399" s="182">
+        <v>0</v>
+      </c>
+      <c r="U399" s="180"/>
     </row>
     <row r="400">
       <c r="C400" s="13" t="s">
@@ -18803,44 +18807,44 @@
       <c r="K400" s="54">
         <v>5021403000</v>
       </c>
-      <c r="M400" s="180"/>
-      <c r="N400" s="180"/>
-      <c r="P400" s="180"/>
-      <c r="Q400" s="180"/>
-      <c r="R400" s="180">
+      <c r="M400" s="181"/>
+      <c r="N400" s="181"/>
+      <c r="P400" s="181"/>
+      <c r="Q400" s="181"/>
+      <c r="R400" s="181">
         <v>148500</v>
       </c>
-      <c r="S400" s="192">
+      <c r="S400" s="193">
         <v>-148500</v>
       </c>
-      <c r="T400" s="181">
+      <c r="T400" s="182">
         <v/>
       </c>
-      <c r="U400" s="179"/>
+      <c r="U400" s="180"/>
     </row>
     <row r="401">
       <c r="A401" s="176" t="s">
         <v>486</v>
       </c>
-      <c r="M401" s="189">
+      <c r="M401" s="190">
         <v>252500</v>
       </c>
-      <c r="P401" s="189">
+      <c r="P401" s="190">
         <v>252500</v>
       </c>
-      <c r="S401" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD401" s="194">
+      <c r="S401" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD401" s="195">
         <v>148500</v>
       </c>
-      <c r="AE401" s="194">
+      <c r="AE401" s="195">
         <v>104000</v>
       </c>
-      <c r="AF401" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG401" s="195">
+      <c r="AF401" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG401" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18850,12 +18854,12 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="187" t="s">
+      <c r="A403" s="188" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="404">
-      <c r="B404" s="193" t="s">
+      <c r="B404" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -18866,46 +18870,46 @@
       <c r="K405" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M405" s="180">
+      <c r="M405" s="181">
         <v>150000</v>
       </c>
-      <c r="N405" s="180"/>
-      <c r="P405" s="180">
+      <c r="N405" s="181"/>
+      <c r="P405" s="181">
         <v>150000</v>
       </c>
-      <c r="Q405" s="180"/>
-      <c r="R405" s="180"/>
-      <c r="S405" s="180">
+      <c r="Q405" s="181"/>
+      <c r="R405" s="181"/>
+      <c r="S405" s="181">
         <v>150000</v>
       </c>
-      <c r="T405" s="181">
-        <v>0</v>
-      </c>
-      <c r="U405" s="179"/>
+      <c r="T405" s="182">
+        <v>0</v>
+      </c>
+      <c r="U405" s="180"/>
     </row>
     <row r="406">
       <c r="A406" s="176" t="s">
         <v>488</v>
       </c>
-      <c r="M406" s="189">
+      <c r="M406" s="190">
         <v>150000</v>
       </c>
-      <c r="P406" s="189">
+      <c r="P406" s="190">
         <v>150000</v>
       </c>
-      <c r="S406" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD406" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE406" s="194">
+      <c r="S406" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD406" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE406" s="195">
         <v>150000</v>
       </c>
-      <c r="AF406" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG406" s="195">
+      <c r="AF406" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG406" s="196">
         <v>0</v>
       </c>
     </row>
@@ -18915,12 +18919,12 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="187" t="s">
+      <c r="A408" s="188" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="409">
-      <c r="B409" s="193" t="s">
+      <c r="B409" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -18931,22 +18935,22 @@
       <c r="K410" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M410" s="180">
+      <c r="M410" s="181">
         <v>2530000</v>
       </c>
-      <c r="N410" s="180"/>
-      <c r="P410" s="180">
+      <c r="N410" s="181"/>
+      <c r="P410" s="181">
         <v>2530000</v>
       </c>
-      <c r="Q410" s="180"/>
-      <c r="R410" s="180"/>
-      <c r="S410" s="180">
+      <c r="Q410" s="181"/>
+      <c r="R410" s="181"/>
+      <c r="S410" s="181">
         <v>2530000</v>
       </c>
-      <c r="T410" s="181">
-        <v>0</v>
-      </c>
-      <c r="U410" s="179"/>
+      <c r="T410" s="182">
+        <v>0</v>
+      </c>
+      <c r="U410" s="180"/>
     </row>
     <row r="411">
       <c r="C411" s="13" t="s">
@@ -18955,44 +18959,44 @@
       <c r="K411" s="54">
         <v>5021403000</v>
       </c>
-      <c r="M411" s="180"/>
-      <c r="N411" s="180"/>
-      <c r="P411" s="180"/>
-      <c r="Q411" s="180"/>
-      <c r="R411" s="180">
+      <c r="M411" s="181"/>
+      <c r="N411" s="181"/>
+      <c r="P411" s="181"/>
+      <c r="Q411" s="181"/>
+      <c r="R411" s="181">
         <v>2475000</v>
       </c>
-      <c r="S411" s="192">
+      <c r="S411" s="193">
         <v>-2475000</v>
       </c>
-      <c r="T411" s="181">
+      <c r="T411" s="182">
         <v/>
       </c>
-      <c r="U411" s="179"/>
+      <c r="U411" s="180"/>
     </row>
     <row r="412">
       <c r="A412" s="176" t="s">
         <v>490</v>
       </c>
-      <c r="M412" s="189">
+      <c r="M412" s="190">
         <v>2530000</v>
       </c>
-      <c r="P412" s="189">
+      <c r="P412" s="190">
         <v>2530000</v>
       </c>
-      <c r="S412" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD412" s="194">
+      <c r="S412" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD412" s="195">
         <v>2475000</v>
       </c>
-      <c r="AE412" s="194">
+      <c r="AE412" s="195">
         <v>55000</v>
       </c>
-      <c r="AF412" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG412" s="195">
+      <c r="AF412" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG412" s="196">
         <v>0</v>
       </c>
     </row>
@@ -19002,12 +19006,12 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="187" t="s">
+      <c r="A414" s="188" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="415">
-      <c r="B415" s="193" t="s">
+      <c r="B415" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -19018,46 +19022,46 @@
       <c r="K416" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M416" s="180">
+      <c r="M416" s="181">
         <v>3500000</v>
       </c>
-      <c r="N416" s="180"/>
-      <c r="P416" s="180">
+      <c r="N416" s="181"/>
+      <c r="P416" s="181">
         <v>3500000</v>
       </c>
-      <c r="Q416" s="180"/>
-      <c r="R416" s="180"/>
-      <c r="S416" s="180">
+      <c r="Q416" s="181"/>
+      <c r="R416" s="181"/>
+      <c r="S416" s="181">
         <v>3500000</v>
       </c>
-      <c r="T416" s="181">
-        <v>0</v>
-      </c>
-      <c r="U416" s="179"/>
+      <c r="T416" s="182">
+        <v>0</v>
+      </c>
+      <c r="U416" s="180"/>
     </row>
     <row r="417">
       <c r="A417" s="176" t="s">
         <v>492</v>
       </c>
-      <c r="M417" s="189">
+      <c r="M417" s="190">
         <v>3500000</v>
       </c>
-      <c r="P417" s="189">
+      <c r="P417" s="190">
         <v>3500000</v>
       </c>
-      <c r="S417" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD417" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE417" s="194">
+      <c r="S417" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD417" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE417" s="195">
         <v>3500000</v>
       </c>
-      <c r="AF417" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG417" s="195">
+      <c r="AF417" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG417" s="196">
         <v>0</v>
       </c>
     </row>
@@ -19067,12 +19071,12 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="187" t="s">
+      <c r="A419" s="188" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="420">
-      <c r="B420" s="193" t="s">
+      <c r="B420" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -19083,46 +19087,46 @@
       <c r="K421" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M421" s="180">
+      <c r="M421" s="181">
         <v>35400</v>
       </c>
-      <c r="N421" s="180"/>
-      <c r="P421" s="180">
+      <c r="N421" s="181"/>
+      <c r="P421" s="181">
         <v>35400</v>
       </c>
-      <c r="Q421" s="180"/>
-      <c r="R421" s="180"/>
-      <c r="S421" s="180">
+      <c r="Q421" s="181"/>
+      <c r="R421" s="181"/>
+      <c r="S421" s="181">
         <v>35400</v>
       </c>
-      <c r="T421" s="181">
-        <v>0</v>
-      </c>
-      <c r="U421" s="179"/>
+      <c r="T421" s="182">
+        <v>0</v>
+      </c>
+      <c r="U421" s="180"/>
     </row>
     <row r="422">
       <c r="A422" s="176" t="s">
         <v>494</v>
       </c>
-      <c r="M422" s="189">
+      <c r="M422" s="190">
         <v>35400</v>
       </c>
-      <c r="P422" s="189">
+      <c r="P422" s="190">
         <v>35400</v>
       </c>
-      <c r="S422" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD422" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE422" s="194">
+      <c r="S422" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD422" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE422" s="195">
         <v>35400</v>
       </c>
-      <c r="AF422" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG422" s="195">
+      <c r="AF422" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG422" s="196">
         <v>0</v>
       </c>
     </row>
@@ -19132,12 +19136,12 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="187" t="s">
+      <c r="A424" s="188" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="425">
-      <c r="B425" s="193" t="s">
+      <c r="B425" s="194" t="s">
         <v>105</v>
       </c>
     </row>
@@ -19148,51 +19152,51 @@
       <c r="K426" s="54">
         <v>5021402000</v>
       </c>
-      <c r="M426" s="180">
+      <c r="M426" s="181">
         <v>187899.33</v>
       </c>
-      <c r="N426" s="180"/>
-      <c r="P426" s="180">
+      <c r="N426" s="181"/>
+      <c r="P426" s="181">
         <v>187899.33</v>
       </c>
-      <c r="Q426" s="180"/>
-      <c r="R426" s="180"/>
-      <c r="S426" s="180">
+      <c r="Q426" s="181"/>
+      <c r="R426" s="181"/>
+      <c r="S426" s="181">
         <v>187899.33</v>
       </c>
-      <c r="T426" s="181">
-        <v>0</v>
-      </c>
-      <c r="U426" s="179"/>
+      <c r="T426" s="182">
+        <v>0</v>
+      </c>
+      <c r="U426" s="180"/>
     </row>
     <row r="427">
       <c r="A427" s="176" t="s">
         <v>496</v>
       </c>
-      <c r="M427" s="189">
+      <c r="M427" s="190">
         <v>187899.33</v>
       </c>
-      <c r="P427" s="189">
+      <c r="P427" s="190">
         <v>187899.33</v>
       </c>
-      <c r="S427" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD427" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE427" s="194">
+      <c r="S427" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD427" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE427" s="195">
         <v>187899.33</v>
       </c>
-      <c r="AF427" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG427" s="195">
+      <c r="AF427" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG427" s="196">
         <v>0</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="176" t="s">
+      <c r="A428" s="177" t="s">
         <v>497</v>
       </c>
     </row>
@@ -19202,7 +19206,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="187" t="s">
+      <c r="A430" s="188" t="s">
         <v>499</v>
       </c>
     </row>
@@ -19210,42 +19214,42 @@
       <c r="C431" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K431" s="178">
+      <c r="K431" s="179">
         <v>5060404003</v>
       </c>
-      <c r="M431" s="180">
+      <c r="M431" s="181">
         <v>39441996.76</v>
       </c>
-      <c r="P431" s="180">
+      <c r="P431" s="181">
         <v>39441996.76</v>
       </c>
-      <c r="Q431" s="180"/>
-      <c r="R431" s="179"/>
-      <c r="S431" s="180">
+      <c r="Q431" s="181"/>
+      <c r="R431" s="180"/>
+      <c r="S431" s="181">
         <v>39441996.76</v>
       </c>
-      <c r="T431" s="181">
-        <v>0</v>
-      </c>
-      <c r="U431" s="180"/>
+      <c r="T431" s="182">
+        <v>0</v>
+      </c>
+      <c r="U431" s="181"/>
     </row>
     <row r="432">
-      <c r="C432" s="187" t="s">
+      <c r="C432" s="188" t="s">
         <v>501</v>
       </c>
-      <c r="M432" s="189">
+      <c r="M432" s="190">
         <v>39441996.76</v>
       </c>
-      <c r="P432" s="189"/>
-      <c r="Q432" s="188"/>
-      <c r="R432" s="188"/>
-      <c r="S432" s="189">
+      <c r="P432" s="190"/>
+      <c r="Q432" s="189"/>
+      <c r="R432" s="189"/>
+      <c r="S432" s="190">
         <v>39441996.76</v>
       </c>
-      <c r="T432" s="190">
-        <v>0</v>
-      </c>
-      <c r="U432" s="189"/>
+      <c r="T432" s="191">
+        <v>0</v>
+      </c>
+      <c r="U432" s="190"/>
     </row>
     <row r="433">
       <c r="A433" s="13" t="s">
@@ -19253,7 +19257,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="187" t="s">
+      <c r="A434" s="188" t="s">
         <v>502</v>
       </c>
     </row>
@@ -19261,42 +19265,42 @@
       <c r="C435" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="K435" s="178">
+      <c r="K435" s="179">
         <v>5060404003</v>
       </c>
-      <c r="M435" s="180">
+      <c r="M435" s="181">
         <v>29753081.88</v>
       </c>
-      <c r="P435" s="180">
+      <c r="P435" s="181">
         <v>29753081.88</v>
       </c>
-      <c r="Q435" s="180"/>
-      <c r="R435" s="179"/>
-      <c r="S435" s="180">
+      <c r="Q435" s="181"/>
+      <c r="R435" s="180"/>
+      <c r="S435" s="181">
         <v>29753081.88</v>
       </c>
-      <c r="T435" s="181">
-        <v>0</v>
-      </c>
-      <c r="U435" s="180"/>
+      <c r="T435" s="182">
+        <v>0</v>
+      </c>
+      <c r="U435" s="181"/>
     </row>
     <row r="436">
-      <c r="C436" s="187" t="s">
+      <c r="C436" s="188" t="s">
         <v>503</v>
       </c>
-      <c r="M436" s="189">
+      <c r="M436" s="190">
         <v>29753081.88</v>
       </c>
-      <c r="P436" s="189"/>
-      <c r="Q436" s="188"/>
-      <c r="R436" s="188"/>
-      <c r="S436" s="189">
+      <c r="P436" s="190"/>
+      <c r="Q436" s="189"/>
+      <c r="R436" s="189"/>
+      <c r="S436" s="190">
         <v>29753081.88</v>
       </c>
-      <c r="T436" s="190">
-        <v>0</v>
-      </c>
-      <c r="U436" s="189"/>
+      <c r="T436" s="191">
+        <v>0</v>
+      </c>
+      <c r="U436" s="190"/>
     </row>
     <row r="437">
       <c r="A437" s="13" t="s">
@@ -19304,7 +19308,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="187" t="s">
+      <c r="A438" s="188" t="s">
         <v>504</v>
       </c>
     </row>
@@ -19312,62 +19316,62 @@
       <c r="C439" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="K439" s="178">
+      <c r="K439" s="179">
         <v>5060405011</v>
       </c>
-      <c r="M439" s="180">
+      <c r="M439" s="181">
         <v>500000</v>
       </c>
-      <c r="P439" s="180">
+      <c r="P439" s="181">
         <v>500000</v>
       </c>
-      <c r="Q439" s="180"/>
-      <c r="R439" s="179"/>
-      <c r="S439" s="180">
+      <c r="Q439" s="181"/>
+      <c r="R439" s="180"/>
+      <c r="S439" s="181">
         <v>500000</v>
       </c>
-      <c r="T439" s="181">
-        <v>0</v>
-      </c>
-      <c r="U439" s="180"/>
+      <c r="T439" s="182">
+        <v>0</v>
+      </c>
+      <c r="U439" s="181"/>
     </row>
     <row r="440">
-      <c r="C440" s="187" t="s">
+      <c r="C440" s="188" t="s">
         <v>505</v>
       </c>
-      <c r="M440" s="189">
+      <c r="M440" s="190">
         <v>500000</v>
       </c>
-      <c r="P440" s="189"/>
-      <c r="Q440" s="188"/>
-      <c r="R440" s="188"/>
-      <c r="S440" s="189">
+      <c r="P440" s="190"/>
+      <c r="Q440" s="189"/>
+      <c r="R440" s="189"/>
+      <c r="S440" s="190">
         <v>500000</v>
       </c>
-      <c r="T440" s="190">
-        <v>0</v>
-      </c>
-      <c r="U440" s="189"/>
+      <c r="T440" s="191">
+        <v>0</v>
+      </c>
+      <c r="U440" s="190"/>
     </row>
     <row r="441">
-      <c r="J441" s="191" t="s">
+      <c r="J441" s="192" t="s">
         <v>506</v>
       </c>
-      <c r="M441" s="188">
+      <c r="M441" s="189">
         <v>69695078.64</v>
       </c>
-      <c r="P441" s="189">
+      <c r="P441" s="190">
         <v>69695078.64</v>
       </c>
-      <c r="Q441" s="188"/>
-      <c r="R441" s="188"/>
-      <c r="S441" s="189">
+      <c r="Q441" s="189"/>
+      <c r="R441" s="189"/>
+      <c r="S441" s="190">
         <v>69695078.64</v>
       </c>
-      <c r="T441" s="190">
-        <v>0</v>
-      </c>
-      <c r="U441" s="189">
+      <c r="T441" s="191">
+        <v>0</v>
+      </c>
+      <c r="U441" s="190">
         <v>0</v>
       </c>
     </row>
@@ -19382,12 +19386,12 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="187" t="s">
+      <c r="A445" s="188" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="446">
-      <c r="B446" s="193" t="s">
+      <c r="B446" s="194" t="s">
         <v>509</v>
       </c>
     </row>
@@ -19398,46 +19402,46 @@
       <c r="K447" s="54">
         <v>5060405003</v>
       </c>
-      <c r="M447" s="180">
+      <c r="M447" s="181">
         <v>343737.85</v>
       </c>
-      <c r="N447" s="180"/>
-      <c r="P447" s="180">
+      <c r="N447" s="181"/>
+      <c r="P447" s="181">
         <v>343737.85</v>
       </c>
-      <c r="Q447" s="180"/>
-      <c r="R447" s="180"/>
-      <c r="S447" s="180">
+      <c r="Q447" s="181"/>
+      <c r="R447" s="181"/>
+      <c r="S447" s="181">
         <v>343737.85</v>
       </c>
-      <c r="T447" s="181">
-        <v>0</v>
-      </c>
-      <c r="U447" s="179"/>
+      <c r="T447" s="182">
+        <v>0</v>
+      </c>
+      <c r="U447" s="180"/>
     </row>
     <row r="448">
       <c r="A448" s="176" t="s">
         <v>511</v>
       </c>
-      <c r="M448" s="189">
+      <c r="M448" s="190">
         <v>343737.85</v>
       </c>
-      <c r="P448" s="189">
+      <c r="P448" s="190">
         <v>343737.85</v>
       </c>
-      <c r="S448" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD448" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE448" s="194">
+      <c r="S448" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD448" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE448" s="195">
         <v>343737.85</v>
       </c>
-      <c r="AF448" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG448" s="195">
+      <c r="AF448" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG448" s="196">
         <v>0</v>
       </c>
     </row>
@@ -19447,12 +19451,12 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="187" t="s">
+      <c r="A450" s="188" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="451">
-      <c r="B451" s="193" t="s">
+      <c r="B451" s="194" t="s">
         <v>513</v>
       </c>
     </row>
@@ -19463,22 +19467,22 @@
       <c r="K452" s="54">
         <v>5060404003</v>
       </c>
-      <c r="M452" s="180">
+      <c r="M452" s="181">
         <v>355538.49</v>
       </c>
-      <c r="N452" s="180"/>
-      <c r="P452" s="180">
+      <c r="N452" s="181"/>
+      <c r="P452" s="181">
         <v>355538.49</v>
       </c>
-      <c r="Q452" s="180"/>
-      <c r="R452" s="180"/>
-      <c r="S452" s="180">
+      <c r="Q452" s="181"/>
+      <c r="R452" s="181"/>
+      <c r="S452" s="181">
         <v>355538.49</v>
       </c>
-      <c r="T452" s="181">
-        <v>0</v>
-      </c>
-      <c r="U452" s="179"/>
+      <c r="T452" s="182">
+        <v>0</v>
+      </c>
+      <c r="U452" s="180"/>
     </row>
     <row r="453">
       <c r="C453" s="13" t="s">
@@ -19487,51 +19491,51 @@
       <c r="K453" s="54">
         <v>5060405011</v>
       </c>
-      <c r="M453" s="180">
+      <c r="M453" s="181">
         <v>2647984</v>
       </c>
-      <c r="N453" s="180"/>
-      <c r="P453" s="180">
+      <c r="N453" s="181"/>
+      <c r="P453" s="181">
         <v>2647984</v>
       </c>
-      <c r="Q453" s="180"/>
-      <c r="R453" s="180"/>
-      <c r="S453" s="180">
+      <c r="Q453" s="181"/>
+      <c r="R453" s="181"/>
+      <c r="S453" s="181">
         <v>2647984</v>
       </c>
-      <c r="T453" s="181">
-        <v>0</v>
-      </c>
-      <c r="U453" s="179"/>
+      <c r="T453" s="182">
+        <v>0</v>
+      </c>
+      <c r="U453" s="180"/>
     </row>
     <row r="454">
       <c r="A454" s="176" t="s">
         <v>514</v>
       </c>
-      <c r="M454" s="189">
+      <c r="M454" s="190">
         <v>3003522.49</v>
       </c>
-      <c r="P454" s="189">
+      <c r="P454" s="190">
         <v>3003522.49</v>
       </c>
-      <c r="S454" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD454" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE454" s="194">
+      <c r="S454" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD454" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE454" s="195">
         <v>3003522.49</v>
       </c>
-      <c r="AF454" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG454" s="195">
+      <c r="AF454" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG454" s="196">
         <v>0</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="176" t="s">
+      <c r="A455" s="177" t="s">
         <v>515</v>
       </c>
     </row>
@@ -19541,7 +19545,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="187" t="s">
+      <c r="A457" s="188" t="s">
         <v>516</v>
       </c>
     </row>
@@ -19549,534 +19553,523 @@
       <c r="C458" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="K458" s="178">
+      <c r="K458" s="179">
         <v>5010101001</v>
       </c>
-      <c r="M458" s="180"/>
-      <c r="P458" s="179"/>
-      <c r="Q458" s="180">
-        <v>2700</v>
-      </c>
-      <c r="R458" s="180">
-        <v>2700</v>
-      </c>
-      <c r="S458" s="192">
-        <v>2700</v>
-      </c>
-      <c r="T458" s="181" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="U458" s="180">
-        <v>600</v>
-      </c>
+      <c r="M458" s="181"/>
+      <c r="P458" s="180"/>
+      <c r="Q458" s="181"/>
+      <c r="R458" s="180"/>
+      <c r="S458" s="180"/>
+      <c r="T458" s="182">
+        <v/>
+      </c>
+      <c r="U458" s="181"/>
     </row>
     <row r="459">
       <c r="C459" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="K459" s="178">
+      <c r="K459" s="179">
         <v>5010102000</v>
       </c>
-      <c r="M459" s="180"/>
-      <c r="N459" s="180">
+      <c r="M459" s="181"/>
+      <c r="N459" s="181">
         <v>2000</v>
       </c>
-      <c r="P459" s="180">
+      <c r="P459" s="181">
         <v>2000</v>
       </c>
-      <c r="Q459" s="180">
-        <v>6000</v>
-      </c>
-      <c r="R459" s="180">
-        <v>6000</v>
-      </c>
-      <c r="S459" s="192">
-        <v>4000</v>
-      </c>
-      <c r="T459" s="181">
-        <v>3</v>
-      </c>
-      <c r="U459" s="180">
-        <v>6000</v>
-      </c>
+      <c r="Q459" s="181"/>
+      <c r="R459" s="180"/>
+      <c r="S459" s="181">
+        <v>2000</v>
+      </c>
+      <c r="T459" s="182">
+        <v>0</v>
+      </c>
+      <c r="U459" s="181"/>
     </row>
     <row r="460">
       <c r="C460" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="K460" s="178">
+      <c r="K460" s="179">
         <v>5010201001</v>
       </c>
-      <c r="M460" s="180"/>
-      <c r="P460" s="179"/>
-      <c r="Q460" s="180"/>
-      <c r="R460" s="179"/>
-      <c r="S460" s="179"/>
-      <c r="T460" s="181">
+      <c r="M460" s="181"/>
+      <c r="P460" s="180"/>
+      <c r="Q460" s="181"/>
+      <c r="R460" s="180"/>
+      <c r="S460" s="180"/>
+      <c r="T460" s="182">
         <v/>
       </c>
-      <c r="U460" s="180"/>
+      <c r="U460" s="181"/>
     </row>
     <row r="461">
       <c r="C461" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="K461" s="178">
+      <c r="K461" s="179">
         <v>5010202000</v>
       </c>
-      <c r="M461" s="180">
+      <c r="M461" s="181">
         <v>50000</v>
       </c>
-      <c r="N461" s="192">
+      <c r="N461" s="193">
         <v>2000</v>
       </c>
-      <c r="P461" s="180">
+      <c r="P461" s="181">
         <v>48000</v>
       </c>
-      <c r="Q461" s="180">
-        <v>15000</v>
-      </c>
-      <c r="R461" s="180">
-        <v>15000</v>
-      </c>
-      <c r="S461" s="180">
-        <v>33000</v>
-      </c>
-      <c r="T461" s="181">
-        <v>0</v>
-      </c>
-      <c r="U461" s="180"/>
+      <c r="Q461" s="181"/>
+      <c r="R461" s="180"/>
+      <c r="S461" s="181">
+        <v>48000</v>
+      </c>
+      <c r="T461" s="182">
+        <v>0</v>
+      </c>
+      <c r="U461" s="181"/>
     </row>
     <row r="462">
       <c r="C462" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="K462" s="178">
+      <c r="K462" s="179">
         <v>5010203001</v>
       </c>
-      <c r="M462" s="180"/>
-      <c r="P462" s="179"/>
-      <c r="Q462" s="180"/>
-      <c r="R462" s="179"/>
-      <c r="S462" s="179"/>
-      <c r="T462" s="181">
+      <c r="M462" s="181"/>
+      <c r="P462" s="180"/>
+      <c r="Q462" s="181"/>
+      <c r="R462" s="180"/>
+      <c r="S462" s="180"/>
+      <c r="T462" s="182">
         <v/>
       </c>
-      <c r="U462" s="180"/>
+      <c r="U462" s="181"/>
     </row>
     <row r="463">
       <c r="C463" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="K463" s="178">
+      <c r="K463" s="179">
         <v>5010204001</v>
       </c>
-      <c r="M463" s="180"/>
-      <c r="P463" s="179"/>
-      <c r="Q463" s="180"/>
-      <c r="R463" s="179"/>
-      <c r="S463" s="179"/>
-      <c r="T463" s="181">
+      <c r="M463" s="181"/>
+      <c r="P463" s="180"/>
+      <c r="Q463" s="181"/>
+      <c r="R463" s="180"/>
+      <c r="S463" s="180"/>
+      <c r="T463" s="182">
         <v/>
       </c>
-      <c r="U463" s="180"/>
+      <c r="U463" s="181"/>
     </row>
     <row r="464">
-      <c r="C464" s="187" t="s">
+      <c r="C464" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="M464" s="189">
+      <c r="K464" s="179">
+        <v>5010207004</v>
+      </c>
+      <c r="M464" s="181"/>
+      <c r="P464" s="180"/>
+      <c r="Q464" s="181"/>
+      <c r="R464" s="180"/>
+      <c r="S464" s="180"/>
+      <c r="T464" s="182">
+        <v/>
+      </c>
+      <c r="U464" s="181"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="188" t="s">
+        <v>520</v>
+      </c>
+      <c r="M465" s="190">
         <v>50000</v>
       </c>
-      <c r="P464" s="189">
-        <v>23700</v>
-      </c>
-      <c r="Q464" s="188"/>
-      <c r="R464" s="189">
-        <v>23700</v>
-      </c>
-      <c r="S464" s="189">
-        <v>26300</v>
-      </c>
-      <c r="T464" s="190">
-        <v>0.132</v>
-      </c>
-      <c r="U464" s="189">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="J465" s="191" t="s">
-        <v>520</v>
-      </c>
-      <c r="M465" s="188">
+      <c r="P465" s="190"/>
+      <c r="Q465" s="189"/>
+      <c r="R465" s="189"/>
+      <c r="S465" s="190">
         <v>50000</v>
       </c>
-      <c r="P465" s="189">
+      <c r="T465" s="191">
+        <v>0</v>
+      </c>
+      <c r="U465" s="190"/>
+    </row>
+    <row r="466">
+      <c r="J466" s="192" t="s">
+        <v>521</v>
+      </c>
+      <c r="M466" s="189">
         <v>50000</v>
       </c>
-      <c r="Q465" s="189">
-        <v>23700</v>
-      </c>
-      <c r="R465" s="189">
-        <v>23700</v>
-      </c>
-      <c r="S465" s="189">
-        <v>26300</v>
-      </c>
-      <c r="T465" s="190">
-        <v>0.132</v>
-      </c>
-      <c r="U465" s="189">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="176" t="s">
-        <v>521</v>
+      <c r="P466" s="190">
+        <v>50000</v>
+      </c>
+      <c r="Q466" s="189"/>
+      <c r="R466" s="189"/>
+      <c r="S466" s="190">
+        <v>50000</v>
+      </c>
+      <c r="T466" s="191">
+        <v>0</v>
+      </c>
+      <c r="U466" s="190">
+        <v>0</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="13" t="s">
+      <c r="A468" s="176" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="187" t="s">
-        <v>522</v>
-      </c>
-    </row>
     <row r="470">
-      <c r="B470" s="193" t="s">
+      <c r="A470" s="188" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="471">
-      <c r="C471" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="K471" s="54">
-        <v>5010101001</v>
-      </c>
-      <c r="M471" s="180">
-        <v>50000</v>
-      </c>
-      <c r="N471" s="192">
-        <v>1000</v>
-      </c>
-      <c r="P471" s="180">
-        <v>49000</v>
-      </c>
-      <c r="Q471" s="180"/>
-      <c r="R471" s="180"/>
-      <c r="S471" s="180">
-        <v>49000</v>
-      </c>
-      <c r="T471" s="181">
-        <v>0</v>
-      </c>
-      <c r="U471" s="179"/>
+      <c r="B471" s="194" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="472">
       <c r="C472" s="13" t="s">
-        <v>517</v>
+        <v>303</v>
       </c>
       <c r="K472" s="54">
-        <v>5010102000</v>
-      </c>
-      <c r="M472" s="180"/>
-      <c r="N472" s="180"/>
-      <c r="P472" s="180"/>
-      <c r="Q472" s="180"/>
-      <c r="R472" s="180"/>
-      <c r="S472" s="179"/>
-      <c r="T472" s="181">
-        <v/>
-      </c>
-      <c r="U472" s="179"/>
+        <v>5010101001</v>
+      </c>
+      <c r="M472" s="181">
+        <v>50000</v>
+      </c>
+      <c r="N472" s="193">
+        <v>1000</v>
+      </c>
+      <c r="P472" s="181">
+        <v>49000</v>
+      </c>
+      <c r="Q472" s="181"/>
+      <c r="R472" s="181"/>
+      <c r="S472" s="181">
+        <v>49000</v>
+      </c>
+      <c r="T472" s="182">
+        <v>0</v>
+      </c>
+      <c r="U472" s="180"/>
     </row>
     <row r="473">
       <c r="C473" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="K473" s="54">
+        <v>5010102000</v>
+      </c>
+      <c r="M473" s="181"/>
+      <c r="N473" s="181"/>
+      <c r="P473" s="181"/>
+      <c r="Q473" s="181"/>
+      <c r="R473" s="181"/>
+      <c r="S473" s="180"/>
+      <c r="T473" s="182">
+        <v/>
+      </c>
+      <c r="U473" s="180"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="K473" s="54">
+      <c r="K474" s="54">
         <v>5010201001</v>
       </c>
-      <c r="M473" s="180"/>
-      <c r="N473" s="180">
+      <c r="M474" s="181"/>
+      <c r="N474" s="181">
         <v>1000</v>
       </c>
-      <c r="P473" s="180">
+      <c r="P474" s="181">
         <v>1000</v>
       </c>
-      <c r="Q473" s="180"/>
-      <c r="R473" s="180"/>
-      <c r="S473" s="180">
+      <c r="Q474" s="181"/>
+      <c r="R474" s="181"/>
+      <c r="S474" s="181">
         <v>1000</v>
       </c>
-      <c r="T473" s="181">
-        <v>0</v>
-      </c>
-      <c r="U473" s="179"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="176" t="s">
-        <v>524</v>
-      </c>
-      <c r="M474" s="189">
+      <c r="T474" s="182">
+        <v>0</v>
+      </c>
+      <c r="U474" s="180"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="176" t="s">
+        <v>525</v>
+      </c>
+      <c r="M475" s="190">
         <v>50000</v>
       </c>
-      <c r="P474" s="189">
+      <c r="P475" s="190">
         <v>50000</v>
       </c>
-      <c r="S474" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD474" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE474" s="194">
+      <c r="S475" s="190">
+        <v>0</v>
+      </c>
+      <c r="AD475" s="195">
+        <v>0</v>
+      </c>
+      <c r="AE475" s="195">
         <v>50000</v>
       </c>
-      <c r="AF474" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG474" s="195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="B476" s="196" t="s">
+      <c r="AF475" s="195">
+        <v>0</v>
+      </c>
+      <c r="AG475" s="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="B477" s="197" t="s">
         <v>320</v>
       </c>
-      <c r="M476" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="P476" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q476" s="189" t="s">
+      <c r="M477" s="190" t="s">
         <v>526</v>
       </c>
-      <c r="R476" s="189" t="s">
+      <c r="P477" s="190" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q477" s="190" t="s">
         <v>527</v>
       </c>
-      <c r="S476" s="189" t="s">
+      <c r="R477" s="190" t="s">
         <v>528</v>
       </c>
-      <c r="T476" s="190">
-        <v>0</v>
-      </c>
-      <c r="U476" s="189" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="B477" s="196" t="s">
+      <c r="S477" s="190" t="s">
+        <v>529</v>
+      </c>
+      <c r="T477" s="191">
+        <v>0</v>
+      </c>
+      <c r="U477" s="190" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="B478" s="197" t="s">
         <v>356</v>
       </c>
-      <c r="M477" s="189" t="s">
-        <v>529</v>
-      </c>
-      <c r="P477" s="189" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q477" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="R477" s="189" t="s">
+      <c r="M478" s="190" t="s">
         <v>530</v>
       </c>
-      <c r="S477" s="189" t="s">
+      <c r="P478" s="190" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q478" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="R478" s="190" t="s">
         <v>531</v>
       </c>
-      <c r="T477" s="190">
+      <c r="S478" s="190" t="s">
+        <v>532</v>
+      </c>
+      <c r="T478" s="191">
         <v>2.092303682135526E-05</v>
       </c>
-      <c r="U477" s="189" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="B478" s="196" t="s">
+      <c r="U478" s="190" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" s="197" t="s">
         <v>393</v>
       </c>
-      <c r="M478" s="189" t="s">
-        <v>533</v>
-      </c>
-      <c r="P478" s="189" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q478" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="R478" s="189" t="s">
+      <c r="M479" s="190" t="s">
         <v>534</v>
       </c>
-      <c r="S478" s="189" t="s">
+      <c r="P479" s="190" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q479" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="R479" s="190" t="s">
         <v>535</v>
       </c>
-      <c r="T478" s="190">
+      <c r="S479" s="190" t="s">
+        <v>536</v>
+      </c>
+      <c r="T479" s="191">
         <v>2.4379364133934558E-05</v>
       </c>
-      <c r="U478" s="189" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="B479" s="196" t="s">
+      <c r="U479" s="190" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="B480" s="197" t="s">
         <v>506</v>
       </c>
-      <c r="M479" s="189" t="s">
-        <v>537</v>
-      </c>
-      <c r="P479" s="189" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q479" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="R479" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="S479" s="189" t="s">
-        <v>537</v>
-      </c>
-      <c r="T479" s="190">
-        <v>0</v>
-      </c>
-      <c r="U479" s="189" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="B480" s="196" t="s">
-        <v>520</v>
-      </c>
-      <c r="M480" s="189" t="s">
+      <c r="M480" s="190" t="s">
         <v>538</v>
       </c>
-      <c r="P480" s="189" t="s">
+      <c r="P480" s="190" t="s">
         <v>538</v>
       </c>
-      <c r="Q480" s="189" t="s">
+      <c r="Q480" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="R480" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="S480" s="190" t="s">
+        <v>538</v>
+      </c>
+      <c r="T480" s="191">
+        <v>0</v>
+      </c>
+      <c r="U480" s="190" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="B481" s="197" t="s">
+        <v>521</v>
+      </c>
+      <c r="M481" s="190" t="s">
         <v>539</v>
       </c>
-      <c r="R480" s="189" t="s">
+      <c r="P481" s="190" t="s">
         <v>539</v>
       </c>
-      <c r="S480" s="189" t="s">
+      <c r="Q481" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="R481" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="S481" s="190" t="s">
+        <v>539</v>
+      </c>
+      <c r="T481" s="191">
+        <v>0</v>
+      </c>
+      <c r="U481" s="190" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="B482" s="197" t="s">
         <v>540</v>
       </c>
-      <c r="T480" s="190">
-        <v>0.132</v>
-      </c>
-      <c r="U480" s="189" t="s">
+      <c r="M482" s="190" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="481">
-      <c r="B481" s="196" t="s">
+      <c r="P482" s="190" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q482" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="R482" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="S482" s="190" t="s">
+        <v>541</v>
+      </c>
+      <c r="T482" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="U482" s="190" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="B483" s="197" t="s">
         <v>542</v>
       </c>
-      <c r="M481" s="189" t="s">
+      <c r="M483" s="190" t="s">
         <v>543</v>
       </c>
-      <c r="P481" s="189" t="s">
+      <c r="P483" s="190" t="s">
         <v>543</v>
       </c>
-      <c r="Q481" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="R481" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="S481" s="189" t="s">
-        <v>543</v>
-      </c>
-      <c r="T481" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="U481" s="189" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="B482" s="196" t="s">
+      <c r="Q483" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="R483" s="190" t="s">
         <v>544</v>
       </c>
-      <c r="M482" s="189" t="s">
+      <c r="S483" s="190" t="s">
         <v>545</v>
       </c>
-      <c r="P482" s="189" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q482" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="R482" s="189" t="s">
+      <c r="T483" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="U483" s="190" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="B484" s="197" t="s">
         <v>546</v>
       </c>
-      <c r="S482" s="189" t="s">
+      <c r="M484" s="190" t="s">
         <v>547</v>
       </c>
-      <c r="T482" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="U482" s="189" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="B483" s="196" t="s">
+      <c r="P484" s="190" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q484" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="R484" s="190" t="s">
+        <v>544</v>
+      </c>
+      <c r="S484" s="190" t="s">
         <v>548</v>
       </c>
-      <c r="M483" s="189" t="s">
+      <c r="T484" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="U484" s="190" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="B485" s="197" t="s">
         <v>549</v>
       </c>
-      <c r="P483" s="189" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q483" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="R483" s="189" t="s">
-        <v>546</v>
-      </c>
-      <c r="S483" s="189" t="s">
+      <c r="M485" s="190" t="s">
         <v>550</v>
       </c>
-      <c r="T483" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="U483" s="189" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="B484" s="196" t="s">
+      <c r="P485" s="190" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q485" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="R485" s="190" t="s">
+        <v>544</v>
+      </c>
+      <c r="S485" s="190" t="s">
         <v>551</v>
       </c>
-      <c r="M484" s="189" t="s">
-        <v>552</v>
-      </c>
-      <c r="P484" s="189" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q484" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="R484" s="189" t="s">
-        <v>546</v>
-      </c>
-      <c r="S484" s="189" t="s">
-        <v>553</v>
-      </c>
-      <c r="T484" s="189" t="s">
-        <v>526</v>
-      </c>
-      <c r="U484" s="189" t="s">
-        <v>526</v>
+      <c r="T485" s="190" t="s">
+        <v>527</v>
+      </c>
+      <c r="U485" s="190" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="516"/>
@@ -20157,7 +20150,7 @@
     <mergeCell ref="C432:J432"/>
     <mergeCell ref="C436:J436"/>
     <mergeCell ref="C440:J440"/>
-    <mergeCell ref="C464:J464"/>
+    <mergeCell ref="C465:J465"/>
   </mergeCells>
   <conditionalFormatting sqref="Y13:Z13">
     <cfRule type="uniqueValues" dxfId="5" priority="162"/>

--- a/BUDGET/excel_reports/SAOB_NEW2.xlsx
+++ b/BUDGET/excel_reports/SAOB_NEW2.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="553">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -1609,6 +1609,9 @@
     <t>TEST FUND SOURCE</t>
   </si>
   <si>
+    <t>CLOTHING/UNIFORM ALLOWANCE- CIVILIAN</t>
+  </si>
+  <si>
     <t>SUBTOTAL TEST FUND SOURCE - TEST</t>
   </si>
   <si>
@@ -1669,10 +1672,10 @@
     <t>50,000.00</t>
   </si>
   <si>
-    <t>50,500.00</t>
+    <t>500.00</t>
   </si>
   <si>
-    <t>2,500.00</t>
+    <t>49,500.00</t>
   </si>
   <si>
     <t>TOTAL SAA 2019 MOOE</t>
@@ -2115,7 +2118,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="197">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -2577,9 +2580,6 @@
     </xf>
     <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
@@ -3110,7 +3110,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TH483"/>
+  <dimension ref="A1:TH485"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="14" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
@@ -19574,9 +19574,15 @@
       </c>
       <c r="M459" s="180"/>
       <c r="P459" s="179"/>
-      <c r="Q459" s="180"/>
-      <c r="R459" s="179"/>
-      <c r="S459" s="179"/>
+      <c r="Q459" s="180">
+        <v>500</v>
+      </c>
+      <c r="R459" s="180">
+        <v>500</v>
+      </c>
+      <c r="S459" s="192">
+        <v>500</v>
+      </c>
       <c r="T459" s="181">
         <v/>
       </c>
@@ -19596,469 +19602,487 @@
       <c r="P460" s="180">
         <v>2000</v>
       </c>
-      <c r="Q460" s="180">
-        <v>50000</v>
-      </c>
-      <c r="R460" s="180">
-        <v>50000</v>
-      </c>
-      <c r="S460" s="192">
-        <v>48000</v>
+      <c r="Q460" s="180"/>
+      <c r="R460" s="179"/>
+      <c r="S460" s="180">
+        <v>2000</v>
       </c>
       <c r="T460" s="181">
-        <v>0.5</v>
-      </c>
-      <c r="U460" s="180">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U460" s="180"/>
     </row>
     <row r="461">
       <c r="C461" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K461" s="178">
-        <v>5010202000</v>
-      </c>
-      <c r="M461" s="180">
-        <v>50000</v>
-      </c>
-      <c r="N461" s="192">
-        <v>2000</v>
-      </c>
-      <c r="P461" s="180">
-        <v>48000</v>
-      </c>
+        <v>5010201001</v>
+      </c>
+      <c r="M461" s="180"/>
+      <c r="P461" s="179"/>
       <c r="Q461" s="180"/>
       <c r="R461" s="179"/>
-      <c r="S461" s="180">
-        <v>48000</v>
-      </c>
+      <c r="S461" s="179"/>
       <c r="T461" s="181">
-        <v>0.03125</v>
-      </c>
-      <c r="U461" s="180">
-        <v>1500</v>
-      </c>
+        <v/>
+      </c>
+      <c r="U461" s="180"/>
     </row>
     <row r="462">
       <c r="C462" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K462" s="178">
+        <v>5010202000</v>
+      </c>
+      <c r="M462" s="180">
+        <v>50000</v>
+      </c>
+      <c r="N462" s="192">
+        <v>2000</v>
+      </c>
+      <c r="P462" s="180">
+        <v>48000</v>
+      </c>
+      <c r="Q462" s="180"/>
+      <c r="R462" s="179"/>
+      <c r="S462" s="180">
+        <v>48000</v>
+      </c>
+      <c r="T462" s="181">
+        <v>0</v>
+      </c>
+      <c r="U462" s="180"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="K462" s="178">
+      <c r="K463" s="178">
         <v>5010203001</v>
       </c>
-      <c r="M462" s="180"/>
-      <c r="P462" s="179"/>
-      <c r="Q462" s="180">
+      <c r="M463" s="180"/>
+      <c r="P463" s="179"/>
+      <c r="Q463" s="180"/>
+      <c r="R463" s="179"/>
+      <c r="S463" s="179"/>
+      <c r="T463" s="181">
+        <v/>
+      </c>
+      <c r="U463" s="180"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="K464" s="178">
+        <v>5010204001</v>
+      </c>
+      <c r="M464" s="180"/>
+      <c r="P464" s="179"/>
+      <c r="Q464" s="180"/>
+      <c r="R464" s="179"/>
+      <c r="S464" s="179"/>
+      <c r="T464" s="181">
+        <v/>
+      </c>
+      <c r="U464" s="180"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="187" t="s">
+        <v>519</v>
+      </c>
+      <c r="M465" s="189">
+        <v>50000</v>
+      </c>
+      <c r="P465" s="189">
         <v>500</v>
       </c>
-      <c r="R462" s="180">
+      <c r="Q465" s="188"/>
+      <c r="R465" s="189">
         <v>500</v>
       </c>
-      <c r="S462" s="192">
+      <c r="S465" s="189">
+        <v>49500</v>
+      </c>
+      <c r="T465" s="190">
+        <v>0</v>
+      </c>
+      <c r="U465" s="189"/>
+    </row>
+    <row r="466">
+      <c r="J466" s="191" t="s">
+        <v>520</v>
+      </c>
+      <c r="M466" s="188">
+        <v>50000</v>
+      </c>
+      <c r="P466" s="189">
+        <v>50000</v>
+      </c>
+      <c r="Q466" s="189">
         <v>500</v>
       </c>
-      <c r="T462" s="181">
-        <v/>
-      </c>
-      <c r="U462" s="180"/>
-    </row>
-    <row r="463">
-      <c r="C463" s="187" t="s">
-        <v>518</v>
-      </c>
-      <c r="M463" s="189">
-        <v>50000</v>
-      </c>
-      <c r="P463" s="189">
-        <v>50500</v>
-      </c>
-      <c r="Q463" s="188"/>
-      <c r="R463" s="189">
-        <v>50500</v>
-      </c>
-      <c r="S463" s="196">
+      <c r="R466" s="189">
         <v>500</v>
       </c>
-      <c r="T463" s="190">
-        <v>0.05</v>
-      </c>
-      <c r="U463" s="189">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="J464" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="M464" s="188">
-        <v>50000</v>
-      </c>
-      <c r="P464" s="189">
-        <v>50000</v>
-      </c>
-      <c r="Q464" s="189">
-        <v>50500</v>
-      </c>
-      <c r="R464" s="189">
-        <v>50500</v>
-      </c>
-      <c r="S464" s="196">
-        <v>500</v>
-      </c>
-      <c r="T464" s="190">
-        <v>0.05</v>
-      </c>
-      <c r="U464" s="189">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="176" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="13" t="s">
+      <c r="S466" s="189">
+        <v>49500</v>
+      </c>
+      <c r="T466" s="190">
+        <v>0</v>
+      </c>
+      <c r="U466" s="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="176" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="13" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="187" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="B469" s="193" t="s">
+    <row r="470">
+      <c r="A470" s="187" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="470">
-      <c r="C470" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="K470" s="54">
-        <v>5010101001</v>
-      </c>
-      <c r="M470" s="180">
-        <v>50000</v>
-      </c>
-      <c r="N470" s="192">
-        <v>1000</v>
-      </c>
-      <c r="P470" s="180">
-        <v>49000</v>
-      </c>
-      <c r="Q470" s="180"/>
-      <c r="R470" s="180"/>
-      <c r="S470" s="180">
-        <v>49000</v>
-      </c>
-      <c r="T470" s="181">
-        <v>0</v>
-      </c>
-      <c r="U470" s="179"/>
-    </row>
     <row r="471">
-      <c r="C471" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="K471" s="54">
-        <v>5010102000</v>
-      </c>
-      <c r="M471" s="180"/>
-      <c r="N471" s="180"/>
-      <c r="P471" s="180"/>
-      <c r="Q471" s="180"/>
-      <c r="R471" s="180"/>
-      <c r="S471" s="179"/>
-      <c r="T471" s="181">
-        <v/>
-      </c>
-      <c r="U471" s="179"/>
+      <c r="B471" s="193" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="472">
       <c r="C472" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K472" s="54">
-        <v>5010201001</v>
-      </c>
-      <c r="M472" s="180"/>
-      <c r="N472" s="180">
+        <v>5010101001</v>
+      </c>
+      <c r="M472" s="180">
+        <v>50000</v>
+      </c>
+      <c r="N472" s="192">
         <v>1000</v>
       </c>
       <c r="P472" s="180">
-        <v>1000</v>
+        <v>49000</v>
       </c>
       <c r="Q472" s="180"/>
       <c r="R472" s="180"/>
       <c r="S472" s="180">
+        <v>49000</v>
+      </c>
+      <c r="T472" s="181">
+        <v>0</v>
+      </c>
+      <c r="U472" s="179"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="K473" s="54">
+        <v>5010102000</v>
+      </c>
+      <c r="M473" s="180"/>
+      <c r="N473" s="180"/>
+      <c r="P473" s="180"/>
+      <c r="Q473" s="180"/>
+      <c r="R473" s="180"/>
+      <c r="S473" s="179"/>
+      <c r="T473" s="181">
+        <v/>
+      </c>
+      <c r="U473" s="179"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="K474" s="54">
+        <v>5010201001</v>
+      </c>
+      <c r="M474" s="180"/>
+      <c r="N474" s="180">
         <v>1000</v>
       </c>
-      <c r="T472" s="181">
-        <v>0</v>
-      </c>
-      <c r="U472" s="179"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="176" t="s">
-        <v>523</v>
-      </c>
-      <c r="M473" s="189">
+      <c r="P474" s="180">
+        <v>1000</v>
+      </c>
+      <c r="Q474" s="180"/>
+      <c r="R474" s="180"/>
+      <c r="S474" s="180">
+        <v>1000</v>
+      </c>
+      <c r="T474" s="181">
+        <v>0</v>
+      </c>
+      <c r="U474" s="179"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="176" t="s">
+        <v>524</v>
+      </c>
+      <c r="M475" s="189">
         <v>50000</v>
       </c>
-      <c r="P473" s="189">
+      <c r="P475" s="189">
         <v>50000</v>
       </c>
-      <c r="S473" s="189">
-        <v>0</v>
-      </c>
-      <c r="AD473" s="194">
-        <v>0</v>
-      </c>
-      <c r="AE473" s="194">
+      <c r="S475" s="189">
+        <v>0</v>
+      </c>
+      <c r="AD475" s="194">
+        <v>0</v>
+      </c>
+      <c r="AE475" s="194">
         <v>50000</v>
       </c>
-      <c r="AF473" s="194">
-        <v>0</v>
-      </c>
-      <c r="AG473" s="195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="B475" s="197" t="s">
+      <c r="AF475" s="194">
+        <v>0</v>
+      </c>
+      <c r="AG475" s="195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="B477" s="196" t="s">
         <v>321</v>
       </c>
-      <c r="M475" s="189" t="s">
-        <v>524</v>
-      </c>
-      <c r="P475" s="189" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q475" s="189" t="s">
+      <c r="M477" s="189" t="s">
         <v>525</v>
       </c>
-      <c r="R475" s="189" t="s">
+      <c r="P477" s="189" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q477" s="189" t="s">
         <v>526</v>
       </c>
-      <c r="S475" s="189" t="s">
+      <c r="R477" s="189" t="s">
         <v>527</v>
       </c>
-      <c r="T475" s="190">
-        <v>0</v>
-      </c>
-      <c r="U475" s="189" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="B476" s="197" t="s">
+      <c r="S477" s="189" t="s">
+        <v>528</v>
+      </c>
+      <c r="T477" s="190">
+        <v>0</v>
+      </c>
+      <c r="U477" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="B478" s="196" t="s">
         <v>357</v>
       </c>
-      <c r="M476" s="189" t="s">
-        <v>528</v>
-      </c>
-      <c r="P476" s="189" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q476" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="R476" s="189" t="s">
+      <c r="M478" s="189" t="s">
         <v>529</v>
       </c>
-      <c r="S476" s="189" t="s">
+      <c r="P478" s="189" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q478" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R478" s="189" t="s">
         <v>530</v>
       </c>
-      <c r="T476" s="190">
+      <c r="S478" s="189" t="s">
+        <v>531</v>
+      </c>
+      <c r="T478" s="190">
         <v>2.092303682135526E-05</v>
       </c>
-      <c r="U476" s="189" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="B477" s="197" t="s">
+      <c r="U478" s="189" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" s="196" t="s">
         <v>394</v>
       </c>
-      <c r="M477" s="189" t="s">
-        <v>532</v>
-      </c>
-      <c r="P477" s="189" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q477" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="R477" s="189" t="s">
+      <c r="M479" s="189" t="s">
         <v>533</v>
       </c>
-      <c r="S477" s="189" t="s">
+      <c r="P479" s="189" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q479" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R479" s="189" t="s">
         <v>534</v>
       </c>
-      <c r="T477" s="190">
+      <c r="S479" s="189" t="s">
+        <v>535</v>
+      </c>
+      <c r="T479" s="190">
         <v>2.4379364133934558E-05</v>
       </c>
-      <c r="U477" s="189" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="B478" s="197" t="s">
+      <c r="U479" s="189" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="B480" s="196" t="s">
         <v>507</v>
       </c>
-      <c r="M478" s="189" t="s">
-        <v>536</v>
-      </c>
-      <c r="P478" s="189" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q478" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="R478" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="S478" s="189" t="s">
-        <v>536</v>
-      </c>
-      <c r="T478" s="190">
-        <v>0</v>
-      </c>
-      <c r="U478" s="189" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="B479" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="M479" s="189" t="s">
+      <c r="M480" s="189" t="s">
         <v>537</v>
       </c>
-      <c r="P479" s="189" t="s">
+      <c r="P480" s="189" t="s">
         <v>537</v>
       </c>
-      <c r="Q479" s="189" t="s">
+      <c r="Q480" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R480" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="S480" s="189" t="s">
+        <v>537</v>
+      </c>
+      <c r="T480" s="190">
+        <v>0</v>
+      </c>
+      <c r="U480" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="B481" s="196" t="s">
+        <v>520</v>
+      </c>
+      <c r="M481" s="189" t="s">
         <v>538</v>
       </c>
-      <c r="R479" s="189" t="s">
+      <c r="P481" s="189" t="s">
         <v>538</v>
       </c>
-      <c r="S479" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="T479" s="190">
-        <v>0.05</v>
-      </c>
-      <c r="U479" s="189" t="s">
+      <c r="Q481" s="189" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="480">
-      <c r="B480" s="197" t="s">
+      <c r="R481" s="189" t="s">
+        <v>539</v>
+      </c>
+      <c r="S481" s="189" t="s">
         <v>540</v>
       </c>
-      <c r="M480" s="189" t="s">
+      <c r="T481" s="190">
+        <v>0</v>
+      </c>
+      <c r="U481" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="B482" s="196" t="s">
         <v>541</v>
       </c>
-      <c r="P480" s="189" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q480" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="R480" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="S480" s="189" t="s">
-        <v>541</v>
-      </c>
-      <c r="T480" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="U480" s="189" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="B481" s="197" t="s">
+      <c r="M482" s="189" t="s">
         <v>542</v>
       </c>
-      <c r="M481" s="189" t="s">
+      <c r="P482" s="189" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q482" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R482" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="S482" s="189" t="s">
+        <v>542</v>
+      </c>
+      <c r="T482" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="U482" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="B483" s="196" t="s">
         <v>543</v>
       </c>
-      <c r="P481" s="189" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q481" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="R481" s="189" t="s">
+      <c r="M483" s="189" t="s">
         <v>544</v>
       </c>
-      <c r="S481" s="189" t="s">
+      <c r="P483" s="189" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q483" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R483" s="189" t="s">
         <v>545</v>
       </c>
-      <c r="T481" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="U481" s="189" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="B482" s="197" t="s">
+      <c r="S483" s="189" t="s">
         <v>546</v>
       </c>
-      <c r="M482" s="189" t="s">
+      <c r="T483" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="U483" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="B484" s="196" t="s">
         <v>547</v>
       </c>
-      <c r="P482" s="189" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q482" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="R482" s="189" t="s">
-        <v>544</v>
-      </c>
-      <c r="S482" s="189" t="s">
+      <c r="M484" s="189" t="s">
         <v>548</v>
       </c>
-      <c r="T482" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="U482" s="189" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="B483" s="197" t="s">
+      <c r="P484" s="189" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q484" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R484" s="189" t="s">
+        <v>545</v>
+      </c>
+      <c r="S484" s="189" t="s">
         <v>549</v>
       </c>
-      <c r="M483" s="189" t="s">
+      <c r="T484" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="U484" s="189" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="B485" s="196" t="s">
         <v>550</v>
       </c>
-      <c r="P483" s="189" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q483" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="R483" s="189" t="s">
-        <v>544</v>
-      </c>
-      <c r="S483" s="189" t="s">
+      <c r="M485" s="189" t="s">
         <v>551</v>
       </c>
-      <c r="T483" s="189" t="s">
-        <v>525</v>
-      </c>
-      <c r="U483" s="189" t="s">
-        <v>525</v>
+      <c r="P485" s="189" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q485" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="R485" s="189" t="s">
+        <v>545</v>
+      </c>
+      <c r="S485" s="189" t="s">
+        <v>552</v>
+      </c>
+      <c r="T485" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="U485" s="189" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="516"/>
@@ -20139,7 +20163,7 @@
     <mergeCell ref="C433:J433"/>
     <mergeCell ref="C437:J437"/>
     <mergeCell ref="C441:J441"/>
-    <mergeCell ref="C463:J463"/>
+    <mergeCell ref="C465:J465"/>
   </mergeCells>
   <conditionalFormatting sqref="Y13:Z13">
     <cfRule type="uniqueValues" dxfId="5" priority="162"/>

--- a/BUDGET/excel_reports/SAOB_NEW2.xlsx
+++ b/BUDGET/excel_reports/SAOB_NEW2.xlsx
@@ -819,7 +819,7 @@
     <t>STATEMENT OF ALLOTMENTS, OBLIGATIONS AND BALANCES</t>
   </si>
   <si>
-    <t>February 28, 2019</t>
+    <t>January 31, 2019</t>
   </si>
   <si>
     <t xml:space="preserve">          (In Pesos) </t>
@@ -898,10 +898,10 @@
     <t>RECEIVED</t>
   </si>
   <si>
-    <t>February</t>
+    <t>January</t>
   </si>
   <si>
-    <t>As of February</t>
+    <t>As of January</t>
   </si>
   <si>
     <t xml:space="preserve">BALANCE OF </t>
@@ -2055,7 +2055,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -2488,6 +2488,9 @@
     <xf numFmtId="166" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2503,9 +2506,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2514,6 +2514,9 @@
     </xf>
     <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
@@ -12925,10 +12928,14 @@
       <c r="P18" s="180">
         <v>12374500</v>
       </c>
-      <c r="Q18" s="180"/>
-      <c r="R18" s="179"/>
+      <c r="Q18" s="180">
+        <v>6500656</v>
+      </c>
+      <c r="R18" s="180">
+        <v>6500656</v>
+      </c>
       <c r="S18" s="180">
-        <v>12374500</v>
+        <v>5873844</v>
       </c>
       <c r="T18" s="181">
         <v>0</v>
@@ -12983,10 +12990,14 @@
       <c r="P20" s="184">
         <v>582000</v>
       </c>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="183"/>
+      <c r="Q20" s="184">
+        <v>304000</v>
+      </c>
+      <c r="R20" s="184">
+        <v>304000</v>
+      </c>
       <c r="S20" s="184">
-        <v>582000</v>
+        <v>278000</v>
       </c>
       <c r="T20" s="185">
         <v>0</v>
@@ -13023,10 +13034,14 @@
       <c r="P21" s="184">
         <v>67500</v>
       </c>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="183"/>
+      <c r="Q21" s="184">
+        <v>30000</v>
+      </c>
+      <c r="R21" s="184">
+        <v>30000</v>
+      </c>
       <c r="S21" s="184">
-        <v>67500</v>
+        <v>37500</v>
       </c>
       <c r="T21" s="185">
         <v>0</v>
@@ -13063,10 +13078,14 @@
       <c r="P22" s="184">
         <v>67500</v>
       </c>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="183"/>
+      <c r="Q22" s="184">
+        <v>30000</v>
+      </c>
+      <c r="R22" s="184">
+        <v>30000</v>
+      </c>
       <c r="S22" s="184">
-        <v>67500</v>
+        <v>37500</v>
       </c>
       <c r="T22" s="185">
         <v>0</v>
@@ -13103,10 +13122,14 @@
       <c r="P23" s="184">
         <v>1279500</v>
       </c>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="183"/>
+      <c r="Q23" s="184">
+        <v>206525</v>
+      </c>
+      <c r="R23" s="184">
+        <v>206525</v>
+      </c>
       <c r="S23" s="184">
-        <v>1279500</v>
+        <v>1072975</v>
       </c>
       <c r="T23" s="185">
         <v>0</v>
@@ -13143,10 +13166,14 @@
       <c r="P24" s="184">
         <v>86750</v>
       </c>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="183"/>
+      <c r="Q24" s="184">
+        <v>21940.91</v>
+      </c>
+      <c r="R24" s="184">
+        <v>21940.91</v>
+      </c>
       <c r="S24" s="184">
-        <v>86750</v>
+        <v>64809.09</v>
       </c>
       <c r="T24" s="185">
         <v>0</v>
@@ -13183,10 +13210,14 @@
       <c r="P25" s="184">
         <v>3849000</v>
       </c>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="183"/>
+      <c r="Q25" s="184">
+        <v>1048067.45</v>
+      </c>
+      <c r="R25" s="184">
+        <v>1048067.45</v>
+      </c>
       <c r="S25" s="184">
-        <v>3849000</v>
+        <v>2800932.55</v>
       </c>
       <c r="T25" s="185">
         <v>0</v>
@@ -13219,9 +13250,15 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="183"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
+      <c r="Q26" s="184">
+        <v>496203.11</v>
+      </c>
+      <c r="R26" s="184">
+        <v>496203.11</v>
+      </c>
+      <c r="S26" s="186">
+        <v>496203.11</v>
+      </c>
       <c r="T26" s="185">
         <v/>
       </c>
@@ -13245,10 +13282,14 @@
       <c r="P27" s="180">
         <v>29000</v>
       </c>
-      <c r="Q27" s="180"/>
-      <c r="R27" s="179"/>
+      <c r="Q27" s="180">
+        <v>15200</v>
+      </c>
+      <c r="R27" s="180">
+        <v>15200</v>
+      </c>
       <c r="S27" s="180">
-        <v>29000</v>
+        <v>13800</v>
       </c>
       <c r="T27" s="181">
         <v>0</v>
@@ -13268,10 +13309,14 @@
       <c r="P28" s="180">
         <v>93000</v>
       </c>
-      <c r="Q28" s="180"/>
-      <c r="R28" s="179"/>
+      <c r="Q28" s="180">
+        <v>69057.61</v>
+      </c>
+      <c r="R28" s="180">
+        <v>69057.61</v>
+      </c>
       <c r="S28" s="180">
-        <v>93000</v>
+        <v>23942.39</v>
       </c>
       <c r="T28" s="181">
         <v>0</v>
@@ -13302,22 +13347,26 @@
       <c r="U29" s="180"/>
     </row>
     <row r="30">
-      <c r="C30" s="186" t="s">
+      <c r="C30" s="187" t="s">
         <v>315</v>
       </c>
-      <c r="M30" s="188">
+      <c r="M30" s="189">
         <v>18465750</v>
       </c>
-      <c r="P30" s="188"/>
-      <c r="Q30" s="187"/>
-      <c r="R30" s="187"/>
-      <c r="S30" s="188">
-        <v>18465750</v>
-      </c>
-      <c r="T30" s="189">
-        <v>0</v>
-      </c>
-      <c r="U30" s="188"/>
+      <c r="P30" s="189">
+        <v>8721650.08</v>
+      </c>
+      <c r="Q30" s="188"/>
+      <c r="R30" s="189">
+        <v>8721650.08</v>
+      </c>
+      <c r="S30" s="189">
+        <v>9744099.9200000018</v>
+      </c>
+      <c r="T30" s="190">
+        <v>0</v>
+      </c>
+      <c r="U30" s="189"/>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
@@ -13325,7 +13374,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="187" t="s">
         <v>317</v>
       </c>
     </row>
@@ -13491,22 +13540,22 @@
       <c r="U39" s="180"/>
     </row>
     <row r="40">
-      <c r="C40" s="186" t="s">
+      <c r="C40" s="187" t="s">
         <v>318</v>
       </c>
-      <c r="M40" s="188">
+      <c r="M40" s="189">
         <v>6498750</v>
       </c>
-      <c r="P40" s="188"/>
-      <c r="Q40" s="187"/>
-      <c r="R40" s="187"/>
-      <c r="S40" s="188">
+      <c r="P40" s="189"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="188"/>
+      <c r="S40" s="189">
         <v>6498750</v>
       </c>
-      <c r="T40" s="189">
-        <v>0</v>
-      </c>
-      <c r="U40" s="188"/>
+      <c r="T40" s="190">
+        <v>0</v>
+      </c>
+      <c r="U40" s="189"/>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
@@ -13514,7 +13563,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="187" t="s">
         <v>71</v>
       </c>
     </row>
@@ -13680,42 +13729,46 @@
       <c r="U49" s="180"/>
     </row>
     <row r="50">
-      <c r="C50" s="186" t="s">
+      <c r="C50" s="187" t="s">
         <v>320</v>
       </c>
-      <c r="M50" s="188">
+      <c r="M50" s="189">
         <v>2234500</v>
       </c>
-      <c r="P50" s="188"/>
-      <c r="Q50" s="187"/>
-      <c r="R50" s="187"/>
-      <c r="S50" s="188">
+      <c r="P50" s="189"/>
+      <c r="Q50" s="188"/>
+      <c r="R50" s="188"/>
+      <c r="S50" s="189">
         <v>2234500</v>
       </c>
-      <c r="T50" s="189">
-        <v>0</v>
-      </c>
-      <c r="U50" s="188"/>
+      <c r="T50" s="190">
+        <v>0</v>
+      </c>
+      <c r="U50" s="189"/>
     </row>
     <row r="51">
-      <c r="J51" s="190" t="s">
+      <c r="J51" s="191" t="s">
         <v>321</v>
       </c>
-      <c r="M51" s="187">
+      <c r="M51" s="188">
         <v>27199000</v>
       </c>
-      <c r="P51" s="188">
+      <c r="P51" s="189">
         <v>27199000</v>
       </c>
-      <c r="Q51" s="187"/>
-      <c r="R51" s="187"/>
-      <c r="S51" s="188">
-        <v>27199000</v>
-      </c>
-      <c r="T51" s="189">
-        <v>0</v>
-      </c>
-      <c r="U51" s="188">
+      <c r="Q51" s="189">
+        <v>8721650.08</v>
+      </c>
+      <c r="R51" s="189">
+        <v>8721650.08</v>
+      </c>
+      <c r="S51" s="189">
+        <v>18477349.92</v>
+      </c>
+      <c r="T51" s="190">
+        <v>0</v>
+      </c>
+      <c r="U51" s="189">
         <v>0</v>
       </c>
     </row>
@@ -13730,7 +13783,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="186" t="s">
+      <c r="A55" s="187" t="s">
         <v>323</v>
       </c>
     </row>
@@ -13744,12 +13797,8 @@
       <c r="M56" s="180"/>
       <c r="P56" s="179"/>
       <c r="Q56" s="180"/>
-      <c r="R56" s="180">
-        <v>5000</v>
-      </c>
-      <c r="S56" s="191">
-        <v>5000</v>
-      </c>
+      <c r="R56" s="179"/>
+      <c r="S56" s="179"/>
       <c r="T56" s="181">
         <v/>
       </c>
@@ -13765,12 +13814,8 @@
       <c r="M57" s="180"/>
       <c r="P57" s="179"/>
       <c r="Q57" s="180"/>
-      <c r="R57" s="180">
-        <v>5000</v>
-      </c>
-      <c r="S57" s="191">
-        <v>5000</v>
-      </c>
+      <c r="R57" s="179"/>
+      <c r="S57" s="179"/>
       <c r="T57" s="181">
         <v/>
       </c>
@@ -13868,24 +13913,22 @@
       <c r="U62" s="180"/>
     </row>
     <row r="63">
-      <c r="C63" s="186" t="s">
+      <c r="C63" s="187" t="s">
         <v>329</v>
       </c>
-      <c r="M63" s="188">
+      <c r="M63" s="189">
         <v>4121750</v>
       </c>
-      <c r="P63" s="188"/>
-      <c r="Q63" s="187"/>
-      <c r="R63" s="188">
-        <v>10000</v>
-      </c>
-      <c r="S63" s="188">
-        <v>4111750</v>
-      </c>
-      <c r="T63" s="189">
-        <v>0</v>
-      </c>
-      <c r="U63" s="188"/>
+      <c r="P63" s="189"/>
+      <c r="Q63" s="188"/>
+      <c r="R63" s="188"/>
+      <c r="S63" s="189">
+        <v>4121750</v>
+      </c>
+      <c r="T63" s="190">
+        <v>0</v>
+      </c>
+      <c r="U63" s="189"/>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
@@ -13893,7 +13936,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="186" t="s">
+      <c r="A65" s="187" t="s">
         <v>331</v>
       </c>
     </row>
@@ -13921,22 +13964,22 @@
       <c r="U66" s="180"/>
     </row>
     <row r="67">
-      <c r="C67" s="186" t="s">
+      <c r="C67" s="187" t="s">
         <v>332</v>
       </c>
-      <c r="M67" s="188">
+      <c r="M67" s="189">
         <v>340250</v>
       </c>
-      <c r="P67" s="188"/>
-      <c r="Q67" s="187"/>
-      <c r="R67" s="187"/>
-      <c r="S67" s="188">
+      <c r="P67" s="189"/>
+      <c r="Q67" s="188"/>
+      <c r="R67" s="188"/>
+      <c r="S67" s="189">
         <v>340250</v>
       </c>
-      <c r="T67" s="189">
-        <v>0</v>
-      </c>
-      <c r="U67" s="188"/>
+      <c r="T67" s="190">
+        <v>0</v>
+      </c>
+      <c r="U67" s="189"/>
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
@@ -13944,7 +13987,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="186" t="s">
+      <c r="A69" s="187" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13972,22 +14015,22 @@
       <c r="U70" s="180"/>
     </row>
     <row r="71">
-      <c r="C71" s="186" t="s">
+      <c r="C71" s="187" t="s">
         <v>336</v>
       </c>
-      <c r="M71" s="188">
+      <c r="M71" s="189">
         <v>4525000</v>
       </c>
-      <c r="P71" s="188"/>
-      <c r="Q71" s="187"/>
-      <c r="R71" s="187"/>
-      <c r="S71" s="188">
+      <c r="P71" s="189"/>
+      <c r="Q71" s="188"/>
+      <c r="R71" s="188"/>
+      <c r="S71" s="189">
         <v>4525000</v>
       </c>
-      <c r="T71" s="189">
-        <v>0</v>
-      </c>
-      <c r="U71" s="188"/>
+      <c r="T71" s="190">
+        <v>0</v>
+      </c>
+      <c r="U71" s="189"/>
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
@@ -13995,7 +14038,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="186" t="s">
+      <c r="A73" s="187" t="s">
         <v>338</v>
       </c>
     </row>
@@ -14023,22 +14066,22 @@
       <c r="U74" s="180"/>
     </row>
     <row r="75">
-      <c r="C75" s="186" t="s">
+      <c r="C75" s="187" t="s">
         <v>340</v>
       </c>
-      <c r="M75" s="188">
+      <c r="M75" s="189">
         <v>192296000</v>
       </c>
-      <c r="P75" s="188"/>
-      <c r="Q75" s="187"/>
-      <c r="R75" s="187"/>
-      <c r="S75" s="188">
+      <c r="P75" s="189"/>
+      <c r="Q75" s="188"/>
+      <c r="R75" s="188"/>
+      <c r="S75" s="189">
         <v>192296000</v>
       </c>
-      <c r="T75" s="189">
-        <v>0</v>
-      </c>
-      <c r="U75" s="188"/>
+      <c r="T75" s="190">
+        <v>0</v>
+      </c>
+      <c r="U75" s="189"/>
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
@@ -14046,7 +14089,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="186" t="s">
+      <c r="A77" s="187" t="s">
         <v>342</v>
       </c>
     </row>
@@ -14091,22 +14134,22 @@
       <c r="U79" s="180"/>
     </row>
     <row r="80">
-      <c r="C80" s="186" t="s">
+      <c r="C80" s="187" t="s">
         <v>344</v>
       </c>
-      <c r="M80" s="188">
+      <c r="M80" s="189">
         <v>1144000</v>
       </c>
-      <c r="P80" s="188"/>
-      <c r="Q80" s="187"/>
-      <c r="R80" s="187"/>
-      <c r="S80" s="188">
+      <c r="P80" s="189"/>
+      <c r="Q80" s="188"/>
+      <c r="R80" s="188"/>
+      <c r="S80" s="189">
         <v>1144000</v>
       </c>
-      <c r="T80" s="189">
-        <v>0</v>
-      </c>
-      <c r="U80" s="188"/>
+      <c r="T80" s="190">
+        <v>0</v>
+      </c>
+      <c r="U80" s="189"/>
     </row>
     <row r="81">
       <c r="A81" s="13" t="s">
@@ -14114,7 +14157,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="186" t="s">
+      <c r="A82" s="187" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14142,22 +14185,22 @@
       <c r="U83" s="180"/>
     </row>
     <row r="84">
-      <c r="C84" s="186" t="s">
+      <c r="C84" s="187" t="s">
         <v>346</v>
       </c>
-      <c r="M84" s="188">
+      <c r="M84" s="189">
         <v>1906750</v>
       </c>
-      <c r="P84" s="188"/>
-      <c r="Q84" s="187"/>
-      <c r="R84" s="187"/>
-      <c r="S84" s="188">
+      <c r="P84" s="189"/>
+      <c r="Q84" s="188"/>
+      <c r="R84" s="188"/>
+      <c r="S84" s="189">
         <v>1906750</v>
       </c>
-      <c r="T84" s="189">
-        <v>0</v>
-      </c>
-      <c r="U84" s="188"/>
+      <c r="T84" s="190">
+        <v>0</v>
+      </c>
+      <c r="U84" s="189"/>
     </row>
     <row r="85">
       <c r="A85" s="13" t="s">
@@ -14165,7 +14208,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="186" t="s">
+      <c r="A86" s="187" t="s">
         <v>347</v>
       </c>
     </row>
@@ -14278,22 +14321,22 @@
       <c r="U92" s="180"/>
     </row>
     <row r="93">
-      <c r="C93" s="186" t="s">
+      <c r="C93" s="187" t="s">
         <v>350</v>
       </c>
-      <c r="M93" s="188">
+      <c r="M93" s="189">
         <v>45164500</v>
       </c>
-      <c r="P93" s="188"/>
-      <c r="Q93" s="187"/>
-      <c r="R93" s="187"/>
-      <c r="S93" s="188">
+      <c r="P93" s="189"/>
+      <c r="Q93" s="188"/>
+      <c r="R93" s="188"/>
+      <c r="S93" s="189">
         <v>45164500</v>
       </c>
-      <c r="T93" s="189">
-        <v>0</v>
-      </c>
-      <c r="U93" s="188"/>
+      <c r="T93" s="190">
+        <v>0</v>
+      </c>
+      <c r="U93" s="189"/>
     </row>
     <row r="94">
       <c r="A94" s="13" t="s">
@@ -14301,7 +14344,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="186" t="s">
+      <c r="A95" s="187" t="s">
         <v>83</v>
       </c>
     </row>
@@ -14329,22 +14372,22 @@
       <c r="U96" s="180"/>
     </row>
     <row r="97">
-      <c r="C97" s="186" t="s">
+      <c r="C97" s="187" t="s">
         <v>352</v>
       </c>
-      <c r="M97" s="188">
+      <c r="M97" s="189">
         <v>299750</v>
       </c>
-      <c r="P97" s="188"/>
-      <c r="Q97" s="187"/>
-      <c r="R97" s="187"/>
-      <c r="S97" s="188">
+      <c r="P97" s="189"/>
+      <c r="Q97" s="188"/>
+      <c r="R97" s="188"/>
+      <c r="S97" s="189">
         <v>299750</v>
       </c>
-      <c r="T97" s="189">
-        <v>0</v>
-      </c>
-      <c r="U97" s="188"/>
+      <c r="T97" s="190">
+        <v>0</v>
+      </c>
+      <c r="U97" s="189"/>
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
@@ -14352,7 +14395,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="186" t="s">
+      <c r="A99" s="187" t="s">
         <v>84</v>
       </c>
     </row>
@@ -14374,18 +14417,18 @@
       <c r="U100" s="180"/>
     </row>
     <row r="101">
-      <c r="C101" s="186" t="s">
+      <c r="C101" s="187" t="s">
         <v>354</v>
       </c>
-      <c r="M101" s="187"/>
-      <c r="P101" s="187"/>
-      <c r="Q101" s="187"/>
-      <c r="R101" s="187"/>
-      <c r="S101" s="187"/>
-      <c r="T101" s="189">
-        <v>0</v>
-      </c>
-      <c r="U101" s="188"/>
+      <c r="M101" s="188"/>
+      <c r="P101" s="188"/>
+      <c r="Q101" s="188"/>
+      <c r="R101" s="188"/>
+      <c r="S101" s="188"/>
+      <c r="T101" s="190">
+        <v>0</v>
+      </c>
+      <c r="U101" s="189"/>
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
@@ -14393,7 +14436,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="186" t="s">
+      <c r="A103" s="187" t="s">
         <v>355</v>
       </c>
     </row>
@@ -14438,44 +14481,42 @@
       <c r="U105" s="180"/>
     </row>
     <row r="106">
-      <c r="C106" s="186" t="s">
+      <c r="C106" s="187" t="s">
         <v>356</v>
       </c>
-      <c r="M106" s="188">
+      <c r="M106" s="189">
         <v>1497500</v>
       </c>
-      <c r="P106" s="188"/>
-      <c r="Q106" s="187"/>
-      <c r="R106" s="187"/>
-      <c r="S106" s="188">
+      <c r="P106" s="189"/>
+      <c r="Q106" s="188"/>
+      <c r="R106" s="188"/>
+      <c r="S106" s="189">
         <v>1497500</v>
       </c>
-      <c r="T106" s="189">
-        <v>0</v>
-      </c>
-      <c r="U106" s="188"/>
+      <c r="T106" s="190">
+        <v>0</v>
+      </c>
+      <c r="U106" s="189"/>
     </row>
     <row r="107">
-      <c r="J107" s="190" t="s">
+      <c r="J107" s="191" t="s">
         <v>357</v>
       </c>
-      <c r="M107" s="187">
+      <c r="M107" s="188">
         <v>251295500</v>
       </c>
-      <c r="P107" s="188">
+      <c r="P107" s="189">
         <v>251295500</v>
       </c>
-      <c r="Q107" s="187"/>
-      <c r="R107" s="188">
-        <v>10000</v>
-      </c>
-      <c r="S107" s="188">
-        <v>251285500</v>
-      </c>
-      <c r="T107" s="189">
-        <v>0</v>
-      </c>
-      <c r="U107" s="188">
+      <c r="Q107" s="188"/>
+      <c r="R107" s="188"/>
+      <c r="S107" s="189">
+        <v>251295500</v>
+      </c>
+      <c r="T107" s="190">
+        <v>0</v>
+      </c>
+      <c r="U107" s="189">
         <v>0</v>
       </c>
     </row>
@@ -14490,7 +14531,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="186" t="s">
+      <c r="A111" s="187" t="s">
         <v>360</v>
       </c>
     </row>
@@ -14524,16 +14565,16 @@
       <c r="U113" s="179"/>
     </row>
     <row r="114">
-      <c r="C114" s="186" t="s">
+      <c r="C114" s="187" t="s">
         <v>363</v>
       </c>
-      <c r="M114" s="188">
+      <c r="M114" s="189">
         <v>1000000</v>
       </c>
-      <c r="P114" s="188">
+      <c r="P114" s="189">
         <v>1000000</v>
       </c>
-      <c r="S114" s="188">
+      <c r="S114" s="189">
         <v>0</v>
       </c>
       <c r="AD114" s="193">
@@ -14560,7 +14601,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="186" t="s">
+      <c r="A117" s="187" t="s">
         <v>365</v>
       </c>
     </row>
@@ -14795,22 +14836,22 @@
       <c r="U127" s="180"/>
     </row>
     <row r="128">
-      <c r="C128" s="186" t="s">
+      <c r="C128" s="187" t="s">
         <v>366</v>
       </c>
-      <c r="M128" s="188">
+      <c r="M128" s="189">
         <v>18457750</v>
       </c>
-      <c r="P128" s="188"/>
-      <c r="Q128" s="187"/>
-      <c r="R128" s="187"/>
-      <c r="S128" s="188">
+      <c r="P128" s="189"/>
+      <c r="Q128" s="188"/>
+      <c r="R128" s="188"/>
+      <c r="S128" s="189">
         <v>18457750</v>
       </c>
-      <c r="T128" s="189">
-        <v>0</v>
-      </c>
-      <c r="U128" s="188"/>
+      <c r="T128" s="190">
+        <v>0</v>
+      </c>
+      <c r="U128" s="189"/>
     </row>
     <row r="129">
       <c r="A129" s="13" t="s">
@@ -14818,7 +14859,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="186" t="s">
+      <c r="A130" s="187" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14846,22 +14887,22 @@
       <c r="U131" s="180"/>
     </row>
     <row r="132">
-      <c r="C132" s="186" t="s">
+      <c r="C132" s="187" t="s">
         <v>368</v>
       </c>
-      <c r="M132" s="188">
+      <c r="M132" s="189">
         <v>151468.3</v>
       </c>
-      <c r="P132" s="188"/>
-      <c r="Q132" s="187"/>
-      <c r="R132" s="187"/>
-      <c r="S132" s="188">
+      <c r="P132" s="189"/>
+      <c r="Q132" s="188"/>
+      <c r="R132" s="188"/>
+      <c r="S132" s="189">
         <v>151468.3</v>
       </c>
-      <c r="T132" s="189">
-        <v>0</v>
-      </c>
-      <c r="U132" s="188"/>
+      <c r="T132" s="190">
+        <v>0</v>
+      </c>
+      <c r="U132" s="189"/>
     </row>
     <row r="133">
       <c r="A133" s="13" t="s">
@@ -14869,7 +14910,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="186" t="s">
+      <c r="A134" s="187" t="s">
         <v>369</v>
       </c>
     </row>
@@ -14897,22 +14938,22 @@
       <c r="U135" s="180"/>
     </row>
     <row r="136">
-      <c r="C136" s="186" t="s">
+      <c r="C136" s="187" t="s">
         <v>370</v>
       </c>
-      <c r="M136" s="188">
+      <c r="M136" s="189">
         <v>1390325</v>
       </c>
-      <c r="P136" s="188"/>
-      <c r="Q136" s="187"/>
-      <c r="R136" s="187"/>
-      <c r="S136" s="188">
+      <c r="P136" s="189"/>
+      <c r="Q136" s="188"/>
+      <c r="R136" s="188"/>
+      <c r="S136" s="189">
         <v>1390325</v>
       </c>
-      <c r="T136" s="189">
-        <v>0</v>
-      </c>
-      <c r="U136" s="188"/>
+      <c r="T136" s="190">
+        <v>0</v>
+      </c>
+      <c r="U136" s="189"/>
     </row>
     <row r="137">
       <c r="A137" s="13" t="s">
@@ -14920,7 +14961,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="186" t="s">
+      <c r="A138" s="187" t="s">
         <v>371</v>
       </c>
     </row>
@@ -14965,22 +15006,22 @@
       <c r="U140" s="180"/>
     </row>
     <row r="141">
-      <c r="C141" s="186" t="s">
+      <c r="C141" s="187" t="s">
         <v>372</v>
       </c>
-      <c r="M141" s="188">
+      <c r="M141" s="189">
         <v>34875135.55</v>
       </c>
-      <c r="P141" s="188"/>
-      <c r="Q141" s="187"/>
-      <c r="R141" s="187"/>
-      <c r="S141" s="188">
+      <c r="P141" s="189"/>
+      <c r="Q141" s="188"/>
+      <c r="R141" s="188"/>
+      <c r="S141" s="189">
         <v>34875135.55</v>
       </c>
-      <c r="T141" s="189">
-        <v>0</v>
-      </c>
-      <c r="U141" s="188"/>
+      <c r="T141" s="190">
+        <v>0</v>
+      </c>
+      <c r="U141" s="189"/>
     </row>
     <row r="142">
       <c r="A142" s="13" t="s">
@@ -14988,7 +15029,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="186" t="s">
+      <c r="A143" s="187" t="s">
         <v>373</v>
       </c>
     </row>
@@ -15016,22 +15057,22 @@
       <c r="U144" s="180"/>
     </row>
     <row r="145">
-      <c r="C145" s="186" t="s">
+      <c r="C145" s="187" t="s">
         <v>374</v>
       </c>
-      <c r="M145" s="188">
+      <c r="M145" s="189">
         <v>1139109.15</v>
       </c>
-      <c r="P145" s="188"/>
-      <c r="Q145" s="187"/>
-      <c r="R145" s="187"/>
-      <c r="S145" s="188">
+      <c r="P145" s="189"/>
+      <c r="Q145" s="188"/>
+      <c r="R145" s="188"/>
+      <c r="S145" s="189">
         <v>1139109.15</v>
       </c>
-      <c r="T145" s="189">
-        <v>0</v>
-      </c>
-      <c r="U145" s="188"/>
+      <c r="T145" s="190">
+        <v>0</v>
+      </c>
+      <c r="U145" s="189"/>
     </row>
     <row r="146">
       <c r="A146" s="13" t="s">
@@ -15039,7 +15080,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="186" t="s">
+      <c r="A147" s="187" t="s">
         <v>375</v>
       </c>
     </row>
@@ -15205,22 +15246,22 @@
       <c r="U154" s="180"/>
     </row>
     <row r="155">
-      <c r="C155" s="186" t="s">
+      <c r="C155" s="187" t="s">
         <v>376</v>
       </c>
-      <c r="M155" s="188">
+      <c r="M155" s="189">
         <v>6498750</v>
       </c>
-      <c r="P155" s="188"/>
-      <c r="Q155" s="187"/>
-      <c r="R155" s="187"/>
-      <c r="S155" s="188">
+      <c r="P155" s="189"/>
+      <c r="Q155" s="188"/>
+      <c r="R155" s="188"/>
+      <c r="S155" s="189">
         <v>6498750</v>
       </c>
-      <c r="T155" s="189">
-        <v>0</v>
-      </c>
-      <c r="U155" s="188"/>
+      <c r="T155" s="190">
+        <v>0</v>
+      </c>
+      <c r="U155" s="189"/>
     </row>
     <row r="156">
       <c r="A156" s="13" t="s">
@@ -15228,7 +15269,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="186" t="s">
+      <c r="A157" s="187" t="s">
         <v>377</v>
       </c>
     </row>
@@ -15426,22 +15467,22 @@
       <c r="U168" s="180"/>
     </row>
     <row r="169">
-      <c r="C169" s="186" t="s">
+      <c r="C169" s="187" t="s">
         <v>385</v>
       </c>
-      <c r="M169" s="188">
+      <c r="M169" s="189">
         <v>12216111.35</v>
       </c>
-      <c r="P169" s="188"/>
-      <c r="Q169" s="187"/>
-      <c r="R169" s="187"/>
-      <c r="S169" s="188">
+      <c r="P169" s="189"/>
+      <c r="Q169" s="188"/>
+      <c r="R169" s="188"/>
+      <c r="S169" s="189">
         <v>12216111.35</v>
       </c>
-      <c r="T169" s="189">
-        <v>0</v>
-      </c>
-      <c r="U169" s="188"/>
+      <c r="T169" s="190">
+        <v>0</v>
+      </c>
+      <c r="U169" s="189"/>
     </row>
     <row r="170">
       <c r="A170" s="13" t="s">
@@ -15449,7 +15490,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="186" t="s">
+      <c r="A171" s="187" t="s">
         <v>386</v>
       </c>
     </row>
@@ -15477,22 +15518,22 @@
       <c r="U172" s="180"/>
     </row>
     <row r="173">
-      <c r="C173" s="186" t="s">
+      <c r="C173" s="187" t="s">
         <v>387</v>
       </c>
-      <c r="M173" s="188">
+      <c r="M173" s="189">
         <v>79817</v>
       </c>
-      <c r="P173" s="188"/>
-      <c r="Q173" s="187"/>
-      <c r="R173" s="187"/>
-      <c r="S173" s="188">
+      <c r="P173" s="189"/>
+      <c r="Q173" s="188"/>
+      <c r="R173" s="188"/>
+      <c r="S173" s="189">
         <v>79817</v>
       </c>
-      <c r="T173" s="189">
-        <v>0</v>
-      </c>
-      <c r="U173" s="188"/>
+      <c r="T173" s="190">
+        <v>0</v>
+      </c>
+      <c r="U173" s="189"/>
     </row>
     <row r="174">
       <c r="A174" s="13" t="s">
@@ -15500,7 +15541,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="186" t="s">
+      <c r="A175" s="187" t="s">
         <v>388</v>
       </c>
     </row>
@@ -15528,22 +15569,22 @@
       <c r="U176" s="180"/>
     </row>
     <row r="177">
-      <c r="C177" s="186" t="s">
+      <c r="C177" s="187" t="s">
         <v>389</v>
       </c>
-      <c r="M177" s="188">
+      <c r="M177" s="189">
         <v>148388.71</v>
       </c>
-      <c r="P177" s="188"/>
-      <c r="Q177" s="187"/>
-      <c r="R177" s="187"/>
-      <c r="S177" s="188">
+      <c r="P177" s="189"/>
+      <c r="Q177" s="188"/>
+      <c r="R177" s="188"/>
+      <c r="S177" s="189">
         <v>148388.71</v>
       </c>
-      <c r="T177" s="189">
-        <v>0</v>
-      </c>
-      <c r="U177" s="188"/>
+      <c r="T177" s="190">
+        <v>0</v>
+      </c>
+      <c r="U177" s="189"/>
     </row>
     <row r="178">
       <c r="A178" s="13" t="s">
@@ -15551,7 +15592,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="186" t="s">
+      <c r="A179" s="187" t="s">
         <v>390</v>
       </c>
     </row>
@@ -15613,22 +15654,22 @@
       <c r="U182" s="180"/>
     </row>
     <row r="183">
-      <c r="C183" s="186" t="s">
+      <c r="C183" s="187" t="s">
         <v>391</v>
       </c>
-      <c r="M183" s="188">
+      <c r="M183" s="189">
         <v>743409.34</v>
       </c>
-      <c r="P183" s="188"/>
-      <c r="Q183" s="187"/>
-      <c r="R183" s="187"/>
-      <c r="S183" s="188">
+      <c r="P183" s="189"/>
+      <c r="Q183" s="188"/>
+      <c r="R183" s="188"/>
+      <c r="S183" s="189">
         <v>743409.34</v>
       </c>
-      <c r="T183" s="189">
-        <v>0</v>
-      </c>
-      <c r="U183" s="188"/>
+      <c r="T183" s="190">
+        <v>0</v>
+      </c>
+      <c r="U183" s="189"/>
     </row>
     <row r="184">
       <c r="A184" s="13" t="s">
@@ -15636,7 +15677,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="186" t="s">
+      <c r="A185" s="187" t="s">
         <v>392</v>
       </c>
     </row>
@@ -15802,42 +15843,42 @@
       <c r="U192" s="180"/>
     </row>
     <row r="193">
-      <c r="C193" s="186" t="s">
+      <c r="C193" s="187" t="s">
         <v>393</v>
       </c>
-      <c r="M193" s="188">
+      <c r="M193" s="189">
         <v>2234500</v>
       </c>
-      <c r="P193" s="188"/>
-      <c r="Q193" s="187"/>
-      <c r="R193" s="187"/>
-      <c r="S193" s="188">
+      <c r="P193" s="189"/>
+      <c r="Q193" s="188"/>
+      <c r="R193" s="188"/>
+      <c r="S193" s="189">
         <v>2234500</v>
       </c>
-      <c r="T193" s="189">
-        <v>0</v>
-      </c>
-      <c r="U193" s="188"/>
+      <c r="T193" s="190">
+        <v>0</v>
+      </c>
+      <c r="U193" s="189"/>
     </row>
     <row r="194">
-      <c r="J194" s="190" t="s">
+      <c r="J194" s="191" t="s">
         <v>394</v>
       </c>
-      <c r="M194" s="187">
+      <c r="M194" s="188">
         <v>77934764.399999991</v>
       </c>
-      <c r="P194" s="188">
+      <c r="P194" s="189">
         <v>77934764.399999991</v>
       </c>
-      <c r="Q194" s="187"/>
-      <c r="R194" s="187"/>
-      <c r="S194" s="188">
+      <c r="Q194" s="188"/>
+      <c r="R194" s="188"/>
+      <c r="S194" s="189">
         <v>77934764.399999991</v>
       </c>
-      <c r="T194" s="189">
-        <v>0</v>
-      </c>
-      <c r="U194" s="188">
+      <c r="T194" s="190">
+        <v>0</v>
+      </c>
+      <c r="U194" s="189">
         <v>0</v>
       </c>
     </row>
@@ -15852,7 +15893,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="186" t="s">
+      <c r="A198" s="187" t="s">
         <v>397</v>
       </c>
     </row>
@@ -15886,16 +15927,16 @@
       <c r="U200" s="179"/>
     </row>
     <row r="201">
-      <c r="C201" s="186" t="s">
+      <c r="C201" s="187" t="s">
         <v>399</v>
       </c>
-      <c r="M201" s="188">
+      <c r="M201" s="189">
         <v>19325</v>
       </c>
-      <c r="P201" s="188">
+      <c r="P201" s="189">
         <v>19325</v>
       </c>
-      <c r="S201" s="188">
+      <c r="S201" s="189">
         <v>0</v>
       </c>
       <c r="AD201" s="193">
@@ -15917,7 +15958,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="186" t="s">
+      <c r="A203" s="187" t="s">
         <v>400</v>
       </c>
     </row>
@@ -15951,16 +15992,16 @@
       <c r="U205" s="179"/>
     </row>
     <row r="206">
-      <c r="C206" s="186" t="s">
+      <c r="C206" s="187" t="s">
         <v>401</v>
       </c>
-      <c r="M206" s="188">
+      <c r="M206" s="189">
         <v>23698.8</v>
       </c>
-      <c r="P206" s="188">
+      <c r="P206" s="189">
         <v>23698.8</v>
       </c>
-      <c r="S206" s="188">
+      <c r="S206" s="189">
         <v>0</v>
       </c>
       <c r="AD206" s="193">
@@ -15982,7 +16023,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="186" t="s">
+      <c r="A208" s="187" t="s">
         <v>403</v>
       </c>
     </row>
@@ -16052,16 +16093,16 @@
       <c r="U212" s="179"/>
     </row>
     <row r="213">
-      <c r="C213" s="186" t="s">
+      <c r="C213" s="187" t="s">
         <v>404</v>
       </c>
-      <c r="M213" s="188">
+      <c r="M213" s="189">
         <v>63185.75</v>
       </c>
-      <c r="P213" s="188">
+      <c r="P213" s="189">
         <v>63185.75</v>
       </c>
-      <c r="S213" s="188">
+      <c r="S213" s="189">
         <v>0</v>
       </c>
       <c r="AD213" s="193">
@@ -16083,7 +16124,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="186" t="s">
+      <c r="A215" s="187" t="s">
         <v>406</v>
       </c>
     </row>
@@ -16117,16 +16158,16 @@
       <c r="U217" s="179"/>
     </row>
     <row r="218">
-      <c r="C218" s="186" t="s">
+      <c r="C218" s="187" t="s">
         <v>407</v>
       </c>
-      <c r="M218" s="188">
+      <c r="M218" s="189">
         <v>35801.22</v>
       </c>
-      <c r="P218" s="188">
+      <c r="P218" s="189">
         <v>35801.22</v>
       </c>
-      <c r="S218" s="188">
+      <c r="S218" s="189">
         <v>0</v>
       </c>
       <c r="AD218" s="193">
@@ -16148,7 +16189,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="186" t="s">
+      <c r="A220" s="187" t="s">
         <v>408</v>
       </c>
     </row>
@@ -16182,16 +16223,16 @@
       <c r="U222" s="179"/>
     </row>
     <row r="223">
-      <c r="C223" s="186" t="s">
+      <c r="C223" s="187" t="s">
         <v>409</v>
       </c>
-      <c r="M223" s="188">
+      <c r="M223" s="189">
         <v>169525</v>
       </c>
-      <c r="P223" s="188">
+      <c r="P223" s="189">
         <v>169525</v>
       </c>
-      <c r="S223" s="188">
+      <c r="S223" s="189">
         <v>0</v>
       </c>
       <c r="AD223" s="193">
@@ -16213,7 +16254,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="186" t="s">
+      <c r="A225" s="187" t="s">
         <v>410</v>
       </c>
     </row>
@@ -16247,16 +16288,16 @@
       <c r="U227" s="179"/>
     </row>
     <row r="228">
-      <c r="C228" s="186" t="s">
+      <c r="C228" s="187" t="s">
         <v>411</v>
       </c>
-      <c r="M228" s="188">
+      <c r="M228" s="189">
         <v>20326.63</v>
       </c>
-      <c r="P228" s="188">
+      <c r="P228" s="189">
         <v>20326.63</v>
       </c>
-      <c r="S228" s="188">
+      <c r="S228" s="189">
         <v>0</v>
       </c>
       <c r="AD228" s="193">
@@ -16278,7 +16319,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="186" t="s">
+      <c r="A230" s="187" t="s">
         <v>412</v>
       </c>
     </row>
@@ -16312,16 +16353,16 @@
       <c r="U232" s="179"/>
     </row>
     <row r="233">
-      <c r="C233" s="186" t="s">
+      <c r="C233" s="187" t="s">
         <v>413</v>
       </c>
-      <c r="M233" s="188">
+      <c r="M233" s="189">
         <v>1364</v>
       </c>
-      <c r="P233" s="188">
+      <c r="P233" s="189">
         <v>1364</v>
       </c>
-      <c r="S233" s="188">
+      <c r="S233" s="189">
         <v>0</v>
       </c>
       <c r="AD233" s="193">
@@ -16343,7 +16384,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="186" t="s">
+      <c r="A235" s="187" t="s">
         <v>414</v>
       </c>
     </row>
@@ -16395,16 +16436,16 @@
       <c r="U238" s="179"/>
     </row>
     <row r="239">
-      <c r="C239" s="186" t="s">
+      <c r="C239" s="187" t="s">
         <v>415</v>
       </c>
-      <c r="M239" s="188">
+      <c r="M239" s="189">
         <v>1806</v>
       </c>
-      <c r="P239" s="188">
+      <c r="P239" s="189">
         <v>1806</v>
       </c>
-      <c r="S239" s="188">
+      <c r="S239" s="189">
         <v>0</v>
       </c>
       <c r="AD239" s="193">
@@ -16426,7 +16467,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="186" t="s">
+      <c r="A241" s="187" t="s">
         <v>416</v>
       </c>
     </row>
@@ -16460,16 +16501,16 @@
       <c r="U243" s="179"/>
     </row>
     <row r="244">
-      <c r="C244" s="186" t="s">
+      <c r="C244" s="187" t="s">
         <v>417</v>
       </c>
-      <c r="M244" s="188">
+      <c r="M244" s="189">
         <v>143</v>
       </c>
-      <c r="P244" s="188">
+      <c r="P244" s="189">
         <v>143</v>
       </c>
-      <c r="S244" s="188">
+      <c r="S244" s="189">
         <v>0</v>
       </c>
       <c r="AD244" s="193">
@@ -16491,7 +16532,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="186" t="s">
+      <c r="A246" s="187" t="s">
         <v>419</v>
       </c>
     </row>
@@ -16543,16 +16584,16 @@
       <c r="U249" s="179"/>
     </row>
     <row r="250">
-      <c r="C250" s="186" t="s">
+      <c r="C250" s="187" t="s">
         <v>421</v>
       </c>
-      <c r="M250" s="188">
+      <c r="M250" s="189">
         <v>308386.7</v>
       </c>
-      <c r="P250" s="188">
+      <c r="P250" s="189">
         <v>308386.7</v>
       </c>
-      <c r="S250" s="188">
+      <c r="S250" s="189">
         <v>0</v>
       </c>
       <c r="AD250" s="193">
@@ -16574,7 +16615,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="186" t="s">
+      <c r="A252" s="187" t="s">
         <v>422</v>
       </c>
     </row>
@@ -16608,16 +16649,16 @@
       <c r="U254" s="179"/>
     </row>
     <row r="255">
-      <c r="C255" s="186" t="s">
+      <c r="C255" s="187" t="s">
         <v>423</v>
       </c>
-      <c r="M255" s="188">
+      <c r="M255" s="189">
         <v>356264.92</v>
       </c>
-      <c r="P255" s="188">
+      <c r="P255" s="189">
         <v>356264.92</v>
       </c>
-      <c r="S255" s="188">
+      <c r="S255" s="189">
         <v>0</v>
       </c>
       <c r="AD255" s="193">
@@ -16639,7 +16680,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="186" t="s">
+      <c r="A257" s="187" t="s">
         <v>424</v>
       </c>
     </row>
@@ -16673,16 +16714,16 @@
       <c r="U259" s="179"/>
     </row>
     <row r="260">
-      <c r="C260" s="186" t="s">
+      <c r="C260" s="187" t="s">
         <v>425</v>
       </c>
-      <c r="M260" s="188">
+      <c r="M260" s="189">
         <v>5600</v>
       </c>
-      <c r="P260" s="188">
+      <c r="P260" s="189">
         <v>5600</v>
       </c>
-      <c r="S260" s="188">
+      <c r="S260" s="189">
         <v>0</v>
       </c>
       <c r="AD260" s="193">
@@ -16704,7 +16745,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="186" t="s">
+      <c r="A262" s="187" t="s">
         <v>426</v>
       </c>
     </row>
@@ -16738,16 +16779,16 @@
       <c r="U264" s="179"/>
     </row>
     <row r="265">
-      <c r="C265" s="186" t="s">
+      <c r="C265" s="187" t="s">
         <v>427</v>
       </c>
-      <c r="M265" s="188">
+      <c r="M265" s="189">
         <v>11006.94</v>
       </c>
-      <c r="P265" s="188">
+      <c r="P265" s="189">
         <v>11006.94</v>
       </c>
-      <c r="S265" s="188">
+      <c r="S265" s="189">
         <v>0</v>
       </c>
       <c r="AD265" s="193">
@@ -16769,7 +16810,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="186" t="s">
+      <c r="A267" s="187" t="s">
         <v>428</v>
       </c>
     </row>
@@ -16821,16 +16862,16 @@
       <c r="U270" s="179"/>
     </row>
     <row r="271">
-      <c r="C271" s="186" t="s">
+      <c r="C271" s="187" t="s">
         <v>430</v>
       </c>
-      <c r="M271" s="188">
+      <c r="M271" s="189">
         <v>1200250</v>
       </c>
-      <c r="P271" s="188">
+      <c r="P271" s="189">
         <v>1200250</v>
       </c>
-      <c r="S271" s="188">
+      <c r="S271" s="189">
         <v>0</v>
       </c>
       <c r="AD271" s="193">
@@ -16852,7 +16893,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="186" t="s">
+      <c r="A273" s="187" t="s">
         <v>431</v>
       </c>
     </row>
@@ -16886,16 +16927,16 @@
       <c r="U275" s="179"/>
     </row>
     <row r="276">
-      <c r="C276" s="186" t="s">
+      <c r="C276" s="187" t="s">
         <v>432</v>
       </c>
-      <c r="M276" s="188">
+      <c r="M276" s="189">
         <v>206247.98</v>
       </c>
-      <c r="P276" s="188">
+      <c r="P276" s="189">
         <v>206247.98</v>
       </c>
-      <c r="S276" s="188">
+      <c r="S276" s="189">
         <v>0</v>
       </c>
       <c r="AD276" s="193">
@@ -16917,7 +16958,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="186" t="s">
+      <c r="A278" s="187" t="s">
         <v>433</v>
       </c>
     </row>
@@ -16951,16 +16992,16 @@
       <c r="U280" s="179"/>
     </row>
     <row r="281">
-      <c r="C281" s="186" t="s">
+      <c r="C281" s="187" t="s">
         <v>434</v>
       </c>
-      <c r="M281" s="188">
+      <c r="M281" s="189">
         <v>30185</v>
       </c>
-      <c r="P281" s="188">
+      <c r="P281" s="189">
         <v>30185</v>
       </c>
-      <c r="S281" s="188">
+      <c r="S281" s="189">
         <v>0</v>
       </c>
       <c r="AD281" s="193">
@@ -16982,7 +17023,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="186" t="s">
+      <c r="A283" s="187" t="s">
         <v>435</v>
       </c>
     </row>
@@ -17016,16 +17057,16 @@
       <c r="U285" s="179"/>
     </row>
     <row r="286">
-      <c r="C286" s="186" t="s">
+      <c r="C286" s="187" t="s">
         <v>436</v>
       </c>
-      <c r="M286" s="188">
+      <c r="M286" s="189">
         <v>47606</v>
       </c>
-      <c r="P286" s="188">
+      <c r="P286" s="189">
         <v>47606</v>
       </c>
-      <c r="S286" s="188">
+      <c r="S286" s="189">
         <v>0</v>
       </c>
       <c r="AD286" s="193">
@@ -17047,7 +17088,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="186" t="s">
+      <c r="A288" s="187" t="s">
         <v>437</v>
       </c>
     </row>
@@ -17081,16 +17122,16 @@
       <c r="U290" s="179"/>
     </row>
     <row r="291">
-      <c r="C291" s="186" t="s">
+      <c r="C291" s="187" t="s">
         <v>438</v>
       </c>
-      <c r="M291" s="188">
+      <c r="M291" s="189">
         <v>46500</v>
       </c>
-      <c r="P291" s="188">
+      <c r="P291" s="189">
         <v>46500</v>
       </c>
-      <c r="S291" s="188">
+      <c r="S291" s="189">
         <v>0</v>
       </c>
       <c r="AD291" s="193">
@@ -17112,7 +17153,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="186" t="s">
+      <c r="A293" s="187" t="s">
         <v>439</v>
       </c>
     </row>
@@ -17146,16 +17187,16 @@
       <c r="U295" s="179"/>
     </row>
     <row r="296">
-      <c r="C296" s="186" t="s">
+      <c r="C296" s="187" t="s">
         <v>440</v>
       </c>
-      <c r="M296" s="188">
+      <c r="M296" s="189">
         <v>7057650</v>
       </c>
-      <c r="P296" s="188">
+      <c r="P296" s="189">
         <v>7057650</v>
       </c>
-      <c r="S296" s="188">
+      <c r="S296" s="189">
         <v>0</v>
       </c>
       <c r="AD296" s="193">
@@ -17177,7 +17218,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="186" t="s">
+      <c r="A298" s="187" t="s">
         <v>441</v>
       </c>
     </row>
@@ -17211,16 +17252,16 @@
       <c r="U300" s="179"/>
     </row>
     <row r="301">
-      <c r="C301" s="186" t="s">
+      <c r="C301" s="187" t="s">
         <v>442</v>
       </c>
-      <c r="M301" s="188">
+      <c r="M301" s="189">
         <v>66775</v>
       </c>
-      <c r="P301" s="188">
+      <c r="P301" s="189">
         <v>66775</v>
       </c>
-      <c r="S301" s="188">
+      <c r="S301" s="189">
         <v>0</v>
       </c>
       <c r="AD301" s="193">
@@ -17242,7 +17283,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="186" t="s">
+      <c r="A303" s="187" t="s">
         <v>443</v>
       </c>
     </row>
@@ -17276,16 +17317,16 @@
       <c r="U305" s="179"/>
     </row>
     <row r="306">
-      <c r="C306" s="186" t="s">
+      <c r="C306" s="187" t="s">
         <v>444</v>
       </c>
-      <c r="M306" s="188">
+      <c r="M306" s="189">
         <v>45000</v>
       </c>
-      <c r="P306" s="188">
+      <c r="P306" s="189">
         <v>45000</v>
       </c>
-      <c r="S306" s="188">
+      <c r="S306" s="189">
         <v>0</v>
       </c>
       <c r="AD306" s="193">
@@ -17307,7 +17348,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="186" t="s">
+      <c r="A308" s="187" t="s">
         <v>445</v>
       </c>
     </row>
@@ -17359,16 +17400,16 @@
       <c r="U311" s="179"/>
     </row>
     <row r="312">
-      <c r="C312" s="186" t="s">
+      <c r="C312" s="187" t="s">
         <v>446</v>
       </c>
-      <c r="M312" s="188">
+      <c r="M312" s="189">
         <v>913771.28</v>
       </c>
-      <c r="P312" s="188">
+      <c r="P312" s="189">
         <v>913771.28</v>
       </c>
-      <c r="S312" s="188">
+      <c r="S312" s="189">
         <v>0</v>
       </c>
       <c r="AD312" s="193">
@@ -17390,7 +17431,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="186" t="s">
+      <c r="A314" s="187" t="s">
         <v>447</v>
       </c>
     </row>
@@ -17424,16 +17465,16 @@
       <c r="U316" s="179"/>
     </row>
     <row r="317">
-      <c r="C317" s="186" t="s">
+      <c r="C317" s="187" t="s">
         <v>448</v>
       </c>
-      <c r="M317" s="188">
+      <c r="M317" s="189">
         <v>343153.69</v>
       </c>
-      <c r="P317" s="188">
+      <c r="P317" s="189">
         <v>343153.69</v>
       </c>
-      <c r="S317" s="188">
+      <c r="S317" s="189">
         <v>0</v>
       </c>
       <c r="AD317" s="193">
@@ -17455,7 +17496,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="186" t="s">
+      <c r="A319" s="187" t="s">
         <v>449</v>
       </c>
     </row>
@@ -17489,16 +17530,16 @@
       <c r="U321" s="179"/>
     </row>
     <row r="322">
-      <c r="C322" s="186" t="s">
+      <c r="C322" s="187" t="s">
         <v>450</v>
       </c>
-      <c r="M322" s="188">
+      <c r="M322" s="189">
         <v>1100</v>
       </c>
-      <c r="P322" s="188">
+      <c r="P322" s="189">
         <v>1100</v>
       </c>
-      <c r="S322" s="188">
+      <c r="S322" s="189">
         <v>0</v>
       </c>
       <c r="AD322" s="193">
@@ -17520,7 +17561,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="186" t="s">
+      <c r="A324" s="187" t="s">
         <v>451</v>
       </c>
     </row>
@@ -17554,16 +17595,16 @@
       <c r="U326" s="179"/>
     </row>
     <row r="327">
-      <c r="C327" s="186" t="s">
+      <c r="C327" s="187" t="s">
         <v>453</v>
       </c>
-      <c r="M327" s="188">
+      <c r="M327" s="189">
         <v>152050</v>
       </c>
-      <c r="P327" s="188">
+      <c r="P327" s="189">
         <v>152050</v>
       </c>
-      <c r="S327" s="188">
+      <c r="S327" s="189">
         <v>0</v>
       </c>
       <c r="AD327" s="193">
@@ -17585,7 +17626,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="186" t="s">
+      <c r="A329" s="187" t="s">
         <v>454</v>
       </c>
     </row>
@@ -17637,16 +17678,16 @@
       <c r="U332" s="179"/>
     </row>
     <row r="333">
-      <c r="C333" s="186" t="s">
+      <c r="C333" s="187" t="s">
         <v>455</v>
       </c>
-      <c r="M333" s="188">
+      <c r="M333" s="189">
         <v>9171.19</v>
       </c>
-      <c r="P333" s="188">
+      <c r="P333" s="189">
         <v>9171.19</v>
       </c>
-      <c r="S333" s="188">
+      <c r="S333" s="189">
         <v>0</v>
       </c>
       <c r="AD333" s="193">
@@ -17668,7 +17709,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="186" t="s">
+      <c r="A335" s="187" t="s">
         <v>456</v>
       </c>
     </row>
@@ -17702,16 +17743,16 @@
       <c r="U337" s="179"/>
     </row>
     <row r="338">
-      <c r="C338" s="186" t="s">
+      <c r="C338" s="187" t="s">
         <v>457</v>
       </c>
-      <c r="M338" s="188">
+      <c r="M338" s="189">
         <v>48212.35</v>
       </c>
-      <c r="P338" s="188">
+      <c r="P338" s="189">
         <v>48212.35</v>
       </c>
-      <c r="S338" s="188">
+      <c r="S338" s="189">
         <v>0</v>
       </c>
       <c r="AD338" s="193">
@@ -17733,7 +17774,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="186" t="s">
+      <c r="A340" s="187" t="s">
         <v>459</v>
       </c>
     </row>
@@ -17767,16 +17808,16 @@
       <c r="U342" s="179"/>
     </row>
     <row r="343">
-      <c r="C343" s="186" t="s">
+      <c r="C343" s="187" t="s">
         <v>460</v>
       </c>
-      <c r="M343" s="188">
+      <c r="M343" s="189">
         <v>203220</v>
       </c>
-      <c r="P343" s="188">
+      <c r="P343" s="189">
         <v>203220</v>
       </c>
-      <c r="S343" s="188">
+      <c r="S343" s="189">
         <v>0</v>
       </c>
       <c r="AD343" s="193">
@@ -17798,7 +17839,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="186" t="s">
+      <c r="A345" s="187" t="s">
         <v>462</v>
       </c>
     </row>
@@ -17832,16 +17873,16 @@
       <c r="U347" s="179"/>
     </row>
     <row r="348">
-      <c r="C348" s="186" t="s">
+      <c r="C348" s="187" t="s">
         <v>463</v>
       </c>
-      <c r="M348" s="188">
+      <c r="M348" s="189">
         <v>144700</v>
       </c>
-      <c r="P348" s="188">
+      <c r="P348" s="189">
         <v>144700</v>
       </c>
-      <c r="S348" s="188">
+      <c r="S348" s="189">
         <v>0</v>
       </c>
       <c r="AD348" s="193">
@@ -17863,7 +17904,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="186" t="s">
+      <c r="A350" s="187" t="s">
         <v>465</v>
       </c>
     </row>
@@ -17897,16 +17938,16 @@
       <c r="U352" s="179"/>
     </row>
     <row r="353">
-      <c r="C353" s="186" t="s">
+      <c r="C353" s="187" t="s">
         <v>466</v>
       </c>
-      <c r="M353" s="188">
+      <c r="M353" s="189">
         <v>2819.48</v>
       </c>
-      <c r="P353" s="188">
+      <c r="P353" s="189">
         <v>2819.48</v>
       </c>
-      <c r="S353" s="188">
+      <c r="S353" s="189">
         <v>0</v>
       </c>
       <c r="AD353" s="193">
@@ -17928,7 +17969,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="186" t="s">
+      <c r="A355" s="187" t="s">
         <v>467</v>
       </c>
     </row>
@@ -17962,16 +18003,16 @@
       <c r="U357" s="179"/>
     </row>
     <row r="358">
-      <c r="C358" s="186" t="s">
+      <c r="C358" s="187" t="s">
         <v>468</v>
       </c>
-      <c r="M358" s="188">
+      <c r="M358" s="189">
         <v>228</v>
       </c>
-      <c r="P358" s="188">
+      <c r="P358" s="189">
         <v>228</v>
       </c>
-      <c r="S358" s="188">
+      <c r="S358" s="189">
         <v>0</v>
       </c>
       <c r="AD358" s="193">
@@ -17993,7 +18034,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="186" t="s">
+      <c r="A360" s="187" t="s">
         <v>469</v>
       </c>
     </row>
@@ -18063,16 +18104,16 @@
       <c r="U364" s="179"/>
     </row>
     <row r="365">
-      <c r="C365" s="186" t="s">
+      <c r="C365" s="187" t="s">
         <v>470</v>
       </c>
-      <c r="M365" s="188">
+      <c r="M365" s="189">
         <v>1174297.92</v>
       </c>
-      <c r="P365" s="188">
+      <c r="P365" s="189">
         <v>1174297.92</v>
       </c>
-      <c r="S365" s="188">
+      <c r="S365" s="189">
         <v>0</v>
       </c>
       <c r="AD365" s="193">
@@ -18094,7 +18135,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="186" t="s">
+      <c r="A367" s="187" t="s">
         <v>472</v>
       </c>
     </row>
@@ -18146,16 +18187,16 @@
       <c r="U370" s="179"/>
     </row>
     <row r="371">
-      <c r="C371" s="186" t="s">
+      <c r="C371" s="187" t="s">
         <v>473</v>
       </c>
-      <c r="M371" s="188">
+      <c r="M371" s="189">
         <v>244386</v>
       </c>
-      <c r="P371" s="188">
+      <c r="P371" s="189">
         <v>244386</v>
       </c>
-      <c r="S371" s="188">
+      <c r="S371" s="189">
         <v>0</v>
       </c>
       <c r="AD371" s="193">
@@ -18177,7 +18218,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="186" t="s">
+      <c r="A373" s="187" t="s">
         <v>475</v>
       </c>
     </row>
@@ -18229,16 +18270,16 @@
       <c r="U376" s="179"/>
     </row>
     <row r="377">
-      <c r="C377" s="186" t="s">
+      <c r="C377" s="187" t="s">
         <v>476</v>
       </c>
-      <c r="M377" s="188">
+      <c r="M377" s="189">
         <v>2452487</v>
       </c>
-      <c r="P377" s="188">
+      <c r="P377" s="189">
         <v>2452487</v>
       </c>
-      <c r="S377" s="188">
+      <c r="S377" s="189">
         <v>0</v>
       </c>
       <c r="AD377" s="193">
@@ -18260,7 +18301,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="186" t="s">
+      <c r="A379" s="187" t="s">
         <v>477</v>
       </c>
     </row>
@@ -18294,16 +18335,16 @@
       <c r="U381" s="179"/>
     </row>
     <row r="382">
-      <c r="C382" s="186" t="s">
+      <c r="C382" s="187" t="s">
         <v>478</v>
       </c>
-      <c r="M382" s="188">
+      <c r="M382" s="189">
         <v>70200</v>
       </c>
-      <c r="P382" s="188">
+      <c r="P382" s="189">
         <v>70200</v>
       </c>
-      <c r="S382" s="188">
+      <c r="S382" s="189">
         <v>0</v>
       </c>
       <c r="AD382" s="193">
@@ -18325,7 +18366,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="186" t="s">
+      <c r="A384" s="187" t="s">
         <v>479</v>
       </c>
     </row>
@@ -18377,16 +18418,16 @@
       <c r="U387" s="179"/>
     </row>
     <row r="388">
-      <c r="C388" s="186" t="s">
+      <c r="C388" s="187" t="s">
         <v>481</v>
       </c>
-      <c r="M388" s="188">
+      <c r="M388" s="189">
         <v>908980.51</v>
       </c>
-      <c r="P388" s="188">
+      <c r="P388" s="189">
         <v>908980.51</v>
       </c>
-      <c r="S388" s="188">
+      <c r="S388" s="189">
         <v>0</v>
       </c>
       <c r="AD388" s="193">
@@ -18408,7 +18449,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="186" t="s">
+      <c r="A390" s="187" t="s">
         <v>482</v>
       </c>
     </row>
@@ -18442,16 +18483,16 @@
       <c r="U392" s="179"/>
     </row>
     <row r="393">
-      <c r="C393" s="186" t="s">
+      <c r="C393" s="187" t="s">
         <v>483</v>
       </c>
-      <c r="M393" s="188">
+      <c r="M393" s="189">
         <v>18000</v>
       </c>
-      <c r="P393" s="188">
+      <c r="P393" s="189">
         <v>18000</v>
       </c>
-      <c r="S393" s="188">
+      <c r="S393" s="189">
         <v>0</v>
       </c>
       <c r="AD393" s="193">
@@ -18473,7 +18514,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="186" t="s">
+      <c r="A395" s="187" t="s">
         <v>484</v>
       </c>
     </row>
@@ -18507,16 +18548,16 @@
       <c r="U397" s="179"/>
     </row>
     <row r="398">
-      <c r="C398" s="186" t="s">
+      <c r="C398" s="187" t="s">
         <v>485</v>
       </c>
-      <c r="M398" s="188">
+      <c r="M398" s="189">
         <v>1000000</v>
       </c>
-      <c r="P398" s="188">
+      <c r="P398" s="189">
         <v>1000000</v>
       </c>
-      <c r="S398" s="188">
+      <c r="S398" s="189">
         <v>0</v>
       </c>
       <c r="AD398" s="193">
@@ -18538,7 +18579,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="186" t="s">
+      <c r="A400" s="187" t="s">
         <v>486</v>
       </c>
     </row>
@@ -18590,16 +18631,16 @@
       <c r="U403" s="179"/>
     </row>
     <row r="404">
-      <c r="C404" s="186" t="s">
+      <c r="C404" s="187" t="s">
         <v>487</v>
       </c>
-      <c r="M404" s="188">
+      <c r="M404" s="189">
         <v>252500</v>
       </c>
-      <c r="P404" s="188">
+      <c r="P404" s="189">
         <v>252500</v>
       </c>
-      <c r="S404" s="188">
+      <c r="S404" s="189">
         <v>0</v>
       </c>
       <c r="AD404" s="193">
@@ -18621,7 +18662,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="186" t="s">
+      <c r="A406" s="187" t="s">
         <v>488</v>
       </c>
     </row>
@@ -18655,16 +18696,16 @@
       <c r="U408" s="179"/>
     </row>
     <row r="409">
-      <c r="C409" s="186" t="s">
+      <c r="C409" s="187" t="s">
         <v>489</v>
       </c>
-      <c r="M409" s="188">
+      <c r="M409" s="189">
         <v>150000</v>
       </c>
-      <c r="P409" s="188">
+      <c r="P409" s="189">
         <v>150000</v>
       </c>
-      <c r="S409" s="188">
+      <c r="S409" s="189">
         <v>0</v>
       </c>
       <c r="AD409" s="193">
@@ -18686,7 +18727,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="186" t="s">
+      <c r="A411" s="187" t="s">
         <v>490</v>
       </c>
     </row>
@@ -18738,16 +18779,16 @@
       <c r="U414" s="179"/>
     </row>
     <row r="415">
-      <c r="C415" s="186" t="s">
+      <c r="C415" s="187" t="s">
         <v>491</v>
       </c>
-      <c r="M415" s="188">
+      <c r="M415" s="189">
         <v>2530000</v>
       </c>
-      <c r="P415" s="188">
+      <c r="P415" s="189">
         <v>2530000</v>
       </c>
-      <c r="S415" s="188">
+      <c r="S415" s="189">
         <v>0</v>
       </c>
       <c r="AD415" s="193">
@@ -18769,7 +18810,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="186" t="s">
+      <c r="A417" s="187" t="s">
         <v>492</v>
       </c>
     </row>
@@ -18803,16 +18844,16 @@
       <c r="U419" s="179"/>
     </row>
     <row r="420">
-      <c r="C420" s="186" t="s">
+      <c r="C420" s="187" t="s">
         <v>493</v>
       </c>
-      <c r="M420" s="188">
+      <c r="M420" s="189">
         <v>3500000</v>
       </c>
-      <c r="P420" s="188">
+      <c r="P420" s="189">
         <v>3500000</v>
       </c>
-      <c r="S420" s="188">
+      <c r="S420" s="189">
         <v>0</v>
       </c>
       <c r="AD420" s="193">
@@ -18834,7 +18875,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="186" t="s">
+      <c r="A422" s="187" t="s">
         <v>494</v>
       </c>
     </row>
@@ -18868,16 +18909,16 @@
       <c r="U424" s="179"/>
     </row>
     <row r="425">
-      <c r="C425" s="186" t="s">
+      <c r="C425" s="187" t="s">
         <v>495</v>
       </c>
-      <c r="M425" s="188">
+      <c r="M425" s="189">
         <v>35400</v>
       </c>
-      <c r="P425" s="188">
+      <c r="P425" s="189">
         <v>35400</v>
       </c>
-      <c r="S425" s="188">
+      <c r="S425" s="189">
         <v>0</v>
       </c>
       <c r="AD425" s="193">
@@ -18899,7 +18940,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="186" t="s">
+      <c r="A427" s="187" t="s">
         <v>496</v>
       </c>
     </row>
@@ -18933,16 +18974,16 @@
       <c r="U429" s="179"/>
     </row>
     <row r="430">
-      <c r="C430" s="186" t="s">
+      <c r="C430" s="187" t="s">
         <v>497</v>
       </c>
-      <c r="M430" s="188">
+      <c r="M430" s="189">
         <v>187899.33</v>
       </c>
-      <c r="P430" s="188">
+      <c r="P430" s="189">
         <v>187899.33</v>
       </c>
-      <c r="S430" s="188">
+      <c r="S430" s="189">
         <v>0</v>
       </c>
       <c r="AD430" s="193">
@@ -18969,7 +19010,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="186" t="s">
+      <c r="A433" s="187" t="s">
         <v>500</v>
       </c>
     </row>
@@ -18997,22 +19038,22 @@
       <c r="U434" s="180"/>
     </row>
     <row r="435">
-      <c r="C435" s="186" t="s">
+      <c r="C435" s="187" t="s">
         <v>502</v>
       </c>
-      <c r="M435" s="188">
+      <c r="M435" s="189">
         <v>39441996.76</v>
       </c>
-      <c r="P435" s="188"/>
-      <c r="Q435" s="187"/>
-      <c r="R435" s="187"/>
-      <c r="S435" s="188">
+      <c r="P435" s="189"/>
+      <c r="Q435" s="188"/>
+      <c r="R435" s="188"/>
+      <c r="S435" s="189">
         <v>39441996.76</v>
       </c>
-      <c r="T435" s="189">
-        <v>0</v>
-      </c>
-      <c r="U435" s="188"/>
+      <c r="T435" s="190">
+        <v>0</v>
+      </c>
+      <c r="U435" s="189"/>
     </row>
     <row r="436">
       <c r="A436" s="13" t="s">
@@ -19020,7 +19061,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="186" t="s">
+      <c r="A437" s="187" t="s">
         <v>503</v>
       </c>
     </row>
@@ -19048,22 +19089,22 @@
       <c r="U438" s="180"/>
     </row>
     <row r="439">
-      <c r="C439" s="186" t="s">
+      <c r="C439" s="187" t="s">
         <v>504</v>
       </c>
-      <c r="M439" s="188">
+      <c r="M439" s="189">
         <v>29753081.88</v>
       </c>
-      <c r="P439" s="188"/>
-      <c r="Q439" s="187"/>
-      <c r="R439" s="187"/>
-      <c r="S439" s="188">
+      <c r="P439" s="189"/>
+      <c r="Q439" s="188"/>
+      <c r="R439" s="188"/>
+      <c r="S439" s="189">
         <v>29753081.88</v>
       </c>
-      <c r="T439" s="189">
-        <v>0</v>
-      </c>
-      <c r="U439" s="188"/>
+      <c r="T439" s="190">
+        <v>0</v>
+      </c>
+      <c r="U439" s="189"/>
     </row>
     <row r="440">
       <c r="A440" s="13" t="s">
@@ -19071,7 +19112,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="186" t="s">
+      <c r="A441" s="187" t="s">
         <v>505</v>
       </c>
     </row>
@@ -19099,42 +19140,42 @@
       <c r="U442" s="180"/>
     </row>
     <row r="443">
-      <c r="C443" s="186" t="s">
+      <c r="C443" s="187" t="s">
         <v>506</v>
       </c>
-      <c r="M443" s="188">
+      <c r="M443" s="189">
         <v>500000</v>
       </c>
-      <c r="P443" s="188"/>
-      <c r="Q443" s="187"/>
-      <c r="R443" s="187"/>
-      <c r="S443" s="188">
+      <c r="P443" s="189"/>
+      <c r="Q443" s="188"/>
+      <c r="R443" s="188"/>
+      <c r="S443" s="189">
         <v>500000</v>
       </c>
-      <c r="T443" s="189">
-        <v>0</v>
-      </c>
-      <c r="U443" s="188"/>
+      <c r="T443" s="190">
+        <v>0</v>
+      </c>
+      <c r="U443" s="189"/>
     </row>
     <row r="444">
-      <c r="J444" s="190" t="s">
+      <c r="J444" s="191" t="s">
         <v>507</v>
       </c>
-      <c r="M444" s="187">
+      <c r="M444" s="188">
         <v>69695078.64</v>
       </c>
-      <c r="P444" s="188">
+      <c r="P444" s="189">
         <v>69695078.64</v>
       </c>
-      <c r="Q444" s="187"/>
-      <c r="R444" s="187"/>
-      <c r="S444" s="188">
+      <c r="Q444" s="188"/>
+      <c r="R444" s="188"/>
+      <c r="S444" s="189">
         <v>69695078.64</v>
       </c>
-      <c r="T444" s="189">
-        <v>0</v>
-      </c>
-      <c r="U444" s="188">
+      <c r="T444" s="190">
+        <v>0</v>
+      </c>
+      <c r="U444" s="189">
         <v>0</v>
       </c>
     </row>
@@ -19149,7 +19190,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="186" t="s">
+      <c r="A448" s="187" t="s">
         <v>509</v>
       </c>
     </row>
@@ -19183,16 +19224,16 @@
       <c r="U450" s="179"/>
     </row>
     <row r="451">
-      <c r="C451" s="186" t="s">
+      <c r="C451" s="187" t="s">
         <v>512</v>
       </c>
-      <c r="M451" s="188">
+      <c r="M451" s="189">
         <v>343737.85</v>
       </c>
-      <c r="P451" s="188">
+      <c r="P451" s="189">
         <v>343737.85</v>
       </c>
-      <c r="S451" s="188">
+      <c r="S451" s="189">
         <v>0</v>
       </c>
       <c r="AD451" s="193">
@@ -19214,7 +19255,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="186" t="s">
+      <c r="A453" s="187" t="s">
         <v>513</v>
       </c>
     </row>
@@ -19272,16 +19313,16 @@
       <c r="U456" s="179"/>
     </row>
     <row r="457">
-      <c r="C457" s="186" t="s">
+      <c r="C457" s="187" t="s">
         <v>515</v>
       </c>
-      <c r="M457" s="188">
+      <c r="M457" s="189">
         <v>3003522.49</v>
       </c>
-      <c r="P457" s="188">
+      <c r="P457" s="189">
         <v>3003522.49</v>
       </c>
-      <c r="S457" s="188">
+      <c r="S457" s="189">
         <v>0</v>
       </c>
       <c r="AD457" s="193">
@@ -19308,7 +19349,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="186" t="s">
+      <c r="A460" s="187" t="s">
         <v>517</v>
       </c>
     </row>
@@ -19380,7 +19421,7 @@
       <c r="M464" s="180">
         <v>50000</v>
       </c>
-      <c r="N464" s="191">
+      <c r="N464" s="195">
         <v>2000</v>
       </c>
       <c r="P464" s="180">
@@ -19431,42 +19472,42 @@
       <c r="U466" s="180"/>
     </row>
     <row r="467">
-      <c r="C467" s="186" t="s">
+      <c r="C467" s="187" t="s">
         <v>519</v>
       </c>
-      <c r="M467" s="188">
+      <c r="M467" s="189">
         <v>50000</v>
       </c>
-      <c r="P467" s="188"/>
-      <c r="Q467" s="187"/>
-      <c r="R467" s="187"/>
-      <c r="S467" s="188">
+      <c r="P467" s="189"/>
+      <c r="Q467" s="188"/>
+      <c r="R467" s="188"/>
+      <c r="S467" s="189">
         <v>50000</v>
       </c>
-      <c r="T467" s="189">
-        <v>0</v>
-      </c>
-      <c r="U467" s="188"/>
+      <c r="T467" s="190">
+        <v>0</v>
+      </c>
+      <c r="U467" s="189"/>
     </row>
     <row r="468">
-      <c r="J468" s="190" t="s">
+      <c r="J468" s="191" t="s">
         <v>520</v>
       </c>
-      <c r="M468" s="187">
+      <c r="M468" s="188">
         <v>50000</v>
       </c>
-      <c r="P468" s="188">
+      <c r="P468" s="189">
         <v>50000</v>
       </c>
-      <c r="Q468" s="187"/>
-      <c r="R468" s="187"/>
-      <c r="S468" s="188">
+      <c r="Q468" s="188"/>
+      <c r="R468" s="188"/>
+      <c r="S468" s="189">
         <v>50000</v>
       </c>
-      <c r="T468" s="189">
-        <v>0</v>
-      </c>
-      <c r="U468" s="188">
+      <c r="T468" s="190">
+        <v>0</v>
+      </c>
+      <c r="U468" s="189">
         <v>0</v>
       </c>
     </row>
@@ -19481,7 +19522,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="186" t="s">
+      <c r="A472" s="187" t="s">
         <v>522</v>
       </c>
     </row>
@@ -19500,7 +19541,7 @@
       <c r="M474" s="180">
         <v>50000</v>
       </c>
-      <c r="N474" s="191">
+      <c r="N474" s="195">
         <v>1000</v>
       </c>
       <c r="P474" s="180">
@@ -19559,16 +19600,16 @@
       <c r="U476" s="179"/>
     </row>
     <row r="477">
-      <c r="C477" s="186" t="s">
+      <c r="C477" s="187" t="s">
         <v>524</v>
       </c>
-      <c r="M477" s="188">
+      <c r="M477" s="189">
         <v>50000</v>
       </c>
-      <c r="P477" s="188">
+      <c r="P477" s="189">
         <v>50000</v>
       </c>
-      <c r="S477" s="188">
+      <c r="S477" s="189">
         <v>0</v>
       </c>
       <c r="AD477" s="193">
@@ -19585,259 +19626,259 @@
       </c>
     </row>
     <row r="479">
-      <c r="B479" s="195" t="s">
+      <c r="B479" s="196" t="s">
         <v>321</v>
       </c>
-      <c r="M479" s="188">
+      <c r="M479" s="189">
         <v>27199000</v>
       </c>
-      <c r="P479" s="188">
+      <c r="P479" s="189">
         <v>27199000</v>
       </c>
-      <c r="Q479" s="188">
-        <v>0</v>
-      </c>
-      <c r="R479" s="188">
-        <v>0</v>
-      </c>
-      <c r="S479" s="188">
-        <v>27199000</v>
-      </c>
-      <c r="T479" s="189">
-        <v>0</v>
-      </c>
-      <c r="U479" s="188">
+      <c r="Q479" s="189">
+        <v>8721650.08</v>
+      </c>
+      <c r="R479" s="189">
+        <v>8721650.08</v>
+      </c>
+      <c r="S479" s="189">
+        <v>18477349.92</v>
+      </c>
+      <c r="T479" s="190">
+        <v>0</v>
+      </c>
+      <c r="U479" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="480">
-      <c r="B480" s="195" t="s">
+      <c r="B480" s="196" t="s">
         <v>357</v>
       </c>
-      <c r="M480" s="188">
+      <c r="M480" s="189">
         <v>251295500</v>
       </c>
-      <c r="P480" s="188">
+      <c r="P480" s="189">
         <v>251295500</v>
       </c>
-      <c r="Q480" s="188">
-        <v>0</v>
-      </c>
-      <c r="R480" s="188">
-        <v>10000</v>
-      </c>
-      <c r="S480" s="188">
-        <v>251285500</v>
-      </c>
-      <c r="T480" s="189">
-        <v>0</v>
-      </c>
-      <c r="U480" s="188">
+      <c r="Q480" s="189">
+        <v>0</v>
+      </c>
+      <c r="R480" s="189">
+        <v>0</v>
+      </c>
+      <c r="S480" s="189">
+        <v>251295500</v>
+      </c>
+      <c r="T480" s="190">
+        <v>0</v>
+      </c>
+      <c r="U480" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="481">
-      <c r="B481" s="195" t="s">
+      <c r="B481" s="196" t="s">
         <v>394</v>
       </c>
-      <c r="M481" s="188">
+      <c r="M481" s="189">
         <v>77934764.399999991</v>
       </c>
-      <c r="P481" s="188">
+      <c r="P481" s="189">
         <v>77934764.399999991</v>
       </c>
-      <c r="Q481" s="188">
-        <v>0</v>
-      </c>
-      <c r="R481" s="188">
-        <v>0</v>
-      </c>
-      <c r="S481" s="188">
+      <c r="Q481" s="189">
+        <v>0</v>
+      </c>
+      <c r="R481" s="189">
+        <v>0</v>
+      </c>
+      <c r="S481" s="189">
         <v>77934764.399999991</v>
       </c>
-      <c r="T481" s="189">
-        <v>0</v>
-      </c>
-      <c r="U481" s="188">
+      <c r="T481" s="190">
+        <v>0</v>
+      </c>
+      <c r="U481" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="482">
-      <c r="B482" s="195" t="s">
+      <c r="B482" s="196" t="s">
         <v>507</v>
       </c>
-      <c r="M482" s="188">
+      <c r="M482" s="189">
         <v>69695078.64</v>
       </c>
-      <c r="P482" s="188">
+      <c r="P482" s="189">
         <v>69695078.64</v>
       </c>
-      <c r="Q482" s="188">
-        <v>0</v>
-      </c>
-      <c r="R482" s="188">
-        <v>0</v>
-      </c>
-      <c r="S482" s="188">
+      <c r="Q482" s="189">
+        <v>0</v>
+      </c>
+      <c r="R482" s="189">
+        <v>0</v>
+      </c>
+      <c r="S482" s="189">
         <v>69695078.64</v>
       </c>
-      <c r="T482" s="189">
-        <v>0</v>
-      </c>
-      <c r="U482" s="188">
+      <c r="T482" s="190">
+        <v>0</v>
+      </c>
+      <c r="U482" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="483">
-      <c r="B483" s="195" t="s">
+      <c r="B483" s="196" t="s">
         <v>520</v>
       </c>
-      <c r="M483" s="188">
+      <c r="M483" s="189">
         <v>50000</v>
       </c>
-      <c r="P483" s="188">
+      <c r="P483" s="189">
         <v>50000</v>
       </c>
-      <c r="Q483" s="188">
-        <v>0</v>
-      </c>
-      <c r="R483" s="188">
-        <v>0</v>
-      </c>
-      <c r="S483" s="188">
+      <c r="Q483" s="189">
+        <v>0</v>
+      </c>
+      <c r="R483" s="189">
+        <v>0</v>
+      </c>
+      <c r="S483" s="189">
         <v>50000</v>
       </c>
-      <c r="T483" s="189">
-        <v>0</v>
-      </c>
-      <c r="U483" s="188">
+      <c r="T483" s="190">
+        <v>0</v>
+      </c>
+      <c r="U483" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="484">
-      <c r="B484" s="195" t="s">
+      <c r="B484" s="196" t="s">
         <v>525</v>
       </c>
-      <c r="M484" s="188">
+      <c r="M484" s="189">
         <v>1000000</v>
       </c>
-      <c r="P484" s="188">
+      <c r="P484" s="189">
         <v>1000000</v>
       </c>
-      <c r="Q484" s="188">
-        <v>0</v>
-      </c>
-      <c r="R484" s="188">
-        <v>0</v>
-      </c>
-      <c r="S484" s="188">
+      <c r="Q484" s="189">
+        <v>0</v>
+      </c>
+      <c r="R484" s="189">
+        <v>0</v>
+      </c>
+      <c r="S484" s="189">
         <v>1000000</v>
       </c>
-      <c r="T484" s="188" t="s">
+      <c r="T484" s="189" t="s">
         <v>526</v>
       </c>
-      <c r="U484" s="188">
+      <c r="U484" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="485">
-      <c r="B485" s="195" t="s">
+      <c r="B485" s="196" t="s">
         <v>527</v>
       </c>
-      <c r="M485" s="188">
+      <c r="M485" s="189">
         <v>25059224.689999998</v>
       </c>
-      <c r="P485" s="188">
+      <c r="P485" s="189">
         <v>25059224.689999998</v>
       </c>
-      <c r="Q485" s="188">
-        <v>0</v>
-      </c>
-      <c r="R485" s="188">
-        <v>0</v>
-      </c>
-      <c r="S485" s="188">
+      <c r="Q485" s="189">
+        <v>0</v>
+      </c>
+      <c r="R485" s="189">
+        <v>0</v>
+      </c>
+      <c r="S485" s="189">
         <v>25059224.689999998</v>
       </c>
-      <c r="T485" s="188" t="s">
+      <c r="T485" s="189" t="s">
         <v>526</v>
       </c>
-      <c r="U485" s="188">
+      <c r="U485" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="486">
-      <c r="B486" s="195" t="s">
+      <c r="B486" s="196" t="s">
         <v>528</v>
       </c>
-      <c r="M486" s="188">
+      <c r="M486" s="189">
         <v>28406485.03</v>
       </c>
-      <c r="P486" s="188">
+      <c r="P486" s="189">
         <v>28406485.03</v>
       </c>
-      <c r="Q486" s="188">
-        <v>0</v>
-      </c>
-      <c r="R486" s="188">
-        <v>0</v>
-      </c>
-      <c r="S486" s="188">
+      <c r="Q486" s="189">
+        <v>0</v>
+      </c>
+      <c r="R486" s="189">
+        <v>0</v>
+      </c>
+      <c r="S486" s="189">
         <v>28406485.03</v>
       </c>
-      <c r="T486" s="188" t="s">
+      <c r="T486" s="189" t="s">
         <v>526</v>
       </c>
-      <c r="U486" s="188">
+      <c r="U486" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="487">
-      <c r="B487" s="195" t="s">
+      <c r="B487" s="196" t="s">
         <v>529</v>
       </c>
-      <c r="M487" s="188">
+      <c r="M487" s="189">
         <v>28456485.03</v>
       </c>
-      <c r="P487" s="188">
+      <c r="P487" s="189">
         <v>28456485.03</v>
       </c>
-      <c r="Q487" s="188">
-        <v>0</v>
-      </c>
-      <c r="R487" s="188">
-        <v>0</v>
-      </c>
-      <c r="S487" s="188">
+      <c r="Q487" s="189">
+        <v>0</v>
+      </c>
+      <c r="R487" s="189">
+        <v>0</v>
+      </c>
+      <c r="S487" s="189">
         <v>28456485.03</v>
       </c>
-      <c r="T487" s="188" t="s">
+      <c r="T487" s="189" t="s">
         <v>526</v>
       </c>
-      <c r="U487" s="188">
+      <c r="U487" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="196" t="s">
+      <c r="A489" s="197" t="s">
         <v>200</v>
       </c>
-      <c r="M489" s="188">
+      <c r="M489" s="189">
         <v>509096537.78999996</v>
       </c>
-      <c r="P489" s="188">
+      <c r="P489" s="189">
         <v>509096537.78999996</v>
       </c>
-      <c r="Q489" s="188">
-        <v>0</v>
-      </c>
-      <c r="R489" s="188">
-        <v>10000</v>
-      </c>
-      <c r="S489" s="188">
-        <v>0</v>
-      </c>
-      <c r="T489" s="188" t="s">
+      <c r="Q489" s="189">
+        <v>8721650.08</v>
+      </c>
+      <c r="R489" s="189">
+        <v>8721650.08</v>
+      </c>
+      <c r="S489" s="189">
+        <v>0</v>
+      </c>
+      <c r="T489" s="189" t="s">
         <v>526</v>
       </c>
     </row>
